--- a/SMP_PP.xlsx
+++ b/SMP_PP.xlsx
@@ -244,12 +244,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10617,6 +10618,52 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[3]Sheet1!$W$2:$W$12</c:f>
@@ -10661,42 +10708,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$V$2:$V$12</c:f>
+              <c:f>[3]Sheet1!$AV$2:$AV$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.6291731435100001</c:v>
+                  <c:v>-2.389488768044183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.340620989800001</c:v>
+                  <c:v>43.490396860164267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117.428809461</c:v>
+                  <c:v>100.38870592819272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211.39198917100001</c:v>
+                  <c:v>165.61159218104311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>322.25827423499999</c:v>
+                  <c:v>248.65181696704354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>439.31863220999998</c:v>
+                  <c:v>324.76867781279105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>564.49070134399994</c:v>
+                  <c:v>409.9766882292443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>693.66595967399996</c:v>
+                  <c:v>490.2560135850552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>825.37340951700003</c:v>
+                  <c:v>575.61410862042919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>952.10079920800001</c:v>
+                  <c:v>658.73873112344756</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1067.9011617799999</c:v>
+                  <c:v>735.49600308601498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10780,37 +10827,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.5367543047908683</c:v>
+                  <c:v>4.9407376402441345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.233846641980655</c:v>
+                  <c:v>23.461433992746706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.054644683155303</c:v>
+                  <c:v>59.358778974531958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153.04392549248914</c:v>
+                  <c:v>102.05813699427313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>216.30141375203556</c:v>
+                  <c:v>145.20779709901129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276.7662272318604</c:v>
+                  <c:v>192.76110898938148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335.99304433883293</c:v>
+                  <c:v>240.78955238472437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>387.77022729915041</c:v>
+                  <c:v>287.26530790183193</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>436.44063948510154</c:v>
+                  <c:v>332.65808639797717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>482.16665331349475</c:v>
+                  <c:v>377.21791787820126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>527.20861753939107</c:v>
+                  <c:v>422.23424148498833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10860,7 +10907,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0631991197172416E-2"/>
+                  <c:y val="-7.8983325704864868E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10943,40 +10995,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.5788356083789159</c:v>
+                  <c:v>5.5444978498435855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.47113104025055</c:v>
+                  <c:v>46.224854114863845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>298.58504961543895</c:v>
+                  <c:v>126.76682748339493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>457.6297049116676</c:v>
+                  <c:v>234.30606033128873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>625.73152809027681</c:v>
+                  <c:v>358.01323124016886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800.09674839340562</c:v>
+                  <c:v>489.61343605568806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>973.29151608676511</c:v>
+                  <c:v>625.04763091516816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1143.2832707697471</c:v>
+                  <c:v>771.82403445412274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1315.7121790432309</c:v>
+                  <c:v>916.37681754671155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1480.9942196787972</c:v>
+                  <c:v>1065.056549947245</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1641.7914188488087</c:v>
+                  <c:v>1206.0808891094987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1790.477966317826</c:v>
+                  <c:v>1349.0081908503812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11123,49 +11175,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.7326248057628262</c:v>
+                  <c:v>-2.7326248057628262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244.06878326098399</c:v>
+                  <c:v>13.842034741405179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>468.46450531721615</c:v>
+                  <c:v>116.5989132240631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>699.88439130877077</c:v>
+                  <c:v>278.60794219441141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1012.8903784107201</c:v>
+                  <c:v>420.33230659411947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1293.0589051772643</c:v>
+                  <c:v>630.09803258025659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1609.4806130322381</c:v>
+                  <c:v>821.17704967003374</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1899.4417742751648</c:v>
+                  <c:v>1054.9875793811993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2214.0615433048274</c:v>
+                  <c:v>1279.6208639530264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2533.1164682705698</c:v>
+                  <c:v>1506.2879608218079</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2832.8146951120802</c:v>
+                  <c:v>1746.5095874995588</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3123.1976804600758</c:v>
+                  <c:v>1991.2448905208023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3397.4357441385032</c:v>
+                  <c:v>2235.9289745626593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3674.18971570236</c:v>
+                  <c:v>2468.6907392855433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3888.0158232017729</c:v>
+                  <c:v>2718.3804562638197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11315,52 +11367,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.8123736417209924</c:v>
+                  <c:v>-2.8123736417209924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312.57977698592578</c:v>
+                  <c:v>-12.761873399492774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>631.43607056533256</c:v>
+                  <c:v>58.418094194311649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>954.48434790021724</c:v>
+                  <c:v>232.17794315847456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1361.613996750265</c:v>
+                  <c:v>395.71055798828775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1736.665317867195</c:v>
+                  <c:v>649.75783293082293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2199.5484339773825</c:v>
+                  <c:v>850.46509075200345</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2594.6146304197669</c:v>
+                  <c:v>1147.5971744057006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3029.7496729718791</c:v>
+                  <c:v>1422.1596803380614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3458.5804766175775</c:v>
+                  <c:v>1710.304636995822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3863.7386554286372</c:v>
+                  <c:v>2039.315557010543</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4286.6509712525449</c:v>
+                  <c:v>2355.2907860582136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4705.634698574866</c:v>
+                  <c:v>2669.0289576647324</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5118.2166794732557</c:v>
+                  <c:v>2979.3266459713805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5487.7978725360144</c:v>
+                  <c:v>3306.8431276104029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5844.1856671972755</c:v>
+                  <c:v>3634.4709085546438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11508,55 +11560,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.8586228383723888</c:v>
+                  <c:v>6.1460394527626097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>380.18022668388943</c:v>
+                  <c:v>-50.677085548587215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>781.59768357331279</c:v>
+                  <c:v>-12.00593491906338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1154.4996477895502</c:v>
+                  <c:v>187.28903186473093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1668.3094344424853</c:v>
+                  <c:v>338.09870948365665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2125.9856965978211</c:v>
+                  <c:v>616.97835253614357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2676.2669197956779</c:v>
+                  <c:v>856.26475549937834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3181.8226046222503</c:v>
+                  <c:v>1180.3622847200818</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3734.7545118710495</c:v>
+                  <c:v>1483.0723850199154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4283.4796749879733</c:v>
+                  <c:v>1813.2474038801342</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4799.4995055193758</c:v>
+                  <c:v>2191.8366881175111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5342.5526426574233</c:v>
+                  <c:v>2548.3361646415678</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5879.5281367664093</c:v>
+                  <c:v>2918.5922130417102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6404.4544367205526</c:v>
+                  <c:v>3296.803330559731</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6921.1775523284659</c:v>
+                  <c:v>3668.8693279836257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7398.5822309770529</c:v>
+                  <c:v>4075.2229728337429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7871.783976642947</c:v>
+                  <c:v>4457.3645546829293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16880,15 +16932,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>858982</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>159633</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>112698</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>409015</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>126552</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16911,16 +16963,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>249382</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>112698</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>832088</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>126552</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17039,16 +17091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>443346</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>159633</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>112698</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>838506</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126553</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17112,7 +17164,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>9.5367543047908683</v>
+            <v>4.9407376402441345</v>
           </cell>
         </row>
         <row r="3">
@@ -17153,7 +17205,7 @@
             <v>0.24914790723220495</v>
           </cell>
           <cell r="AV3">
-            <v>34.233846641980655</v>
+            <v>23.461433992746706</v>
           </cell>
         </row>
         <row r="4">
@@ -17194,7 +17246,7 @@
             <v>1.0629635365032335</v>
           </cell>
           <cell r="AV4">
-            <v>93.054644683155303</v>
+            <v>59.358778974531958</v>
           </cell>
         </row>
         <row r="5">
@@ -17235,7 +17287,7 @@
             <v>2.0658771026844542</v>
           </cell>
           <cell r="AV5">
-            <v>153.04392549248914</v>
+            <v>102.05813699427313</v>
           </cell>
         </row>
         <row r="6">
@@ -17276,7 +17328,7 @@
             <v>3.1279715911433783</v>
           </cell>
           <cell r="AV6">
-            <v>216.30141375203556</v>
+            <v>145.20779709901129</v>
           </cell>
         </row>
         <row r="7">
@@ -17317,7 +17369,7 @@
             <v>4.2116723664584592</v>
           </cell>
           <cell r="AV7">
-            <v>276.7662272318604</v>
+            <v>192.76110898938148</v>
           </cell>
         </row>
         <row r="8">
@@ -17358,7 +17410,7 @@
             <v>5.3306106867105605</v>
           </cell>
           <cell r="AV8">
-            <v>335.99304433883293</v>
+            <v>240.78955238472437</v>
           </cell>
         </row>
         <row r="9">
@@ -17399,7 +17451,7 @@
             <v>6.355700543852592</v>
           </cell>
           <cell r="AV9">
-            <v>387.77022729915041</v>
+            <v>287.26530790183193</v>
           </cell>
         </row>
         <row r="10">
@@ -17440,7 +17492,7 @@
             <v>7.3215765562674093</v>
           </cell>
           <cell r="AV10">
-            <v>436.44063948510154</v>
+            <v>332.65808639797717</v>
           </cell>
         </row>
         <row r="11">
@@ -17481,7 +17533,7 @@
             <v>8.2143691166000004</v>
           </cell>
           <cell r="AV11">
-            <v>482.16665331349475</v>
+            <v>377.21791787820126</v>
           </cell>
         </row>
         <row r="12">
@@ -17522,7 +17574,7 @@
             <v>9.1362835195407825</v>
           </cell>
           <cell r="AV12">
-            <v>527.20861753939107</v>
+            <v>422.23424148498833</v>
           </cell>
         </row>
         <row r="13">
@@ -17644,7 +17696,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>2.8123736417209924</v>
+            <v>-2.8123736417209924</v>
           </cell>
         </row>
         <row r="3">
@@ -17685,7 +17737,7 @@
             <v>0.16854381075864253</v>
           </cell>
           <cell r="AV3">
-            <v>312.57977698592578</v>
+            <v>-12.761873399492774</v>
           </cell>
         </row>
         <row r="4">
@@ -17726,7 +17778,7 @@
             <v>0.4534976307725096</v>
           </cell>
           <cell r="AV4">
-            <v>631.43607056533256</v>
+            <v>58.418094194311649</v>
           </cell>
         </row>
         <row r="5">
@@ -17767,7 +17819,7 @@
             <v>0.82051382720268629</v>
           </cell>
           <cell r="AV5">
-            <v>954.48434790021724</v>
+            <v>232.17794315847456</v>
           </cell>
         </row>
         <row r="6">
@@ -17808,7 +17860,7 @@
             <v>1.2538717073633654</v>
           </cell>
           <cell r="AV6">
-            <v>1361.613996750265</v>
+            <v>395.71055798828775</v>
           </cell>
         </row>
         <row r="7">
@@ -17849,7 +17901,7 @@
             <v>1.7346065282001957</v>
           </cell>
           <cell r="AV7">
-            <v>1736.665317867195</v>
+            <v>649.75783293082293</v>
           </cell>
         </row>
         <row r="8">
@@ -17890,7 +17942,7 @@
             <v>2.2389098877681608</v>
           </cell>
           <cell r="AV8">
-            <v>2199.5484339773825</v>
+            <v>850.46509075200345</v>
           </cell>
         </row>
         <row r="9">
@@ -17931,7 +17983,7 @@
             <v>2.7693817570113772</v>
           </cell>
           <cell r="AV9">
-            <v>2594.6146304197669</v>
+            <v>1147.5971744057006</v>
           </cell>
         </row>
         <row r="10">
@@ -17972,7 +18024,7 @@
             <v>3.305054087662429</v>
           </cell>
           <cell r="AV10">
-            <v>3029.7496729718791</v>
+            <v>1422.1596803380614</v>
           </cell>
         </row>
         <row r="11">
@@ -18013,7 +18065,7 @@
             <v>3.8390392973320586</v>
           </cell>
           <cell r="AV11">
-            <v>3458.5804766175775</v>
+            <v>1710.304636995822</v>
           </cell>
         </row>
         <row r="12">
@@ -18054,7 +18106,7 @@
             <v>4.3803350449241476</v>
           </cell>
           <cell r="AV12">
-            <v>3863.7386554286372</v>
+            <v>2039.315557010543</v>
           </cell>
         </row>
         <row r="13">
@@ -18095,7 +18147,7 @@
             <v>4.9152905457222538</v>
           </cell>
           <cell r="AV13">
-            <v>4286.6509712525449</v>
+            <v>2355.2907860582136</v>
           </cell>
         </row>
         <row r="14">
@@ -18136,7 +18188,7 @@
             <v>5.4286615290273135</v>
           </cell>
           <cell r="AV14">
-            <v>4705.634698574866</v>
+            <v>2669.0289576647324</v>
           </cell>
         </row>
         <row r="15">
@@ -18177,7 +18229,7 @@
             <v>5.9381470165016372</v>
           </cell>
           <cell r="AV15">
-            <v>5118.2166794732557</v>
+            <v>2979.3266459713805</v>
           </cell>
         </row>
         <row r="16">
@@ -18218,7 +18270,7 @@
             <v>6.4265418829475163</v>
           </cell>
           <cell r="AV16">
-            <v>5487.7978725360144</v>
+            <v>3306.8431276104029</v>
           </cell>
         </row>
         <row r="17">
@@ -18259,7 +18311,7 @@
             <v>6.8932419103423799</v>
           </cell>
           <cell r="AV17">
-            <v>5844.1856671972755</v>
+            <v>3634.4709085546438</v>
           </cell>
         </row>
         <row r="18">
@@ -18343,6 +18395,9 @@
           <cell r="AU2">
             <v>0</v>
           </cell>
+          <cell r="AV2">
+            <v>-2.389488768044183</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="H3">
@@ -18384,6 +18439,9 @@
           <cell r="AU3">
             <v>0.57237542883510506</v>
           </cell>
+          <cell r="AV3">
+            <v>43.490396860164267</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="H4">
@@ -18425,6 +18483,9 @@
           <cell r="AU4">
             <v>1.4816133805135034</v>
           </cell>
+          <cell r="AV4">
+            <v>100.38870592819272</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="H5">
@@ -18466,6 +18527,9 @@
           <cell r="AU5">
             <v>2.5471871977358083</v>
           </cell>
+          <cell r="AV5">
+            <v>165.61159218104311</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="H6">
@@ -18507,6 +18571,9 @@
           <cell r="AU6">
             <v>3.7194761352549874</v>
           </cell>
+          <cell r="AV6">
+            <v>248.65181696704354</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="H7">
@@ -18548,6 +18615,9 @@
           <cell r="AU7">
             <v>4.8886883159337664</v>
           </cell>
+          <cell r="AV7">
+            <v>324.76867781279105</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="H8">
@@ -18589,6 +18659,9 @@
           <cell r="AU8">
             <v>6.0860199061177269</v>
           </cell>
+          <cell r="AV8">
+            <v>409.9766882292443</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="H9">
@@ -18630,6 +18703,9 @@
           <cell r="AU9">
             <v>7.2769236128724195</v>
           </cell>
+          <cell r="AV9">
+            <v>490.2560135850552</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="H10">
@@ -18671,6 +18747,9 @@
           <cell r="AU10">
             <v>8.4437561222494537</v>
           </cell>
+          <cell r="AV10">
+            <v>575.61410862042919</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="H11">
@@ -18712,6 +18791,9 @@
           <cell r="AU11">
             <v>9.5378175545960708</v>
           </cell>
+          <cell r="AV11">
+            <v>658.73873112344756</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="H12">
@@ -18752,6 +18834,9 @@
           </cell>
           <cell r="AU12">
             <v>10.517520875592691</v>
+          </cell>
+          <cell r="AV12">
+            <v>735.49600308601498</v>
           </cell>
         </row>
         <row r="13">
@@ -18862,7 +18947,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>2.7326248057628262</v>
+            <v>-2.7326248057628262</v>
           </cell>
         </row>
         <row r="3">
@@ -18897,7 +18982,7 @@
             <v>0.2817455716682068</v>
           </cell>
           <cell r="AV3">
-            <v>244.06878326098399</v>
+            <v>13.842034741405179</v>
           </cell>
         </row>
         <row r="4">
@@ -18932,7 +19017,7 @@
             <v>0.75822491516269763</v>
           </cell>
           <cell r="AV4">
-            <v>468.46450531721615</v>
+            <v>116.5989132240631</v>
           </cell>
         </row>
         <row r="5">
@@ -18967,7 +19052,7 @@
             <v>1.3425224910447593</v>
           </cell>
           <cell r="AV5">
-            <v>699.88439130877077</v>
+            <v>278.60794219441141</v>
           </cell>
         </row>
         <row r="6">
@@ -19002,7 +19087,7 @@
             <v>2.0332637163441114</v>
           </cell>
           <cell r="AV6">
-            <v>1012.8903784107201</v>
+            <v>420.33230659411947</v>
           </cell>
         </row>
         <row r="7">
@@ -19037,7 +19122,7 @@
             <v>2.7849473281188932</v>
           </cell>
           <cell r="AV7">
-            <v>1293.0589051772643</v>
+            <v>630.09803258025659</v>
           </cell>
         </row>
         <row r="8">
@@ -19072,7 +19157,7 @@
             <v>3.5681573368188242</v>
           </cell>
           <cell r="AV8">
-            <v>1609.4806130322381</v>
+            <v>821.17704967003374</v>
           </cell>
         </row>
         <row r="9">
@@ -19107,7 +19192,7 @@
             <v>4.3737894929593715</v>
           </cell>
           <cell r="AV9">
-            <v>1899.4417742751648</v>
+            <v>1054.9875793811993</v>
           </cell>
         </row>
         <row r="10">
@@ -19142,7 +19227,7 @@
             <v>5.1943379795591129</v>
           </cell>
           <cell r="AV10">
-            <v>2214.0615433048274</v>
+            <v>1279.6208639530264</v>
           </cell>
         </row>
         <row r="11">
@@ -19177,7 +19262,7 @@
             <v>6.0101939613356423</v>
           </cell>
           <cell r="AV11">
-            <v>2533.1164682705698</v>
+            <v>1506.2879608218079</v>
           </cell>
         </row>
         <row r="12">
@@ -19212,7 +19297,7 @@
             <v>6.8118508574606684</v>
           </cell>
           <cell r="AV12">
-            <v>2832.8146951120802</v>
+            <v>1746.5095874995588</v>
           </cell>
         </row>
         <row r="13">
@@ -19247,7 +19332,7 @@
             <v>7.5983992900380866</v>
           </cell>
           <cell r="AV13">
-            <v>3123.1976804600758</v>
+            <v>1991.2448905208023</v>
           </cell>
         </row>
         <row r="14">
@@ -19282,7 +19367,7 @@
             <v>8.340757069488669</v>
           </cell>
           <cell r="AV14">
-            <v>3397.4357441385032</v>
+            <v>2235.9289745626593</v>
           </cell>
         </row>
         <row r="15">
@@ -19317,7 +19402,7 @@
             <v>9.0545308877989026</v>
           </cell>
           <cell r="AV15">
-            <v>3674.18971570236</v>
+            <v>2468.6907392855433</v>
           </cell>
         </row>
         <row r="16">
@@ -19352,7 +19437,7 @@
             <v>9.6899493792039024</v>
           </cell>
           <cell r="AV16">
-            <v>3888.0158232017729</v>
+            <v>2718.3804562638197</v>
           </cell>
         </row>
       </sheetData>
@@ -19395,7 +19480,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>2.8586228383723888</v>
+            <v>6.1460394527626097</v>
           </cell>
         </row>
         <row r="3">
@@ -19430,7 +19515,7 @@
             <v>0.10464417734218186</v>
           </cell>
           <cell r="AV3">
-            <v>380.18022668388943</v>
+            <v>-50.677085548587215</v>
           </cell>
         </row>
         <row r="4">
@@ -19465,7 +19550,7 @@
             <v>0.28298321614191702</v>
           </cell>
           <cell r="AV4">
-            <v>781.59768357331279</v>
+            <v>-12.00593491906338</v>
           </cell>
         </row>
         <row r="5">
@@ -19500,7 +19585,7 @@
             <v>0.51808279019028769</v>
           </cell>
           <cell r="AV5">
-            <v>1154.4996477895502</v>
+            <v>187.28903186473093</v>
           </cell>
         </row>
         <row r="6">
@@ -19535,7 +19620,7 @@
             <v>0.79751434450568071</v>
           </cell>
           <cell r="AV6">
-            <v>1668.3094344424853</v>
+            <v>338.09870948365665</v>
           </cell>
         </row>
         <row r="7">
@@ -19570,7 +19655,7 @@
             <v>1.1071263596828218</v>
           </cell>
           <cell r="AV7">
-            <v>2125.9856965978211</v>
+            <v>616.97835253614357</v>
           </cell>
         </row>
         <row r="8">
@@ -19605,7 +19690,7 @@
             <v>1.4381112647282701</v>
           </cell>
           <cell r="AV8">
-            <v>2676.2669197956779</v>
+            <v>856.26475549937834</v>
           </cell>
         </row>
         <row r="9">
@@ -19640,7 +19725,7 @@
             <v>1.7872174716048412</v>
           </cell>
           <cell r="AV9">
-            <v>3181.8226046222503</v>
+            <v>1180.3622847200818</v>
           </cell>
         </row>
         <row r="10">
@@ -19675,7 +19760,7 @@
             <v>2.14329949811781</v>
           </cell>
           <cell r="AV10">
-            <v>3734.7545118710495</v>
+            <v>1483.0723850199154</v>
           </cell>
         </row>
         <row r="11">
@@ -19710,7 +19795,7 @@
             <v>2.5041664570267188</v>
           </cell>
           <cell r="AV11">
-            <v>4283.4796749879733</v>
+            <v>1813.2474038801342</v>
           </cell>
         </row>
         <row r="12">
@@ -19745,7 +19830,7 @@
             <v>2.8627538948614926</v>
           </cell>
           <cell r="AV12">
-            <v>4799.4995055193758</v>
+            <v>2191.8366881175111</v>
           </cell>
         </row>
         <row r="13">
@@ -19780,7 +19865,7 @@
             <v>3.2232129235195135</v>
           </cell>
           <cell r="AV13">
-            <v>5342.5526426574233</v>
+            <v>2548.3361646415678</v>
           </cell>
         </row>
         <row r="14">
@@ -19815,7 +19900,7 @@
             <v>3.5841623901748756</v>
           </cell>
           <cell r="AV14">
-            <v>5879.5281367664093</v>
+            <v>2918.5922130417102</v>
           </cell>
         </row>
         <row r="15">
@@ -19850,7 +19935,7 @@
             <v>3.9316259348620974</v>
           </cell>
           <cell r="AV15">
-            <v>6404.4544367205526</v>
+            <v>3296.803330559731</v>
           </cell>
         </row>
         <row r="16">
@@ -19885,7 +19970,7 @@
             <v>4.2717314855997346</v>
           </cell>
           <cell r="AV16">
-            <v>6921.1775523284659</v>
+            <v>3668.8693279836257</v>
           </cell>
         </row>
         <row r="17">
@@ -19920,7 +20005,7 @@
             <v>4.6038284736230715</v>
           </cell>
           <cell r="AV17">
-            <v>7398.5822309770529</v>
+            <v>4075.2229728337429</v>
           </cell>
         </row>
         <row r="18">
@@ -19955,7 +20040,7 @@
             <v>4.9221293151238878</v>
           </cell>
           <cell r="AV18">
-            <v>7871.783976642947</v>
+            <v>4457.3645546829293</v>
           </cell>
         </row>
       </sheetData>
@@ -20781,8 +20866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21086,6 +21171,9 @@
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AQ2">
+        <v>5.25</v>
+      </c>
       <c r="AS2">
         <v>0</v>
       </c>
@@ -21093,8 +21181,8 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <f>(AQ2*X2+2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)-4*232000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
-        <v>2.5788356083789159</v>
+        <f>(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*232000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
+        <v>5.5444978498435855</v>
       </c>
     </row>
     <row r="3" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21258,9 +21346,9 @@
         <f>AU2+AT3</f>
         <v>0.48906925178712846</v>
       </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3+2*X3*(1-0.01*P3-2*0.01*AF3)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+1+0.08/0.4)-4*232000*(-0.4*0.01*AF3-0.08*0.01*P3)/((1-2*0.01*AF3)*0.4*0.08))/1000</f>
-        <v>150.47113104025055</v>
+      <c r="AV3" s="5">
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-2*X3*(1-0.01*P3-2*0.01*AF3)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+1+0.08/0.4)+4*232000*(-0.4*0.01*AF3-0.08*0.01*P3)/((1-2*0.01*AF3)*0.4*0.08))/1000</f>
+        <v>46.224854114863845</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
@@ -21437,9 +21525,9 @@
         <f>AU3+AT4</f>
         <v>1.2926396683035937</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="5">
         <f t="shared" si="11"/>
-        <v>298.58504961543895</v>
+        <v>126.76682748339493</v>
       </c>
       <c r="BK4" s="1">
         <v>1.3664000000000001</v>
@@ -21609,9 +21697,9 @@
         <f>AU4+AT5</f>
         <v>2.2359060371257362</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="5">
         <f t="shared" si="11"/>
-        <v>457.6297049116676</v>
+        <v>234.30606033128873</v>
       </c>
       <c r="BK5" s="1">
         <v>1.2961</v>
@@ -21781,9 +21869,9 @@
         <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
         <v>3.3051521937979071</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="5">
         <f t="shared" si="11"/>
-        <v>625.73152809027681</v>
+        <v>358.01323124016886</v>
       </c>
       <c r="BK6" s="1">
         <v>1.2944</v>
@@ -21953,9 +22041,9 @@
         <f t="shared" si="18"/>
         <v>4.4389334570329089</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="5">
         <f t="shared" si="11"/>
-        <v>800.09674839340562</v>
+        <v>489.61343605568806</v>
       </c>
       <c r="BK7" s="1">
         <v>1.2937000000000001</v>
@@ -22125,9 +22213,9 @@
         <f t="shared" si="18"/>
         <v>5.5832270236409345</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="5">
         <f t="shared" si="11"/>
-        <v>973.29151608676511</v>
+        <v>625.04763091516816</v>
       </c>
       <c r="BK8" s="1">
         <v>1.3320000000000001</v>
@@ -22297,9 +22385,9 @@
         <f t="shared" si="18"/>
         <v>6.7638979124662191</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" s="5">
         <f t="shared" si="11"/>
-        <v>1143.2832707697471</v>
+        <v>771.82403445412274</v>
       </c>
       <c r="BK9" s="1">
         <v>1.3442000000000001</v>
@@ -22469,9 +22557,9 @@
         <f t="shared" si="18"/>
         <v>7.9516972648619646</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" s="5">
         <f t="shared" si="11"/>
-        <v>1315.7121790432309</v>
+        <v>916.37681754671155</v>
       </c>
       <c r="BK10" s="1">
         <f>AVERAGE(BK4:BK9)</f>
@@ -22643,9 +22731,9 @@
         <f t="shared" si="18"/>
         <v>9.0835523360568722</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="5">
         <f t="shared" si="11"/>
-        <v>1480.9942196787972</v>
+        <v>1065.056549947245</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -22809,9 +22897,9 @@
         <f t="shared" si="18"/>
         <v>10.170622259518503</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" s="5">
         <f t="shared" si="11"/>
-        <v>1641.7914188488087</v>
+        <v>1206.0808891094987</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
@@ -22975,9 +23063,9 @@
         <f t="shared" si="18"/>
         <v>11.191903062608578</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" s="5">
         <f t="shared" si="11"/>
-        <v>1790.477966317826</v>
+        <v>1349.0081908503812</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
@@ -23141,9 +23229,9 @@
         <f t="shared" si="18"/>
         <v>12.047764134836145</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" s="5">
         <f t="shared" si="11"/>
-        <v>1886.2761216808506</v>
+        <v>1506.4518853649804</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
@@ -23307,9 +23395,9 @@
         <f t="shared" si="18"/>
         <v>12.172600477422531</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" s="5">
         <f t="shared" si="11"/>
-        <v>1781.8131027613265</v>
+        <v>1681.6691353827309</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
@@ -23473,9 +23561,9 @@
         <f t="shared" si="18"/>
         <v>11.242596052620486</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" s="5">
         <f t="shared" si="11"/>
-        <v>1516.213850781641</v>
+        <v>1764.2994707744544</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -23639,9 +23727,9 @@
         <f t="shared" si="18"/>
         <v>10.867183259139837</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" s="5">
         <f t="shared" si="11"/>
-        <v>1330.9122571823025</v>
+        <v>1913.7168009340289</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -23805,9 +23893,9 @@
         <f t="shared" si="18"/>
         <v>10.366592891521787</v>
       </c>
-      <c r="AV18">
+      <c r="AV18" s="5">
         <f t="shared" si="11"/>
-        <v>1195.0252859020541</v>
+        <v>1989.0731086977864</v>
       </c>
     </row>
   </sheetData>

--- a/SMP_PP.xlsx
+++ b/SMP_PP.xlsx
@@ -371,1271 +371,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>dq/dp vs dev/deq</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13421083595087163"/>
-                  <c:y val="5.852893028163144E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$AI$3:$AI$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-4.0531986387658183E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11042313036631435</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17910603464910388</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22751655014093566</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24183756566398099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25667501498077061</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31602274764371441</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3001389802682104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.32649669915249868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29229076923535063</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32525266710154627</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AP$3:$AP$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.8644455466584113</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6909538739917969</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6027555746450712</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.546856764002601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5065378630281099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4761673190222979</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4520598634137434</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4320845173354098</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4156299198831406</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4020191233857742</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3905741223861088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12561699117320771"/>
-                  <c:y val="-8.368023586200124E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$AI$3:$AI$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6.0307752041131396E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11056994181734359</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26922077481297862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23761623301763646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3569969996478331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.37861265048389631</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41690135743887979</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.42337505205884429</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42690582723184634</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.45764120663698477</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$AP$3:$AP$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.0090750205753558</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8443558894483842</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7322564764106896</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6671504107658244</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6235078267812537</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5909360061713129</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5660912330976451</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5470482432552271</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5317723436675272</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.518649905691144</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14074907880678256"/>
-                  <c:y val="8.2878271563305211E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$AI$4:$AI$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-3.9949657480682493E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.989595444398725E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.476872129632444E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14933780525278545</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.5808908093809888E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18074746754682885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.2038022734601974E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11216478621072597</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.20371055901816537</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15285673371290717</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14247620585683451</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13157315381758203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.19648098167197897</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1985097410602287</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$AP$4:$AP$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.6356216271168877</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5440124208187311</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4846589622644111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4417039812757488</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4090597034444348</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3831153210120573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3618524601923803</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3442472387769562</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.329224375110359</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3161821183565607</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3049630913246724</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2951491902278758</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2864551675378204</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2788189027392434</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15590491795131881"/>
-                  <c:y val="4.2031759613199715E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[3]Sheet1!$AI$3:$AI$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-6.6635216254626135E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15649101116211753</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15661454046042708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35140776789751105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26156800693692328</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.37353713969442559</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.30169095029910487</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39144160029959618</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38220477674581477</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.32374408288279932</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[3]Sheet1!$AP$3:$AP$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.9053060830494941</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7404396115775711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6531141584289157</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5974582636996595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5583485062903495</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5290331594502045</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5056348650184768</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4865801781327825</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.470995298159429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4584525263146098</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15736252990863342"/>
-                  <c:y val="4.6740017028895457E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[4]Sheet1!$AI$4:$AI$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>8.3015005034965755E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17449785739415904</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.9946116066272628E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21082556610103395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7943294740211004E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23930015390931891</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17471783095788221</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16241946842004298</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21886177874595444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23540252112042928</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2473260992016566</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.20153214418525628</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.31828476154180729</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[4]Sheet1!$AP$4:$AP$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.6545991032687406</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5643844234460931</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5063561750312602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4641809111583908</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4322228418598042</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.406955906635972</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3862244629844778</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3688997705380646</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3542817906462632</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3417561426741769</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3310353500514012</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.321816061075151</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3139888388488756</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.3203399170085667E-2"/>
-                  <c:y val="5.6131030385197969E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[5]Sheet1!$AI$4:$AI$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>-9.4772453627418207E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6052177612149778E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.11104356459174929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9403977160791759E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.4478596617946779E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.8676809350627046E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.234104570380235E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.1991074666765127E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13353088549501599</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.4986159603482455E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.9448643477896425E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.7083241975430057E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.4489915278758612E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1538313279875651</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11239256591151758</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[5]Sheet1!$AP$4:$AP$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1.6235399819788612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.530953324207476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4707244592370008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4273635832401048</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3943094247322672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.367903658004811</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3462471260541777</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3281775970539018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3128555638706789</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.299624236942982</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2879526989524848</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2777264128670414</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2687561598004613</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2607418217171571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2535900285927311</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="279699424"/>
-        <c:axId val="279699984"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="279699424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="279699984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="279699984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="279699424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>e_Ta</a:t>
             </a:r>
             <a:r>
@@ -2752,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299655616"/>
-        <c:axId val="299656176"/>
+        <c:axId val="388476064"/>
+        <c:axId val="388473824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299655616"/>
+        <c:axId val="388476064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2813,12 +1548,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299656176"/>
+        <c:crossAx val="388473824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299656176"/>
+        <c:axId val="388473824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +1610,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299655616"/>
+        <c:crossAx val="388476064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2924,7 +1659,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3041,8 +1776,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12819640526362708"/>
-                  <c:y val="0.2182621772398193"/>
+                  <c:x val="7.1315817470129245E-2"/>
+                  <c:y val="0.24555374788202305"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3208,8 +1943,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2750446893813931E-2"/>
-                  <c:y val="-0.13289351535550389"/>
+                  <c:x val="-0.13099405336199654"/>
+                  <c:y val="-0.19967124499557662"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3369,8 +2104,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.5133702736320224E-2"/>
-                  <c:y val="0.20392159400205306"/>
+                  <c:x val="0.11514521756037434"/>
+                  <c:y val="0.28726627281042422"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3560,8 +2295,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13327192045217032"/>
-                  <c:y val="0.37047210842770467"/>
+                  <c:x val="0.1439750395280843"/>
+                  <c:y val="0.32782009566508225"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3721,8 +2456,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13661759482699398"/>
-                  <c:y val="2.0047204372246934E-2"/>
+                  <c:x val="-0.13588819880333541"/>
+                  <c:y val="-8.6888035866908575E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3906,8 +2641,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10920615873025154"/>
-                  <c:y val="7.450807844862728E-2"/>
+                  <c:x val="-0.17142550561097028"/>
+                  <c:y val="2.0381310821550136E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4070,11 +2805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300491040"/>
-        <c:axId val="300491600"/>
+        <c:axId val="388483344"/>
+        <c:axId val="388472144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300491040"/>
+        <c:axId val="388483344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,12 +2866,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300491600"/>
+        <c:crossAx val="388472144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300491600"/>
+        <c:axId val="388472144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +2928,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300491040"/>
+        <c:crossAx val="388483344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4242,7 +2977,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5412,11 +4147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300496640"/>
-        <c:axId val="300497200"/>
+        <c:axId val="393016640"/>
+        <c:axId val="393020000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300496640"/>
+        <c:axId val="393016640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5474,12 +4209,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300497200"/>
+        <c:crossAx val="393020000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300497200"/>
+        <c:axId val="393020000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5538,7 +4273,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300496640"/>
+        <c:crossAx val="393016640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5619,7 +4354,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6789,11 +5524,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300355232"/>
-        <c:axId val="300355792"/>
+        <c:axId val="393015520"/>
+        <c:axId val="393025040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300355232"/>
+        <c:axId val="393015520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6850,12 +5585,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300355792"/>
+        <c:crossAx val="393025040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300355792"/>
+        <c:axId val="393025040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -6913,7 +5648,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300355232"/>
+        <c:crossAx val="393015520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6994,7 +5729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8184,11 +6919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300603312"/>
-        <c:axId val="300603872"/>
+        <c:axId val="281850320"/>
+        <c:axId val="281853120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300603312"/>
+        <c:axId val="281850320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -8246,12 +6981,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300603872"/>
+        <c:crossAx val="281853120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300603872"/>
+        <c:axId val="281853120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8310,7 +7045,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300603312"/>
+        <c:crossAx val="281850320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8359,7 +7094,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9223,11 +7958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301068048"/>
-        <c:axId val="301068608"/>
+        <c:axId val="390488224"/>
+        <c:axId val="390487664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301068048"/>
+        <c:axId val="390488224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9284,12 +8019,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301068608"/>
+        <c:crossAx val="390487664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301068608"/>
+        <c:axId val="390487664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9346,7 +8081,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301068048"/>
+        <c:crossAx val="390488224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9436,7 +8171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10300,11 +9035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301073648"/>
-        <c:axId val="301074208"/>
+        <c:axId val="391465424"/>
+        <c:axId val="391464304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301073648"/>
+        <c:axId val="391465424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10361,12 +9096,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301074208"/>
+        <c:crossAx val="391464304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301074208"/>
+        <c:axId val="391464304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -10424,7 +9159,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301073648"/>
+        <c:crossAx val="391465424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10514,7 +9249,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10633,7 +9368,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5262040600654228E-2"/>
+                  <c:y val="-9.1580197222152826E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -10713,37 +9453,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.389488768044183</c:v>
+                  <c:v>-0.95579557395708714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.490396860164267</c:v>
+                  <c:v>61.573331518164267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.38870592819272</c:v>
+                  <c:v>123.63582364180566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>165.61159218104311</c:v>
+                  <c:v>193.61859757528433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248.65181696704354</c:v>
+                  <c:v>268.73281207978994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>324.76867781279105</c:v>
+                  <c:v>341.68565419548128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>409.9766882292443</c:v>
+                  <c:v>416.42950066425135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>490.2560135850552</c:v>
+                  <c:v>490.76000851941723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>575.61410862042919</c:v>
+                  <c:v>564.22397859727892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>658.73873112344756</c:v>
+                  <c:v>635.17882804811688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>735.49600308601498</c:v>
+                  <c:v>701.86092936402974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10778,6 +9518,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0910698919335112E-2"/>
+                  <c:y val="-3.0834696859933459E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[1]Sheet1!$W$2:$W$12</c:f>
@@ -10827,37 +9618,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.9407376402441345</c:v>
+                  <c:v>7.0549048057573849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.461433992746706</c:v>
+                  <c:v>26.151007484355013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.358778974531958</c:v>
+                  <c:v>67.585479345828716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.05813699427313</c:v>
+                  <c:v>111.38436549242944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145.20779709901129</c:v>
+                  <c:v>156.48643236410419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.76110898938148</c:v>
+                  <c:v>202.20960898582848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240.78955238472437</c:v>
+                  <c:v>247.59159802958223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>287.26530790183193</c:v>
+                  <c:v>289.20475981938586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>332.65808639797717</c:v>
+                  <c:v>329.17586663205594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>377.21791787820126</c:v>
+                  <c:v>367.68304006185787</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>422.23424148498833</c:v>
+                  <c:v>406.19814920134121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10909,8 +9700,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0631991197172416E-2"/>
-                  <c:y val="-7.8983325704864868E-2"/>
+                  <c:x val="9.0414565363922852E-2"/>
+                  <c:y val="-0.13992320014488771"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -10995,40 +9786,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.5444978498435855</c:v>
+                  <c:v>7.0917990508595521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.224854114863845</c:v>
+                  <c:v>87.374643979662039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.76682748339493</c:v>
+                  <c:v>184.14241242783589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>234.30606033128873</c:v>
+                  <c:v>295.62260962436187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>358.01323124016886</c:v>
+                  <c:v>417.01327797092523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>489.61343605568806</c:v>
+                  <c:v>543.93470219332289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>625.04763091516816</c:v>
+                  <c:v>671.88589826407701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>771.82403445412274</c:v>
+                  <c:v>803.40808408406542</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>916.37681754671155</c:v>
+                  <c:v>935.14420544200414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1065.056549947245</c:v>
+                  <c:v>1066.0123197554362</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1206.0808891094987</c:v>
+                  <c:v>1192.1664502927556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1349.0081908503812</c:v>
+                  <c:v>1314.5517518742033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11080,8 +9871,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2963556088773678E-3"/>
-                  <c:y val="-3.462012663632523E-2"/>
+                  <c:x val="6.1084244583706294E-2"/>
+                  <c:y val="-7.3353307436736528E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -11175,49 +9966,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-2.7326248057628262</c:v>
+                  <c:v>-1.0930520740821261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.842034741405179</c:v>
+                  <c:v>114.01981127127523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.5989132240631</c:v>
+                  <c:v>251.6678481418715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278.60794219441141</c:v>
+                  <c:v>415.05186424562578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>420.33230659411947</c:v>
+                  <c:v>602.57210447996999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>630.09803258025659</c:v>
+                  <c:v>803.96546328095644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>821.17704967003374</c:v>
+                  <c:v>1012.1295313641309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1054.9875793811993</c:v>
+                  <c:v>1227.2449099651203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1279.6208639530264</c:v>
+                  <c:v>1448.8777227373846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1506.2879608218079</c:v>
+                  <c:v>1673.5755738617834</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1746.5095874995588</c:v>
+                  <c:v>1896.5416417070553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991.2448905208023</c:v>
+                  <c:v>2118.2300553388941</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2235.9289745626593</c:v>
+                  <c:v>2334.0071823127164</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2468.6907392855433</c:v>
+                  <c:v>2546.5765981767636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2718.3804562638197</c:v>
+                  <c:v>2741.3206767852994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11269,8 +10060,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.2485088043476317E-3"/>
-                  <c:y val="-4.2235100026652782E-2"/>
+                  <c:x val="3.0397633123014387E-2"/>
+                  <c:y val="-6.1694764682371166E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -11367,52 +10158,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-2.8123736417209924</c:v>
+                  <c:v>-1.1250553205695557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12.761873399492774</c:v>
+                  <c:v>132.1974966142285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.418094194311649</c:v>
+                  <c:v>295.70962790996128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232.17794315847456</c:v>
+                  <c:v>501.27345618961613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>395.71055798828775</c:v>
+                  <c:v>735.42923277600835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>649.75783293082293</c:v>
+                  <c:v>992.67387945275937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>850.46509075200345</c:v>
+                  <c:v>1263.1858886735004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1147.5971744057006</c:v>
+                  <c:v>1545.7375819769065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1422.1596803380614</c:v>
+                  <c:v>1835.4691844817048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1710.304636995822</c:v>
+                  <c:v>2128.7467651233101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2039.315557010543</c:v>
+                  <c:v>2430.0290765741129</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2355.2907860582136</c:v>
+                  <c:v>2733.9042971800968</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2669.0289576647324</c:v>
+                  <c:v>3036.1731040840914</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2979.3266459713805</c:v>
+                  <c:v>3335.3862620252858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3306.8431276104029</c:v>
+                  <c:v>3625.2103016106817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3634.4709085546438</c:v>
+                  <c:v>3910.8134047647495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11560,55 +10351,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>6.1460394527626097</c:v>
+                  <c:v>7.8612131113106152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50.677085548587215</c:v>
+                  <c:v>145.04487274062302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.00593491906338</c:v>
+                  <c:v>329.15246918239973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187.28903186473093</c:v>
+                  <c:v>565.33775010196928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>338.09870948365665</c:v>
+                  <c:v>837.17342947938107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>616.97835253614357</c:v>
+                  <c:v>1137.3051211875736</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>856.26475549937834</c:v>
+                  <c:v>1458.1236935664597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1180.3622847200818</c:v>
+                  <c:v>1795.3313713905945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1483.0723850199154</c:v>
+                  <c:v>2143.0659548129793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1813.2474038801342</c:v>
+                  <c:v>2500.9175742925768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2191.8366881175111</c:v>
+                  <c:v>2866.2659896640589</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2548.3361646415678</c:v>
+                  <c:v>3234.323601745707</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2918.5922130417102</c:v>
+                  <c:v>3606.6127262077102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3296.803330559731</c:v>
+                  <c:v>3978.5015635775085</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3668.8693279836257</c:v>
+                  <c:v>4345.7465115825007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4075.2229728337429</c:v>
+                  <c:v>4712.6117543900555</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4457.3645546829293</c:v>
+                  <c:v>5068.8909909224749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11623,11 +10414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="363840192"/>
-        <c:axId val="363840752"/>
+        <c:axId val="276110064"/>
+        <c:axId val="276113984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="363840192"/>
+        <c:axId val="276110064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11684,12 +10475,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363840752"/>
+        <c:crossAx val="276113984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="363840752"/>
+        <c:axId val="276113984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11746,7 +10537,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363840192"/>
+        <c:crossAx val="276110064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11790,6 +10581,1271 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>dq/dp vs dev/deq</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13421083595087163"/>
+                  <c:y val="5.852893028163144E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AI$3:$AI$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-4.0531986387658183E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11042313036631435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17910603464910388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22751655014093566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24183756566398099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25667501498077061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31602274764371441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3001389802682104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32649669915249868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29229076923535063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32525266710154627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AP$3:$AP$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.8644455466584113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6909538739917969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6027555746450712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.546856764002601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5065378630281099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4761673190222979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4520598634137434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4320845173354098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4156299198831406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4020191233857742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3905741223861088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12561699117320771"/>
+                  <c:y val="-8.368023586200124E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AI$3:$AI$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.0307752041131396E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11056994181734359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26922077481297862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23761623301763646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3569969996478331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37861265048389631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41690135743887979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42337505205884429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42690582723184634</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45764120663698477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AP$3:$AP$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0090750205753558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8443558894483842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7322564764106896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6671504107658244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6235078267812537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5909360061713129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5660912330976451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5470482432552271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5317723436675272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.518649905691144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14074907880678256"/>
+                  <c:y val="8.2878271563305211E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AI$4:$AI$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9949657480682493E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.989595444398725E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.476872129632444E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14933780525278545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5808908093809888E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18074746754682885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2038022734601974E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11216478621072597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20371055901816537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15285673371290717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14247620585683451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13157315381758203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19648098167197897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1985097410602287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AP$4:$AP$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.6356216271168877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5440124208187311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4846589622644111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4417039812757488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4090597034444348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3831153210120573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3618524601923803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3442472387769562</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.329224375110359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3161821183565607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3049630913246724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2951491902278758</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2864551675378204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2788189027392434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15590491795131881"/>
+                  <c:y val="4.2031759613199715E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AI$3:$AI$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-6.6635216254626135E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15649101116211753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15661454046042708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35140776789751105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26156800693692328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37353713969442559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30169095029910487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39144160029959618</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38220477674581477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32374408288279932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AP$3:$AP$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9053060830494941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7404396115775711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6531141584289157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5974582636996595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5583485062903495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5290331594502045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5056348650184768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4865801781327825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.470995298159429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4584525263146098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15736252990863342"/>
+                  <c:y val="4.6740017028895457E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AI$4:$AI$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8.3015005034965755E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17449785739415904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.9946116066272628E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21082556610103395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7943294740211004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23930015390931891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17471783095788221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16241946842004298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21886177874595444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23540252112042928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2473260992016566</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20153214418525628</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31828476154180729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AP$4:$AP$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.6545991032687406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5643844234460931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5063561750312602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4641809111583908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4322228418598042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.406955906635972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3862244629844778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3688997705380646</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3542817906462632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3417561426741769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3310353500514012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.321816061075151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3139888388488756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3203399170085667E-2"/>
+                  <c:y val="5.6131030385197969E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AI$4:$AI$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-9.4772453627418207E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6052177612149778E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11104356459174929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9403977160791759E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4478596617946779E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8676809350627046E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.234104570380235E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1991074666765127E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13353088549501599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4986159603482455E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9448643477896425E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7083241975430057E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4489915278758612E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1538313279875651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11239256591151758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AP$4:$AP$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.6235399819788612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.530953324207476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4707244592370008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4273635832401048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3943094247322672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.367903658004811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3462471260541777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3281775970539018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3128555638706789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.299624236942982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2879526989524848</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2777264128670414</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2687561598004613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2607418217171571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2535900285927311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="539847936"/>
+        <c:axId val="539848496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="539847936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539848496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="539848496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539847936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -16835,38 +16891,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>21774</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>740230</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>112699</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -16891,7 +16915,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16923,7 +16947,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16955,7 +16979,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16987,7 +17011,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17019,7 +17043,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17051,7 +17075,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17083,7 +17107,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17115,6 +17139,38 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>718456</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
@@ -17148,6 +17204,9 @@
           <cell r="W2">
             <v>4.2122077073200002</v>
           </cell>
+          <cell r="AB2">
+            <v>-2.36137909226386E-7</v>
+          </cell>
           <cell r="AD2">
             <v>4.850295926548287E-3</v>
           </cell>
@@ -17164,7 +17223,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>4.9407376402441345</v>
+            <v>7.0549048057573849</v>
           </cell>
         </row>
         <row r="3">
@@ -17183,6 +17242,9 @@
           <cell r="W3">
             <v>12.2213842794</v>
           </cell>
+          <cell r="AB3">
+            <v>0.14424923787768051</v>
+          </cell>
           <cell r="AD3">
             <v>-4.0450284855741425E-2</v>
           </cell>
@@ -17205,7 +17267,7 @@
             <v>0.24914790723220495</v>
           </cell>
           <cell r="AV3">
-            <v>23.461433992746706</v>
+            <v>26.151007484355013</v>
           </cell>
         </row>
         <row r="4">
@@ -17224,6 +17286,9 @@
           <cell r="W4">
             <v>43.220880601200001</v>
           </cell>
+          <cell r="AB4">
+            <v>0.31701430431554378</v>
+          </cell>
           <cell r="AD4">
             <v>-0.16215753058077409</v>
           </cell>
@@ -17246,7 +17311,7 @@
             <v>1.0629635365032335</v>
           </cell>
           <cell r="AV4">
-            <v>59.358778974531958</v>
+            <v>67.585479345828716</v>
           </cell>
         </row>
         <row r="5">
@@ -17265,6 +17330,9 @@
           <cell r="W5">
             <v>85.468871372600006</v>
           </cell>
+          <cell r="AB5">
+            <v>0.22118664939348998</v>
+          </cell>
           <cell r="AD5">
             <v>-0.46153130461471714</v>
           </cell>
@@ -17287,7 +17355,7 @@
             <v>2.0658771026844542</v>
           </cell>
           <cell r="AV5">
-            <v>102.05813699427313</v>
+            <v>111.38436549242944</v>
           </cell>
         </row>
         <row r="6">
@@ -17306,6 +17374,9 @@
           <cell r="W6">
             <v>132.47279832500001</v>
           </cell>
+          <cell r="AB6">
+            <v>0.1159836065091735</v>
+          </cell>
           <cell r="AD6">
             <v>-0.71885931011994497</v>
           </cell>
@@ -17328,7 +17399,7 @@
             <v>3.1279715911433783</v>
           </cell>
           <cell r="AV6">
-            <v>145.20779709901129</v>
+            <v>156.48643236410419</v>
           </cell>
         </row>
         <row r="7">
@@ -17347,6 +17418,9 @@
           <cell r="W7">
             <v>181.88015537199999</v>
           </cell>
+          <cell r="AB7">
+            <v>-0.16414932304338326</v>
+          </cell>
           <cell r="AD7">
             <v>-1.1210017956671885</v>
           </cell>
@@ -17369,7 +17443,7 @@
             <v>4.2116723664584592</v>
           </cell>
           <cell r="AV7">
-            <v>192.76110898938148</v>
+            <v>202.20960898582848</v>
           </cell>
         </row>
         <row r="8">
@@ -17388,6 +17462,9 @@
           <cell r="W8">
             <v>234.26768086800001</v>
           </cell>
+          <cell r="AB8">
+            <v>-0.49149247383222239</v>
+          </cell>
           <cell r="AD8">
             <v>-1.5531532187550792</v>
           </cell>
@@ -17410,7 +17487,7 @@
             <v>5.3306106867105605</v>
           </cell>
           <cell r="AV8">
-            <v>240.78955238472437</v>
+            <v>247.59159802958223</v>
           </cell>
         </row>
         <row r="9">
@@ -17429,6 +17506,9 @@
           <cell r="W9">
             <v>282.455016199</v>
           </cell>
+          <cell r="AB9">
+            <v>-0.88855303993187196</v>
+          </cell>
           <cell r="AD9">
             <v>-2.0334153108882016</v>
           </cell>
@@ -17451,7 +17531,7 @@
             <v>6.355700543852592</v>
           </cell>
           <cell r="AV9">
-            <v>287.26530790183193</v>
+            <v>289.20475981938586</v>
           </cell>
         </row>
         <row r="10">
@@ -17470,6 +17550,9 @@
           <cell r="W10">
             <v>328.01130412100002</v>
           </cell>
+          <cell r="AB10">
+            <v>-1.305056091661605</v>
+          </cell>
           <cell r="AD10">
             <v>-2.5200484986337504</v>
           </cell>
@@ -17492,7 +17575,7 @@
             <v>7.3215765562674093</v>
           </cell>
           <cell r="AV10">
-            <v>332.65808639797717</v>
+            <v>329.17586663205594</v>
           </cell>
         </row>
         <row r="11">
@@ -17511,6 +17594,9 @@
           <cell r="W11">
             <v>369.68770880099999</v>
           </cell>
+          <cell r="AB11">
+            <v>-1.742412368716928</v>
+          </cell>
           <cell r="AD11">
             <v>-3.0166209629509613</v>
           </cell>
@@ -17533,7 +17619,7 @@
             <v>8.2143691166000004</v>
           </cell>
           <cell r="AV11">
-            <v>377.21791787820126</v>
+            <v>367.68304006185787</v>
           </cell>
         </row>
         <row r="12">
@@ -17552,6 +17638,9 @@
           <cell r="W12">
             <v>413.64107056900002</v>
           </cell>
+          <cell r="AB12">
+            <v>-2.2197631133044293</v>
+          </cell>
           <cell r="AD12">
             <v>-3.550504947990258</v>
           </cell>
@@ -17574,7 +17663,7 @@
             <v>9.1362835195407825</v>
           </cell>
           <cell r="AV12">
-            <v>422.23424148498833</v>
+            <v>406.19814920134121</v>
           </cell>
         </row>
         <row r="13">
@@ -17680,6 +17769,9 @@
           <cell r="W2">
             <v>4.2240728909899996</v>
           </cell>
+          <cell r="AB2">
+            <v>-1.2581269359657199E-9</v>
+          </cell>
           <cell r="AD2">
             <v>-7.3646714530181123E-3</v>
           </cell>
@@ -17696,7 +17788,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>-2.8123736417209924</v>
+            <v>-1.1250553205695557</v>
           </cell>
         </row>
         <row r="3">
@@ -17715,6 +17807,9 @@
           <cell r="W3">
             <v>68.239404295900002</v>
           </cell>
+          <cell r="AB3">
+            <v>0.64105581271286516</v>
+          </cell>
           <cell r="AD3">
             <v>-2.7743186307924717E-3</v>
           </cell>
@@ -17737,7 +17832,7 @@
             <v>0.16854381075864253</v>
           </cell>
           <cell r="AV3">
-            <v>-12.761873399492774</v>
+            <v>132.1974966142285</v>
           </cell>
         </row>
         <row r="4">
@@ -17756,6 +17851,9 @@
           <cell r="W4">
             <v>197.45593798499999</v>
           </cell>
+          <cell r="AB4">
+            <v>1.0701225422241167</v>
+          </cell>
           <cell r="AD4">
             <v>3.6056637227999344E-2</v>
           </cell>
@@ -17778,7 +17876,7 @@
             <v>0.4534976307725096</v>
           </cell>
           <cell r="AV4">
-            <v>58.418094194311649</v>
+            <v>295.70962790996128</v>
           </cell>
         </row>
         <row r="5">
@@ -17797,6 +17895,9 @@
           <cell r="W5">
             <v>379.82954654000002</v>
           </cell>
+          <cell r="AB5">
+            <v>1.2796901620335754</v>
+          </cell>
           <cell r="AD5">
             <v>-5.3830521729392178E-2</v>
           </cell>
@@ -17819,7 +17920,7 @@
             <v>0.82051382720268629</v>
           </cell>
           <cell r="AV5">
-            <v>232.17794315847456</v>
+            <v>501.27345618961613</v>
           </cell>
         </row>
         <row r="6">
@@ -17838,6 +17939,9 @@
           <cell r="W6">
             <v>612.01060798499998</v>
           </cell>
+          <cell r="AB6">
+            <v>1.5621054671954515</v>
+          </cell>
           <cell r="AD6">
             <v>-2.0860492076021364E-2</v>
           </cell>
@@ -17860,7 +17964,7 @@
             <v>1.2538717073633654</v>
           </cell>
           <cell r="AV6">
-            <v>395.71055798828775</v>
+            <v>735.42923277600835</v>
           </cell>
         </row>
         <row r="7">
@@ -17879,6 +17983,9 @@
           <cell r="W7">
             <v>881.14109999899995</v>
           </cell>
+          <cell r="AB7">
+            <v>1.6235844291454193</v>
+          </cell>
           <cell r="AD7">
             <v>-0.17253362112402804</v>
           </cell>
@@ -17901,7 +18008,7 @@
             <v>1.7346065282001957</v>
           </cell>
           <cell r="AV7">
-            <v>649.75783293082293</v>
+            <v>992.67387945275937</v>
           </cell>
         </row>
         <row r="8">
@@ -17920,6 +18027,9 @@
           <cell r="W8">
             <v>1170.67181512</v>
           </cell>
+          <cell r="AB8">
+            <v>1.858851189179811</v>
+          </cell>
           <cell r="AD8">
             <v>-0.11966219637354514</v>
           </cell>
@@ -17942,7 +18052,7 @@
             <v>2.2389098877681608</v>
           </cell>
           <cell r="AV8">
-            <v>850.46509075200345</v>
+            <v>1263.1858886735004</v>
           </cell>
         </row>
         <row r="9">
@@ -17961,6 +18071,9 @@
           <cell r="W9">
             <v>1482.87835591</v>
           </cell>
+          <cell r="AB9">
+            <v>1.8344607170093674</v>
+          </cell>
           <cell r="AD9">
             <v>-0.30668116963163783</v>
           </cell>
@@ -17983,7 +18096,7 @@
             <v>2.7693817570113772</v>
           </cell>
           <cell r="AV9">
-            <v>1147.5971744057006</v>
+            <v>1545.7375819769065</v>
           </cell>
         </row>
         <row r="10">
@@ -18002,6 +18115,9 @@
           <cell r="W10">
             <v>1800.4591455899999</v>
           </cell>
+          <cell r="AB10">
+            <v>1.8852923228709129</v>
+          </cell>
           <cell r="AD10">
             <v>-0.39891023430928918</v>
           </cell>
@@ -18024,7 +18140,7 @@
             <v>3.305054087662429</v>
           </cell>
           <cell r="AV10">
-            <v>1422.1596803380614</v>
+            <v>1835.4691844817048</v>
           </cell>
         </row>
         <row r="11">
@@ -18043,6 +18159,9 @@
           <cell r="W11">
             <v>2116.5728955099999</v>
           </cell>
+          <cell r="AB11">
+            <v>1.8993222021266298</v>
+          </cell>
           <cell r="AD11">
             <v>-0.51187788418595659</v>
           </cell>
@@ -18065,7 +18184,7 @@
             <v>3.8390392973320586</v>
           </cell>
           <cell r="AV11">
-            <v>1710.304636995822</v>
+            <v>2128.7467651233101</v>
           </cell>
         </row>
         <row r="12">
@@ -18084,6 +18203,9 @@
           <cell r="W12">
             <v>2440.6718577699999</v>
           </cell>
+          <cell r="AB12">
+            <v>1.8032093482882816</v>
+          </cell>
           <cell r="AD12">
             <v>-0.72445349709451712</v>
           </cell>
@@ -18106,7 +18228,7 @@
             <v>4.3803350449241476</v>
           </cell>
           <cell r="AV12">
-            <v>2039.315557010543</v>
+            <v>2430.0290765741129</v>
           </cell>
         </row>
         <row r="13">
@@ -18125,6 +18247,9 @@
           <cell r="W13">
             <v>2762.9585197400002</v>
           </cell>
+          <cell r="AB13">
+            <v>1.7507299758379502</v>
+          </cell>
           <cell r="AD13">
             <v>-0.8823372851110256</v>
           </cell>
@@ -18147,7 +18272,7 @@
             <v>4.9152905457222538</v>
           </cell>
           <cell r="AV13">
-            <v>2355.2907860582136</v>
+            <v>2733.9042971800968</v>
           </cell>
         </row>
         <row r="14">
@@ -18166,6 +18291,9 @@
           <cell r="W14">
             <v>3068.3094737400002</v>
           </cell>
+          <cell r="AB14">
+            <v>1.6983816350330971</v>
+          </cell>
           <cell r="AD14">
             <v>-1.0283927463105793</v>
           </cell>
@@ -18188,7 +18316,7 @@
             <v>5.4286615290273135</v>
           </cell>
           <cell r="AV14">
-            <v>2669.0289576647324</v>
+            <v>3036.1731040840914</v>
           </cell>
         </row>
         <row r="15">
@@ -18207,6 +18335,9 @@
           <cell r="W15">
             <v>3373.1603332</v>
           </cell>
+          <cell r="AB15">
+            <v>1.6503316009821023</v>
+          </cell>
           <cell r="AD15">
             <v>-1.1633764262104642</v>
           </cell>
@@ -18229,7 +18360,7 @@
             <v>5.9381470165016372</v>
           </cell>
           <cell r="AV15">
-            <v>2979.3266459713805</v>
+            <v>3335.3862620252858</v>
           </cell>
         </row>
         <row r="16">
@@ -18248,6 +18379,9 @@
           <cell r="W16">
             <v>3657.3588259100002</v>
           </cell>
+          <cell r="AB16">
+            <v>1.5229187844645886</v>
+          </cell>
           <cell r="AD16">
             <v>-1.3692547746034252</v>
           </cell>
@@ -18270,7 +18404,7 @@
             <v>6.4265418829475163</v>
           </cell>
           <cell r="AV16">
-            <v>3306.8431276104029</v>
+            <v>3625.2103016106817</v>
           </cell>
         </row>
         <row r="17">
@@ -18289,6 +18423,9 @@
           <cell r="W17">
             <v>3937.7048846100001</v>
           </cell>
+          <cell r="AB17">
+            <v>1.3844579482043651</v>
+          </cell>
           <cell r="AD17">
             <v>-1.5788078329901047</v>
           </cell>
@@ -18311,7 +18448,7 @@
             <v>6.8932419103423799</v>
           </cell>
           <cell r="AV17">
-            <v>3634.4709085546438</v>
+            <v>3910.8134047647495</v>
           </cell>
         </row>
         <row r="18">
@@ -18374,12 +18511,12 @@
           <cell r="M2">
             <v>0</v>
           </cell>
-          <cell r="V2">
-            <v>5.6291731435100001</v>
-          </cell>
           <cell r="W2">
             <v>4.2173620645199996</v>
           </cell>
+          <cell r="AB2">
+            <v>-2.8766988791062431E-9</v>
+          </cell>
           <cell r="AD2">
             <v>2.4003572443069832E-3</v>
           </cell>
@@ -18396,7 +18533,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>-2.389488768044183</v>
+            <v>-0.95579557395708714</v>
           </cell>
         </row>
         <row r="3">
@@ -18412,12 +18549,12 @@
           <cell r="M3">
             <v>-0.165464503634</v>
           </cell>
-          <cell r="V3">
-            <v>44.340620989800001</v>
-          </cell>
           <cell r="W3">
             <v>32.877261734900003</v>
           </cell>
+          <cell r="AB3">
+            <v>0.42455699990888718</v>
+          </cell>
           <cell r="AD3">
             <v>9.9703808983271358E-3</v>
           </cell>
@@ -18440,7 +18577,7 @@
             <v>0.57237542883510506</v>
           </cell>
           <cell r="AV3">
-            <v>43.490396860164267</v>
+            <v>61.573331518164267</v>
           </cell>
         </row>
         <row r="4">
@@ -18456,12 +18593,12 @@
           <cell r="M4">
             <v>-0.11339904918599999</v>
           </cell>
-          <cell r="V4">
-            <v>117.428809461</v>
-          </cell>
           <cell r="W4">
             <v>86.153779829300007</v>
           </cell>
+          <cell r="AB4">
+            <v>0.53723081921390747</v>
+          </cell>
           <cell r="AD4">
             <v>-0.15821214050129639</v>
           </cell>
@@ -18484,7 +18621,7 @@
             <v>1.4816133805135034</v>
           </cell>
           <cell r="AV4">
-            <v>100.38870592819272</v>
+            <v>123.63582364180566</v>
           </cell>
         </row>
         <row r="5">
@@ -18500,12 +18637,12 @@
           <cell r="M5">
             <v>-7.3105874440700006E-2</v>
           </cell>
-          <cell r="V5">
-            <v>211.39198917100001</v>
-          </cell>
           <cell r="W5">
             <v>153.12352342</v>
           </cell>
+          <cell r="AB5">
+            <v>0.57836850681094454</v>
+          </cell>
           <cell r="AD5">
             <v>-0.32264470836657511</v>
           </cell>
@@ -18528,7 +18665,7 @@
             <v>2.5471871977358083</v>
           </cell>
           <cell r="AV5">
-            <v>165.61159218104311</v>
+            <v>193.61859757528433</v>
           </cell>
         </row>
         <row r="6">
@@ -18544,12 +18681,12 @@
           <cell r="M6">
             <v>-2.5593465599700001E-2</v>
           </cell>
-          <cell r="V6">
-            <v>322.25827423499999</v>
-          </cell>
           <cell r="W6">
             <v>230.324690731</v>
           </cell>
+          <cell r="AB6">
+            <v>0.35070042781746302</v>
+          </cell>
           <cell r="AD6">
             <v>-0.7160377934598201</v>
           </cell>
@@ -18572,7 +18709,7 @@
             <v>3.7194761352549874</v>
           </cell>
           <cell r="AV6">
-            <v>248.65181696704354</v>
+            <v>268.73281207978994</v>
           </cell>
         </row>
         <row r="7">
@@ -18588,12 +18725,12 @@
           <cell r="M7">
             <v>3.0582789242399998E-2</v>
           </cell>
-          <cell r="V7">
-            <v>439.31863220999998</v>
-          </cell>
           <cell r="W7">
             <v>309.65515061500003</v>
           </cell>
+          <cell r="AB7">
+            <v>0.19999993483033052</v>
+          </cell>
           <cell r="AD7">
             <v>-0.99869458508912423</v>
           </cell>
@@ -18616,7 +18753,7 @@
             <v>4.8886883159337664</v>
           </cell>
           <cell r="AV7">
-            <v>324.76867781279105</v>
+            <v>341.68565419548128</v>
           </cell>
         </row>
         <row r="8">
@@ -18632,12 +18769,12 @@
           <cell r="M8">
             <v>0.13740715989300001</v>
           </cell>
-          <cell r="V8">
-            <v>564.49070134399994</v>
-          </cell>
           <cell r="W8">
             <v>392.03495226899997</v>
           </cell>
+          <cell r="AB8">
+            <v>-0.10677972586135009</v>
+          </cell>
           <cell r="AD8">
             <v>-1.4191891767079605</v>
           </cell>
@@ -18660,7 +18797,7 @@
             <v>6.0860199061177269</v>
           </cell>
           <cell r="AV8">
-            <v>409.9766882292443</v>
+            <v>416.42950066425135</v>
           </cell>
         </row>
         <row r="9">
@@ -18676,12 +18813,12 @@
           <cell r="M9">
             <v>0.23810092375700001</v>
           </cell>
-          <cell r="V9">
-            <v>693.66595967399996</v>
-          </cell>
           <cell r="W9">
             <v>474.558268494</v>
           </cell>
+          <cell r="AB9">
+            <v>-0.34012835873640235</v>
+          </cell>
           <cell r="AD9">
             <v>-1.7508332780185973</v>
           </cell>
@@ -18704,7 +18841,7 @@
             <v>7.2769236128724195</v>
           </cell>
           <cell r="AV9">
-            <v>490.2560135850552</v>
+            <v>490.76000851941723</v>
           </cell>
         </row>
         <row r="10">
@@ -18720,12 +18857,12 @@
           <cell r="M10">
             <v>0.36490219552499997</v>
           </cell>
-          <cell r="V10">
-            <v>825.37340951700003</v>
-          </cell>
           <cell r="W10">
             <v>556.12195336299999</v>
           </cell>
+          <cell r="AB10">
+            <v>-0.69687079219256098</v>
+          </cell>
           <cell r="AD10">
             <v>-2.1933307755513098</v>
           </cell>
@@ -18748,7 +18885,7 @@
             <v>8.4437561222494537</v>
           </cell>
           <cell r="AV10">
-            <v>575.61410862042919</v>
+            <v>564.22397859727892</v>
           </cell>
         </row>
         <row r="11">
@@ -18764,12 +18901,12 @@
           <cell r="M11">
             <v>0.46856926151799999</v>
           </cell>
-          <cell r="V11">
-            <v>952.10079920800001</v>
-          </cell>
           <cell r="W11">
             <v>632.28060539600006</v>
           </cell>
+          <cell r="AB11">
+            <v>-1.0567213372539408</v>
+          </cell>
           <cell r="AD11">
             <v>-2.6262145728773767</v>
           </cell>
@@ -18792,7 +18929,7 @@
             <v>9.5378175545960708</v>
           </cell>
           <cell r="AV11">
-            <v>658.73873112344756</v>
+            <v>635.17882804811688</v>
           </cell>
         </row>
         <row r="12">
@@ -18808,12 +18945,12 @@
           <cell r="M12">
             <v>0.62194967495800002</v>
           </cell>
-          <cell r="V12">
-            <v>1067.9011617799999</v>
-          </cell>
           <cell r="W12">
             <v>698.22880191800004</v>
           </cell>
+          <cell r="AB12">
+            <v>-1.3573824484509611</v>
+          </cell>
           <cell r="AD12">
             <v>-2.9873528008148424</v>
           </cell>
@@ -18836,7 +18973,7 @@
             <v>10.517520875592691</v>
           </cell>
           <cell r="AV12">
-            <v>735.49600308601498</v>
+            <v>701.86092936402974</v>
           </cell>
         </row>
         <row r="13">
@@ -18934,6 +19071,9 @@
           <cell r="W2">
             <v>4.2222995839699999</v>
           </cell>
+          <cell r="AB2">
+            <v>-2.3187252118361812E-8</v>
+          </cell>
           <cell r="AD2">
             <v>-5.5490763105969787E-3</v>
           </cell>
@@ -18947,7 +19087,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>-2.7326248057628262</v>
+            <v>-1.0930520740821261</v>
           </cell>
         </row>
         <row r="3">
@@ -18963,6 +19103,9 @@
           <cell r="W3">
             <v>59.395032084</v>
           </cell>
+          <cell r="AB3">
+            <v>0.63442165348475132</v>
+          </cell>
           <cell r="AD3">
             <v>3.8319450699044966E-2</v>
           </cell>
@@ -18982,7 +19125,7 @@
             <v>0.2817455716682068</v>
           </cell>
           <cell r="AV3">
-            <v>13.842034741405179</v>
+            <v>114.01981127127523</v>
           </cell>
         </row>
         <row r="4">
@@ -18998,6 +19141,9 @@
           <cell r="W4">
             <v>170.024590695</v>
           </cell>
+          <cell r="AB4">
+            <v>0.91937718517532963</v>
+          </cell>
           <cell r="AD4">
             <v>-4.6776410363131404E-2</v>
           </cell>
@@ -19017,7 +19163,7 @@
             <v>0.75822491516269763</v>
           </cell>
           <cell r="AV4">
-            <v>116.5989132240631</v>
+            <v>251.6678481418715</v>
           </cell>
         </row>
         <row r="5">
@@ -19033,6 +19179,9 @@
           <cell r="W5">
             <v>317.46221207000002</v>
           </cell>
+          <cell r="AB5">
+            <v>1.0112140982188045</v>
+          </cell>
           <cell r="AD5">
             <v>-0.22792370372989579</v>
           </cell>
@@ -19052,7 +19201,7 @@
             <v>1.3425224910447593</v>
           </cell>
           <cell r="AV5">
-            <v>278.60794219441141</v>
+            <v>415.05186424562578</v>
           </cell>
         </row>
         <row r="6">
@@ -19068,6 +19217,9 @@
           <cell r="W6">
             <v>504.01211338500002</v>
           </cell>
+          <cell r="AB6">
+            <v>1.2508444616565417</v>
+          </cell>
           <cell r="AD6">
             <v>-0.21825719498578811</v>
           </cell>
@@ -19087,7 +19239,7 @@
             <v>2.0332637163441114</v>
           </cell>
           <cell r="AV6">
-            <v>420.33230659411947</v>
+            <v>602.57210447996999</v>
           </cell>
         </row>
         <row r="7">
@@ -19103,6 +19255,9 @@
           <cell r="W7">
             <v>715.14294281599996</v>
           </cell>
+          <cell r="AB7">
+            <v>1.2251628486510846</v>
+          </cell>
           <cell r="AD7">
             <v>-0.43793676714494434</v>
           </cell>
@@ -19122,7 +19277,7 @@
             <v>2.7849473281188932</v>
           </cell>
           <cell r="AV7">
-            <v>630.09803258025659</v>
+            <v>803.96546328095644</v>
           </cell>
         </row>
         <row r="8">
@@ -19138,6 +19293,9 @@
           <cell r="W8">
             <v>940.58579936499996</v>
           </cell>
+          <cell r="AB8">
+            <v>1.2930476660156898</v>
+          </cell>
           <cell r="AD8">
             <v>-0.53587894121895219</v>
           </cell>
@@ -19157,7 +19315,7 @@
             <v>3.5681573368188242</v>
           </cell>
           <cell r="AV8">
-            <v>821.17704967003374</v>
+            <v>1012.1295313641309</v>
           </cell>
         </row>
         <row r="9">
@@ -19173,6 +19331,9 @@
           <cell r="W9">
             <v>1176.2319013599999</v>
           </cell>
+          <cell r="AB9">
+            <v>1.1858828218258455</v>
+          </cell>
           <cell r="AD9">
             <v>-0.78842716158120285</v>
           </cell>
@@ -19192,7 +19353,7 @@
             <v>4.3737894929593715</v>
           </cell>
           <cell r="AV9">
-            <v>1054.9875793811993</v>
+            <v>1227.2449099651203</v>
           </cell>
         </row>
         <row r="10">
@@ -19208,6 +19369,9 @@
           <cell r="W10">
             <v>1418.7763070200001</v>
           </cell>
+          <cell r="AB10">
+            <v>1.1345937228203984</v>
+          </cell>
           <cell r="AD10">
             <v>-0.96929930922372654</v>
           </cell>
@@ -19227,7 +19391,7 @@
             <v>5.1943379795591129</v>
           </cell>
           <cell r="AV10">
-            <v>1279.6208639530264</v>
+            <v>1448.8777227373846</v>
           </cell>
         </row>
         <row r="11">
@@ -19243,6 +19407,9 @@
           <cell r="W11">
             <v>1658.6171486400001</v>
           </cell>
+          <cell r="AB11">
+            <v>1.081069322849959</v>
+          </cell>
           <cell r="AD11">
             <v>-1.137882342869037</v>
           </cell>
@@ -19262,7 +19429,7 @@
             <v>6.0101939613356423</v>
           </cell>
           <cell r="AV11">
-            <v>1506.2879608218079</v>
+            <v>1673.5755738617834</v>
           </cell>
         </row>
         <row r="12">
@@ -19278,6 +19445,9 @@
           <cell r="W12">
             <v>1895.8692115199999</v>
           </cell>
+          <cell r="AB12">
+            <v>0.95292019120410965</v>
+          </cell>
           <cell r="AD12">
             <v>-1.3686695110261904</v>
           </cell>
@@ -19297,7 +19467,7 @@
             <v>6.8118508574606684</v>
           </cell>
           <cell r="AV12">
-            <v>1746.5095874995588</v>
+            <v>1896.5416417070553</v>
           </cell>
         </row>
         <row r="13">
@@ -19313,6 +19483,9 @@
           <cell r="W13">
             <v>2128.46917996</v>
           </cell>
+          <cell r="AB13">
+            <v>0.79499602539979675</v>
+          </cell>
           <cell r="AD13">
             <v>-1.6192080908604187</v>
           </cell>
@@ -19332,7 +19505,7 @@
             <v>7.5983992900380866</v>
           </cell>
           <cell r="AV13">
-            <v>1991.2448905208023</v>
+            <v>2118.2300553388941</v>
           </cell>
         </row>
         <row r="14">
@@ -19348,6 +19521,9 @@
           <cell r="W14">
             <v>2346.1114358599998</v>
           </cell>
+          <cell r="AB14">
+            <v>0.61217637854675822</v>
+          </cell>
           <cell r="AD14">
             <v>-1.8833367834300265</v>
           </cell>
@@ -19367,7 +19543,7 @@
             <v>8.340757069488669</v>
           </cell>
           <cell r="AV14">
-            <v>2235.9289745626593</v>
+            <v>2334.0071823127164</v>
           </cell>
         </row>
         <row r="15">
@@ -19383,6 +19559,9 @@
           <cell r="W15">
             <v>2553.6925211100001</v>
           </cell>
+          <cell r="AB15">
+            <v>0.47374110819143889</v>
+          </cell>
           <cell r="AD15">
             <v>-2.0951970683876726</v>
           </cell>
@@ -19402,7 +19581,7 @@
             <v>9.0545308877989026</v>
           </cell>
           <cell r="AV15">
-            <v>2468.6907392855433</v>
+            <v>2546.5765981767636</v>
           </cell>
         </row>
         <row r="16">
@@ -19418,6 +19597,9 @@
           <cell r="W16">
             <v>2732.59069761</v>
           </cell>
+          <cell r="AB16">
+            <v>0.18450674208951856</v>
+          </cell>
           <cell r="AD16">
             <v>-2.4463817128654188</v>
           </cell>
@@ -19437,7 +19619,7 @@
             <v>9.6899493792039024</v>
           </cell>
           <cell r="AV16">
-            <v>2718.3804562638197</v>
+            <v>2741.3206767852994</v>
           </cell>
         </row>
       </sheetData>
@@ -19467,6 +19649,9 @@
           <cell r="W2">
             <v>4.2257824171199996</v>
           </cell>
+          <cell r="AB2">
+            <v>-2.3963053763509379E-10</v>
+          </cell>
           <cell r="AD2">
             <v>-8.3690043125059788E-3</v>
           </cell>
@@ -19480,7 +19665,7 @@
             <v>0</v>
           </cell>
           <cell r="AV2">
-            <v>6.1460394527626097</v>
+            <v>7.8612131113106152</v>
           </cell>
         </row>
         <row r="3">
@@ -19496,6 +19681,9 @@
           <cell r="W3">
             <v>74.232563508499993</v>
           </cell>
+          <cell r="AB3">
+            <v>0.65947632051531757</v>
+          </cell>
           <cell r="AD3">
             <v>-1.4767528900081039E-2</v>
           </cell>
@@ -19515,7 +19703,7 @@
             <v>0.10464417734218186</v>
           </cell>
           <cell r="AV3">
-            <v>-50.677085548587215</v>
+            <v>145.04487274062302</v>
           </cell>
         </row>
         <row r="4">
@@ -19531,6 +19719,9 @@
           <cell r="W4">
             <v>217.63628506500001</v>
           </cell>
+          <cell r="AB4">
+            <v>1.1554047074608276</v>
+          </cell>
           <cell r="AD4">
             <v>7.5301987622554467E-2</v>
           </cell>
@@ -19550,7 +19741,7 @@
             <v>0.28298321614191702</v>
           </cell>
           <cell r="AV4">
-            <v>-12.00593491906338</v>
+            <v>329.15246918239973</v>
           </cell>
         </row>
         <row r="5">
@@ -19566,6 +19757,9 @@
           <cell r="W5">
             <v>426.58274723699998</v>
           </cell>
+          <cell r="AB5">
+            <v>1.3765066520197045</v>
+          </cell>
           <cell r="AD5">
             <v>-2.0343218828634546E-2</v>
           </cell>
@@ -19585,7 +19779,7 @@
             <v>0.51808279019028769</v>
           </cell>
           <cell r="AV5">
-            <v>187.28903186473093</v>
+            <v>565.33775010196928</v>
           </cell>
         </row>
         <row r="6">
@@ -19601,6 +19795,9 @@
           <cell r="W6">
             <v>695.05799973700005</v>
           </cell>
+          <cell r="AB6">
+            <v>1.7431384439147379</v>
+          </cell>
           <cell r="AD6">
             <v>8.2319284906789969E-2</v>
           </cell>
@@ -19620,7 +19817,7 @@
             <v>0.79751434450568071</v>
           </cell>
           <cell r="AV6">
-            <v>338.09870948365665</v>
+            <v>837.17342947938107</v>
           </cell>
         </row>
         <row r="7">
@@ -19636,6 +19833,9 @@
           <cell r="W7">
             <v>1006.57904301</v>
           </cell>
+          <cell r="AB7">
+            <v>1.869331517916184</v>
+          </cell>
           <cell r="AD7">
             <v>-1.6043042656769702E-2</v>
           </cell>
@@ -19655,7 +19855,7 @@
             <v>1.1071263596828218</v>
           </cell>
           <cell r="AV7">
-            <v>616.97835253614357</v>
+            <v>1137.3051211875736</v>
           </cell>
         </row>
         <row r="8">
@@ -19671,6 +19871,9 @@
           <cell r="W8">
             <v>1349.8612750499999</v>
           </cell>
+          <cell r="AB8">
+            <v>2.106716425718147</v>
+          </cell>
           <cell r="AD8">
             <v>2.6139887307207399E-2</v>
           </cell>
@@ -19690,7 +19893,7 @@
             <v>1.4381112647282701</v>
           </cell>
           <cell r="AV8">
-            <v>856.26475549937834</v>
+            <v>1458.1236935664597</v>
           </cell>
         </row>
         <row r="9">
@@ -19706,6 +19909,9 @@
           <cell r="W9">
             <v>1720.0985234</v>
           </cell>
+          <cell r="AB9">
+            <v>2.1818399647471343</v>
+          </cell>
           <cell r="AD9">
             <v>-7.2642923190290976E-2</v>
           </cell>
@@ -19725,7 +19931,7 @@
             <v>1.7872174716048412</v>
           </cell>
           <cell r="AV9">
-            <v>1180.3622847200818</v>
+            <v>1795.3313713905945</v>
           </cell>
         </row>
         <row r="10">
@@ -19741,6 +19947,9 @@
           <cell r="W10">
             <v>2104.51252217</v>
           </cell>
+          <cell r="AB10">
+            <v>2.3141896037873311</v>
+          </cell>
           <cell r="AD10">
             <v>-9.4343759103296065E-2</v>
           </cell>
@@ -19760,7 +19969,7 @@
             <v>2.14329949811781</v>
           </cell>
           <cell r="AV10">
-            <v>1483.0723850199154</v>
+            <v>2143.0659548129793</v>
           </cell>
         </row>
         <row r="11">
@@ -19776,6 +19985,9 @@
           <cell r="W11">
             <v>2457.6409865099999</v>
           </cell>
+          <cell r="AB11">
+            <v>2.4013414074031125</v>
+          </cell>
           <cell r="AD11">
             <v>-0.14573214545708968</v>
           </cell>
@@ -19795,7 +20007,7 @@
             <v>2.5041664570267188</v>
           </cell>
           <cell r="AV11">
-            <v>1813.2474038801342</v>
+            <v>2500.9175742925768</v>
           </cell>
         </row>
         <row r="12">
@@ -19811,6 +20023,9 @@
           <cell r="W12">
             <v>2882.8498941600001</v>
           </cell>
+          <cell r="AB12">
+            <v>2.389703347742278</v>
+          </cell>
           <cell r="AD12">
             <v>-0.2816048182329749</v>
           </cell>
@@ -19830,7 +20045,7 @@
             <v>2.8627538948614926</v>
           </cell>
           <cell r="AV12">
-            <v>2191.8366881175111</v>
+            <v>2866.2659896640589</v>
           </cell>
         </row>
         <row r="13">
@@ -19846,6 +20061,9 @@
           <cell r="W13">
             <v>3279.0129152300001</v>
           </cell>
+          <cell r="AB13">
+            <v>2.4292901229628905</v>
+          </cell>
           <cell r="AD13">
             <v>-0.35619294230078413</v>
           </cell>
@@ -19865,7 +20083,7 @@
             <v>3.2232129235195135</v>
           </cell>
           <cell r="AV13">
-            <v>2548.3361646415678</v>
+            <v>3234.323601745707</v>
           </cell>
         </row>
         <row r="14">
@@ -19881,6 +20099,9 @@
           <cell r="W14">
             <v>3672.9900029800001</v>
           </cell>
+          <cell r="AB14">
+            <v>2.4448155478036693</v>
+          </cell>
           <cell r="AD14">
             <v>-0.44622018099411775</v>
           </cell>
@@ -19900,7 +20121,7 @@
             <v>3.5841623901748756</v>
           </cell>
           <cell r="AV14">
-            <v>2918.5922130417102</v>
+            <v>3606.6127262077102</v>
           </cell>
         </row>
         <row r="15">
@@ -19916,6 +20137,9 @@
           <cell r="W15">
             <v>4053.6330686400001</v>
           </cell>
+          <cell r="AB15">
+            <v>2.4412501984268697</v>
+          </cell>
           <cell r="AD15">
             <v>-0.54446467565305579</v>
           </cell>
@@ -19935,7 +20159,7 @@
             <v>3.9316259348620974</v>
           </cell>
           <cell r="AV15">
-            <v>3296.803330559731</v>
+            <v>3978.5015635775085</v>
           </cell>
         </row>
         <row r="16">
@@ -19951,6 +20175,9 @@
           <cell r="W16">
             <v>4415.4513714200002</v>
           </cell>
+          <cell r="AB16">
+            <v>2.4434713211957559</v>
+          </cell>
           <cell r="AD16">
             <v>-0.62930760686620069</v>
           </cell>
@@ -19970,7 +20197,7 @@
             <v>4.2717314855997346</v>
           </cell>
           <cell r="AV16">
-            <v>3668.8693279836257</v>
+            <v>4345.7465115825007</v>
           </cell>
         </row>
         <row r="17">
@@ -19986,6 +20213,9 @@
           <cell r="W17">
             <v>4781.4251414700002</v>
           </cell>
+          <cell r="AB17">
+            <v>2.364402806097432</v>
+          </cell>
           <cell r="AD17">
             <v>-0.78874501246859596</v>
           </cell>
@@ -20005,7 +20235,7 @@
             <v>4.6038284736230715</v>
           </cell>
           <cell r="AV17">
-            <v>4075.2229728337429</v>
+            <v>4712.6117543900555</v>
           </cell>
         </row>
         <row r="18">
@@ -20021,6 +20251,9 @@
           <cell r="W18">
             <v>5120.64365954</v>
           </cell>
+          <cell r="AB18">
+            <v>2.3233956477578976</v>
+          </cell>
           <cell r="AD18">
             <v>-0.90299144530498499</v>
           </cell>
@@ -20040,7 +20273,7 @@
             <v>4.9221293151238878</v>
           </cell>
           <cell r="AV18">
-            <v>4457.3645546829293</v>
+            <v>5068.8909909224749</v>
           </cell>
         </row>
       </sheetData>
@@ -20866,8 +21099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20894,7 +21127,7 @@
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="48" width="13.33203125" customWidth="1"/>
+    <col min="48" max="48" width="13.33203125" style="5" customWidth="1"/>
     <col min="49" max="1012" width="11.5546875" style="1"/>
     <col min="1013" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -21041,7 +21274,7 @@
       <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21180,9 +21413,9 @@
       <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AV2">
-        <f>(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*232000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
-        <v>5.5444978498435855</v>
+      <c r="AV2" s="5">
+        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+        <v>7.0917990508595521</v>
       </c>
     </row>
     <row r="3" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21347,8 +21580,8 @@
         <v>0.48906925178712846</v>
       </c>
       <c r="AV3" s="5">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-2*X3*(1-0.01*P3-2*0.01*AF3)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+1+0.08/0.4)+4*232000*(-0.4*0.01*AF3-0.08*0.01*P3)/((1-2*0.01*AF3)*0.4*0.08))/1000</f>
-        <v>46.224854114863845</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>87.374643979662039</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
@@ -21527,7 +21760,7 @@
       </c>
       <c r="AV4" s="5">
         <f t="shared" si="11"/>
-        <v>126.76682748339493</v>
+        <v>184.14241242783589</v>
       </c>
       <c r="BK4" s="1">
         <v>1.3664000000000001</v>
@@ -21699,7 +21932,7 @@
       </c>
       <c r="AV5" s="5">
         <f t="shared" si="11"/>
-        <v>234.30606033128873</v>
+        <v>295.62260962436187</v>
       </c>
       <c r="BK5" s="1">
         <v>1.2961</v>
@@ -21871,7 +22104,7 @@
       </c>
       <c r="AV6" s="5">
         <f t="shared" si="11"/>
-        <v>358.01323124016886</v>
+        <v>417.01327797092523</v>
       </c>
       <c r="BK6" s="1">
         <v>1.2944</v>
@@ -22043,7 +22276,7 @@
       </c>
       <c r="AV7" s="5">
         <f t="shared" si="11"/>
-        <v>489.61343605568806</v>
+        <v>543.93470219332289</v>
       </c>
       <c r="BK7" s="1">
         <v>1.2937000000000001</v>
@@ -22215,7 +22448,7 @@
       </c>
       <c r="AV8" s="5">
         <f t="shared" si="11"/>
-        <v>625.04763091516816</v>
+        <v>671.88589826407701</v>
       </c>
       <c r="BK8" s="1">
         <v>1.3320000000000001</v>
@@ -22387,7 +22620,7 @@
       </c>
       <c r="AV9" s="5">
         <f t="shared" si="11"/>
-        <v>771.82403445412274</v>
+        <v>803.40808408406542</v>
       </c>
       <c r="BK9" s="1">
         <v>1.3442000000000001</v>
@@ -22559,7 +22792,7 @@
       </c>
       <c r="AV10" s="5">
         <f t="shared" si="11"/>
-        <v>916.37681754671155</v>
+        <v>935.14420544200414</v>
       </c>
       <c r="BK10" s="1">
         <f>AVERAGE(BK4:BK9)</f>
@@ -22733,7 +22966,7 @@
       </c>
       <c r="AV11" s="5">
         <f t="shared" si="11"/>
-        <v>1065.056549947245</v>
+        <v>1066.0123197554362</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -22899,7 +23132,7 @@
       </c>
       <c r="AV12" s="5">
         <f t="shared" si="11"/>
-        <v>1206.0808891094987</v>
+        <v>1192.1664502927556</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
@@ -23065,7 +23298,7 @@
       </c>
       <c r="AV13" s="5">
         <f t="shared" si="11"/>
-        <v>1349.0081908503812</v>
+        <v>1314.5517518742033</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
@@ -23231,7 +23464,7 @@
       </c>
       <c r="AV14" s="5">
         <f t="shared" si="11"/>
-        <v>1506.4518853649804</v>
+        <v>1421.778382604221</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
@@ -23397,7 +23630,7 @@
       </c>
       <c r="AV15" s="5">
         <f t="shared" si="11"/>
-        <v>1681.6691353827309</v>
+        <v>1454.6449543662443</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
@@ -23563,7 +23796,7 @@
       </c>
       <c r="AV16" s="5">
         <f t="shared" si="11"/>
-        <v>1764.2994707744544</v>
+        <v>1382.462314800121</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -23729,7 +23962,7 @@
       </c>
       <c r="AV17" s="5">
         <f t="shared" si="11"/>
-        <v>1913.7168009340289</v>
+        <v>1372.5655943685965</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -23895,7 +24128,7 @@
       </c>
       <c r="AV18" s="5">
         <f t="shared" si="11"/>
-        <v>1989.0731086977864</v>
+        <v>1350.8384790113007</v>
       </c>
     </row>
   </sheetData>

--- a/SMP_PP.xlsx
+++ b/SMP_PP.xlsx
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>deq</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,11 +189,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eq_pla</t>
+    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s_n_real_pred</t>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1487,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388476064"/>
-        <c:axId val="388473824"/>
+        <c:axId val="299942064"/>
+        <c:axId val="299942624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388476064"/>
+        <c:axId val="299942064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,12 +1548,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388473824"/>
+        <c:crossAx val="299942624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388473824"/>
+        <c:axId val="299942624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1610,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388476064"/>
+        <c:crossAx val="299942064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2805,11 +2805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388483344"/>
-        <c:axId val="388472144"/>
+        <c:axId val="299947664"/>
+        <c:axId val="299948224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388483344"/>
+        <c:axId val="299947664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,12 +2866,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388472144"/>
+        <c:crossAx val="299948224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388472144"/>
+        <c:axId val="299948224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2928,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388483344"/>
+        <c:crossAx val="299947664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3139,40 +3139,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.9179253740304603E-3</c:v>
+                  <c:v>-1.791459868647486E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4551771634487842E-3</c:v>
+                  <c:v>0.2182007191496711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1167508869937437</c:v>
+                  <c:v>-6.8739849554488641E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.30416734845493365</c:v>
+                  <c:v>-0.25844490321487235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.54541233476474948</c:v>
+                  <c:v>-0.50548088699950622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.80371455369479938</c:v>
+                  <c:v>-0.77107098249662753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0775446691335768</c:v>
+                  <c:v>-1.0526191013130926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.4252934378493534</c:v>
+                  <c:v>-1.4083856656714833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7511595625846244</c:v>
+                  <c:v>-1.7422358331317225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.1131201868599394</c:v>
+                  <c:v>-2.1116731330565348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4313435638939067</c:v>
+                  <c:v>-2.4369365957532381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7911336892796275</c:v>
+                  <c:v>-2.8032093736796608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,37 +3187,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6991684004706432E-3</c:v>
+                  <c:v>1.6288411276845188E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10599706457572984</c:v>
+                  <c:v>-0.11587647142973459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.30533148512744929</c:v>
+                  <c:v>-0.33381463502791608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.58484760053665408</c:v>
+                  <c:v>-0.6394177953841268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.92335351680384581</c:v>
+                  <c:v>-1.0095162337481638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2977202694678776</c:v>
+                  <c:v>-1.4188223754671481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7112596620558085</c:v>
+                  <c:v>-1.8709571123915065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1503639108801722</c:v>
+                  <c:v>-2.3510426558318627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.5871202938216036</c:v>
+                  <c:v>-2.828561208696859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.0213137949871118</c:v>
+                  <c:v>-3.3032776878095254</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.4409618005658018</c:v>
+                  <c:v>-3.7620911503330712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,37 +3310,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.850295926548287E-3</c:v>
+                  <c:v>4.1123320281332334E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.0450284855741425E-2</c:v>
+                  <c:v>-2.0550815545431006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16215753058077409</c:v>
+                  <c:v>-0.1225045745579928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.46153130461471714</c:v>
+                  <c:v>-0.41528192578586187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.71885931011994497</c:v>
+                  <c:v>-0.67087135837053935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1210017956671885</c:v>
+                  <c:v>-1.0733997571280911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5531532187550792</c:v>
+                  <c:v>-1.5070588901416995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0334153108882016</c:v>
+                  <c:v>-1.9892501759378227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.5200484986337504</c:v>
+                  <c:v>-2.4779914792001323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0166209629509613</c:v>
+                  <c:v>-2.9766757974206981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.550504947990258</c:v>
+                  <c:v>-3.5128514038027872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,52 +3475,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-7.3646714530181123E-3</c:v>
+                  <c:v>-6.5499854898561551E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7743186307924717E-3</c:v>
+                  <c:v>4.2608907106856275E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6056637227999344E-2</c:v>
+                  <c:v>8.2649588158046239E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.3830521729392178E-2</c:v>
+                  <c:v>-1.6296435414874244E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.0860492076021364E-2</c:v>
+                  <c:v>3.4610395909435709E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.17253362112402804</c:v>
+                  <c:v>-0.16316777408101846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.11966219637354514</c:v>
+                  <c:v>-0.12556712728808228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.30668116963163783</c:v>
+                  <c:v>-0.32800561721896493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.39891023430928918</c:v>
+                  <c:v>-0.43513287037035164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.51187788418595659</c:v>
+                  <c:v>-0.56232716066481814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.72445349709451712</c:v>
+                  <c:v>-0.78874669437471789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.8823372851110256</c:v>
+                  <c:v>-0.95979665890377008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0283927463105793</c:v>
+                  <c:v>-1.1180510684477447</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.1633764262104642</c:v>
+                  <c:v>-1.2647574226514391</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.3692547746034252</c:v>
+                  <c:v>-1.48154443611537</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.5788078329901047</c:v>
+                  <c:v>-1.7012445291380978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3670,37 +3670,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.4003572443069832E-3</c:v>
+                  <c:v>1.976499304910926E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9703808983271358E-3</c:v>
+                  <c:v>4.6401803741909053E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.15821214050129639</c:v>
+                  <c:v>-0.11171775578605481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.32264470836657511</c:v>
+                  <c:v>-0.27467776220035112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.7160377934598201</c:v>
+                  <c:v>-0.67004297600892682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.99869458508912423</c:v>
+                  <c:v>-0.95610919056450916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4191891767079605</c:v>
+                  <c:v>-1.3807634669284308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7508332780185973</c:v>
+                  <c:v>-1.716867345426226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1933307755513098</c:v>
+                  <c:v>-2.1638823268225158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.6262145728773767</c:v>
+                  <c:v>-2.6010577264068924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.9873528008148424</c:v>
+                  <c:v>-2.9660501254398177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,49 +3835,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-5.5490763105969787E-3</c:v>
+                  <c:v>-4.9630710716174241E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8319450699044966E-2</c:v>
+                  <c:v>8.2392266917109436E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.6776410363131404E-2</c:v>
+                  <c:v>7.3472519556760929E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.22792370372989579</c:v>
+                  <c:v>-0.18669164754685919</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.21825719498578811</c:v>
+                  <c:v>-0.18730549272936803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.43793676714494434</c:v>
+                  <c:v>-0.41885830244800104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.53587894121895219</c:v>
+                  <c:v>-0.52909659675123399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.78842716158120285</c:v>
+                  <c:v>-0.79395564830439103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.96929930922372654</c:v>
+                  <c:v>-0.98694689024977045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.137882342869037</c:v>
+                  <c:v>-1.1671587606231832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3686695110261904</c:v>
+                  <c:v>-1.408984287446835</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.6192080908604187</c:v>
+                  <c:v>-1.6700049882207799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.8833367834300265</c:v>
+                  <c:v>-1.9437336170164512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.0951970683876726</c:v>
+                  <c:v>-2.164574964110987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.4463817128654188</c:v>
+                  <c:v>-2.5235629260899493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4024,55 +4024,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-8.3690043125059788E-3</c:v>
+                  <c:v>-7.428133246390199E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4767528900081039E-2</c:v>
+                  <c:v>3.1308253193261804E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5301987622554467E-2</c:v>
+                  <c:v>0.12102343568504104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0343218828634546E-2</c:v>
+                  <c:v>1.4298442312832949E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2319284906789969E-2</c:v>
+                  <c:v>0.10155338494880284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.6043042656769702E-2</c:v>
+                  <c:v>-1.3875163871537977E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6139887307207399E-2</c:v>
+                  <c:v>1.0750485478439487E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.2642923190290976E-2</c:v>
+                  <c:v>-0.10567072032400393</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.4343759103296065E-2</c:v>
+                  <c:v>-0.14448487196443249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.14573214545708968</c:v>
+                  <c:v>-0.21240506388774039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.2816048182329749</c:v>
+                  <c:v>-0.36398701463464578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.35619294230078413</c:v>
+                  <c:v>-0.45372567200379743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.44622018099411775</c:v>
+                  <c:v>-0.55834946287223408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.54446467565305579</c:v>
+                  <c:v>-0.67015685623496468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.62930760686620069</c:v>
+                  <c:v>-0.76785516659826358</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.78874501246859596</c:v>
+                  <c:v>-0.93947877038257888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.90299144530498499</c:v>
+                  <c:v>-1.0650925022705793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,11 +4147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393016640"/>
-        <c:axId val="393020000"/>
+        <c:axId val="434097712"/>
+        <c:axId val="434101072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393016640"/>
+        <c:axId val="434097712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -4209,12 +4209,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393020000"/>
+        <c:crossAx val="434101072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393020000"/>
+        <c:axId val="434101072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -4273,7 +4273,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393016640"/>
+        <c:crossAx val="434097712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4516,40 +4516,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.963829162796809</c:v>
+                  <c:v>1.1782426886005244E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.82214267806389973</c:v>
+                  <c:v>0.83001552430559766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22198376037174716</c:v>
+                  <c:v>1.7589948652665472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2683832400339901</c:v>
+                  <c:v>2.7416603735437604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3287236247680942</c:v>
+                  <c:v>3.7576796987193877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3968050794455928</c:v>
+                  <c:v>4.7930546241118881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4636409592810029</c:v>
+                  <c:v>5.8349244772073154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5640325333325968</c:v>
+                  <c:v>6.914758087843035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6497499714476671</c:v>
+                  <c:v>7.9833701226127234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7583695232375369</c:v>
+                  <c:v>9.0780800075120371</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8470914759234116</c:v>
+                  <c:v>10.15510136159808</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9532780249591237</c:v>
+                  <c:v>11.251465412258712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,37 +4564,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48906925178712846</c:v>
+                  <c:v>0.2483401872451339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2926396683035937</c:v>
+                  <c:v>1.4132478012167753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2359060371257362</c:v>
+                  <c:v>2.4445485652094368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3051521937979071</c:v>
+                  <c:v>3.6135867231681345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4389334570329089</c:v>
+                  <c:v>4.8531830043701136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5832270236409345</c:v>
+                  <c:v>6.1042726949188708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7638979124662191</c:v>
+                  <c:v>7.3951347779059518</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9516972648619646</c:v>
+                  <c:v>8.6937906190183121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0835523360568722</c:v>
+                  <c:v>9.931280938014698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.170622259518503</c:v>
+                  <c:v>11.119806342539972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.191903062608578</c:v>
+                  <c:v>12.236402573775296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4687,37 +4687,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.9700923031221818</c:v>
+                  <c:v>7.8712636408795333E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2189354576242168</c:v>
+                  <c:v>0.60385484924843991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11820913250696763</c:v>
+                  <c:v>1.5489256315891522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99379187945769587</c:v>
+                  <c:v>2.5823189195798366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0767482172350409</c:v>
+                  <c:v>3.616329679161276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2032072237363423</c:v>
+                  <c:v>4.708119553395461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3446149990327241</c:v>
+                  <c:v>5.8224228299217398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4965951582806625</c:v>
+                  <c:v>6.9544037559349565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6460091007864488</c:v>
+                  <c:v>8.087888554101534</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8091988083083601</c:v>
+                  <c:v>9.2382312100566431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9757982694071288</c:v>
+                  <c:v>10.393042696659142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,52 +4852,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-1.9588523927937214</c:v>
+                  <c:v>2.531280308865322E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.80997465138793878</c:v>
+                  <c:v>0.79227428895571161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1620225647976663</c:v>
+                  <c:v>1.6467493256652945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1619247240588908</c:v>
+                  <c:v>2.5786011719554747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1101916842492336</c:v>
+                  <c:v>3.4797714886515165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1258295449454465</c:v>
+                  <c:v>4.46032940890486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0731948770463839</c:v>
+                  <c:v>5.3807128307200633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1078924902211797</c:v>
+                  <c:v>6.3933386030602106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1099681752193273</c:v>
+                  <c:v>7.3773424148796956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1171260693594105</c:v>
+                  <c:v>8.3693944476711231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1606439602980174</c:v>
+                  <c:v>9.3997601185372393</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.1935313194708428</c:v>
+                  <c:v>10.42127381778735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.218653095568079</c:v>
+                  <c:v>11.4366759110223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.244574235126924</c:v>
+                  <c:v>12.453888443639299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.292402613431094</c:v>
+                  <c:v>13.494096944178469</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.34803372386159</c:v>
+                  <c:v>14.54301115556521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5047,37 +5047,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.9678144869574707</c:v>
+                  <c:v>9.588996263687477E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.83177500520751779</c:v>
+                  <c:v>0.86439544855037098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24293542161306259</c:v>
+                  <c:v>1.8270880839220307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.292854333240729</c:v>
+                  <c:v>2.8131835652496848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4123318207388968</c:v>
+                  <c:v>3.8888826306841788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4929563013064548</c:v>
+                  <c:v>4.9384663104565565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6186665639133393</c:v>
+                  <c:v>6.0396844916037837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7179507850072619</c:v>
+                  <c:v>7.1192576157988006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8483812175265442</c:v>
+                  <c:v>8.2334755863341869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9809777303481413</c:v>
+                  <c:v>9.3529214808213137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0964829921638568</c:v>
+                  <c:v>10.457959603650322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5212,49 +5212,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-1.9605065809796196</c:v>
+                  <c:v>7.7290840394539373E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.83104656310262048</c:v>
+                  <c:v>0.78881789650508294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19401945991736436</c:v>
+                  <c:v>1.6964328109948899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2321255780778038</c:v>
+                  <c:v>2.6687025817170649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1992976028214146</c:v>
+                  <c:v>3.5894703995944859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2412944356622626</c:v>
+                  <c:v>4.5971902850329718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2412829936722201</c:v>
+                  <c:v>5.5707389170981036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2966447067196425</c:v>
+                  <c:v>6.6047566541380522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3318690261316952</c:v>
+                  <c:v>7.6222196992331996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3698174647346804</c:v>
+                  <c:v>8.6452885353400131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.4243056877562132</c:v>
+                  <c:v>9.6871456706652967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4886043139636005</c:v>
+                  <c:v>10.740525300466734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.556541314636753</c:v>
+                  <c:v>11.799224683651081</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.607789421057413</c:v>
+                  <c:v>12.842394085569522</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.71115561043</c:v>
+                  <c:v>13.939128383436827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5401,55 +5401,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-1.957944029456113</c:v>
+                  <c:v>7.9876845878364592E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.80302555194675018</c:v>
+                  <c:v>0.78844564873822742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14735098759846932</c:v>
+                  <c:v>1.6206165472530574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1431140075416082</c:v>
+                  <c:v>2.5471234733867654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0676385769109573</c:v>
+                  <c:v>3.4239152124484211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0571596239858931</c:v>
+                  <c:v>4.3781385242079391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0055467848109405</c:v>
+                  <c:v>5.2990118274572842</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0066210103312923</c:v>
+                  <c:v>6.2776536759509556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9779647961466402</c:v>
+                  <c:v>7.2305419317242237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9663726465933866</c:v>
+                  <c:v>8.203357726998961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9839100670350165</c:v>
+                  <c:v>9.2076430177192403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9786019470062275</c:v>
+                  <c:v>10.190712166579036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9850704097233862</c:v>
+                  <c:v>11.186873665065443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.997031822011223</c:v>
+                  <c:v>12.189923798057709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.00121002402766</c:v>
+                  <c:v>13.186169417201416</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.03765304046761</c:v>
+                  <c:v>14.215500696200856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.054147609390709</c:v>
+                  <c:v>15.2256821864807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,11 +5524,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393015520"/>
-        <c:axId val="393025040"/>
+        <c:axId val="400458080"/>
+        <c:axId val="400458640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393015520"/>
+        <c:axId val="400458080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5585,12 +5585,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393025040"/>
+        <c:crossAx val="400458640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393025040"/>
+        <c:axId val="400458640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5648,7 +5648,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393015520"/>
+        <c:crossAx val="400458080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5905,7 +5905,7 @@
                   <c:v>2628.7363384566665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28695.360281533332</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>77940.330432899995</c:v>
@@ -6919,11 +6919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281850320"/>
-        <c:axId val="281853120"/>
+        <c:axId val="400464240"/>
+        <c:axId val="400464800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281850320"/>
+        <c:axId val="400464240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -6981,12 +6981,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281853120"/>
+        <c:crossAx val="400464800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281853120"/>
+        <c:axId val="400464800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7045,7 +7045,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281850320"/>
+        <c:crossAx val="400464240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7223,40 +7223,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.963829162796809</c:v>
+                  <c:v>1.1782426886005244E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.82214267806389973</c:v>
+                  <c:v>0.83001552430559766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22198376037174716</c:v>
+                  <c:v>1.7589948652665472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2683832400339901</c:v>
+                  <c:v>2.7416603735437604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3287236247680942</c:v>
+                  <c:v>3.7576796987193877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3968050794455928</c:v>
+                  <c:v>4.7930546241118881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4636409592810029</c:v>
+                  <c:v>5.8349244772073154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5640325333325968</c:v>
+                  <c:v>6.914758087843035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6497499714476671</c:v>
+                  <c:v>7.9833701226127234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7583695232375369</c:v>
+                  <c:v>9.0780800075120371</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8470914759234116</c:v>
+                  <c:v>10.15510136159808</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9532780249591237</c:v>
+                  <c:v>11.251465412258712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7268,37 +7268,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>-4.0531986387658183E-4</c:v>
+                  <c:v>-0.26504586105742467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11042313036631435</c:v>
+                  <c:v>0.30887723338103978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17910603464910388</c:v>
+                  <c:v>0.19305150334722779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22751655014093566</c:v>
+                  <c:v>0.24314102858420697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24183756566398099</c:v>
+                  <c:v>0.25651586587963654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25667501498077061</c:v>
+                  <c:v>0.27023348259859609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31602274764371441</c:v>
+                  <c:v>0.32946424417086245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3001389802682104</c:v>
+                  <c:v>0.31241475540015978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32649669915249868</c:v>
+                  <c:v>0.33747507446577174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29229076923535063</c:v>
+                  <c:v>0.30200279823859294</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32525266710154627</c:v>
+                  <c:v>0.33407952194868024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7340,37 +7340,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.9700923031221818</c:v>
+                  <c:v>7.8712636408795333E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2189354576242168</c:v>
+                  <c:v>0.60385484924843991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11820913250696763</c:v>
+                  <c:v>1.5489256315891522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99379187945769587</c:v>
+                  <c:v>2.5823189195798366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0767482172350409</c:v>
+                  <c:v>3.616329679161276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2032072237363423</c:v>
+                  <c:v>4.708119553395461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3446149990327241</c:v>
+                  <c:v>5.8224228299217398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4965951582806625</c:v>
+                  <c:v>6.9544037559349565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6460091007864488</c:v>
+                  <c:v>8.087888554101534</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8091988083083601</c:v>
+                  <c:v>9.2382312100566431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9757982694071288</c:v>
+                  <c:v>10.393042696659142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7382,34 +7382,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>6.0307752041131396E-2</c:v>
+                  <c:v>4.0842846288488374E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11056994181734359</c:v>
+                  <c:v>0.10787949529033893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26922077481297862</c:v>
+                  <c:v>0.283316482340563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23761623301763646</c:v>
+                  <c:v>0.24718256576763123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3569969996478331</c:v>
+                  <c:v>0.36868669352690009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37861265048389631</c:v>
+                  <c:v>0.38917513943375837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41690135743887979</c:v>
+                  <c:v>0.42597121092347212</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42337505205884429</c:v>
+                  <c:v>0.43118470053842217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42690582723184634</c:v>
+                  <c:v>0.43350936839468679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45764120663698477</c:v>
+                  <c:v>0.46429708450470886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7451,52 +7451,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-1.9588523927937214</c:v>
+                  <c:v>2.531280308865322E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.80997465138793878</c:v>
+                  <c:v>0.79227428895571161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1620225647976663</c:v>
+                  <c:v>1.6467493256652945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1619247240588908</c:v>
+                  <c:v>2.5786011719554747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1101916842492336</c:v>
+                  <c:v>3.4797714886515165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1258295449454465</c:v>
+                  <c:v>4.46032940890486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0731948770463839</c:v>
+                  <c:v>5.3807128307200633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1078924902211797</c:v>
+                  <c:v>6.3933386030602106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1099681752193273</c:v>
+                  <c:v>7.3773424148796956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1171260693594105</c:v>
+                  <c:v>8.3693944476711231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1606439602980174</c:v>
+                  <c:v>9.3997601185372393</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.1935313194708428</c:v>
+                  <c:v>10.42127381778735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.218653095568079</c:v>
+                  <c:v>11.4366759110223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.244574235126924</c:v>
+                  <c:v>12.453888443639299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.292402613431094</c:v>
+                  <c:v>13.494096944178469</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.34803372386159</c:v>
+                  <c:v>14.54301115556521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7508,49 +7508,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>-3.9955102764971506E-3</c:v>
+                  <c:v>-6.2048018398319645E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9949657480682493E-2</c:v>
+                  <c:v>-4.6859977566318184E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.989595444398725E-2</c:v>
+                  <c:v>0.10618214039800114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.476872129632444E-2</c:v>
+                  <c:v>-2.1924240778651686E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14933780525278545</c:v>
+                  <c:v>0.16993265795957338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.5808908093809888E-2</c:v>
+                  <c:v>-4.0853242139867352E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18074746754682885</c:v>
+                  <c:v>0.19991441602661708</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2038022734601974E-2</c:v>
+                  <c:v>0.10886873797094514</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11216478621072597</c:v>
+                  <c:v>0.12821332560205365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20371055901816537</c:v>
+                  <c:v>0.21974677545261531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15285673371290717</c:v>
+                  <c:v>0.16744754833402556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14247620585683451</c:v>
+                  <c:v>0.15585393274086612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13157315381758203</c:v>
+                  <c:v>0.14422389569489544</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19648098167197897</c:v>
+                  <c:v>0.2084072696498479</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1985097410602287</c:v>
+                  <c:v>0.20945477774799928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7592,37 +7592,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.9678144869574707</c:v>
+                  <c:v>9.588996263687477E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.83177500520751779</c:v>
+                  <c:v>0.86439544855037098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24293542161306259</c:v>
+                  <c:v>1.8270880839220307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.292854333240729</c:v>
+                  <c:v>2.8131835652496848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4123318207388968</c:v>
+                  <c:v>3.8888826306841788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4929563013064548</c:v>
+                  <c:v>4.9384663104565565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6186665639133393</c:v>
+                  <c:v>6.0396844916037837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7179507850072619</c:v>
+                  <c:v>7.1192576157988006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8483812175265442</c:v>
+                  <c:v>8.2334755863341869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9809777303481413</c:v>
+                  <c:v>9.3529214808213137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0964829921638568</c:v>
+                  <c:v>10.457959603650322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7634,34 +7634,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>-6.6635216254626135E-3</c:v>
+                  <c:v>-5.1394653408672643E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15649101116211753</c:v>
+                  <c:v>0.16424718930868293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15661454046042708</c:v>
+                  <c:v>0.16525783709594841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35140776789751105</c:v>
+                  <c:v>0.36754258371404336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26156800693692328</c:v>
+                  <c:v>0.27255207952320798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37353713969442559</c:v>
+                  <c:v>0.38562228960070855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30169095029910487</c:v>
+                  <c:v>0.31133034989955954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39144160029959618</c:v>
+                  <c:v>0.40119168171511116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38220477674581477</c:v>
+                  <c:v>0.39052838706837911</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32374408288279932</c:v>
+                  <c:v>0.330298467982723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7703,49 +7703,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-1.9605065809796196</c:v>
+                  <c:v>7.7290840394539373E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.83104656310262048</c:v>
+                  <c:v>0.78881789650508294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19401945991736436</c:v>
+                  <c:v>1.6964328109948899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2321255780778038</c:v>
+                  <c:v>2.6687025817170649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1992976028214146</c:v>
+                  <c:v>3.5894703995944859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2412944356622626</c:v>
+                  <c:v>4.5971902850329718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2412829936722201</c:v>
+                  <c:v>5.5707389170981036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2966447067196425</c:v>
+                  <c:v>6.6047566541380522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3318690261316952</c:v>
+                  <c:v>7.6222196992331996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3698174647346804</c:v>
+                  <c:v>8.6452885353400131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.4243056877562132</c:v>
+                  <c:v>9.6871456706652967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4886043139636005</c:v>
+                  <c:v>10.740525300466734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.556541314636753</c:v>
+                  <c:v>11.799224683651081</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.607789421057413</c:v>
+                  <c:v>12.842394085569522</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.71115561043</c:v>
+                  <c:v>13.939128383436827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7757,46 +7757,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="1">
-                  <c:v>-3.8840265538659671E-2</c:v>
+                  <c:v>-0.11074208538079086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3015005034965755E-2</c:v>
+                  <c:v>8.9969369627914908E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17449785739415904</c:v>
+                  <c:v>0.19277198405871621</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.9946116066272628E-3</c:v>
+                  <c:v>6.6666663472654346E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21082556610103395</c:v>
+                  <c:v>0.2297789426055418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7943294740211004E-2</c:v>
+                  <c:v>0.11323347460248688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23930015390931891</c:v>
+                  <c:v>0.25614555927382932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17471783095788221</c:v>
+                  <c:v>0.18967887126291841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16241946842004298</c:v>
+                  <c:v>0.1761483333410791</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21886177874595444</c:v>
+                  <c:v>0.23211006444578428</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23540252112042928</c:v>
+                  <c:v>0.24779357165198596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2473260992016566</c:v>
+                  <c:v>0.25855179774673392</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20153214418525628</c:v>
+                  <c:v>0.21170228602219121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31828476154180729</c:v>
+                  <c:v>0.32732446015141975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7838,55 +7838,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-1.957944029456113</c:v>
+                  <c:v>7.9876845878364592E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.80302555194675018</c:v>
+                  <c:v>0.78844564873822742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14735098759846932</c:v>
+                  <c:v>1.6206165472530574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1431140075416082</c:v>
+                  <c:v>2.5471234733867654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0676385769109573</c:v>
+                  <c:v>3.4239152124484211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0571596239858931</c:v>
+                  <c:v>4.3781385242079391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0055467848109405</c:v>
+                  <c:v>5.2990118274572842</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0066210103312923</c:v>
+                  <c:v>6.2776536759509556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9779647961466402</c:v>
+                  <c:v>7.2305419317242237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9663726465933866</c:v>
+                  <c:v>8.203357726998961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9839100670350165</c:v>
+                  <c:v>9.2076430177192403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9786019470062275</c:v>
+                  <c:v>10.190712166579036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9850704097233862</c:v>
+                  <c:v>11.186873665065443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.997031822011223</c:v>
+                  <c:v>12.189923798057709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.00121002402766</c:v>
+                  <c:v>13.186169417201416</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.03765304046761</c:v>
+                  <c:v>14.215500696200856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.054147609390709</c:v>
+                  <c:v>15.2256821864807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7898,52 +7898,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>5.5402391702778766E-3</c:v>
+                  <c:v>-4.9130065598773136E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.4772453627418207E-2</c:v>
+                  <c:v>-0.1078086035595493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6052177612149778E-2</c:v>
+                  <c:v>0.11519071294757506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.11104356459174929</c:v>
+                  <c:v>-9.9516155032836312E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9403977160791759E-2</c:v>
+                  <c:v>0.12096597033193311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4478596617946779E-2</c:v>
+                  <c:v>-2.6741625870882232E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8676809350627046E-2</c:v>
+                  <c:v>0.11896201453232283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.234104570380235E-2</c:v>
+                  <c:v>4.0733161947652412E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1991074666765127E-2</c:v>
+                  <c:v>6.9818142605431524E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13353088549501599</c:v>
+                  <c:v>0.15093514975031641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4986159603482455E-2</c:v>
+                  <c:v>9.1284176167296296E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9448643477896425E-2</c:v>
+                  <c:v>0.10502693692479052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.7083241975430057E-2</c:v>
+                  <c:v>0.11146740295940191</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.4489915278758612E-2</c:v>
+                  <c:v>9.8066489313421074E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1538313279875651</c:v>
+                  <c:v>0.16673310846158473</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11239256591151758</c:v>
+                  <c:v>0.12434768712026428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7958,11 +7958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390488224"/>
-        <c:axId val="390487664"/>
+        <c:axId val="380760016"/>
+        <c:axId val="380760576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390488224"/>
+        <c:axId val="380760016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8019,12 +8019,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390487664"/>
+        <c:crossAx val="380760576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390487664"/>
+        <c:axId val="380760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8081,7 +8081,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390488224"/>
+        <c:crossAx val="380760016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8300,40 +8300,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.963829162796809</c:v>
+                  <c:v>1.1782426886005244E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.82214267806389973</c:v>
+                  <c:v>0.83001552430559766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22198376037174716</c:v>
+                  <c:v>1.7589948652665472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2683832400339901</c:v>
+                  <c:v>2.7416603735437604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3287236247680942</c:v>
+                  <c:v>3.7576796987193877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3968050794455928</c:v>
+                  <c:v>4.7930546241118881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4636409592810029</c:v>
+                  <c:v>5.8349244772073154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5640325333325968</c:v>
+                  <c:v>6.914758087843035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6497499714476671</c:v>
+                  <c:v>7.9833701226127234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7583695232375369</c:v>
+                  <c:v>9.0780800075120371</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8470914759234116</c:v>
+                  <c:v>10.15510136159808</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9532780249591237</c:v>
+                  <c:v>11.251465412258712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8345,10 +8345,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>1.8644455466584113</c:v>
+                  <c:v>1.9423403605604825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6909538739917969</c:v>
+                  <c:v>1.7169743865176184</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.6027555746450712</c:v>
@@ -8417,37 +8417,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.9700923031221818</c:v>
+                  <c:v>7.8712636408795333E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2189354576242168</c:v>
+                  <c:v>0.60385484924843991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11820913250696763</c:v>
+                  <c:v>1.5489256315891522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99379187945769587</c:v>
+                  <c:v>2.5823189195798366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0767482172350409</c:v>
+                  <c:v>3.616329679161276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2032072237363423</c:v>
+                  <c:v>4.708119553395461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3446149990327241</c:v>
+                  <c:v>5.8224228299217398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4965951582806625</c:v>
+                  <c:v>6.9544037559349565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6460091007864488</c:v>
+                  <c:v>8.087888554101534</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8091988083083601</c:v>
+                  <c:v>9.2382312100566431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9757982694071288</c:v>
+                  <c:v>10.393042696659142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8528,52 +8528,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-1.9588523927937214</c:v>
+                  <c:v>2.531280308865322E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.80997465138793878</c:v>
+                  <c:v>0.79227428895571161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1620225647976663</c:v>
+                  <c:v>1.6467493256652945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1619247240588908</c:v>
+                  <c:v>2.5786011719554747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1101916842492336</c:v>
+                  <c:v>3.4797714886515165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1258295449454465</c:v>
+                  <c:v>4.46032940890486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0731948770463839</c:v>
+                  <c:v>5.3807128307200633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1078924902211797</c:v>
+                  <c:v>6.3933386030602106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1099681752193273</c:v>
+                  <c:v>7.3773424148796956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1171260693594105</c:v>
+                  <c:v>8.3693944476711231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1606439602980174</c:v>
+                  <c:v>9.3997601185372393</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.1935313194708428</c:v>
+                  <c:v>10.42127381778735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.218653095568079</c:v>
+                  <c:v>11.4366759110223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.244574235126924</c:v>
+                  <c:v>12.453888443639299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.292402613431094</c:v>
+                  <c:v>13.494096944178469</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.34803372386159</c:v>
+                  <c:v>14.54301115556521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8669,37 +8669,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.9678144869574707</c:v>
+                  <c:v>9.588996263687477E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.83177500520751779</c:v>
+                  <c:v>0.86439544855037098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24293542161306259</c:v>
+                  <c:v>1.8270880839220307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.292854333240729</c:v>
+                  <c:v>2.8131835652496848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4123318207388968</c:v>
+                  <c:v>3.8888826306841788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4929563013064548</c:v>
+                  <c:v>4.9384663104565565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6186665639133393</c:v>
+                  <c:v>6.0396844916037837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7179507850072619</c:v>
+                  <c:v>7.1192576157988006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8483812175265442</c:v>
+                  <c:v>8.2334755863341869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9809777303481413</c:v>
+                  <c:v>9.3529214808213137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0964829921638568</c:v>
+                  <c:v>10.457959603650322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8780,49 +8780,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-1.9605065809796196</c:v>
+                  <c:v>7.7290840394539373E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.83104656310262048</c:v>
+                  <c:v>0.78881789650508294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19401945991736436</c:v>
+                  <c:v>1.6964328109948899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2321255780778038</c:v>
+                  <c:v>2.6687025817170649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1992976028214146</c:v>
+                  <c:v>3.5894703995944859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2412944356622626</c:v>
+                  <c:v>4.5971902850329718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2412829936722201</c:v>
+                  <c:v>5.5707389170981036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2966447067196425</c:v>
+                  <c:v>6.6047566541380522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3318690261316952</c:v>
+                  <c:v>7.6222196992331996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3698174647346804</c:v>
+                  <c:v>8.6452885353400131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.4243056877562132</c:v>
+                  <c:v>9.6871456706652967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4886043139636005</c:v>
+                  <c:v>10.740525300466734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.556541314636753</c:v>
+                  <c:v>11.799224683651081</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.607789421057413</c:v>
+                  <c:v>12.842394085569522</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.71115561043</c:v>
+                  <c:v>13.939128383436827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8915,55 +8915,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-1.957944029456113</c:v>
+                  <c:v>7.9876845878364592E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.80302555194675018</c:v>
+                  <c:v>0.78844564873822742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14735098759846932</c:v>
+                  <c:v>1.6206165472530574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1431140075416082</c:v>
+                  <c:v>2.5471234733867654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0676385769109573</c:v>
+                  <c:v>3.4239152124484211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0571596239858931</c:v>
+                  <c:v>4.3781385242079391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0055467848109405</c:v>
+                  <c:v>5.2990118274572842</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0066210103312923</c:v>
+                  <c:v>6.2776536759509556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9779647961466402</c:v>
+                  <c:v>7.2305419317242237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9663726465933866</c:v>
+                  <c:v>8.203357726998961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9839100670350165</c:v>
+                  <c:v>9.2076430177192403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9786019470062275</c:v>
+                  <c:v>10.190712166579036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9850704097233862</c:v>
+                  <c:v>11.186873665065443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.997031822011223</c:v>
+                  <c:v>12.189923798057709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.00121002402766</c:v>
+                  <c:v>13.186169417201416</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.03765304046761</c:v>
+                  <c:v>14.215500696200856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.054147609390709</c:v>
+                  <c:v>15.2256821864807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9035,11 +9035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391465424"/>
-        <c:axId val="391464304"/>
+        <c:axId val="380765616"/>
+        <c:axId val="380766176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391465424"/>
+        <c:axId val="380765616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9096,12 +9096,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391464304"/>
+        <c:crossAx val="380766176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391464304"/>
+        <c:axId val="380766176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -9159,7 +9159,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391465424"/>
+        <c:crossAx val="380765616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9789,10 +9789,10 @@
                   <c:v>7.0917990508595521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.374643979662039</c:v>
+                  <c:v>97.062487649282872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184.14241242783589</c:v>
+                  <c:v>190.22503494870423</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>295.62260962436187</c:v>
@@ -10414,11 +10414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276110064"/>
-        <c:axId val="276113984"/>
+        <c:axId val="380771216"/>
+        <c:axId val="380771776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="276110064"/>
+        <c:axId val="380771216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10475,12 +10475,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276113984"/>
+        <c:crossAx val="380771776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276113984"/>
+        <c:axId val="380771776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10537,7 +10537,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276110064"/>
+        <c:crossAx val="380771216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10776,37 +10776,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-4.0531986387658183E-4</c:v>
+                  <c:v>-0.26504586105742467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11042313036631435</c:v>
+                  <c:v>0.30887723338103978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17910603464910388</c:v>
+                  <c:v>0.19305150334722779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22751655014093566</c:v>
+                  <c:v>0.24314102858420697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24183756566398099</c:v>
+                  <c:v>0.25651586587963654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25667501498077061</c:v>
+                  <c:v>0.27023348259859609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31602274764371441</c:v>
+                  <c:v>0.32946424417086245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3001389802682104</c:v>
+                  <c:v>0.31241475540015978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32649669915249868</c:v>
+                  <c:v>0.33747507446577174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29229076923535063</c:v>
+                  <c:v>0.30200279823859294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32525266710154627</c:v>
+                  <c:v>0.33407952194868024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10818,10 +10818,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.8644455466584113</c:v>
+                  <c:v>1.9423403605604825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6909538739917969</c:v>
+                  <c:v>1.7169743865176184</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6027555746450712</c:v>
@@ -10937,34 +10937,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0307752041131396E-2</c:v>
+                  <c:v>4.0842846288488374E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11056994181734359</c:v>
+                  <c:v>0.10787949529033893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26922077481297862</c:v>
+                  <c:v>0.283316482340563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23761623301763646</c:v>
+                  <c:v>0.24718256576763123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3569969996478331</c:v>
+                  <c:v>0.36868669352690009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37861265048389631</c:v>
+                  <c:v>0.38917513943375837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41690135743887979</c:v>
+                  <c:v>0.42597121092347212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42337505205884429</c:v>
+                  <c:v>0.43118470053842217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42690582723184634</c:v>
+                  <c:v>0.43350936839468679</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45764120663698477</c:v>
+                  <c:v>0.46429708450470886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11092,46 +11092,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-3.9949657480682493E-2</c:v>
+                  <c:v>-4.6859977566318184E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.989595444398725E-2</c:v>
+                  <c:v>0.10618214039800114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.476872129632444E-2</c:v>
+                  <c:v>-2.1924240778651686E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14933780525278545</c:v>
+                  <c:v>0.16993265795957338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.5808908093809888E-2</c:v>
+                  <c:v>-4.0853242139867352E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18074746754682885</c:v>
+                  <c:v>0.19991441602661708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2038022734601974E-2</c:v>
+                  <c:v>0.10886873797094514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11216478621072597</c:v>
+                  <c:v>0.12821332560205365</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20371055901816537</c:v>
+                  <c:v>0.21974677545261531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15285673371290717</c:v>
+                  <c:v>0.16744754833402556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14247620585683451</c:v>
+                  <c:v>0.15585393274086612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13157315381758203</c:v>
+                  <c:v>0.14422389569489544</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19648098167197897</c:v>
+                  <c:v>0.2084072696498479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1985097410602287</c:v>
+                  <c:v>0.20945477774799928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11271,34 +11271,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6.6635216254626135E-3</c:v>
+                  <c:v>-5.1394653408672643E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15649101116211753</c:v>
+                  <c:v>0.16424718930868293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15661454046042708</c:v>
+                  <c:v>0.16525783709594841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35140776789751105</c:v>
+                  <c:v>0.36754258371404336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26156800693692328</c:v>
+                  <c:v>0.27255207952320798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37353713969442559</c:v>
+                  <c:v>0.38562228960070855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30169095029910487</c:v>
+                  <c:v>0.31133034989955954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39144160029959618</c:v>
+                  <c:v>0.40119168171511116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38220477674581477</c:v>
+                  <c:v>0.39052838706837911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32374408288279932</c:v>
+                  <c:v>0.330298467982723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11426,43 +11426,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>8.3015005034965755E-2</c:v>
+                  <c:v>8.9969369627914908E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17449785739415904</c:v>
+                  <c:v>0.19277198405871621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.9946116066272628E-3</c:v>
+                  <c:v>6.6666663472654346E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21082556610103395</c:v>
+                  <c:v>0.2297789426055418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7943294740211004E-2</c:v>
+                  <c:v>0.11323347460248688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23930015390931891</c:v>
+                  <c:v>0.25614555927382932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17471783095788221</c:v>
+                  <c:v>0.18967887126291841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16241946842004298</c:v>
+                  <c:v>0.1761483333410791</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21886177874595444</c:v>
+                  <c:v>0.23211006444578428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23540252112042928</c:v>
+                  <c:v>0.24779357165198596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2473260992016566</c:v>
+                  <c:v>0.25855179774673392</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20153214418525628</c:v>
+                  <c:v>0.21170228602219121</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31828476154180729</c:v>
+                  <c:v>0.32732446015141975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11599,49 +11599,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-9.4772453627418207E-2</c:v>
+                  <c:v>-0.1078086035595493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6052177612149778E-2</c:v>
+                  <c:v>0.11519071294757506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11104356459174929</c:v>
+                  <c:v>-9.9516155032836312E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9403977160791759E-2</c:v>
+                  <c:v>0.12096597033193311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.4478596617946779E-2</c:v>
+                  <c:v>-2.6741625870882232E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8676809350627046E-2</c:v>
+                  <c:v>0.11896201453232283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.234104570380235E-2</c:v>
+                  <c:v>4.0733161947652412E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1991074666765127E-2</c:v>
+                  <c:v>6.9818142605431524E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13353088549501599</c:v>
+                  <c:v>0.15093514975031641</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4986159603482455E-2</c:v>
+                  <c:v>9.1284176167296296E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9448643477896425E-2</c:v>
+                  <c:v>0.10502693692479052</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.7083241975430057E-2</c:v>
+                  <c:v>0.11146740295940191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4489915278758612E-2</c:v>
+                  <c:v>9.8066489313421074E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1538313279875651</c:v>
+                  <c:v>0.16673310846158473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11239256591151758</c:v>
+                  <c:v>0.12434768712026428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11710,11 +11710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="539847936"/>
-        <c:axId val="539848496"/>
+        <c:axId val="403641680"/>
+        <c:axId val="403642240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="539847936"/>
+        <c:axId val="403641680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11771,12 +11771,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539848496"/>
+        <c:crossAx val="403642240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539848496"/>
+        <c:axId val="403642240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -11834,7 +11834,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539847936"/>
+        <c:crossAx val="403641680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17204,14 +17204,11 @@
           <cell r="W2">
             <v>4.2122077073200002</v>
           </cell>
-          <cell r="AB2">
-            <v>-2.36137909226386E-7</v>
-          </cell>
           <cell r="AD2">
-            <v>4.850295926548287E-3</v>
+            <v>4.1123320281332334E-3</v>
           </cell>
           <cell r="AE2">
-            <v>-1.9700923031221818</v>
+            <v>7.8712636408795333E-8</v>
           </cell>
           <cell r="AK2">
             <v>2515.4747919599999</v>
@@ -17242,17 +17239,14 @@
           <cell r="W3">
             <v>12.2213842794</v>
           </cell>
-          <cell r="AB3">
-            <v>0.14424923787768051</v>
-          </cell>
           <cell r="AD3">
-            <v>-4.0450284855741425E-2</v>
+            <v>-2.0550815545431006E-2</v>
           </cell>
           <cell r="AE3">
-            <v>-1.2189354576242168</v>
+            <v>0.60385484924843991</v>
           </cell>
           <cell r="AI3">
-            <v>6.0307752041131396E-2</v>
+            <v>4.0842846288488374E-2</v>
           </cell>
           <cell r="AK3">
             <v>7369.2502595533333</v>
@@ -17286,17 +17280,14 @@
           <cell r="W4">
             <v>43.220880601200001</v>
           </cell>
-          <cell r="AB4">
-            <v>0.31701430431554378</v>
-          </cell>
           <cell r="AD4">
-            <v>-0.16215753058077409</v>
+            <v>-0.1225045745579928</v>
           </cell>
           <cell r="AE4">
-            <v>-0.11820913250696763</v>
+            <v>1.5489256315891522</v>
           </cell>
           <cell r="AI4">
-            <v>0.11056994181734359</v>
+            <v>0.10787949529033893</v>
           </cell>
           <cell r="AK4">
             <v>25328.292626999999</v>
@@ -17330,17 +17321,14 @@
           <cell r="W5">
             <v>85.468871372600006</v>
           </cell>
-          <cell r="AB5">
-            <v>0.22118664939348998</v>
-          </cell>
           <cell r="AD5">
-            <v>-0.46153130461471714</v>
+            <v>-0.41528192578586187</v>
           </cell>
           <cell r="AE5">
-            <v>0.99379187945769587</v>
+            <v>2.5823189195798366</v>
           </cell>
           <cell r="AI5">
-            <v>0.26922077481297862</v>
+            <v>0.283316482340563</v>
           </cell>
           <cell r="AK5">
             <v>49400.543063766672</v>
@@ -17374,17 +17362,14 @@
           <cell r="W6">
             <v>132.47279832500001</v>
           </cell>
-          <cell r="AB6">
-            <v>0.1159836065091735</v>
-          </cell>
           <cell r="AD6">
-            <v>-0.71885931011994497</v>
+            <v>-0.67087135837053935</v>
           </cell>
           <cell r="AE6">
-            <v>2.0767482172350409</v>
+            <v>3.616329679161276</v>
           </cell>
           <cell r="AI6">
-            <v>0.23761623301763646</v>
+            <v>0.24718256576763123</v>
           </cell>
           <cell r="AK6">
             <v>76159.720779999989</v>
@@ -17418,17 +17403,14 @@
           <cell r="W7">
             <v>181.88015537199999</v>
           </cell>
-          <cell r="AB7">
-            <v>-0.16414932304338326</v>
-          </cell>
           <cell r="AD7">
-            <v>-1.1210017956671885</v>
+            <v>-1.0733997571280911</v>
           </cell>
           <cell r="AE7">
-            <v>3.2032072237363423</v>
+            <v>4.708119553395461</v>
           </cell>
           <cell r="AI7">
-            <v>0.3569969996478331</v>
+            <v>0.36868669352690009</v>
           </cell>
           <cell r="AK7">
             <v>104360.67064436666</v>
@@ -17462,17 +17444,14 @@
           <cell r="W8">
             <v>234.26768086800001</v>
           </cell>
-          <cell r="AB8">
-            <v>-0.49149247383222239</v>
-          </cell>
           <cell r="AD8">
-            <v>-1.5531532187550792</v>
+            <v>-1.5070588901416995</v>
           </cell>
           <cell r="AE8">
-            <v>4.3446149990327241</v>
+            <v>5.8224228299217398</v>
           </cell>
           <cell r="AI8">
-            <v>0.37861265048389631</v>
+            <v>0.38917513943375837</v>
           </cell>
           <cell r="AK8">
             <v>134186.94364290001</v>
@@ -17506,17 +17485,14 @@
           <cell r="W9">
             <v>282.455016199</v>
           </cell>
-          <cell r="AB9">
-            <v>-0.88855303993187196</v>
-          </cell>
           <cell r="AD9">
-            <v>-2.0334153108882016</v>
+            <v>-1.9892501759378227</v>
           </cell>
           <cell r="AE9">
-            <v>5.4965951582806625</v>
+            <v>6.9544037559349565</v>
           </cell>
           <cell r="AI9">
-            <v>0.41690135743887979</v>
+            <v>0.42597121092347212</v>
           </cell>
           <cell r="AK9">
             <v>162015.33762943334</v>
@@ -17550,17 +17526,14 @@
           <cell r="W10">
             <v>328.01130412100002</v>
           </cell>
-          <cell r="AB10">
-            <v>-1.305056091661605</v>
-          </cell>
           <cell r="AD10">
-            <v>-2.5200484986337504</v>
+            <v>-2.4779914792001323</v>
           </cell>
           <cell r="AE10">
-            <v>6.6460091007864488</v>
+            <v>8.087888554101534</v>
           </cell>
           <cell r="AI10">
-            <v>0.42337505205884429</v>
+            <v>0.43118470053842217</v>
           </cell>
           <cell r="AK10">
             <v>188604.79414103334</v>
@@ -17594,17 +17567,14 @@
           <cell r="W11">
             <v>369.68770880099999</v>
           </cell>
-          <cell r="AB11">
-            <v>-1.742412368716928</v>
-          </cell>
           <cell r="AD11">
-            <v>-3.0166209629509613</v>
+            <v>-2.9766757974206981</v>
           </cell>
           <cell r="AE11">
-            <v>7.8091988083083601</v>
+            <v>9.2382312100566431</v>
           </cell>
           <cell r="AI11">
-            <v>0.42690582723184634</v>
+            <v>0.43350936839468679</v>
           </cell>
           <cell r="AK11">
             <v>213458.34164</v>
@@ -17638,17 +17608,14 @@
           <cell r="W12">
             <v>413.64107056900002</v>
           </cell>
-          <cell r="AB12">
-            <v>-2.2197631133044293</v>
-          </cell>
           <cell r="AD12">
-            <v>-3.550504947990258</v>
+            <v>-3.5128514038027872</v>
           </cell>
           <cell r="AE12">
-            <v>8.9757982694071288</v>
+            <v>10.393042696659142</v>
           </cell>
           <cell r="AI12">
-            <v>0.45764120663698477</v>
+            <v>0.46429708450470886</v>
           </cell>
           <cell r="AK12">
             <v>239369.36507900001</v>
@@ -17769,14 +17736,11 @@
           <cell r="W2">
             <v>4.2240728909899996</v>
           </cell>
-          <cell r="AB2">
-            <v>-1.2581269359657199E-9</v>
-          </cell>
           <cell r="AD2">
-            <v>-7.3646714530181123E-3</v>
+            <v>-6.5499854898561551E-3</v>
           </cell>
           <cell r="AE2">
-            <v>-1.9588523927937214</v>
+            <v>2.531280308865322E-6</v>
           </cell>
           <cell r="AK2">
             <v>2722.5836246366666</v>
@@ -17807,17 +17771,14 @@
           <cell r="W3">
             <v>68.239404295900002</v>
           </cell>
-          <cell r="AB3">
-            <v>0.64105581271286516</v>
-          </cell>
           <cell r="AD3">
-            <v>-2.7743186307924717E-3</v>
+            <v>4.2608907106856275E-2</v>
           </cell>
           <cell r="AE3">
-            <v>-0.80997465138793878</v>
+            <v>0.79227428895571161</v>
           </cell>
           <cell r="AI3">
-            <v>-3.9955102764971506E-3</v>
+            <v>-6.2048018398319645E-2</v>
           </cell>
           <cell r="AK3">
             <v>43859.805339299994</v>
@@ -17851,17 +17812,14 @@
           <cell r="W4">
             <v>197.45593798499999</v>
           </cell>
-          <cell r="AB4">
-            <v>1.0701225422241167</v>
-          </cell>
           <cell r="AD4">
-            <v>3.6056637227999344E-2</v>
+            <v>8.2649588158046239E-2</v>
           </cell>
           <cell r="AE4">
-            <v>0.1620225647976663</v>
+            <v>1.6467493256652945</v>
           </cell>
           <cell r="AI4">
-            <v>-3.9949657480682493E-2</v>
+            <v>-4.6859977566318184E-2</v>
           </cell>
           <cell r="AK4">
             <v>125791.86203140001</v>
@@ -17895,17 +17853,14 @@
           <cell r="W5">
             <v>379.82954654000002</v>
           </cell>
-          <cell r="AB5">
-            <v>1.2796901620335754</v>
-          </cell>
           <cell r="AD5">
-            <v>-5.3830521729392178E-2</v>
+            <v>-1.6296435414874244E-2</v>
           </cell>
           <cell r="AE5">
-            <v>1.1619247240588908</v>
+            <v>2.5786011719554747</v>
           </cell>
           <cell r="AI5">
-            <v>8.989595444398725E-2</v>
+            <v>0.10618214039800114</v>
           </cell>
           <cell r="AK5">
             <v>240700.15517366666</v>
@@ -17939,17 +17894,14 @@
           <cell r="W6">
             <v>612.01060798499998</v>
           </cell>
-          <cell r="AB6">
-            <v>1.5621054671954515</v>
-          </cell>
           <cell r="AD6">
-            <v>-2.0860492076021364E-2</v>
+            <v>3.4610395909435709E-3</v>
           </cell>
           <cell r="AE6">
-            <v>2.1101916842492336</v>
+            <v>3.4797714886515165</v>
           </cell>
           <cell r="AI6">
-            <v>-3.476872129632444E-2</v>
+            <v>-2.1924240778651686E-2</v>
           </cell>
           <cell r="AK6">
             <v>384207.03470800002</v>
@@ -17983,17 +17935,14 @@
           <cell r="W7">
             <v>881.14109999899995</v>
           </cell>
-          <cell r="AB7">
-            <v>1.6235844291454193</v>
-          </cell>
           <cell r="AD7">
-            <v>-0.17253362112402804</v>
+            <v>-0.16316777408101846</v>
           </cell>
           <cell r="AE7">
-            <v>3.1258295449454465</v>
+            <v>4.46032940890486</v>
           </cell>
           <cell r="AI7">
-            <v>0.14933780525278545</v>
+            <v>0.16993265795957338</v>
           </cell>
           <cell r="AK7">
             <v>550081.61634333339</v>
@@ -18027,17 +17976,14 @@
           <cell r="W8">
             <v>1170.67181512</v>
           </cell>
-          <cell r="AB8">
-            <v>1.858851189179811</v>
-          </cell>
           <cell r="AD8">
-            <v>-0.11966219637354514</v>
+            <v>-0.12556712728808228</v>
           </cell>
           <cell r="AE8">
-            <v>4.0731948770463839</v>
+            <v>5.3807128307200633</v>
           </cell>
           <cell r="AI8">
-            <v>-5.5808908093809888E-2</v>
+            <v>-4.0853242139867352E-2</v>
           </cell>
           <cell r="AK8">
             <v>729663.24277466664</v>
@@ -18071,17 +18017,14 @@
           <cell r="W9">
             <v>1482.87835591</v>
           </cell>
-          <cell r="AB9">
-            <v>1.8344607170093674</v>
-          </cell>
           <cell r="AD9">
-            <v>-0.30668116963163783</v>
+            <v>-0.32800561721896493</v>
           </cell>
           <cell r="AE9">
-            <v>5.1078924902211797</v>
+            <v>6.3933386030602106</v>
           </cell>
           <cell r="AI9">
-            <v>0.18074746754682885</v>
+            <v>0.19991441602661708</v>
           </cell>
           <cell r="AK9">
             <v>923395.66245333327</v>
@@ -18115,17 +18058,14 @@
           <cell r="W10">
             <v>1800.4591455899999</v>
           </cell>
-          <cell r="AB10">
-            <v>1.8852923228709129</v>
-          </cell>
           <cell r="AD10">
-            <v>-0.39891023430928918</v>
+            <v>-0.43513287037035164</v>
           </cell>
           <cell r="AE10">
-            <v>6.1099681752193273</v>
+            <v>7.3773424148796956</v>
           </cell>
           <cell r="AI10">
-            <v>9.2038022734601974E-2</v>
+            <v>0.10886873797094514</v>
           </cell>
           <cell r="AK10">
             <v>1123146.0568890001</v>
@@ -18159,17 +18099,14 @@
           <cell r="W11">
             <v>2116.5728955099999</v>
           </cell>
-          <cell r="AB11">
-            <v>1.8993222021266298</v>
-          </cell>
           <cell r="AD11">
-            <v>-0.51187788418595659</v>
+            <v>-0.56232716066481814</v>
           </cell>
           <cell r="AE11">
-            <v>7.1171260693594105</v>
+            <v>8.3693944476711231</v>
           </cell>
           <cell r="AI11">
-            <v>0.11216478621072597</v>
+            <v>0.12821332560205365</v>
           </cell>
           <cell r="AK11">
             <v>1325751.0573406667</v>
@@ -18203,17 +18140,14 @@
           <cell r="W12">
             <v>2440.6718577699999</v>
           </cell>
-          <cell r="AB12">
-            <v>1.8032093482882816</v>
-          </cell>
           <cell r="AD12">
-            <v>-0.72445349709451712</v>
+            <v>-0.78874669437471789</v>
           </cell>
           <cell r="AE12">
-            <v>8.1606439602980174</v>
+            <v>9.3997601185372393</v>
           </cell>
           <cell r="AI12">
-            <v>0.20371055901816537</v>
+            <v>0.21974677545261531</v>
           </cell>
           <cell r="AK12">
             <v>1534206.2600356666</v>
@@ -18247,17 +18181,14 @@
           <cell r="W13">
             <v>2762.9585197400002</v>
           </cell>
-          <cell r="AB13">
-            <v>1.7507299758379502</v>
-          </cell>
           <cell r="AD13">
-            <v>-0.8823372851110256</v>
+            <v>-0.95979665890377008</v>
           </cell>
           <cell r="AE13">
-            <v>9.1935313194708428</v>
+            <v>10.42127381778735</v>
           </cell>
           <cell r="AI13">
-            <v>0.15285673371290717</v>
+            <v>0.16744754833402556</v>
           </cell>
           <cell r="AK13">
             <v>1742907.02988</v>
@@ -18291,17 +18222,14 @@
           <cell r="W14">
             <v>3068.3094737400002</v>
           </cell>
-          <cell r="AB14">
-            <v>1.6983816350330971</v>
-          </cell>
           <cell r="AD14">
-            <v>-1.0283927463105793</v>
+            <v>-1.1180510684477447</v>
           </cell>
           <cell r="AE14">
-            <v>10.218653095568079</v>
+            <v>11.4366759110223</v>
           </cell>
           <cell r="AI14">
-            <v>0.14247620585683451</v>
+            <v>0.15585393274086612</v>
           </cell>
           <cell r="AK14">
             <v>1945440.1324166667</v>
@@ -18335,17 +18263,14 @@
           <cell r="W15">
             <v>3373.1603332</v>
           </cell>
-          <cell r="AB15">
-            <v>1.6503316009821023</v>
-          </cell>
           <cell r="AD15">
-            <v>-1.1633764262104642</v>
+            <v>-1.2647574226514391</v>
           </cell>
           <cell r="AE15">
-            <v>11.244574235126924</v>
+            <v>12.453888443639299</v>
           </cell>
           <cell r="AI15">
-            <v>0.13157315381758203</v>
+            <v>0.14422389569489544</v>
           </cell>
           <cell r="AK15">
             <v>2148422.9221899998</v>
@@ -18379,17 +18304,14 @@
           <cell r="W16">
             <v>3657.3588259100002</v>
           </cell>
-          <cell r="AB16">
-            <v>1.5229187844645886</v>
-          </cell>
           <cell r="AD16">
-            <v>-1.3692547746034252</v>
+            <v>-1.48154443611537</v>
           </cell>
           <cell r="AE16">
-            <v>12.292402613431094</v>
+            <v>13.494096944178469</v>
           </cell>
           <cell r="AI16">
-            <v>0.19648098167197897</v>
+            <v>0.2084072696498479</v>
           </cell>
           <cell r="AK16">
             <v>2344706.9102633335</v>
@@ -18423,17 +18345,14 @@
           <cell r="W17">
             <v>3937.7048846100001</v>
           </cell>
-          <cell r="AB17">
-            <v>1.3844579482043651</v>
-          </cell>
           <cell r="AD17">
-            <v>-1.5788078329901047</v>
+            <v>-1.7012445291380978</v>
           </cell>
           <cell r="AE17">
-            <v>13.34803372386159</v>
+            <v>14.54301115556521</v>
           </cell>
           <cell r="AI17">
-            <v>0.1985097410602287</v>
+            <v>0.20945477774799928</v>
           </cell>
           <cell r="AK17">
             <v>2533717.0905633331</v>
@@ -18514,14 +18433,11 @@
           <cell r="W2">
             <v>4.2173620645199996</v>
           </cell>
-          <cell r="AB2">
-            <v>-2.8766988791062431E-9</v>
-          </cell>
           <cell r="AD2">
-            <v>2.4003572443069832E-3</v>
+            <v>1.976499304910926E-3</v>
           </cell>
           <cell r="AE2">
-            <v>-1.9678144869574707</v>
+            <v>9.588996263687477E-10</v>
           </cell>
           <cell r="AK2">
             <v>2556.0498433166663</v>
@@ -18552,17 +18468,14 @@
           <cell r="W3">
             <v>32.877261734900003</v>
           </cell>
-          <cell r="AB3">
-            <v>0.42455699990888718</v>
-          </cell>
           <cell r="AD3">
-            <v>9.9703808983271358E-3</v>
+            <v>4.6401803741909053E-2</v>
           </cell>
           <cell r="AE3">
-            <v>-0.83177500520751779</v>
+            <v>0.86439544855037098</v>
           </cell>
           <cell r="AI3">
-            <v>-6.6635216254626135E-3</v>
+            <v>-5.1394653408672643E-2</v>
           </cell>
           <cell r="AK3">
             <v>19947.490459600001</v>
@@ -18596,17 +18509,14 @@
           <cell r="W4">
             <v>86.153779829300007</v>
           </cell>
-          <cell r="AB4">
-            <v>0.53723081921390747</v>
-          </cell>
           <cell r="AD4">
-            <v>-0.15821214050129639</v>
+            <v>-0.11171775578605481</v>
           </cell>
           <cell r="AE4">
-            <v>0.24293542161306259</v>
+            <v>1.8270880839220307</v>
           </cell>
           <cell r="AI4">
-            <v>0.15649101116211753</v>
+            <v>0.16424718930868293</v>
           </cell>
           <cell r="AK4">
             <v>51321.077509900002</v>
@@ -18640,17 +18550,14 @@
           <cell r="W5">
             <v>153.12352342</v>
           </cell>
-          <cell r="AB5">
-            <v>0.57836850681094454</v>
-          </cell>
           <cell r="AD5">
-            <v>-0.32264470836657511</v>
+            <v>-0.27467776220035112</v>
           </cell>
           <cell r="AE5">
-            <v>1.292854333240729</v>
+            <v>2.8131835652496848</v>
           </cell>
           <cell r="AI5">
-            <v>0.15661454046042708</v>
+            <v>0.16525783709594841</v>
           </cell>
           <cell r="AK5">
             <v>90638.674862666681</v>
@@ -18684,17 +18591,14 @@
           <cell r="W6">
             <v>230.324690731</v>
           </cell>
-          <cell r="AB6">
-            <v>0.35070042781746302</v>
-          </cell>
           <cell r="AD6">
-            <v>-0.7160377934598201</v>
+            <v>-0.67004297600892682</v>
           </cell>
           <cell r="AE6">
-            <v>2.4123318207388968</v>
+            <v>3.8888826306841788</v>
           </cell>
           <cell r="AI6">
-            <v>0.35140776789751105</v>
+            <v>0.36754258371404336</v>
           </cell>
           <cell r="AK6">
             <v>135775.63518106667</v>
@@ -18728,17 +18632,14 @@
           <cell r="W7">
             <v>309.65515061500003</v>
           </cell>
-          <cell r="AB7">
-            <v>0.19999993483033052</v>
-          </cell>
           <cell r="AD7">
-            <v>-0.99869458508912423</v>
+            <v>-0.95610919056450916</v>
           </cell>
           <cell r="AE7">
-            <v>3.4929563013064548</v>
+            <v>4.9384663104565565</v>
           </cell>
           <cell r="AI7">
-            <v>0.26156800693692328</v>
+            <v>0.27255207952320798</v>
           </cell>
           <cell r="AK7">
             <v>182157.4419312333</v>
@@ -18772,17 +18673,14 @@
           <cell r="W8">
             <v>392.03495226899997</v>
           </cell>
-          <cell r="AB8">
-            <v>-0.10677972586135009</v>
-          </cell>
           <cell r="AD8">
-            <v>-1.4191891767079605</v>
+            <v>-1.3807634669284308</v>
           </cell>
           <cell r="AE8">
-            <v>4.6186665639133393</v>
+            <v>6.0396844916037837</v>
           </cell>
           <cell r="AI8">
-            <v>0.37353713969442559</v>
+            <v>0.38562228960070855</v>
           </cell>
           <cell r="AK8">
             <v>230725.84384566665</v>
@@ -18816,17 +18714,14 @@
           <cell r="W9">
             <v>474.558268494</v>
           </cell>
-          <cell r="AB9">
-            <v>-0.34012835873640235</v>
-          </cell>
           <cell r="AD9">
-            <v>-1.7508332780185973</v>
+            <v>-1.716867345426226</v>
           </cell>
           <cell r="AE9">
-            <v>5.7179507850072619</v>
+            <v>7.1192576157988006</v>
           </cell>
           <cell r="AI9">
-            <v>0.30169095029910487</v>
+            <v>0.31133034989955954</v>
           </cell>
           <cell r="AK9">
             <v>279898.81311533332</v>
@@ -18860,17 +18755,14 @@
           <cell r="W10">
             <v>556.12195336299999</v>
           </cell>
-          <cell r="AB10">
-            <v>-0.69687079219256098</v>
-          </cell>
           <cell r="AD10">
-            <v>-2.1933307755513098</v>
+            <v>-2.1638823268225158</v>
           </cell>
           <cell r="AE10">
-            <v>6.8483812175265442</v>
+            <v>8.2334755863341869</v>
           </cell>
           <cell r="AI10">
-            <v>0.39144160029959618</v>
+            <v>0.40119168171511116</v>
           </cell>
           <cell r="AK10">
             <v>328777.82239633333</v>
@@ -18904,17 +18796,14 @@
           <cell r="W11">
             <v>632.28060539600006</v>
           </cell>
-          <cell r="AB11">
-            <v>-1.0567213372539408</v>
-          </cell>
           <cell r="AD11">
-            <v>-2.6262145728773767</v>
+            <v>-2.6010577264068924</v>
           </cell>
           <cell r="AE11">
-            <v>7.9809777303481413</v>
+            <v>9.3529214808213137</v>
           </cell>
           <cell r="AI11">
-            <v>0.38220477674581477</v>
+            <v>0.39052838706837911</v>
           </cell>
           <cell r="AK11">
             <v>375151.09649433335</v>
@@ -18948,17 +18837,14 @@
           <cell r="W12">
             <v>698.22880191800004</v>
           </cell>
-          <cell r="AB12">
-            <v>-1.3573824484509611</v>
-          </cell>
           <cell r="AD12">
-            <v>-2.9873528008148424</v>
+            <v>-2.9660501254398177</v>
           </cell>
           <cell r="AE12">
-            <v>9.0964829921638568</v>
+            <v>10.457959603650322</v>
           </cell>
           <cell r="AI12">
-            <v>0.32374408288279932</v>
+            <v>0.330298467982723</v>
           </cell>
           <cell r="AK12">
             <v>417071.63527299999</v>
@@ -19071,14 +18957,11 @@
           <cell r="W2">
             <v>4.2222995839699999</v>
           </cell>
-          <cell r="AB2">
-            <v>-2.3187252118361812E-8</v>
-          </cell>
           <cell r="AD2">
-            <v>-5.5490763105969787E-3</v>
+            <v>-4.9630710716174241E-3</v>
           </cell>
           <cell r="AE2">
-            <v>-1.9605065809796196</v>
+            <v>7.7290840394539373E-9</v>
           </cell>
           <cell r="AS2">
             <v>0</v>
@@ -19103,17 +18986,14 @@
           <cell r="W3">
             <v>59.395032084</v>
           </cell>
-          <cell r="AB3">
-            <v>0.63442165348475132</v>
-          </cell>
           <cell r="AD3">
-            <v>3.8319450699044966E-2</v>
+            <v>8.2392266917109436E-2</v>
           </cell>
           <cell r="AE3">
-            <v>-0.83104656310262048</v>
+            <v>0.78881789650508294</v>
           </cell>
           <cell r="AI3">
-            <v>-3.8840265538659671E-2</v>
+            <v>-0.11074208538079086</v>
           </cell>
           <cell r="AP3">
             <v>1.8333349150238609</v>
@@ -19141,17 +19021,14 @@
           <cell r="W4">
             <v>170.024590695</v>
           </cell>
-          <cell r="AB4">
-            <v>0.91937718517532963</v>
-          </cell>
           <cell r="AD4">
-            <v>-4.6776410363131404E-2</v>
+            <v>7.3472519556760929E-4</v>
           </cell>
           <cell r="AE4">
-            <v>0.19401945991736436</v>
+            <v>1.6964328109948899</v>
           </cell>
           <cell r="AI4">
-            <v>8.3015005034965755E-2</v>
+            <v>8.9969369627914908E-2</v>
           </cell>
           <cell r="AP4">
             <v>1.6545991032687406</v>
@@ -19179,17 +19056,14 @@
           <cell r="W5">
             <v>317.46221207000002</v>
           </cell>
-          <cell r="AB5">
-            <v>1.0112140982188045</v>
-          </cell>
           <cell r="AD5">
-            <v>-0.22792370372989579</v>
+            <v>-0.18669164754685919</v>
           </cell>
           <cell r="AE5">
-            <v>1.2321255780778038</v>
+            <v>2.6687025817170649</v>
           </cell>
           <cell r="AI5">
-            <v>0.17449785739415904</v>
+            <v>0.19277198405871621</v>
           </cell>
           <cell r="AP5">
             <v>1.5643844234460931</v>
@@ -19217,17 +19091,14 @@
           <cell r="W6">
             <v>504.01211338500002</v>
           </cell>
-          <cell r="AB6">
-            <v>1.2508444616565417</v>
-          </cell>
           <cell r="AD6">
-            <v>-0.21825719498578811</v>
+            <v>-0.18730549272936803</v>
           </cell>
           <cell r="AE6">
-            <v>2.1992976028214146</v>
+            <v>3.5894703995944859</v>
           </cell>
           <cell r="AI6">
-            <v>-9.9946116066272628E-3</v>
+            <v>6.6666663472654346E-4</v>
           </cell>
           <cell r="AP6">
             <v>1.5063561750312602</v>
@@ -19255,17 +19126,14 @@
           <cell r="W7">
             <v>715.14294281599996</v>
           </cell>
-          <cell r="AB7">
-            <v>1.2251628486510846</v>
-          </cell>
           <cell r="AD7">
-            <v>-0.43793676714494434</v>
+            <v>-0.41885830244800104</v>
           </cell>
           <cell r="AE7">
-            <v>3.2412944356622626</v>
+            <v>4.5971902850329718</v>
           </cell>
           <cell r="AI7">
-            <v>0.21082556610103395</v>
+            <v>0.2297789426055418</v>
           </cell>
           <cell r="AP7">
             <v>1.4641809111583908</v>
@@ -19293,17 +19161,14 @@
           <cell r="W8">
             <v>940.58579936499996</v>
           </cell>
-          <cell r="AB8">
-            <v>1.2930476660156898</v>
-          </cell>
           <cell r="AD8">
-            <v>-0.53587894121895219</v>
+            <v>-0.52909659675123399</v>
           </cell>
           <cell r="AE8">
-            <v>4.2412829936722201</v>
+            <v>5.5707389170981036</v>
           </cell>
           <cell r="AI8">
-            <v>9.7943294740211004E-2</v>
+            <v>0.11323347460248688</v>
           </cell>
           <cell r="AP8">
             <v>1.4322228418598042</v>
@@ -19331,17 +19196,14 @@
           <cell r="W9">
             <v>1176.2319013599999</v>
           </cell>
-          <cell r="AB9">
-            <v>1.1858828218258455</v>
-          </cell>
           <cell r="AD9">
-            <v>-0.78842716158120285</v>
+            <v>-0.79395564830439103</v>
           </cell>
           <cell r="AE9">
-            <v>5.2966447067196425</v>
+            <v>6.6047566541380522</v>
           </cell>
           <cell r="AI9">
-            <v>0.23930015390931891</v>
+            <v>0.25614555927382932</v>
           </cell>
           <cell r="AP9">
             <v>1.406955906635972</v>
@@ -19369,17 +19231,14 @@
           <cell r="W10">
             <v>1418.7763070200001</v>
           </cell>
-          <cell r="AB10">
-            <v>1.1345937228203984</v>
-          </cell>
           <cell r="AD10">
-            <v>-0.96929930922372654</v>
+            <v>-0.98694689024977045</v>
           </cell>
           <cell r="AE10">
-            <v>6.3318690261316952</v>
+            <v>7.6222196992331996</v>
           </cell>
           <cell r="AI10">
-            <v>0.17471783095788221</v>
+            <v>0.18967887126291841</v>
           </cell>
           <cell r="AP10">
             <v>1.3862244629844778</v>
@@ -19407,17 +19266,14 @@
           <cell r="W11">
             <v>1658.6171486400001</v>
           </cell>
-          <cell r="AB11">
-            <v>1.081069322849959</v>
-          </cell>
           <cell r="AD11">
-            <v>-1.137882342869037</v>
+            <v>-1.1671587606231832</v>
           </cell>
           <cell r="AE11">
-            <v>7.3698174647346804</v>
+            <v>8.6452885353400131</v>
           </cell>
           <cell r="AI11">
-            <v>0.16241946842004298</v>
+            <v>0.1761483333410791</v>
           </cell>
           <cell r="AP11">
             <v>1.3688997705380646</v>
@@ -19445,17 +19301,14 @@
           <cell r="W12">
             <v>1895.8692115199999</v>
           </cell>
-          <cell r="AB12">
-            <v>0.95292019120410965</v>
-          </cell>
           <cell r="AD12">
-            <v>-1.3686695110261904</v>
+            <v>-1.408984287446835</v>
           </cell>
           <cell r="AE12">
-            <v>8.4243056877562132</v>
+            <v>9.6871456706652967</v>
           </cell>
           <cell r="AI12">
-            <v>0.21886177874595444</v>
+            <v>0.23211006444578428</v>
           </cell>
           <cell r="AP12">
             <v>1.3542817906462632</v>
@@ -19483,17 +19336,14 @@
           <cell r="W13">
             <v>2128.46917996</v>
           </cell>
-          <cell r="AB13">
-            <v>0.79499602539979675</v>
-          </cell>
           <cell r="AD13">
-            <v>-1.6192080908604187</v>
+            <v>-1.6700049882207799</v>
           </cell>
           <cell r="AE13">
-            <v>9.4886043139636005</v>
+            <v>10.740525300466734</v>
           </cell>
           <cell r="AI13">
-            <v>0.23540252112042928</v>
+            <v>0.24779357165198596</v>
           </cell>
           <cell r="AP13">
             <v>1.3417561426741769</v>
@@ -19521,17 +19371,14 @@
           <cell r="W14">
             <v>2346.1114358599998</v>
           </cell>
-          <cell r="AB14">
-            <v>0.61217637854675822</v>
-          </cell>
           <cell r="AD14">
-            <v>-1.8833367834300265</v>
+            <v>-1.9437336170164512</v>
           </cell>
           <cell r="AE14">
-            <v>10.556541314636753</v>
+            <v>11.799224683651081</v>
           </cell>
           <cell r="AI14">
-            <v>0.2473260992016566</v>
+            <v>0.25855179774673392</v>
           </cell>
           <cell r="AP14">
             <v>1.3310353500514012</v>
@@ -19559,17 +19406,14 @@
           <cell r="W15">
             <v>2553.6925211100001</v>
           </cell>
-          <cell r="AB15">
-            <v>0.47374110819143889</v>
-          </cell>
           <cell r="AD15">
-            <v>-2.0951970683876726</v>
+            <v>-2.164574964110987</v>
           </cell>
           <cell r="AE15">
-            <v>11.607789421057413</v>
+            <v>12.842394085569522</v>
           </cell>
           <cell r="AI15">
-            <v>0.20153214418525628</v>
+            <v>0.21170228602219121</v>
           </cell>
           <cell r="AP15">
             <v>1.321816061075151</v>
@@ -19597,17 +19441,14 @@
           <cell r="W16">
             <v>2732.59069761</v>
           </cell>
-          <cell r="AB16">
-            <v>0.18450674208951856</v>
-          </cell>
           <cell r="AD16">
-            <v>-2.4463817128654188</v>
+            <v>-2.5235629260899493</v>
           </cell>
           <cell r="AE16">
-            <v>12.71115561043</v>
+            <v>13.939128383436827</v>
           </cell>
           <cell r="AI16">
-            <v>0.31828476154180729</v>
+            <v>0.32732446015141975</v>
           </cell>
           <cell r="AP16">
             <v>1.3139888388488756</v>
@@ -19649,14 +19490,11 @@
           <cell r="W2">
             <v>4.2257824171199996</v>
           </cell>
-          <cell r="AB2">
-            <v>-2.3963053763509379E-10</v>
-          </cell>
           <cell r="AD2">
-            <v>-8.3690043125059788E-3</v>
+            <v>-7.428133246390199E-3</v>
           </cell>
           <cell r="AE2">
-            <v>-1.957944029456113</v>
+            <v>7.9876845878364592E-11</v>
           </cell>
           <cell r="AS2">
             <v>0</v>
@@ -19681,17 +19519,14 @@
           <cell r="W3">
             <v>74.232563508499993</v>
           </cell>
-          <cell r="AB3">
-            <v>0.65947632051531757</v>
-          </cell>
           <cell r="AD3">
-            <v>-1.4767528900081039E-2</v>
+            <v>3.1308253193261804E-2</v>
           </cell>
           <cell r="AE3">
-            <v>-0.80302555194675018</v>
+            <v>0.78844564873822742</v>
           </cell>
           <cell r="AI3">
-            <v>5.5402391702778766E-3</v>
+            <v>-4.9130065598773136E-2</v>
           </cell>
           <cell r="AP3">
             <v>1.80535157822694</v>
@@ -19719,17 +19554,14 @@
           <cell r="W4">
             <v>217.63628506500001</v>
           </cell>
-          <cell r="AB4">
-            <v>1.1554047074608276</v>
-          </cell>
           <cell r="AD4">
-            <v>7.5301987622554467E-2</v>
+            <v>0.12102343568504104</v>
           </cell>
           <cell r="AE4">
-            <v>0.14735098759846932</v>
+            <v>1.6206165472530574</v>
           </cell>
           <cell r="AI4">
-            <v>-9.4772453627418207E-2</v>
+            <v>-0.1078086035595493</v>
           </cell>
           <cell r="AP4">
             <v>1.6235399819788612</v>
@@ -19757,17 +19589,14 @@
           <cell r="W5">
             <v>426.58274723699998</v>
           </cell>
-          <cell r="AB5">
-            <v>1.3765066520197045</v>
-          </cell>
           <cell r="AD5">
-            <v>-2.0343218828634546E-2</v>
+            <v>1.4298442312832949E-2</v>
           </cell>
           <cell r="AE5">
-            <v>1.1431140075416082</v>
+            <v>2.5471234733867654</v>
           </cell>
           <cell r="AI5">
-            <v>9.6052177612149778E-2</v>
+            <v>0.11519071294757506</v>
           </cell>
           <cell r="AP5">
             <v>1.530953324207476</v>
@@ -19795,17 +19624,14 @@
           <cell r="W6">
             <v>695.05799973700005</v>
           </cell>
-          <cell r="AB6">
-            <v>1.7431384439147379</v>
-          </cell>
           <cell r="AD6">
-            <v>8.2319284906789969E-2</v>
+            <v>0.10155338494880284</v>
           </cell>
           <cell r="AE6">
-            <v>2.0676385769109573</v>
+            <v>3.4239152124484211</v>
           </cell>
           <cell r="AI6">
-            <v>-0.11104356459174929</v>
+            <v>-9.9516155032836312E-2</v>
           </cell>
           <cell r="AP6">
             <v>1.4707244592370008</v>
@@ -19833,17 +19659,14 @@
           <cell r="W7">
             <v>1006.57904301</v>
           </cell>
-          <cell r="AB7">
-            <v>1.869331517916184</v>
-          </cell>
           <cell r="AD7">
-            <v>-1.6043042656769702E-2</v>
+            <v>-1.3875163871537977E-2</v>
           </cell>
           <cell r="AE7">
-            <v>3.0571596239858931</v>
+            <v>4.3781385242079391</v>
           </cell>
           <cell r="AI7">
-            <v>9.9403977160791759E-2</v>
+            <v>0.12096597033193311</v>
           </cell>
           <cell r="AP7">
             <v>1.4273635832401048</v>
@@ -19871,17 +19694,14 @@
           <cell r="W8">
             <v>1349.8612750499999</v>
           </cell>
-          <cell r="AB8">
-            <v>2.106716425718147</v>
-          </cell>
           <cell r="AD8">
-            <v>2.6139887307207399E-2</v>
+            <v>1.0750485478439487E-2</v>
           </cell>
           <cell r="AE8">
-            <v>4.0055467848109405</v>
+            <v>5.2990118274572842</v>
           </cell>
           <cell r="AI8">
-            <v>-4.4478596617946779E-2</v>
+            <v>-2.6741625870882232E-2</v>
           </cell>
           <cell r="AP8">
             <v>1.3943094247322672</v>
@@ -19909,17 +19729,14 @@
           <cell r="W9">
             <v>1720.0985234</v>
           </cell>
-          <cell r="AB9">
-            <v>2.1818399647471343</v>
-          </cell>
           <cell r="AD9">
-            <v>-7.2642923190290976E-2</v>
+            <v>-0.10567072032400393</v>
           </cell>
           <cell r="AE9">
-            <v>5.0066210103312923</v>
+            <v>6.2776536759509556</v>
           </cell>
           <cell r="AI9">
-            <v>9.8676809350627046E-2</v>
+            <v>0.11896201453232283</v>
           </cell>
           <cell r="AP9">
             <v>1.367903658004811</v>
@@ -19947,17 +19764,14 @@
           <cell r="W10">
             <v>2104.51252217</v>
           </cell>
-          <cell r="AB10">
-            <v>2.3141896037873311</v>
-          </cell>
           <cell r="AD10">
-            <v>-9.4343759103296065E-2</v>
+            <v>-0.14448487196443249</v>
           </cell>
           <cell r="AE10">
-            <v>5.9779647961466402</v>
+            <v>7.2305419317242237</v>
           </cell>
           <cell r="AI10">
-            <v>2.234104570380235E-2</v>
+            <v>4.0733161947652412E-2</v>
           </cell>
           <cell r="AP10">
             <v>1.3462471260541777</v>
@@ -19985,17 +19799,14 @@
           <cell r="W11">
             <v>2457.6409865099999</v>
           </cell>
-          <cell r="AB11">
-            <v>2.4013414074031125</v>
-          </cell>
           <cell r="AD11">
-            <v>-0.14573214545708968</v>
+            <v>-0.21240506388774039</v>
           </cell>
           <cell r="AE11">
-            <v>6.9663726465933866</v>
+            <v>8.203357726998961</v>
           </cell>
           <cell r="AI11">
-            <v>5.1991074666765127E-2</v>
+            <v>6.9818142605431524E-2</v>
           </cell>
           <cell r="AP11">
             <v>1.3281775970539018</v>
@@ -20023,17 +19834,14 @@
           <cell r="W12">
             <v>2882.8498941600001</v>
           </cell>
-          <cell r="AB12">
-            <v>2.389703347742278</v>
-          </cell>
           <cell r="AD12">
-            <v>-0.2816048182329749</v>
+            <v>-0.36398701463464578</v>
           </cell>
           <cell r="AE12">
-            <v>7.9839100670350165</v>
+            <v>9.2076430177192403</v>
           </cell>
           <cell r="AI12">
-            <v>0.13353088549501599</v>
+            <v>0.15093514975031641</v>
           </cell>
           <cell r="AP12">
             <v>1.3128555638706789</v>
@@ -20061,17 +19869,14 @@
           <cell r="W13">
             <v>3279.0129152300001</v>
           </cell>
-          <cell r="AB13">
-            <v>2.4292901229628905</v>
-          </cell>
           <cell r="AD13">
-            <v>-0.35619294230078413</v>
+            <v>-0.45372567200379743</v>
           </cell>
           <cell r="AE13">
-            <v>8.9786019470062275</v>
+            <v>10.190712166579036</v>
           </cell>
           <cell r="AI13">
-            <v>7.4986159603482455E-2</v>
+            <v>9.1284176167296296E-2</v>
           </cell>
           <cell r="AP13">
             <v>1.299624236942982</v>
@@ -20099,17 +19904,14 @@
           <cell r="W14">
             <v>3672.9900029800001</v>
           </cell>
-          <cell r="AB14">
-            <v>2.4448155478036693</v>
-          </cell>
           <cell r="AD14">
-            <v>-0.44622018099411775</v>
+            <v>-0.55834946287223408</v>
           </cell>
           <cell r="AE14">
-            <v>9.9850704097233862</v>
+            <v>11.186873665065443</v>
           </cell>
           <cell r="AI14">
-            <v>8.9448643477896425E-2</v>
+            <v>0.10502693692479052</v>
           </cell>
           <cell r="AP14">
             <v>1.2879526989524848</v>
@@ -20137,17 +19939,14 @@
           <cell r="W15">
             <v>4053.6330686400001</v>
           </cell>
-          <cell r="AB15">
-            <v>2.4412501984268697</v>
-          </cell>
           <cell r="AD15">
-            <v>-0.54446467565305579</v>
+            <v>-0.67015685623496468</v>
           </cell>
           <cell r="AE15">
-            <v>10.997031822011223</v>
+            <v>12.189923798057709</v>
           </cell>
           <cell r="AI15">
-            <v>9.7083241975430057E-2</v>
+            <v>0.11146740295940191</v>
           </cell>
           <cell r="AP15">
             <v>1.2777264128670414</v>
@@ -20175,17 +19974,14 @@
           <cell r="W16">
             <v>4415.4513714200002</v>
           </cell>
-          <cell r="AB16">
-            <v>2.4434713211957559</v>
-          </cell>
           <cell r="AD16">
-            <v>-0.62930760686620069</v>
+            <v>-0.76785516659826358</v>
           </cell>
           <cell r="AE16">
-            <v>12.00121002402766</v>
+            <v>13.186169417201416</v>
           </cell>
           <cell r="AI16">
-            <v>8.4489915278758612E-2</v>
+            <v>9.8066489313421074E-2</v>
           </cell>
           <cell r="AP16">
             <v>1.2687561598004613</v>
@@ -20213,17 +20009,14 @@
           <cell r="W17">
             <v>4781.4251414700002</v>
           </cell>
-          <cell r="AB17">
-            <v>2.364402806097432</v>
-          </cell>
           <cell r="AD17">
-            <v>-0.78874501246859596</v>
+            <v>-0.93947877038257888</v>
           </cell>
           <cell r="AE17">
-            <v>13.03765304046761</v>
+            <v>14.215500696200856</v>
           </cell>
           <cell r="AI17">
-            <v>0.1538313279875651</v>
+            <v>0.16673310846158473</v>
           </cell>
           <cell r="AP17">
             <v>1.2607418217171571</v>
@@ -20251,17 +20044,14 @@
           <cell r="W18">
             <v>5120.64365954</v>
           </cell>
-          <cell r="AB18">
-            <v>2.3233956477578976</v>
-          </cell>
           <cell r="AD18">
-            <v>-0.90299144530498499</v>
+            <v>-1.0650925022705793</v>
           </cell>
           <cell r="AE18">
-            <v>14.054147609390709</v>
+            <v>15.2256821864807</v>
           </cell>
           <cell r="AI18">
-            <v>0.11239256591151758</v>
+            <v>0.12434768712026428</v>
           </cell>
           <cell r="AP18">
             <v>1.2535900285927311</v>
@@ -21099,8 +20889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21230,52 +21020,52 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>38</v>
       </c>
       <c r="AM1" t="s">
         <v>30</v>
       </c>
       <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
-        <v>44</v>
-      </c>
       <c r="AV1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
@@ -21365,16 +21155,16 @@
         <v>-3.5347280658015734E-9</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
-        <v>1.9179218393023945E-3</v>
+        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>1.7914563339194202E-3</v>
       </c>
       <c r="AD2">
         <f>AB2-AC2</f>
-        <v>-1.9179253740304603E-3</v>
-      </c>
-      <c r="AE2" s="3">
-        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-1.963829162796809</v>
+        <v>-1.791459868647486E-3</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>P2-AB2/3</f>
+        <v>1.1782426886005244E-9</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
@@ -21400,9 +21190,9 @@
         <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO2" s="3" t="e">
-        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
-        <v>#VALUE!</v>
+      <c r="AO2" s="3">
+        <f>3*(1-2*0.33)*(100000^0.3/(1.34*0.3*AK2^-0.7))</f>
+        <v>19869.962100507521</v>
       </c>
       <c r="AQ2">
         <v>5.25</v>
@@ -21504,41 +21294,40 @@
         <f t="shared" si="0"/>
         <v>0.5131043645532074</v>
       </c>
-      <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
-        <v>0.51455954171665619</v>
-      </c>
-      <c r="AD3" s="3">
+      <c r="AC3" s="5">
+        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>0.29490364540353631</v>
+      </c>
+      <c r="AD3" s="5">
         <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
-        <v>-1.4551771634487842E-3</v>
-      </c>
-      <c r="AE3" s="3">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-0.82214267806389973</v>
-      </c>
-      <c r="AF3" s="3">
+        <v>0.2182007191496711</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <v>0.83001552430559766</v>
+      </c>
+      <c r="AF3" s="5">
         <f t="shared" si="1"/>
         <v>1.2579208308207357E-2</v>
       </c>
       <c r="AG3" s="3">
         <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
-        <v>4.6274821058167603E-4</v>
+        <v>0.21999217901831858</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="9"/>
-        <v>1.1416864847329093</v>
-      </c>
-      <c r="AI3" s="3">
-        <f>-AG3/AH3</f>
-        <v>-4.0531986387658183E-4</v>
+        <v>0.83001552312735494</v>
+      </c>
+      <c r="AI3" s="5">
+        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
+        <v>-0.26504586105742467</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>-5.5189901851474543E-3</v>
+        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>-6.5589107657259949E-2</v>
       </c>
       <c r="AK3" s="3">
-        <f t="shared" si="2"/>
-        <v>28695.360281533332</v>
+        <v>14000</v>
       </c>
       <c r="AL3" s="3">
         <f t="shared" si="3"/>
@@ -21546,42 +21335,42 @@
       </c>
       <c r="AM3" s="3">
         <f t="shared" si="4"/>
-        <v>-0.49724557212755743</v>
+        <v>-0.46790709451565238</v>
       </c>
       <c r="AN3" s="3">
         <f t="shared" si="5"/>
-        <v>-0.19270634031514058</v>
+        <v>-0.17565037622074556</v>
       </c>
       <c r="AO3" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP3" s="3">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.8644455466584113</v>
+        <v>1.9423403605604825</v>
       </c>
       <c r="AQ3" s="3">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.9256437007628815</v>
+        <v>6.5093537319523174</v>
       </c>
       <c r="AR3" s="3">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.6991684004706432E-3</v>
+        <v>1.6288411276845188E-2</v>
       </c>
       <c r="AS3" s="3">
         <f>(AS2+AR3)</f>
-        <v>2.6991684004706432E-3</v>
+        <v>1.6288411276845188E-2</v>
       </c>
       <c r="AT3" s="3">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.48906925178712846</v>
+        <v>0.2483401872451339</v>
       </c>
       <c r="AU3" s="3">
         <f>AU2+AT3</f>
-        <v>0.48906925178712846</v>
+        <v>0.2483401872451339</v>
       </c>
       <c r="AV3" s="5">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
-        <v>87.374643979662039</v>
+        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>97.062487649282872</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
@@ -21683,37 +21472,37 @@
         <f t="shared" si="0"/>
         <v>0.72670654276035807</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="5">
         <f t="shared" si="6"/>
-        <v>0.84345742975410176</v>
-      </c>
-      <c r="AD4">
+        <v>0.79544639231484671</v>
+      </c>
+      <c r="AD4" s="5">
         <f t="shared" si="7"/>
-        <v>-0.1167508869937437</v>
-      </c>
-      <c r="AE4" s="3">
+        <v>-6.8739849554488641E-2</v>
+      </c>
+      <c r="AE4" s="4">
         <f t="shared" si="8"/>
-        <v>0.22198376037174716</v>
-      </c>
-      <c r="AF4">
+        <v>1.7589948652665472</v>
+      </c>
+      <c r="AF4" s="5">
         <f t="shared" si="1"/>
         <v>-0.2739086469996419</v>
       </c>
-      <c r="AG4">
-        <f>AD4-AD3</f>
-        <v>-0.11529570983029491</v>
-      </c>
-      <c r="AH4">
-        <f>AE4-AE3</f>
-        <v>1.0441264384356468</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
-        <v>0.11042313036631435</v>
+      <c r="AG4" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.28694056870415974</v>
+      </c>
+      <c r="AH4" s="3">
+        <f t="shared" si="9"/>
+        <v>0.92897934096094958</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" si="10"/>
+        <v>0.30887723338103978</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
-        <v>0.135266593620266</v>
+        <f t="shared" si="11"/>
+        <v>0.11345524840032284</v>
       </c>
       <c r="AK4">
         <f t="shared" si="2"/>
@@ -21725,42 +21514,42 @@
       </c>
       <c r="AM4" s="3">
         <f t="shared" si="4"/>
-        <v>-0.57082679665009761</v>
+        <v>-0.55895729574473818</v>
       </c>
       <c r="AN4">
         <f t="shared" si="5"/>
-        <v>-0.23343627061780139</v>
+        <v>-0.22707890763945904</v>
       </c>
       <c r="AO4" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP4">
         <f>(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6909538739917969</v>
+        <v>1.7169743865176184</v>
       </c>
       <c r="AQ4">
         <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
-        <v>4.8752351969785375</v>
+        <v>5.0146690022596241</v>
       </c>
       <c r="AR4" s="3">
         <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-0.10869623297620049</v>
+        <v>-0.13216488270657978</v>
       </c>
       <c r="AS4">
         <f>AS3+AR4</f>
-        <v>-0.10599706457572984</v>
+        <v>-0.11587647142973459</v>
       </c>
       <c r="AT4" s="3">
         <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.8035704165164651</v>
+        <v>1.1649076139716414</v>
       </c>
       <c r="AU4">
         <f>AU3+AT4</f>
-        <v>1.2926396683035937</v>
+        <v>1.4132478012167753</v>
       </c>
       <c r="AV4" s="5">
-        <f t="shared" si="11"/>
-        <v>184.14241242783589</v>
+        <f t="shared" si="12"/>
+        <v>190.22503494870423</v>
       </c>
       <c r="BK4" s="1">
         <v>1.3664000000000001</v>
@@ -21855,36 +21644,36 @@
         <f t="shared" si="0"/>
         <v>0.77588804749871843</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="5">
         <f t="shared" si="6"/>
-        <v>1.0800553959536521</v>
-      </c>
-      <c r="AD5">
+        <v>1.0343329507135908</v>
+      </c>
+      <c r="AD5" s="5">
         <f t="shared" si="7"/>
-        <v>-0.30416734845493365</v>
-      </c>
-      <c r="AE5" s="3">
+        <v>-0.25844490321487235</v>
+      </c>
+      <c r="AE5" s="4">
         <f t="shared" si="8"/>
-        <v>1.2683832400339901</v>
-      </c>
-      <c r="AF5">
+        <v>2.7416603735437604</v>
+      </c>
+      <c r="AF5" s="5">
         <f t="shared" si="1"/>
         <v>-0.72425681385628149</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="3">
         <f t="shared" si="9"/>
-        <v>-0.18741646146118995</v>
-      </c>
-      <c r="AH5">
+        <v>-0.1897050536603837</v>
+      </c>
+      <c r="AH5" s="3">
         <f t="shared" si="9"/>
-        <v>1.0463994796622429</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="12"/>
-        <v>0.17910603464910388</v>
+        <v>0.98266550827721311</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19305150334722779</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.21132357427375295</v>
       </c>
       <c r="AK5">
@@ -21904,7 +21693,7 @@
         <v>-0.25564598234380426</v>
       </c>
       <c r="AO5" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP5">
         <f t="shared" ref="AP5:AP18" si="14">(AK5*1.35*(AK5/3255000)^-0.0723-AK4*1.35*(AK4/3255000)^-0.0723)/(AK5-AK4)</f>
@@ -21916,22 +21705,22 @@
       </c>
       <c r="AR5" s="3">
         <f t="shared" ref="AR5:AR18" si="15">(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
-        <v>-0.19933442055171946</v>
+        <v>-0.21793816359818152</v>
       </c>
       <c r="AS5">
         <f t="shared" ref="AS5:AS18" si="16">AS4+AR5</f>
-        <v>-0.30533148512744929</v>
+        <v>-0.33381463502791608</v>
       </c>
       <c r="AT5" s="3">
         <f t="shared" ref="AT5:AT18" si="17">2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
-        <v>0.94326636882214276</v>
+        <v>1.0313007639926617</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>2.2359060371257362</v>
+        <v>2.4445485652094368</v>
       </c>
       <c r="AV5" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>295.62260962436187</v>
       </c>
       <c r="BK5" s="1">
@@ -22027,36 +21816,36 @@
         <f t="shared" si="0"/>
         <v>0.72915543285183571</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="5">
         <f t="shared" si="6"/>
-        <v>1.2745677676165852</v>
-      </c>
-      <c r="AD6">
+        <v>1.2346363198513419</v>
+      </c>
+      <c r="AD6" s="5">
         <f t="shared" si="7"/>
-        <v>-0.54541233476474948</v>
-      </c>
-      <c r="AE6" s="3">
+        <v>-0.50548088699950622</v>
+      </c>
+      <c r="AE6" s="4">
         <f t="shared" si="8"/>
-        <v>2.3287236247680942</v>
-      </c>
-      <c r="AF6">
+        <v>3.7576796987193877</v>
+      </c>
+      <c r="AF6" s="5">
         <f t="shared" si="1"/>
         <v>-1.2712103219831641</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="3">
         <f t="shared" si="9"/>
-        <v>-0.24124498630981583</v>
-      </c>
-      <c r="AH6">
+        <v>-0.24703598378463387</v>
+      </c>
+      <c r="AH6" s="3">
         <f t="shared" si="9"/>
-        <v>1.0603403847341042</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="12"/>
-        <v>0.22751655014093566</v>
+        <v>1.0160193251756273</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="10"/>
+        <v>0.24314102858420697</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26141418761714008</v>
       </c>
       <c r="AK6">
@@ -22076,7 +21865,7 @@
         <v>-0.2702438354025759</v>
       </c>
       <c r="AO6" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP6">
         <f t="shared" si="14"/>
@@ -22088,22 +21877,22 @@
       </c>
       <c r="AR6" s="3">
         <f t="shared" si="15"/>
-        <v>-0.27951611540920479</v>
+        <v>-0.30560316035621071</v>
       </c>
       <c r="AS6">
         <f t="shared" si="16"/>
-        <v>-0.58484760053665408</v>
+        <v>-0.6394177953841268</v>
       </c>
       <c r="AT6" s="3">
         <f t="shared" si="17"/>
-        <v>1.0692461566721709</v>
+        <v>1.1690381579586977</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
-        <v>3.3051521937979071</v>
+        <v>3.6135867231681345</v>
       </c>
       <c r="AV6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>417.01327797092523</v>
       </c>
       <c r="BK6" s="1">
@@ -22199,36 +21988,36 @@
         <f t="shared" si="0"/>
         <v>0.63324957254433656</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="5">
         <f t="shared" si="6"/>
-        <v>1.4369641262391359</v>
-      </c>
-      <c r="AD7">
+        <v>1.4043205550409641</v>
+      </c>
+      <c r="AD7" s="5">
         <f t="shared" si="7"/>
-        <v>-0.80371455369479938</v>
-      </c>
-      <c r="AE7" s="3">
+        <v>-0.77107098249662753</v>
+      </c>
+      <c r="AE7" s="4">
         <f t="shared" si="8"/>
-        <v>3.3968050794455928</v>
-      </c>
-      <c r="AF7">
+        <v>4.7930546241118881</v>
+      </c>
+      <c r="AF7" s="5">
         <f t="shared" si="1"/>
         <v>-1.8688193349356634</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="3">
         <f t="shared" si="9"/>
-        <v>-0.2583022189300499</v>
-      </c>
-      <c r="AH7">
+        <v>-0.26559009549712131</v>
+      </c>
+      <c r="AH7" s="3">
         <f t="shared" si="9"/>
-        <v>1.0680814546774986</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="12"/>
-        <v>0.24183756566398099</v>
+        <v>1.0353749253925004</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="10"/>
+        <v>0.25651586587963654</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.29856368882066153</v>
       </c>
       <c r="AK7">
@@ -22248,7 +22037,7 @@
         <v>-0.28101492754865354</v>
       </c>
       <c r="AO7" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP7">
         <f t="shared" si="14"/>
@@ -22260,22 +22049,22 @@
       </c>
       <c r="AR7" s="3">
         <f t="shared" si="15"/>
-        <v>-0.33850591626719173</v>
+        <v>-0.37009843836403705</v>
       </c>
       <c r="AS7">
         <f t="shared" si="16"/>
-        <v>-0.92335351680384581</v>
+        <v>-1.0095162337481638</v>
       </c>
       <c r="AT7" s="3">
         <f t="shared" si="17"/>
-        <v>1.1337812632350019</v>
+        <v>1.239596281201979</v>
       </c>
       <c r="AU7">
         <f t="shared" si="18"/>
-        <v>4.4389334570329089</v>
+        <v>4.8531830043701136</v>
       </c>
       <c r="AV7" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>543.93470219332289</v>
       </c>
       <c r="BK7" s="1">
@@ -22371,36 +22160,36 @@
         <f t="shared" si="0"/>
         <v>0.49570063860805424</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="5">
         <f t="shared" si="6"/>
-        <v>1.5732453077416311</v>
-      </c>
-      <c r="AD8">
+        <v>1.5483197399211468</v>
+      </c>
+      <c r="AD8" s="5">
         <f t="shared" si="7"/>
-        <v>-1.0775446691335768</v>
-      </c>
-      <c r="AE8" s="3">
+        <v>-1.0526191013130926</v>
+      </c>
+      <c r="AE8" s="4">
         <f t="shared" si="8"/>
-        <v>4.4636409592810029</v>
-      </c>
-      <c r="AF8">
+        <v>5.8349244772073154</v>
+      </c>
+      <c r="AF8" s="5">
         <f t="shared" si="1"/>
         <v>-2.5043783730969458</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="3">
         <f t="shared" si="9"/>
-        <v>-0.27383011543877744</v>
-      </c>
-      <c r="AH8">
+        <v>-0.28154811881646502</v>
+      </c>
+      <c r="AH8" s="3">
         <f t="shared" si="9"/>
-        <v>1.0668358798354101</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="12"/>
-        <v>0.25667501498077061</v>
+        <v>1.0418698530954273</v>
+      </c>
+      <c r="AI8" s="5">
+        <f t="shared" si="10"/>
+        <v>0.27023348259859609</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32715971109909242</v>
       </c>
       <c r="AK8">
@@ -22420,7 +22209,7 @@
         <v>-0.28925574289614941</v>
       </c>
       <c r="AO8" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP8">
         <f t="shared" si="14"/>
@@ -22432,22 +22221,22 @@
       </c>
       <c r="AR8" s="3">
         <f t="shared" si="15"/>
-        <v>-0.37436675266403169</v>
+        <v>-0.40930614171898433</v>
       </c>
       <c r="AS8">
         <f t="shared" si="16"/>
-        <v>-1.2977202694678776</v>
+        <v>-1.4188223754671481</v>
       </c>
       <c r="AT8" s="3">
         <f t="shared" si="17"/>
-        <v>1.1442935666080254</v>
+        <v>1.2510896905487572</v>
       </c>
       <c r="AU8">
         <f t="shared" si="18"/>
-        <v>5.5832270236409345</v>
+        <v>6.1042726949188708</v>
       </c>
       <c r="AV8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>671.88589826407701</v>
       </c>
       <c r="BK8" s="1">
@@ -22543,36 +22332,36 @@
         <f t="shared" si="0"/>
         <v>0.26906407559089685</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="5">
         <f t="shared" si="6"/>
-        <v>1.6943575134402502</v>
-      </c>
-      <c r="AD9">
+        <v>1.6774497412623801</v>
+      </c>
+      <c r="AD9" s="5">
         <f t="shared" si="7"/>
-        <v>-1.4252934378493534</v>
-      </c>
-      <c r="AE9" s="3">
+        <v>-1.4083856656714833</v>
+      </c>
+      <c r="AE9" s="4">
         <f t="shared" si="8"/>
-        <v>5.5640325333325968</v>
-      </c>
-      <c r="AF9">
+        <v>6.914758087843035</v>
+      </c>
+      <c r="AF9" s="5">
         <f t="shared" si="1"/>
         <v>-3.2331589809291033</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="3">
         <f t="shared" si="9"/>
-        <v>-0.34774876871577654</v>
-      </c>
-      <c r="AH9">
+        <v>-0.35576656435839071</v>
+      </c>
+      <c r="AH9" s="3">
         <f t="shared" si="9"/>
-        <v>1.1003915740515939</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="12"/>
-        <v>0.31602274764371441</v>
+        <v>1.0798336106357196</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="10"/>
+        <v>0.32946424417086245</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35025797324382607</v>
       </c>
       <c r="AK9">
@@ -22592,7 +22381,7 @@
         <v>-0.29587088095897601</v>
       </c>
       <c r="AO9" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP9">
         <f t="shared" si="14"/>
@@ -22604,22 +22393,22 @@
       </c>
       <c r="AR9" s="3">
         <f t="shared" si="15"/>
-        <v>-0.41353939258793088</v>
+        <v>-0.45213473692435846</v>
       </c>
       <c r="AS9">
         <f t="shared" si="16"/>
-        <v>-1.7112596620558085</v>
+        <v>-1.8709571123915065</v>
       </c>
       <c r="AT9" s="3">
         <f t="shared" si="17"/>
-        <v>1.1806708888252848</v>
+        <v>1.2908620829870805</v>
       </c>
       <c r="AU9">
         <f t="shared" si="18"/>
-        <v>6.7638979124662191</v>
+        <v>7.3951347779059518</v>
       </c>
       <c r="AV9" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>803.40808408406542</v>
       </c>
       <c r="BK9" s="1">
@@ -22715,36 +22504,36 @@
         <f t="shared" si="0"/>
         <v>5.0639532081830918E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="5">
         <f t="shared" si="6"/>
-        <v>1.8017990946664553</v>
-      </c>
-      <c r="AD10">
+        <v>1.7928753652135534</v>
+      </c>
+      <c r="AD10" s="5">
         <f t="shared" si="7"/>
-        <v>-1.7511595625846244</v>
-      </c>
-      <c r="AE10" s="3">
+        <v>-1.7422358331317225</v>
+      </c>
+      <c r="AE10" s="4">
         <f t="shared" si="8"/>
-        <v>6.6497499714476671</v>
-      </c>
-      <c r="AF10">
+        <v>7.9833701226127234</v>
+      </c>
+      <c r="AF10" s="5">
         <f t="shared" si="1"/>
         <v>-3.9494854512381692</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="3">
         <f t="shared" si="9"/>
-        <v>-0.32586612473527099</v>
-      </c>
-      <c r="AH10">
+        <v>-0.33385016746023921</v>
+      </c>
+      <c r="AH10" s="3">
         <f t="shared" si="9"/>
-        <v>1.0857174381150703</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="12"/>
-        <v>0.3001389802682104</v>
+        <v>1.0686120347696884</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="10"/>
+        <v>0.31241475540015978</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.36967880807369297</v>
       </c>
       <c r="AK10">
@@ -22764,7 +22553,7 @@
         <v>-0.30139883779844068</v>
       </c>
       <c r="AO10" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP10">
         <f t="shared" si="14"/>
@@ -22776,22 +22565,22 @@
       </c>
       <c r="AR10" s="3">
         <f t="shared" si="15"/>
-        <v>-0.43910424882436355</v>
+        <v>-0.4800855434403562</v>
       </c>
       <c r="AS10">
         <f t="shared" si="16"/>
-        <v>-2.1503639108801722</v>
+        <v>-2.3510426558318627</v>
       </c>
       <c r="AT10" s="3">
         <f t="shared" si="17"/>
-        <v>1.1877993523957455</v>
+        <v>1.2986558411123597</v>
       </c>
       <c r="AU10">
         <f t="shared" si="18"/>
-        <v>7.9516972648619646</v>
+        <v>8.6937906190183121</v>
       </c>
       <c r="AV10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>935.14420544200414</v>
       </c>
       <c r="BK10" s="1">
@@ -22889,36 +22678,36 @@
         <f t="shared" si="0"/>
         <v>-0.2191552131661112</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="5">
         <f t="shared" si="6"/>
-        <v>1.8939649736938284</v>
-      </c>
-      <c r="AD11">
+        <v>1.8925179198904236</v>
+      </c>
+      <c r="AD11" s="5">
         <f t="shared" si="7"/>
-        <v>-2.1131201868599394</v>
-      </c>
-      <c r="AE11" s="3">
+        <v>-2.1116731330565348</v>
+      </c>
+      <c r="AE11" s="4">
         <f t="shared" si="8"/>
-        <v>7.7583695232375369</v>
-      </c>
-      <c r="AF11">
+        <v>9.0780800075120371</v>
+      </c>
+      <c r="AF11" s="5">
         <f t="shared" si="1"/>
         <v>-4.7216693480611109</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="3">
         <f t="shared" si="9"/>
-        <v>-0.36196062427531506</v>
-      </c>
-      <c r="AH11">
+        <v>-0.36943729992481233</v>
+      </c>
+      <c r="AH11" s="3">
         <f t="shared" si="9"/>
-        <v>1.1086195517898698</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="12"/>
-        <v>0.32649669915249868</v>
+        <v>1.0947098848993138</v>
+      </c>
+      <c r="AI11" s="5">
+        <f t="shared" si="10"/>
+        <v>0.33747507446577174</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38587659679816111</v>
       </c>
       <c r="AK11">
@@ -22938,7 +22727,7 @@
         <v>-0.30598241062350739</v>
       </c>
       <c r="AO11" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP11">
         <f t="shared" si="14"/>
@@ -22950,22 +22739,22 @@
       </c>
       <c r="AR11" s="3">
         <f t="shared" si="15"/>
-        <v>-0.43675638294143132</v>
+        <v>-0.4775185528649965</v>
       </c>
       <c r="AS11">
         <f t="shared" si="16"/>
-        <v>-2.5871202938216036</v>
+        <v>-2.828561208696859</v>
       </c>
       <c r="AT11" s="3">
         <f t="shared" si="17"/>
-        <v>1.1318550711949074</v>
+        <v>1.2374903189963864</v>
       </c>
       <c r="AU11">
         <f t="shared" si="18"/>
-        <v>9.0835523360568722</v>
+        <v>9.931280938014698</v>
       </c>
       <c r="AV11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1066.0123197554362</v>
       </c>
     </row>
@@ -23055,36 +22844,36 @@
         <f t="shared" si="0"/>
         <v>-0.45631196489424042</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="5">
         <f t="shared" si="6"/>
-        <v>1.9750315989996661</v>
-      </c>
-      <c r="AD12">
+        <v>1.9806246308589979</v>
+      </c>
+      <c r="AD12" s="5">
         <f t="shared" si="7"/>
-        <v>-2.4313435638939067</v>
-      </c>
-      <c r="AE12" s="3">
+        <v>-2.4369365957532381</v>
+      </c>
+      <c r="AE12" s="4">
         <f t="shared" si="8"/>
-        <v>8.8470914759234116</v>
-      </c>
-      <c r="AF12">
+        <v>10.15510136159808</v>
+      </c>
+      <c r="AF12" s="5">
         <f t="shared" si="1"/>
         <v>-5.4578106515442402</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="3">
         <f t="shared" si="9"/>
-        <v>-0.3182233770339673</v>
-      </c>
-      <c r="AH12">
+        <v>-0.32526346269670325</v>
+      </c>
+      <c r="AH12" s="3">
         <f t="shared" si="9"/>
-        <v>1.0887219526858747</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="12"/>
-        <v>0.29229076923535063</v>
+        <v>1.0770213540860425</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="10"/>
+        <v>0.30200279823859294</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39941635013033611</v>
       </c>
       <c r="AK12">
@@ -23104,7 +22893,7 @@
         <v>-0.30979307506229375</v>
       </c>
       <c r="AO12" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP12">
         <f t="shared" si="14"/>
@@ -23116,22 +22905,22 @@
       </c>
       <c r="AR12" s="3">
         <f t="shared" si="15"/>
-        <v>-0.43419350116550842</v>
+        <v>-0.4747164791126664</v>
       </c>
       <c r="AS12">
         <f t="shared" si="16"/>
-        <v>-3.0213137949871118</v>
+        <v>-3.3032776878095254</v>
       </c>
       <c r="AT12" s="3">
         <f t="shared" si="17"/>
-        <v>1.0870699234616308</v>
+        <v>1.1885254045252744</v>
       </c>
       <c r="AU12">
         <f t="shared" si="18"/>
-        <v>10.170622259518503</v>
+        <v>11.119806342539972</v>
       </c>
       <c r="AV12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1192.1664502927556</v>
       </c>
     </row>
@@ -23221,36 +23010,36 @@
         <f t="shared" si="0"/>
         <v>-0.74542285367613648</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="5">
         <f t="shared" si="6"/>
-        <v>2.045710835603491</v>
-      </c>
-      <c r="AD13">
+        <v>2.0577865200035244</v>
+      </c>
+      <c r="AD13" s="5">
         <f t="shared" si="7"/>
-        <v>-2.7911336892796275</v>
-      </c>
-      <c r="AE13" s="3">
+        <v>-2.8032093736796608</v>
+      </c>
+      <c r="AE13" s="4">
         <f t="shared" si="8"/>
-        <v>9.9532780249591237</v>
-      </c>
-      <c r="AF13">
+        <v>11.251465412258712</v>
+      </c>
+      <c r="AF13" s="5">
         <f t="shared" si="1"/>
         <v>-6.2469184175261363</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="3">
         <f t="shared" si="9"/>
-        <v>-0.35979012538572075</v>
-      </c>
-      <c r="AH13">
+        <v>-0.36627277792642277</v>
+      </c>
+      <c r="AH13" s="3">
         <f t="shared" si="9"/>
-        <v>1.1061865490357121</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="12"/>
-        <v>0.32525266710154627</v>
+        <v>1.0963640506606325</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" si="10"/>
+        <v>0.33407952194868024</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41090364599918727</v>
       </c>
       <c r="AK13">
@@ -23270,7 +23059,7 @@
         <v>-0.31301010063089441</v>
       </c>
       <c r="AO13" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP13">
         <f t="shared" si="14"/>
@@ -23282,22 +23071,22 @@
       </c>
       <c r="AR13" s="3">
         <f t="shared" si="15"/>
-        <v>-0.41964800557868981</v>
+        <v>-0.45881346252354599</v>
       </c>
       <c r="AS13">
         <f t="shared" si="16"/>
-        <v>-3.4409618005658018</v>
+        <v>-3.7620911503330712</v>
       </c>
       <c r="AT13" s="3">
         <f t="shared" si="17"/>
-        <v>1.0212808030900749</v>
+        <v>1.1165962312353235</v>
       </c>
       <c r="AU13">
         <f t="shared" si="18"/>
-        <v>11.191903062608578</v>
+        <v>12.236402573775296</v>
       </c>
       <c r="AV13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1314.5517518742033</v>
       </c>
     </row>
@@ -23387,36 +23176,36 @@
         <f t="shared" si="0"/>
         <v>-1.3049254718808134</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="5">
         <f t="shared" si="6"/>
-        <v>2.101457291573138</v>
-      </c>
-      <c r="AD14">
+        <v>2.1188674035429025</v>
+      </c>
+      <c r="AD14" s="5">
         <f t="shared" si="7"/>
-        <v>-3.4063827634539514</v>
-      </c>
-      <c r="AE14" s="3">
+        <v>-3.4237928754237159</v>
+      </c>
+      <c r="AE14" s="4">
         <f t="shared" si="8"/>
-        <v>11.148526633322081</v>
-      </c>
-      <c r="AF14">
+        <v>12.439201033993605</v>
+      </c>
+      <c r="AF14" s="5">
         <f t="shared" si="1"/>
         <v>-7.3070384102308132</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="3">
         <f t="shared" si="9"/>
-        <v>-0.61524907417432395</v>
-      </c>
-      <c r="AH14">
+        <v>-0.62058350174405508</v>
+      </c>
+      <c r="AH14" s="3">
         <f t="shared" si="9"/>
-        <v>1.1952486083629577</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="12"/>
-        <v>0.51474569379920421</v>
+        <v>1.1877356217348929</v>
+      </c>
+      <c r="AI14" s="5">
+        <f t="shared" si="10"/>
+        <v>0.52249296088096253</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42021716507706292</v>
       </c>
       <c r="AK14">
@@ -23436,7 +23225,7 @@
         <v>-0.31560691561726195</v>
       </c>
       <c r="AO14" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP14">
         <f t="shared" si="14"/>
@@ -23448,22 +23237,22 @@
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="15"/>
-        <v>-0.35964751347128365</v>
+        <v>-0.39321316615384566</v>
       </c>
       <c r="AS14">
         <f t="shared" si="16"/>
-        <v>-3.8006093140370854</v>
+        <v>-4.1553043164869168</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="17"/>
-        <v>0.85586107222756747</v>
+        <v>0.93573799176369943</v>
       </c>
       <c r="AU14">
         <f t="shared" si="18"/>
-        <v>12.047764134836145</v>
+        <v>13.172140565538996</v>
       </c>
       <c r="AV14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1421.778382604221</v>
       </c>
     </row>
@@ -23553,36 +23342,36 @@
         <f t="shared" si="0"/>
         <v>-2.6533822224620751</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="5">
         <f t="shared" si="6"/>
-        <v>2.1093485549506799</v>
-      </c>
-      <c r="AD15">
+        <v>2.1275293393674088</v>
+      </c>
+      <c r="AD15" s="5">
         <f t="shared" si="7"/>
-        <v>-4.762730777412755</v>
-      </c>
-      <c r="AE15" s="3">
+        <v>-4.780911561829484</v>
+      </c>
+      <c r="AE15" s="4">
         <f t="shared" si="8"/>
-        <v>12.599341039780679</v>
-      </c>
-      <c r="AF15">
+        <v>13.888967988420692</v>
+      </c>
+      <c r="AF15" s="5">
         <f t="shared" si="1"/>
         <v>-9.1556358462620757</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="3">
         <f t="shared" si="9"/>
-        <v>-1.3563480139588036</v>
-      </c>
-      <c r="AH15">
+        <v>-1.357118686405768</v>
+      </c>
+      <c r="AH15" s="3">
         <f t="shared" si="9"/>
-        <v>1.4508144064585977</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="12"/>
-        <v>0.93488733494838649</v>
+        <v>1.449766954427087</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" si="10"/>
+        <v>0.93609437176202481</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42480227879818344</v>
       </c>
       <c r="AK15">
@@ -23602,7 +23391,7 @@
         <v>-0.31688141847262458</v>
       </c>
       <c r="AO15" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP15">
         <f t="shared" si="14"/>
@@ -23614,22 +23403,22 @@
       </c>
       <c r="AR15" s="3">
         <f t="shared" si="15"/>
-        <v>-5.3030762807527193E-2</v>
+        <v>-5.7980087074246775E-2</v>
       </c>
       <c r="AS15">
         <f t="shared" si="16"/>
-        <v>-3.8536400768446124</v>
+        <v>-4.2132844035611638</v>
       </c>
       <c r="AT15" s="3">
         <f t="shared" si="17"/>
-        <v>0.12483634258638533</v>
+        <v>0.13648723174997884</v>
       </c>
       <c r="AU15">
         <f t="shared" si="18"/>
-        <v>12.172600477422531</v>
+        <v>13.308627797288974</v>
       </c>
       <c r="AV15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1454.6449543662443</v>
       </c>
     </row>
@@ -23719,36 +23508,36 @@
         <f t="shared" si="0"/>
         <v>-3.8642283905737873</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="5">
         <f t="shared" si="6"/>
-        <v>2.0490963882599411</v>
-      </c>
-      <c r="AD16">
+        <v>2.0614905146646674</v>
+      </c>
+      <c r="AD16" s="5">
         <f t="shared" si="7"/>
-        <v>-5.9133247788337284</v>
-      </c>
-      <c r="AE16" s="3">
+        <v>-5.9257189052384547</v>
+      </c>
+      <c r="AE16" s="4">
         <f t="shared" si="8"/>
-        <v>13.992843990763273</v>
-      </c>
-      <c r="AF16">
+        <v>15.290569338191263</v>
+      </c>
+      <c r="AF16" s="5">
         <f t="shared" si="1"/>
         <v>-10.865474994573788</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="3">
         <f t="shared" si="9"/>
-        <v>-1.1505940014209735</v>
-      </c>
-      <c r="AH16">
+        <v>-1.1448073434089707</v>
+      </c>
+      <c r="AH16" s="3">
         <f t="shared" si="9"/>
-        <v>1.3935029509825938</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="12"/>
-        <v>0.82568465363468435</v>
+        <v>1.401601349770571</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" si="10"/>
+        <v>0.81678527464058515</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42104415507466098</v>
       </c>
       <c r="AK16">
@@ -23768,7 +23557,7 @@
         <v>-0.31583698499320423</v>
       </c>
       <c r="AO16" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP16">
         <f t="shared" si="14"/>
@@ -23780,22 +23569,22 @@
       </c>
       <c r="AR16" s="3">
         <f t="shared" si="15"/>
-        <v>0.39157292725647264</v>
+        <v>0.42811815663766878</v>
       </c>
       <c r="AS16">
         <f t="shared" si="16"/>
-        <v>-3.4620671495881399</v>
+        <v>-3.7851662469234952</v>
       </c>
       <c r="AT16" s="3">
         <f t="shared" si="17"/>
-        <v>-0.93000442480204404</v>
+        <v>-1.0168010919466475</v>
       </c>
       <c r="AU16">
         <f t="shared" si="18"/>
-        <v>11.242596052620486</v>
+        <v>12.291826705342327</v>
       </c>
       <c r="AV16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1382.462314800121</v>
       </c>
     </row>
@@ -23885,36 +23674,36 @@
         <f t="shared" si="0"/>
         <v>-5.4363852433199522</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="5">
         <f t="shared" si="6"/>
-        <v>2.0237588867885554</v>
-      </c>
-      <c r="AD17">
+        <v>2.0337872691598444</v>
+      </c>
+      <c r="AD17" s="5">
         <f t="shared" si="7"/>
-        <v>-7.4601441301085076</v>
-      </c>
-      <c r="AE17" s="3">
+        <v>-7.4701725124797971</v>
+      </c>
+      <c r="AE17" s="4">
         <f t="shared" si="8"/>
-        <v>15.514443626249578</v>
-      </c>
-      <c r="AF17">
+        <v>16.815645384239986</v>
+      </c>
+      <c r="AF17" s="5">
         <f t="shared" si="1"/>
         <v>-12.938143728219952</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="3">
         <f t="shared" si="9"/>
-        <v>-1.5468193512747792</v>
-      </c>
-      <c r="AH17">
+        <v>-1.5444536072413424</v>
+      </c>
+      <c r="AH17" s="3">
         <f t="shared" si="9"/>
-        <v>1.5215996354863055</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="12"/>
-        <v>1.0165744754403898</v>
+        <v>1.5250760460487225</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="10"/>
+        <v>1.0127059639044391</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41473266701153572</v>
       </c>
       <c r="AK17">
@@ -23934,7 +23723,7 @@
         <v>-0.3140789892747291</v>
       </c>
       <c r="AO17" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP17">
         <f t="shared" si="14"/>
@@ -23946,22 +23735,22 @@
       </c>
       <c r="AR17" s="3">
         <f t="shared" si="15"/>
-        <v>0.1556959490704804</v>
+        <v>0.17022694387742457</v>
       </c>
       <c r="AS17">
         <f t="shared" si="16"/>
-        <v>-3.3063712005176593</v>
+        <v>-3.6149393030460706</v>
       </c>
       <c r="AT17" s="3">
         <f t="shared" si="17"/>
-        <v>-0.37541279348064899</v>
+        <v>-0.41044980879861526</v>
       </c>
       <c r="AU17">
         <f t="shared" si="18"/>
-        <v>10.867183259139837</v>
+        <v>11.881376896543712</v>
       </c>
       <c r="AV17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1372.5655943685965</v>
       </c>
     </row>
@@ -24051,36 +23840,36 @@
         <f t="shared" si="0"/>
         <v>-6.2832829179633842</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="5">
         <f t="shared" si="6"/>
-        <v>1.9889766262555886</v>
-      </c>
-      <c r="AD18">
+        <v>1.9958235298477638</v>
+      </c>
+      <c r="AD18" s="5">
         <f t="shared" si="7"/>
-        <v>-8.2722595442189721</v>
-      </c>
-      <c r="AE18" s="3">
+        <v>-8.2791064478111487</v>
+      </c>
+      <c r="AE18" s="4">
         <f t="shared" si="8"/>
-        <v>16.791206838818248</v>
-      </c>
-      <c r="AF18">
+        <v>18.09725157922113</v>
+      </c>
+      <c r="AF18" s="5">
         <f t="shared" si="1"/>
         <v>-14.284694887913385</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="3">
         <f t="shared" si="9"/>
-        <v>-0.81211541411046451</v>
-      </c>
-      <c r="AH18">
+        <v>-0.80893393533135161</v>
+      </c>
+      <c r="AH18" s="3">
         <f t="shared" si="9"/>
-        <v>1.2767632125686692</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="12"/>
-        <v>0.63607363222551017</v>
+        <v>1.2816061949811441</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="10"/>
+        <v>0.63118759764051635</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41026504316486712</v>
       </c>
       <c r="AK18">
@@ -24100,7 +23889,7 @@
         <v>-0.31283166168466414</v>
       </c>
       <c r="AO18" s="3">
-        <v>70051.063450813817</v>
+        <v>64071.330653885612</v>
       </c>
       <c r="AP18">
         <f t="shared" si="14"/>
@@ -24112,22 +23901,22 @@
       </c>
       <c r="AR18" s="3">
         <f t="shared" si="15"/>
-        <v>0.20537472877873592</v>
+        <v>0.22454220959745938</v>
       </c>
       <c r="AS18">
         <f t="shared" si="16"/>
-        <v>-3.1009964717389233</v>
+        <v>-3.3903970934486112</v>
       </c>
       <c r="AT18" s="3">
         <f t="shared" si="17"/>
-        <v>-0.50059036761804998</v>
+        <v>-0.54731011900330484</v>
       </c>
       <c r="AU18">
         <f t="shared" si="18"/>
-        <v>10.366592891521787</v>
+        <v>11.334066777540407</v>
       </c>
       <c r="AV18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1350.8384790113007</v>
       </c>
     </row>

--- a/SMP_PP.xlsx
+++ b/SMP_PP.xlsx
@@ -1487,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299942064"/>
-        <c:axId val="299942624"/>
+        <c:axId val="64173664"/>
+        <c:axId val="64174224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299942064"/>
+        <c:axId val="64173664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,12 +1548,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299942624"/>
+        <c:crossAx val="64174224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299942624"/>
+        <c:axId val="64174224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1610,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299942064"/>
+        <c:crossAx val="64173664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1622,6 +1622,1095 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>q/p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> vs p</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5034483332167226E-2"/>
+          <c:y val="0.17657667451380246"/>
+          <c:w val="0.79457428522657048"/>
+          <c:h val="0.71298188661138684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$2:$AK$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2628.7363384566665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28695.360281533332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77940.330432899995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140008.51703866667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213616.09823266664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294251.59353300004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377657.08791199996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>465406.69704500004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>555121.68472466664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>641753.99755099998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>725876.80681533332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>805640.87890000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AP$2:$AP$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2607590421870807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2873799820723497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3508682565092953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3710726704289367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3975043298953405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.412331312531679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4178547208063292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.420428035919691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4222568698871758</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.415398512864448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4079733778806431</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3980944953263841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AK$2:$AK$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2515.4747919599999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7369.2502595533333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25328.292626999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49400.543063766672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76159.720779999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104360.67064436666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134186.94364290001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162015.33762943334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188604.79414103334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213458.34164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AP$2:$AP$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3817837640450785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3625837364055839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4620074972829318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5118113914496207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5347109124734899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5483504356166418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5605914814069928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.563375740302964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5624116610317862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5567284342015653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AK$2:$AK$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2722.5836246366666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43859.805339299994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125791.86203140001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240700.15517366666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384207.03470800002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550081.61634333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>729663.24277466664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>923395.66245333327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1123146.0568890001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1325751.0573406667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1534206.2600356666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1742907.02988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1945440.1324166667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2148422.9221899998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2344706.9102633335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2533717.0905633331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AP$2:$AP$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1686640599807525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1913183299181493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2416889411726091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2717737365754307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3045855343355153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.326301837188895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3362703631270985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3440925715499821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.344498339943635</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3404789959502508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3363264367099101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3285683804083501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3170671445191622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3081084034470469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2991632296306435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2878623402009355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>0.5PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AK$2:$AK$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2556.0498433166663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19947.490459600001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51321.077509900002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90638.674862666681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135775.63518106667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182157.4419312333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>230725.84384566665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279898.81311533332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328777.82239633333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375151.09649433335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>417071.63527299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AP$2:$AP$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3393829194319284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3530789263599041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.421262848003912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4498992998035272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4697214087143282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4821583066755686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4872353745860825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4875666419633369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4867419177904724</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4799446551527975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4666541135268127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AK$2:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2691.0299018966666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37703.912981300004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106787.34644183335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198464.7302633333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312549.49699266668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>441452.11121466663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579660.74060000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>725093.87252199987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>876017.18164433341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1028448.6459476665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1180226.3532186665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1330848.3509603334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1474401.9476263335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1613592.7783003331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1738391.8924673332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AP$2:$AP$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.1990975425173505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2251587129845241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2784263623088694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3063606872439839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3363225871334541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3552226259816862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3656121190916477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3701639862593882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3715407903224339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3658395995058552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3588172543414407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3515009622558487</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3411157643469349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3291799095516921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3147613573283785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>4PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AK$2:$AK$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2740.1550688233333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48151.410099266672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140023.73074589999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272538.02467499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>439740.92971766664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>633283.23345866671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>847290.0021876666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1079249.2642293333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1321238.2197256668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1571170.907324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1823574.0032919999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2080882.7730066665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2341769.3260366665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2595675.0318933334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2846613.1900200001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3093770.9270099998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3332502.3303733333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AP$2:$AP$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.152795749100235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1669663571940914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2158920601044989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2496451673124684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2848141117287988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3056760128104163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.317415772564805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3255875442941221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3274342284661271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3253341427608241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3185995104564832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3118749143353376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3056427357641143</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2944448577155609</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2848007050702608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.273967379325063</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2632841496072935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="387301440"/>
+        <c:axId val="387297520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="387301440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387297520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="387297520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.1000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387301440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88191553163113756"/>
+          <c:y val="0.26395952977163339"/>
+          <c:w val="8.398178847607482E-2"/>
+          <c:h val="0.4820305588460212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2805,11 +3894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299947664"/>
-        <c:axId val="299948224"/>
+        <c:axId val="247011248"/>
+        <c:axId val="247011808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299947664"/>
+        <c:axId val="247011248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,12 +3955,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299948224"/>
+        <c:crossAx val="247011808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299948224"/>
+        <c:axId val="247011808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +4017,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299947664"/>
+        <c:crossAx val="247011248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3142,7 +4231,7 @@
                   <c:v>-1.791459868647486E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2182007191496711</c:v>
+                  <c:v>3.9722500231092972E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-6.8739849554488641E-2</c:v>
@@ -3187,37 +4276,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6288411276845188E-2</c:v>
+                  <c:v>1.6359883201727595E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11587647142973459</c:v>
+                  <c:v>-6.0239489574720154E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33381463502791608</c:v>
+                  <c:v>-0.22306074761328676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.6394177953841268</c:v>
+                  <c:v>-0.47265620827461829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0095162337481638</c:v>
+                  <c:v>-0.76519960772465967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4188223754671481</c:v>
+                  <c:v>-1.0857163515126569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8709571123915065</c:v>
+                  <c:v>-1.4988787733252364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3510426558318627</c:v>
+                  <c:v>-1.8997319966092214</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.828561208696859</c:v>
+                  <c:v>-2.3158721780219689</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.3032776878095254</c:v>
+                  <c:v>-2.6743873626225381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.7620911503330712</c:v>
+                  <c:v>-3.0477314743358948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,34 +4444,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9354347030212968E-3</c:v>
+                  <c:v>-6.1005518163690367E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.7584288020088367E-2</c:v>
+                  <c:v>-7.1445529944936123E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.31958028721272175</c:v>
+                  <c:v>-0.31112968799835761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.61776518696413318</c:v>
+                  <c:v>-0.54794326862706155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.96647338184404996</c:v>
+                  <c:v>-0.92546506709424115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.3615470884913277</c:v>
+                  <c:v>-1.3514666102044535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7483919685796241</c:v>
+                  <c:v>-1.7884347430637086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1311283272585539</c:v>
+                  <c:v>-2.2108940658183154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.4985776632722079</c:v>
+                  <c:v>-2.6062169518367519</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.8902549885350899</c:v>
+                  <c:v>-3.0487851992120012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,49 +4624,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0340152243130521E-2</c:v>
+                  <c:v>5.694659081840186E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5620668245228542E-2</c:v>
+                  <c:v>1.4796567568510874E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0560272392733035E-2</c:v>
+                  <c:v>-1.5010086068090882E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5040744667258191E-2</c:v>
+                  <c:v>-7.0113168893510859E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.9340443967895407E-2</c:v>
+                  <c:v>-7.9973949383817092E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.8956028069589965E-2</c:v>
+                  <c:v>-6.0647511816070934E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1627530052923159</c:v>
+                  <c:v>-0.16275419902844374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.24657037153871303</c:v>
+                  <c:v>-0.22009704376686279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.33788313430390216</c:v>
+                  <c:v>-0.28829998608606716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.43722284043838172</c:v>
+                  <c:v>-0.40820397190881264</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.54126302604431575</c:v>
+                  <c:v>-0.49886694071690568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.64598259675299985</c:v>
+                  <c:v>-0.57979351606818563</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.75417183494881967</c:v>
+                  <c:v>-0.65414788291451198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.86152358015028641</c:v>
+                  <c:v>-0.75723563782790015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.96717900039167248</c:v>
+                  <c:v>-0.85584274751259815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,34 +4804,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.7954520719665367E-2</c:v>
+                  <c:v>1.8915143640328775E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.17172868090907556</c:v>
+                  <c:v>-9.6388758778085157E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.43445675178633242</c:v>
+                  <c:v>-0.24563068545062899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.78361096131964159</c:v>
+                  <c:v>-0.63512340848305815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1751524527391548</c:v>
+                  <c:v>-0.93390353573788154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6100521722839489</c:v>
+                  <c:v>-1.3806428701782949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0700181445526655</c:v>
+                  <c:v>-1.7445419345853115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.5428572474954878</c:v>
+                  <c:v>-2.2125927703757657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0034089036831855</c:v>
+                  <c:v>-2.6420896086487944</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.4283384329816071</c:v>
+                  <c:v>-2.9656705432511319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,46 +4981,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8031234947096008E-2</c:v>
+                  <c:v>1.7895882157900354E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1382339352961141E-2</c:v>
+                  <c:v>-1.2343303951701176E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.0965290796817567E-2</c:v>
+                  <c:v>-0.10100543381285036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.15772130243405597</c:v>
+                  <c:v>-0.10140034236116315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.30074075291247948</c:v>
+                  <c:v>-0.25759902257905853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.47140234997811253</c:v>
+                  <c:v>-0.34092030476146346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.66485375099629374</c:v>
+                  <c:v>-0.54039222030868717</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.87706334211738401</c:v>
+                  <c:v>-0.6936332187697295</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1008234426454617</c:v>
+                  <c:v>-0.83655675579231825</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3313830990683451</c:v>
+                  <c:v>-1.0230016864752769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5666702330096496</c:v>
+                  <c:v>-1.2192427785364544</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.7961258645437141</c:v>
+                  <c:v>-1.4125206837626825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.0228973232329133</c:v>
+                  <c:v>-1.5638977738002973</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.2294515806834001</c:v>
+                  <c:v>-1.772081103944247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4087,52 +5176,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5711225059074812E-2</c:v>
+                  <c:v>2.6837803443777769E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8185234846452603E-2</c:v>
+                  <c:v>1.5402043627914889E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2865764182013825E-2</c:v>
+                  <c:v>-4.8507585321765061E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8431956350516146E-2</c:v>
+                  <c:v>1.8325475464964922E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4919919770997883E-2</c:v>
+                  <c:v>-1.4680377231296192E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.314492455758222E-2</c:v>
+                  <c:v>-6.4671693655414461E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3873746599871815E-2</c:v>
+                  <c:v>-4.6182423652466914E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.419022133499026E-3</c:v>
+                  <c:v>-6.0424480794225563E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2329964514805328E-2</c:v>
+                  <c:v>-8.5555439312051285E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.7093667214317634E-2</c:v>
+                  <c:v>-0.13999376683713155</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.5720298544423127E-2</c:v>
+                  <c:v>-0.17333182231183769</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.13767354102742496</c:v>
+                  <c:v>-0.21196160593183688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.18083764997986618</c:v>
+                  <c:v>-0.2513914649642976</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.2254861988389672</c:v>
+                  <c:v>-0.28532463553252052</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.27118609772099722</c:v>
+                  <c:v>-0.34153301737422903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.31679394324614768</c:v>
+                  <c:v>-0.38152363276762469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,11 +5236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="434097712"/>
-        <c:axId val="434101072"/>
+        <c:axId val="247469520"/>
+        <c:axId val="247470080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="434097712"/>
+        <c:axId val="247469520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -4209,12 +5298,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434101072"/>
+        <c:crossAx val="247470080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434101072"/>
+        <c:axId val="247470080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -4273,7 +5362,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434097712"/>
+        <c:crossAx val="247469520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4564,37 +5653,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2483401872451339</c:v>
+                  <c:v>0.32709375307390315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4132478012167753</c:v>
+                  <c:v>0.98316689717008643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4445485652094368</c:v>
+                  <c:v>1.8265752893114922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6135867231681345</c:v>
+                  <c:v>2.8531213318066979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8531830043701136</c:v>
+                  <c:v>3.9935708648087216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1042726949188708</c:v>
+                  <c:v>5.1796442584750855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3951347779059518</c:v>
+                  <c:v>6.4336875397190152</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6937906190183121</c:v>
+                  <c:v>7.7167678563658644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.931280938014698</c:v>
+                  <c:v>8.9498668698900605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.119806342539972</c:v>
+                  <c:v>10.136992243203091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.236402573775296</c:v>
+                  <c:v>11.254522912355293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,34 +5821,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24914790723220495</c:v>
+                  <c:v>0.14936647101621081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0629635365032335</c:v>
+                  <c:v>0.75508841986944175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0658771026844542</c:v>
+                  <c:v>1.601082821865818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1279715911433783</c:v>
+                  <c:v>2.5591341305949502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2116723664584592</c:v>
+                  <c:v>3.5830978512699811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3306106867105605</c:v>
+                  <c:v>4.6777246656395617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.355700543852592</c:v>
+                  <c:v>5.7035407810337038</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3215765562674093</c:v>
+                  <c:v>6.6833049568661949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2143691166000004</c:v>
+                  <c:v>7.5952180891759831</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1362835195407825</c:v>
+                  <c:v>8.5484186630011685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,49 +6001,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16854381075864253</c:v>
+                  <c:v>9.1778258659013137E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4534976307725096</c:v>
+                  <c:v>0.28601455494808642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82051382720268629</c:v>
+                  <c:v>0.56672705071128959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2538717073633654</c:v>
+                  <c:v>0.93156382018010842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7346065282001957</c:v>
+                  <c:v>1.3609258590639097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2389098877681608</c:v>
+                  <c:v>1.8339957197515657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7693817570113772</c:v>
+                  <c:v>2.3447477167400077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.305054087662429</c:v>
+                  <c:v>2.8714631522925238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8390392973320586</c:v>
+                  <c:v>3.4034120897289606</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3803350449241476</c:v>
+                  <c:v>3.9490582571222146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9152905457222538</c:v>
+                  <c:v>4.4904992618435129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4286615290273135</c:v>
+                  <c:v>5.0097455453866697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9381470165016372</c:v>
+                  <c:v>5.5252937247509442</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.4265418829475163</c:v>
+                  <c:v>6.0199394013945149</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8932419103423799</c:v>
+                  <c:v>6.4907193508656835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5092,34 +6181,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57237542883510506</c:v>
+                  <c:v>0.36803718647389322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4816133805135034</c:v>
+                  <c:v>1.0700516495750796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5471871977358083</c:v>
+                  <c:v>1.9731369694313123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7194761352549874</c:v>
+                  <c:v>3.0328583195306074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8886883159337664</c:v>
+                  <c:v>4.1290896444850809</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0860199061177269</c:v>
+                  <c:v>5.2875790432773258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2769236128724195</c:v>
+                  <c:v>6.456430922075576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4437561222494537</c:v>
+                  <c:v>7.6230823187085202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5378175545960708</c:v>
+                  <c:v>8.7228662332586975</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.517520875592691</c:v>
+                  <c:v>9.7025284659617057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,46 +6358,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2817455716682068</c:v>
+                  <c:v>0.16159964927845355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75822491516269763</c:v>
+                  <c:v>0.49770499529411738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3425224910447593</c:v>
+                  <c:v>0.95763764730305079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0332637163441114</c:v>
+                  <c:v>1.5500004981524931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7849473281188932</c:v>
+                  <c:v>2.2297785424184529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5681573368188242</c:v>
+                  <c:v>2.9656146763435975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3737894929593715</c:v>
+                  <c:v>3.7443590594698368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1943379795591129</c:v>
+                  <c:v>4.5522560985060467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0101939613356423</c:v>
+                  <c:v>5.3636378147658501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8118508574606684</c:v>
+                  <c:v>6.1668986777884784</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5983992900380866</c:v>
+                  <c:v>6.9588526044092571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.340757069488669</c:v>
+                  <c:v>7.7063929692825068</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0545308877989026</c:v>
+                  <c:v>8.4214399953771952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6899493792039024</c:v>
+                  <c:v>9.057455189743191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,52 +6553,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10464417734218186</c:v>
+                  <c:v>5.4626028108637412E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28298321614191702</c:v>
+                  <c:v>0.17259679169905928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51808279019028769</c:v>
+                  <c:v>0.34841654002641581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79751434450568071</c:v>
+                  <c:v>0.58130570248947744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1071263596828218</c:v>
+                  <c:v>0.85415808077150523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4381112647282701</c:v>
+                  <c:v>1.1612900369738304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7872174716048412</c:v>
+                  <c:v>1.4951382358552854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.14329949811781</c:v>
+                  <c:v>1.8447810443380048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5041664570267188</c:v>
+                  <c:v>2.2047298711042815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8627538948614926</c:v>
+                  <c:v>2.5654034956054961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2232129235195135</c:v>
+                  <c:v>2.9306152647691635</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5841623901748756</c:v>
+                  <c:v>3.2984236075723232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9316259348620974</c:v>
+                  <c:v>3.6521580445971247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2717314855997346</c:v>
+                  <c:v>3.9981801241657355</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6038284736230715</c:v>
+                  <c:v>4.3352960237032221</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9221293151238878</c:v>
+                  <c:v>4.6568992341812612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5524,11 +6613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400458080"/>
-        <c:axId val="400458640"/>
+        <c:axId val="247475120"/>
+        <c:axId val="247475680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400458080"/>
+        <c:axId val="247475120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5585,12 +6674,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400458640"/>
+        <c:crossAx val="247475680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400458640"/>
+        <c:axId val="247475680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5648,7 +6737,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400458080"/>
+        <c:crossAx val="247475120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5905,7 +6994,7 @@
                   <c:v>2628.7363384566665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14000</c:v>
+                  <c:v>28695.360281533332</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>77940.330432899995</c:v>
@@ -6919,11 +8008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400464240"/>
-        <c:axId val="400464800"/>
+        <c:axId val="247216736"/>
+        <c:axId val="247217296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400464240"/>
+        <c:axId val="247216736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -6981,12 +8070,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400464800"/>
+        <c:crossAx val="247217296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400464800"/>
+        <c:axId val="247217296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7045,7 +8134,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400464240"/>
+        <c:crossAx val="247216736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7268,10 +8357,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>-0.26504586105742467</c:v>
+                  <c:v>-5.0015883972052755E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30887723338103978</c:v>
+                  <c:v>0.11675431842583991</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.19305150334722779</c:v>
@@ -7958,11 +9047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="380760016"/>
-        <c:axId val="380760576"/>
+        <c:axId val="247308144"/>
+        <c:axId val="247308704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="380760016"/>
+        <c:axId val="247308144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8019,12 +9108,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380760576"/>
+        <c:crossAx val="247308704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="380760576"/>
+        <c:axId val="247308704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8081,7 +9170,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380760016"/>
+        <c:crossAx val="247308144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8206,7 +9295,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>dq/dp</a:t>
+              <a:t>q/p</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
@@ -8344,38 +9433,41 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2607590421870807</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9423403605604825</c:v>
+                  <c:v>1.2873799820723497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7169743865176184</c:v>
+                  <c:v>1.3508682565092953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6027555746450712</c:v>
+                  <c:v>1.3710726704289367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.546856764002601</c:v>
+                  <c:v>1.3975043298953405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5065378630281099</c:v>
+                  <c:v>1.412331312531679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4761673190222979</c:v>
+                  <c:v>1.4178547208063292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4520598634137434</c:v>
+                  <c:v>1.420428035919691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4320845173354098</c:v>
+                  <c:v>1.4222568698871758</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4156299198831406</c:v>
+                  <c:v>1.415398512864448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4020191233857742</c:v>
+                  <c:v>1.4079733778806431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3905741223861088</c:v>
+                  <c:v>1.3980944953263841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8412,10 +9504,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AE$2:$AE$12</c:f>
+              <c:f>[1]Sheet1!$AE$2:$AE$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.8712636408795333E-8</c:v>
                 </c:pt>
@@ -8445,48 +9537,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.2382312100566431</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.393042696659142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AP$2:$AP$12</c:f>
+              <c:f>[1]Sheet1!$AP$2:$AP$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3817837640450785</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0090750205753558</c:v>
+                  <c:v>1.3625837364055839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8443558894483842</c:v>
+                  <c:v>1.4620074972829318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7322564764106896</c:v>
+                  <c:v>1.5118113914496207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6671504107658244</c:v>
+                  <c:v>1.5347109124734899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6235078267812537</c:v>
+                  <c:v>1.5483504356166418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5909360061713129</c:v>
+                  <c:v>1.5605914814069928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5660912330976451</c:v>
+                  <c:v>1.563375740302964</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5470482432552271</c:v>
+                  <c:v>1.5624116610317862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5317723436675272</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.518649905691144</c:v>
+                  <c:v>1.5567284342015653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8584,50 +9673,53 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1686640599807525</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8160383272446403</c:v>
+                  <c:v>1.1913183299181493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6356216271168877</c:v>
+                  <c:v>1.2416889411726091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5440124208187311</c:v>
+                  <c:v>1.2717737365754307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4846589622644111</c:v>
+                  <c:v>1.3045855343355153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4417039812757488</c:v>
+                  <c:v>1.326301837188895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4090597034444348</c:v>
+                  <c:v>1.3362703631270985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3831153210120573</c:v>
+                  <c:v>1.3440925715499821</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3618524601923803</c:v>
+                  <c:v>1.344498339943635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3442472387769562</c:v>
+                  <c:v>1.3404789959502508</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.329224375110359</c:v>
+                  <c:v>1.3363264367099101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3161821183565607</c:v>
+                  <c:v>1.3285683804083501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3049630913246724</c:v>
+                  <c:v>1.3170671445191622</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2951491902278758</c:v>
+                  <c:v>1.3081084034470469</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2864551675378204</c:v>
+                  <c:v>1.2991632296306435</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2788189027392434</c:v>
+                  <c:v>1.2878623402009355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8710,35 +9802,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3393829194319284</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9053060830494941</c:v>
+                  <c:v>1.3530789263599041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7404396115775711</c:v>
+                  <c:v>1.421262848003912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6531141584289157</c:v>
+                  <c:v>1.4498992998035272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5974582636996595</c:v>
+                  <c:v>1.4697214087143282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5583485062903495</c:v>
+                  <c:v>1.4821583066755686</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5290331594502045</c:v>
+                  <c:v>1.4872353745860825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5056348650184768</c:v>
+                  <c:v>1.4875666419633369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4865801781327825</c:v>
+                  <c:v>1.4867419177904724</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.470995298159429</c:v>
+                  <c:v>1.4799446551527975</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4584525263146098</c:v>
+                  <c:v>1.4666541135268127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8833,47 +9928,50 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.1990975425173505</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8333349150238609</c:v>
+                  <c:v>1.2251587129845241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6545991032687406</c:v>
+                  <c:v>1.2784263623088694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5643844234460931</c:v>
+                  <c:v>1.3063606872439839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5063561750312602</c:v>
+                  <c:v>1.3363225871334541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4641809111583908</c:v>
+                  <c:v>1.3552226259816862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4322228418598042</c:v>
+                  <c:v>1.3656121190916477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.406955906635972</c:v>
+                  <c:v>1.3701639862593882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3862244629844778</c:v>
+                  <c:v>1.3715407903224339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3688997705380646</c:v>
+                  <c:v>1.3658395995058552</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3542817906462632</c:v>
+                  <c:v>1.3588172543414407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3417561426741769</c:v>
+                  <c:v>1.3515009622558487</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3310353500514012</c:v>
+                  <c:v>1.3411157643469349</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.321816061075151</c:v>
+                  <c:v>1.3291799095516921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3139888388488756</c:v>
+                  <c:v>1.3147613573283785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8974,53 +10072,56 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.152795749100235</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.80535157822694</c:v>
+                  <c:v>1.1669663571940914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6235399819788612</c:v>
+                  <c:v>1.2158920601044989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.530953324207476</c:v>
+                  <c:v>1.2496451673124684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4707244592370008</c:v>
+                  <c:v>1.2848141117287988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4273635832401048</c:v>
+                  <c:v>1.3056760128104163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3943094247322672</c:v>
+                  <c:v>1.317415772564805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.367903658004811</c:v>
+                  <c:v>1.3255875442941221</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3462471260541777</c:v>
+                  <c:v>1.3274342284661271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3281775970539018</c:v>
+                  <c:v>1.3253341427608241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3128555638706789</c:v>
+                  <c:v>1.3185995104564832</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.299624236942982</c:v>
+                  <c:v>1.3118749143353376</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2879526989524848</c:v>
+                  <c:v>1.3056427357641143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2777264128670414</c:v>
+                  <c:v>1.2944448577155609</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2687561598004613</c:v>
+                  <c:v>1.2848007050702608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2607418217171571</c:v>
+                  <c:v>1.273967379325063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2535900285927311</c:v>
+                  <c:v>1.2632841496072935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9035,11 +10136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="380765616"/>
-        <c:axId val="380766176"/>
+        <c:axId val="247313744"/>
+        <c:axId val="248063088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="380765616"/>
+        <c:axId val="247313744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9096,15 +10197,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380766176"/>
+        <c:crossAx val="248063088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="380766176"/>
+        <c:axId val="248063088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.2"/>
+          <c:min val="1.1000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9159,7 +10260,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380765616"/>
+        <c:crossAx val="247313744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9456,34 +10557,34 @@
                   <c:v>-0.95579557395708714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.573331518164267</c:v>
+                  <c:v>31.048885324486896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.63582364180566</c:v>
+                  <c:v>83.878038367314915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193.61859757528433</c:v>
+                  <c:v>151.60234099951631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>268.73281207978994</c:v>
+                  <c:v>230.65721129774403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>341.68565419548128</c:v>
+                  <c:v>312.06306622211565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>416.42950066425135</c:v>
+                  <c:v>396.30829648304172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>490.76000851941723</c:v>
+                  <c:v>480.40795615833036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>564.22397859727892</c:v>
+                  <c:v>564.33125013541826</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>635.17882804811688</c:v>
+                  <c:v>641.86882088350251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>701.86092936402974</c:v>
+                  <c:v>708.60531781783538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9621,34 +10722,34 @@
                   <c:v>7.0549048057573849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.151007484355013</c:v>
+                  <c:v>11.544925646599328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.585479345828716</c:v>
+                  <c:v>42.093808622920491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.38436549242944</c:v>
+                  <c:v>85.079679730579613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156.48643236410419</c:v>
+                  <c:v>133.27363886553618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202.20960898582848</c:v>
+                  <c:v>184.69861856820185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247.59159802958223</c:v>
+                  <c:v>238.74042309813143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>289.20475981938586</c:v>
+                  <c:v>288.26842852417082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>329.17586663205594</c:v>
+                  <c:v>335.24516626817837</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>367.68304006185787</c:v>
+                  <c:v>378.71117269034664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>406.19814920134121</c:v>
+                  <c:v>425.01970569761494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9789,37 +10890,37 @@
                   <c:v>7.0917990508595521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.062487649282872</c:v>
+                  <c:v>43.051694467028327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.22503494870423</c:v>
+                  <c:v>122.2919060346848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.62260962436187</c:v>
+                  <c:v>224.25633750517815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>417.01327797092523</c:v>
+                  <c:v>349.30709163820416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>543.93470219332289</c:v>
+                  <c:v>486.66443726364338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>671.88589826407701</c:v>
+                  <c:v>627.35000740763428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803.40808408406542</c:v>
+                  <c:v>774.17764510144184</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>935.14420544200414</c:v>
+                  <c:v>924.47503113140795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1066.0123197554362</c:v>
+                  <c:v>1065.7253912822632</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1192.1664502927556</c:v>
+                  <c:v>1200.4245444090104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1314.5517518742033</c:v>
+                  <c:v>1326.0242888085886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9969,46 +11070,46 @@
                   <c:v>-1.0930520740821261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.01981127127523</c:v>
+                  <c:v>54.365336687304591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>251.6678481418715</c:v>
+                  <c:v>160.48713074337977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>415.05186424562578</c:v>
+                  <c:v>305.59690770020325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>602.57210447996999</c:v>
+                  <c:v>492.94413798949682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>803.96546328095644</c:v>
+                  <c:v>707.26118805332396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1012.1295313641309</c:v>
+                  <c:v>936.11469677757157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1227.2449099651203</c:v>
+                  <c:v>1175.6239317602474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1448.8777227373846</c:v>
+                  <c:v>1424.3196858457177</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1673.5755738617834</c:v>
+                  <c:v>1667.6431045936072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1896.5416417070553</c:v>
+                  <c:v>1906.5175356346383</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2118.2300553388941</c:v>
+                  <c:v>2142.1675735633012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2334.0071823127164</c:v>
+                  <c:v>2361.2133516477543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2546.5765981767636</c:v>
+                  <c:v>2568.1640328165322</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2741.3206767852994</c:v>
+                  <c:v>2743.74210855725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10161,49 +11262,49 @@
                   <c:v>-1.1250553205695557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.1974966142285</c:v>
+                  <c:v>61.931726521892458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>295.70962790996128</c:v>
+                  <c:v>184.80683914850931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>501.27345618961613</c:v>
+                  <c:v>363.10386387041603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>735.42923277600835</c:v>
+                  <c:v>594.72293735444919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>992.67387945275937</c:v>
+                  <c:v>866.81967125087601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1263.1858886735004</c:v>
+                  <c:v>1159.9771004039569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1545.7375819769065</c:v>
+                  <c:v>1476.9150446862989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1835.4691844817048</c:v>
+                  <c:v>1798.7786048701641</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2128.7467651233101</c:v>
+                  <c:v>2119.4620586188844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2430.0290765741129</c:v>
+                  <c:v>2450.0695611309498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2733.9042971800968</c:v>
+                  <c:v>2773.2292757628188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3036.1731040840914</c:v>
+                  <c:v>3078.7193865813874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3335.3862620252858</c:v>
+                  <c:v>3385.3134271444919</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3625.2103016106817</c:v>
+                  <c:v>3678.2700597738526</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3910.8134047647495</c:v>
+                  <c:v>3951.3515544303914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10354,52 +11455,52 @@
                   <c:v>7.8612131113106152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.04487274062302</c:v>
+                  <c:v>66.92944684181353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>329.15246918239973</c:v>
+                  <c:v>202.48649776813525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>565.33775010196928</c:v>
+                  <c:v>405.25533765032992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>837.17342947938107</c:v>
+                  <c:v>672.45894328324471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1137.3051211875736</c:v>
+                  <c:v>985.887740696366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1458.1236935664597</c:v>
+                  <c:v>1332.6255506436266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1795.3313713905945</c:v>
+                  <c:v>1708.8414786126064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2143.0659548129793</c:v>
+                  <c:v>2096.6708599958552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500.9175742925768</c:v>
+                  <c:v>2492.6820608569533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2866.2659896640589</c:v>
+                  <c:v>2885.3704377407312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3234.323601745707</c:v>
+                  <c:v>3280.3454628033014</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3606.6127262077102</c:v>
+                  <c:v>3680.7455875409596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3978.5015635775085</c:v>
+                  <c:v>4055.5300218515031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4345.7465115825007</c:v>
+                  <c:v>4426.2488534488339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4712.6117543900555</c:v>
+                  <c:v>4784.2638981297505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5068.8909909224749</c:v>
+                  <c:v>5125.1246043857955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10414,11 +11515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="380771216"/>
-        <c:axId val="380771776"/>
+        <c:axId val="248068128"/>
+        <c:axId val="248068688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="380771216"/>
+        <c:axId val="248068128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10475,12 +11576,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380771776"/>
+        <c:crossAx val="248068688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="380771776"/>
+        <c:axId val="248068688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10537,7 +11638,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380771216"/>
+        <c:crossAx val="248068128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10719,56 +11820,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13421083595087163"/>
-                  <c:y val="5.852893028163144E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$AI$3:$AI$13</c:f>
@@ -10776,10 +11827,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.26504586105742467</c:v>
+                  <c:v>-5.0015883972052755E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30887723338103978</c:v>
+                  <c:v>0.11675431842583991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19305150334722779</c:v>
@@ -10818,37 +11869,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.9423403605604825</c:v>
+                  <c:v>1.2873799820723497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7169743865176184</c:v>
+                  <c:v>1.3508682565092953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6027555746450712</c:v>
+                  <c:v>1.3710726704289367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.546856764002601</c:v>
+                  <c:v>1.3975043298953405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5065378630281099</c:v>
+                  <c:v>1.412331312531679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4761673190222979</c:v>
+                  <c:v>1.4178547208063292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4520598634137434</c:v>
+                  <c:v>1.420428035919691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4320845173354098</c:v>
+                  <c:v>1.4222568698871758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4156299198831406</c:v>
+                  <c:v>1.415398512864448</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4020191233857742</c:v>
+                  <c:v>1.4079733778806431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3905741223861088</c:v>
+                  <c:v>1.3980944953263841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10880,56 +11931,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12561699117320771"/>
-                  <c:y val="-8.368023586200124E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[1]Sheet1!$AI$3:$AI$12</c:f>
@@ -10976,34 +11977,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0090750205753558</c:v>
+                  <c:v>1.3625837364055839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8443558894483842</c:v>
+                  <c:v>1.4620074972829318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7322564764106896</c:v>
+                  <c:v>1.5118113914496207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6671504107658244</c:v>
+                  <c:v>1.5347109124734899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6235078267812537</c:v>
+                  <c:v>1.5483504356166418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5909360061713129</c:v>
+                  <c:v>1.5605914814069928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5660912330976451</c:v>
+                  <c:v>1.563375740302964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5470482432552271</c:v>
+                  <c:v>1.5624116610317862</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5317723436675272</c:v>
+                  <c:v>1.5567284342015653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.518649905691144</c:v>
+                  <c:v>1.5570272623984061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11035,102 +12036,55 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14074907880678256"/>
-                  <c:y val="8.2878271563305211E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AI$4:$AI$17</c:f>
+              <c:f>[2]Sheet1!$AI$3:$AI$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>-6.2048018398319645E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-4.6859977566318184E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.10618214039800114</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-2.1924240778651686E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.16993265795957338</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-4.0853242139867352E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.19991441602661708</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.10886873797094514</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.12821332560205365</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.21974677545261531</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.16744754833402556</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.15585393274086612</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.14422389569489544</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.2084072696498479</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.20945477774799928</c:v>
                 </c:pt>
               </c:numCache>
@@ -11138,51 +12092,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AP$4:$AP$17</c:f>
+              <c:f>[2]Sheet1!$AP$3:$AP$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.6356216271168877</c:v>
+                  <c:v>1.1913183299181493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5440124208187311</c:v>
+                  <c:v>1.2416889411726091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4846589622644111</c:v>
+                  <c:v>1.2717737365754307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4417039812757488</c:v>
+                  <c:v>1.3045855343355153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4090597034444348</c:v>
+                  <c:v>1.326301837188895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3831153210120573</c:v>
+                  <c:v>1.3362703631270985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3618524601923803</c:v>
+                  <c:v>1.3440925715499821</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3442472387769562</c:v>
+                  <c:v>1.344498339943635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.329224375110359</c:v>
+                  <c:v>1.3404789959502508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3161821183565607</c:v>
+                  <c:v>1.3363264367099101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3049630913246724</c:v>
+                  <c:v>1.3285683804083501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2951491902278758</c:v>
+                  <c:v>1.3170671445191622</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2864551675378204</c:v>
+                  <c:v>1.3081084034470469</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2788189027392434</c:v>
+                  <c:v>1.2991632296306435</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2878623402009355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11214,56 +12171,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15590491795131881"/>
-                  <c:y val="4.2031759613199715E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[3]Sheet1!$AI$3:$AI$12</c:f>
@@ -11310,34 +12217,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9053060830494941</c:v>
+                  <c:v>1.3530789263599041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7404396115775711</c:v>
+                  <c:v>1.421262848003912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6531141584289157</c:v>
+                  <c:v>1.4498992998035272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5974582636996595</c:v>
+                  <c:v>1.4697214087143282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5583485062903495</c:v>
+                  <c:v>1.4821583066755686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5290331594502045</c:v>
+                  <c:v>1.4872353745860825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5056348650184768</c:v>
+                  <c:v>1.4875666419633369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4865801781327825</c:v>
+                  <c:v>1.4867419177904724</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.470995298159429</c:v>
+                  <c:v>1.4799446551527975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4584525263146098</c:v>
+                  <c:v>1.4666541135268127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11369,99 +12276,52 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15736252990863342"/>
-                  <c:y val="4.6740017028895457E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]Sheet1!$AI$4:$AI$16</c:f>
+              <c:f>[4]Sheet1!$AI$3:$AI$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>-0.11074208538079086</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.9969369627914908E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.19277198405871621</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.6666663472654346E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.2297789426055418</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.11323347460248688</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.25614555927382932</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.18967887126291841</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.1761483333410791</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.23211006444578428</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.24779357165198596</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.25855179774673392</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.21170228602219121</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.32732446015141975</c:v>
                 </c:pt>
               </c:numCache>
@@ -11469,48 +12329,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]Sheet1!$AP$4:$AP$16</c:f>
+              <c:f>[4]Sheet1!$AP$3:$AP$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.6545991032687406</c:v>
+                  <c:v>1.2251587129845241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5643844234460931</c:v>
+                  <c:v>1.2784263623088694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5063561750312602</c:v>
+                  <c:v>1.3063606872439839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4641809111583908</c:v>
+                  <c:v>1.3363225871334541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4322228418598042</c:v>
+                  <c:v>1.3552226259816862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.406955906635972</c:v>
+                  <c:v>1.3656121190916477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3862244629844778</c:v>
+                  <c:v>1.3701639862593882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3688997705380646</c:v>
+                  <c:v>1.3715407903224339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3542817906462632</c:v>
+                  <c:v>1.3658395995058552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3417561426741769</c:v>
+                  <c:v>1.3588172543414407</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3310353500514012</c:v>
+                  <c:v>1.3515009622558487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.321816061075151</c:v>
+                  <c:v>1.3411157643469349</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3139888388488756</c:v>
+                  <c:v>1.3291799095516921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3147613573283785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11542,105 +12405,58 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.3203399170085667E-2"/>
-                  <c:y val="5.6131030385197969E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AI$4:$AI$18</c:f>
+              <c:f>[5]Sheet1!$AI$3:$AI$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>-4.9130065598773136E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-0.1078086035595493</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.11519071294757506</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-9.9516155032836312E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.12096597033193311</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-2.6741625870882232E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.11896201453232283</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.0733161947652412E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>6.9818142605431524E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.15093514975031641</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9.1284176167296296E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.10502693692479052</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.11146740295940191</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>9.8066489313421074E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.16673310846158473</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.12434768712026428</c:v>
                 </c:pt>
               </c:numCache>
@@ -11648,54 +12464,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AP$4:$AP$18</c:f>
+              <c:f>[5]Sheet1!$AP$3:$AP$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.6235399819788612</c:v>
+                  <c:v>1.1669663571940914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.530953324207476</c:v>
+                  <c:v>1.2158920601044989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4707244592370008</c:v>
+                  <c:v>1.2496451673124684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4273635832401048</c:v>
+                  <c:v>1.2848141117287988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3943094247322672</c:v>
+                  <c:v>1.3056760128104163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.367903658004811</c:v>
+                  <c:v>1.317415772564805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3462471260541777</c:v>
+                  <c:v>1.3255875442941221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3281775970539018</c:v>
+                  <c:v>1.3274342284661271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3128555638706789</c:v>
+                  <c:v>1.3253341427608241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.299624236942982</c:v>
+                  <c:v>1.3185995104564832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2879526989524848</c:v>
+                  <c:v>1.3118749143353376</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2777264128670414</c:v>
+                  <c:v>1.3056427357641143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2687561598004613</c:v>
+                  <c:v>1.2944448577155609</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2607418217171571</c:v>
+                  <c:v>1.2848007050702608</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2535900285927311</c:v>
+                  <c:v>1.273967379325063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2632841496072935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11710,11 +12529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403641680"/>
-        <c:axId val="403642240"/>
+        <c:axId val="247828288"/>
+        <c:axId val="247828848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403641680"/>
+        <c:axId val="247828288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11771,12 +12590,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403642240"/>
+        <c:crossAx val="247828848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403642240"/>
+        <c:axId val="247828848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -11834,7 +12653,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403641680"/>
+        <c:crossAx val="247828288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11878,12 +12697,52 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12759,6 +13618,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -17177,6 +18552,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>744070</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>112699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17201,6 +18608,9 @@
           <cell r="M2">
             <v>0</v>
           </cell>
+          <cell r="P2">
+            <v>0</v>
+          </cell>
           <cell r="W2">
             <v>4.2122077073200002</v>
           </cell>
@@ -17212,6 +18622,12 @@
           </cell>
           <cell r="AK2">
             <v>2515.4747919599999</v>
+          </cell>
+          <cell r="AL2">
+            <v>3475.8422263949997</v>
+          </cell>
+          <cell r="AP2">
+            <v>1.3817837640450785</v>
           </cell>
           <cell r="AS2">
             <v>0</v>
@@ -17236,6 +18652,9 @@
           <cell r="M3">
             <v>6.5848467770900004E-2</v>
           </cell>
+          <cell r="P3">
+            <v>0.65193792854100008</v>
+          </cell>
           <cell r="W3">
             <v>12.2213842794</v>
           </cell>
@@ -17251,17 +18670,20 @@
           <cell r="AK3">
             <v>7369.2502595533333</v>
           </cell>
+          <cell r="AL3">
+            <v>10041.22055317</v>
+          </cell>
           <cell r="AP3">
-            <v>2.0090750205753558</v>
+            <v>1.3625837364055839</v>
           </cell>
           <cell r="AS3">
-            <v>2.9354347030212968E-3</v>
+            <v>-6.1005518163690367E-3</v>
           </cell>
           <cell r="AU3">
-            <v>0.24914790723220495</v>
+            <v>0.14936647101621081</v>
           </cell>
           <cell r="AV3">
-            <v>26.151007484355013</v>
+            <v>11.544925646599328</v>
           </cell>
         </row>
         <row r="4">
@@ -17277,6 +18699,9 @@
           <cell r="M4">
             <v>3.02479383603E-2</v>
           </cell>
+          <cell r="P4">
+            <v>1.6545970663610001</v>
+          </cell>
           <cell r="W4">
             <v>43.220880601200001</v>
           </cell>
@@ -17292,17 +18717,20 @@
           <cell r="AK4">
             <v>25328.292626999999</v>
           </cell>
+          <cell r="AL4">
+            <v>37030.15371405</v>
+          </cell>
           <cell r="AP4">
-            <v>1.8443558894483842</v>
+            <v>1.4620074972829318</v>
           </cell>
           <cell r="AS4">
-            <v>-9.7584288020088367E-2</v>
+            <v>-7.1445529944936123E-2</v>
           </cell>
           <cell r="AU4">
-            <v>1.0629635365032335</v>
+            <v>0.75508841986944175</v>
           </cell>
           <cell r="AV4">
-            <v>67.585479345828716</v>
+            <v>42.093808622920491</v>
           </cell>
         </row>
         <row r="5">
@@ -17318,6 +18746,9 @@
           <cell r="M5">
             <v>3.9362677192599997E-2</v>
           </cell>
+          <cell r="P5">
+            <v>2.6560478027109999</v>
+          </cell>
           <cell r="W5">
             <v>85.468871372600006</v>
           </cell>
@@ -17333,17 +18764,20 @@
           <cell r="AK5">
             <v>49400.543063766672</v>
           </cell>
+          <cell r="AL5">
+            <v>74684.303747600003</v>
+          </cell>
           <cell r="AP5">
-            <v>1.7322564764106896</v>
+            <v>1.5118113914496207</v>
           </cell>
           <cell r="AS5">
-            <v>-0.31958028721272175</v>
+            <v>-0.31112968799835761</v>
           </cell>
           <cell r="AU5">
-            <v>2.0658771026844542</v>
+            <v>1.601082821865818</v>
           </cell>
           <cell r="AV5">
-            <v>111.38436549242944</v>
+            <v>85.079679730579613</v>
           </cell>
         </row>
         <row r="6">
@@ -17359,6 +18793,9 @@
           <cell r="M6">
             <v>6.09566768358E-2</v>
           </cell>
+          <cell r="P6">
+            <v>3.6549908813310004</v>
+          </cell>
           <cell r="W6">
             <v>132.47279832500001</v>
           </cell>
@@ -17374,17 +18811,20 @@
           <cell r="AK6">
             <v>76159.720779999989</v>
           </cell>
+          <cell r="AL6">
+            <v>116883.154572</v>
+          </cell>
           <cell r="AP6">
-            <v>1.6671504107658244</v>
+            <v>1.5347109124734899</v>
           </cell>
           <cell r="AS6">
-            <v>-0.61776518696413318</v>
+            <v>-0.54794326862706155</v>
           </cell>
           <cell r="AU6">
-            <v>3.1279715911433783</v>
+            <v>2.5591341305949502</v>
           </cell>
           <cell r="AV6">
-            <v>156.48643236410419</v>
+            <v>133.27363886553618</v>
           </cell>
         </row>
         <row r="7">
@@ -17400,6 +18840,9 @@
           <cell r="M7">
             <v>0.101427345163</v>
           </cell>
+          <cell r="P7">
+            <v>4.6534031123809996</v>
+          </cell>
           <cell r="W7">
             <v>181.88015537199999</v>
           </cell>
@@ -17415,17 +18858,20 @@
           <cell r="AK7">
             <v>104360.67064436666</v>
           </cell>
+          <cell r="AL7">
+            <v>161586.88985345</v>
+          </cell>
           <cell r="AP7">
-            <v>1.6235078267812537</v>
+            <v>1.5483504356166418</v>
           </cell>
           <cell r="AS7">
-            <v>-0.96647338184404996</v>
+            <v>-0.92546506709424115</v>
           </cell>
           <cell r="AU7">
-            <v>4.2116723664584592</v>
+            <v>3.5830978512699811</v>
           </cell>
           <cell r="AV7">
-            <v>202.20960898582848</v>
+            <v>184.69861856820185</v>
           </cell>
         </row>
         <row r="8">
@@ -17441,6 +18887,9 @@
           <cell r="M8">
             <v>0.15789478925600001</v>
           </cell>
+          <cell r="P8">
+            <v>5.6585920053109993</v>
+          </cell>
           <cell r="W8">
             <v>234.26768086800001</v>
           </cell>
@@ -17456,17 +18905,20 @@
           <cell r="AK8">
             <v>134186.94364290001</v>
           </cell>
+          <cell r="AL8">
+            <v>209411.00116514997</v>
+          </cell>
           <cell r="AP8">
-            <v>1.5909360061713129</v>
+            <v>1.5605914814069928</v>
           </cell>
           <cell r="AS8">
-            <v>-1.3615470884913277</v>
+            <v>-1.3514666102044535</v>
           </cell>
           <cell r="AU8">
-            <v>5.3306106867105605</v>
+            <v>4.6777246656395617</v>
           </cell>
           <cell r="AV8">
-            <v>247.59159802958223</v>
+            <v>238.74042309813143</v>
           </cell>
         </row>
         <row r="9">
@@ -17482,6 +18934,9 @@
           <cell r="M9">
             <v>0.22742787231600001</v>
           </cell>
+          <cell r="P9">
+            <v>6.6582194092909992</v>
+          </cell>
           <cell r="W9">
             <v>282.455016199</v>
           </cell>
@@ -17497,17 +18952,20 @@
           <cell r="AK9">
             <v>162015.33762943334</v>
           </cell>
+          <cell r="AL9">
+            <v>253290.84840685001</v>
+          </cell>
           <cell r="AP9">
-            <v>1.5660912330976451</v>
+            <v>1.563375740302964</v>
           </cell>
           <cell r="AS9">
-            <v>-1.7483919685796241</v>
+            <v>-1.7884347430637086</v>
           </cell>
           <cell r="AU9">
-            <v>6.355700543852592</v>
+            <v>5.7035407810337038</v>
           </cell>
           <cell r="AV9">
-            <v>289.20475981938586</v>
+            <v>288.26842852417082</v>
           </cell>
         </row>
         <row r="10">
@@ -17523,6 +18981,9 @@
           <cell r="M10">
             <v>0.31685360629999998</v>
           </cell>
+          <cell r="P10">
+            <v>7.652869856880999</v>
+          </cell>
           <cell r="W10">
             <v>328.01130412100002</v>
           </cell>
@@ -17538,17 +18999,20 @@
           <cell r="AK10">
             <v>188604.79414103334</v>
           </cell>
+          <cell r="AL10">
+            <v>294678.32969245</v>
+          </cell>
           <cell r="AP10">
-            <v>1.5470482432552271</v>
+            <v>1.5624116610317862</v>
           </cell>
           <cell r="AS10">
-            <v>-2.1311283272585539</v>
+            <v>-2.2108940658183154</v>
           </cell>
           <cell r="AU10">
-            <v>7.3215765562674093</v>
+            <v>6.6833049568661949</v>
           </cell>
           <cell r="AV10">
-            <v>329.17586663205594</v>
+            <v>335.24516626817837</v>
           </cell>
         </row>
         <row r="11">
@@ -17564,6 +19028,9 @@
           <cell r="M11">
             <v>0.41901386175900002</v>
           </cell>
+          <cell r="P11">
+            <v>8.6574270871509995</v>
+          </cell>
           <cell r="W11">
             <v>369.68770880099999</v>
           </cell>
@@ -17579,17 +19046,20 @@
           <cell r="AK11">
             <v>213458.34164</v>
           </cell>
+          <cell r="AL11">
+            <v>332296.6699485</v>
+          </cell>
           <cell r="AP11">
-            <v>1.5317723436675272</v>
+            <v>1.5567284342015653</v>
           </cell>
           <cell r="AS11">
-            <v>-2.4985776632722079</v>
+            <v>-2.6062169518367519</v>
           </cell>
           <cell r="AU11">
-            <v>8.2143691166000004</v>
+            <v>7.5952180891759831</v>
           </cell>
           <cell r="AV11">
-            <v>367.68304006185787</v>
+            <v>378.71117269034664</v>
           </cell>
         </row>
         <row r="12">
@@ -17605,6 +19075,9 @@
           <cell r="M12">
             <v>0.52421283679200004</v>
           </cell>
+          <cell r="P12">
+            <v>9.6531216588909992</v>
+          </cell>
           <cell r="W12">
             <v>413.64107056900002</v>
           </cell>
@@ -17620,17 +19093,20 @@
           <cell r="AK12">
             <v>239369.36507900001</v>
           </cell>
+          <cell r="AL12">
+            <v>372704.62721100001</v>
+          </cell>
           <cell r="AP12">
-            <v>1.518649905691144</v>
+            <v>1.5570272623984061</v>
           </cell>
           <cell r="AS12">
-            <v>-2.8902549885350899</v>
+            <v>-3.0487851992120012</v>
           </cell>
           <cell r="AU12">
-            <v>9.1362835195407825</v>
+            <v>8.5484186630011685</v>
           </cell>
           <cell r="AV12">
-            <v>406.19814920134121</v>
+            <v>425.01970569761494</v>
           </cell>
         </row>
         <row r="13">
@@ -17733,6 +19209,9 @@
           <cell r="M2">
             <v>0</v>
           </cell>
+          <cell r="P2">
+            <v>2.5308609332200001E-6</v>
+          </cell>
           <cell r="W2">
             <v>4.2240728909899996</v>
           </cell>
@@ -17744,6 +19223,12 @@
           </cell>
           <cell r="AK2">
             <v>2722.5836246366666</v>
+          </cell>
+          <cell r="AL2">
+            <v>3181.7856324049999</v>
+          </cell>
+          <cell r="AP2">
+            <v>1.1686640599807525</v>
           </cell>
           <cell r="AS2">
             <v>0</v>
@@ -17768,6 +19253,9 @@
           <cell r="M3">
             <v>-0.17662569046599999</v>
           </cell>
+          <cell r="P3">
+            <v>1.00595955986</v>
+          </cell>
           <cell r="W3">
             <v>68.239404295900002</v>
           </cell>
@@ -17783,17 +19271,20 @@
           <cell r="AK3">
             <v>43859.805339299994</v>
           </cell>
+          <cell r="AL3">
+            <v>52250.990047350002</v>
+          </cell>
           <cell r="AP3">
-            <v>1.8160383272446403</v>
+            <v>1.1913183299181493</v>
           </cell>
           <cell r="AS3">
-            <v>3.0340152243130521E-2</v>
+            <v>5.694659081840186E-3</v>
           </cell>
           <cell r="AU3">
-            <v>0.16854381075864253</v>
+            <v>9.1778258659013137E-2</v>
           </cell>
           <cell r="AV3">
-            <v>132.1974966142285</v>
+            <v>61.931726521892458</v>
           </cell>
         </row>
         <row r="4">
@@ -17809,6 +19300,9 @@
           <cell r="M4">
             <v>-0.16667539188300001</v>
           </cell>
+          <cell r="P4">
+            <v>2.0034568397400001</v>
+          </cell>
           <cell r="W4">
             <v>197.45593798499999</v>
           </cell>
@@ -17824,17 +19318,20 @@
           <cell r="AK4">
             <v>125791.86203140001</v>
           </cell>
+          <cell r="AL4">
+            <v>156194.36397390001</v>
+          </cell>
           <cell r="AP4">
-            <v>1.6356216271168877</v>
+            <v>1.2416889411726091</v>
           </cell>
           <cell r="AS4">
-            <v>4.5620668245228542E-2</v>
+            <v>1.4796567568510874E-2</v>
           </cell>
           <cell r="AU4">
-            <v>0.4534976307725096</v>
+            <v>0.28601455494808642</v>
           </cell>
           <cell r="AV4">
-            <v>295.70962790996128</v>
+            <v>184.80683914850931</v>
           </cell>
         </row>
         <row r="5">
@@ -17850,6 +19347,9 @@
           <cell r="M5">
             <v>-0.148336451289</v>
           </cell>
+          <cell r="P5">
+            <v>3.0051645592999998</v>
+          </cell>
           <cell r="W5">
             <v>379.82954654000002</v>
           </cell>
@@ -17865,17 +19365,20 @@
           <cell r="AK5">
             <v>240700.15517366666</v>
           </cell>
+          <cell r="AL5">
+            <v>306116.13573950005</v>
+          </cell>
           <cell r="AP5">
-            <v>1.5440124208187311</v>
+            <v>1.2717737365754307</v>
           </cell>
           <cell r="AS5">
-            <v>4.0560272392733035E-2</v>
+            <v>-1.5010086068090882E-2</v>
           </cell>
           <cell r="AU5">
-            <v>0.82051382720268629</v>
+            <v>0.56672705071128959</v>
           </cell>
           <cell r="AV5">
-            <v>501.27345618961613</v>
+            <v>363.10386387041603</v>
           </cell>
         </row>
         <row r="6">
@@ -17891,6 +19394,9 @@
           <cell r="M6">
             <v>-0.123128385194</v>
           </cell>
+          <cell r="P6">
+            <v>4.0004733110500004</v>
+          </cell>
           <cell r="W6">
             <v>612.01060798499998</v>
           </cell>
@@ -17906,17 +19412,20 @@
           <cell r="AK6">
             <v>384207.03470800002</v>
           </cell>
+          <cell r="AL6">
+            <v>501230.93967000005</v>
+          </cell>
           <cell r="AP6">
-            <v>1.4846589622644111</v>
+            <v>1.3045855343355153</v>
           </cell>
           <cell r="AS6">
-            <v>1.5040744667258191E-2</v>
+            <v>-7.0113168893510859E-3</v>
           </cell>
           <cell r="AU6">
-            <v>1.2538717073633654</v>
+            <v>0.93156382018010842</v>
           </cell>
           <cell r="AV6">
-            <v>735.42923277600835</v>
+            <v>594.72293735444919</v>
           </cell>
         </row>
         <row r="7">
@@ -17932,6 +19441,9 @@
           <cell r="M7">
             <v>-7.8269896071000003E-2</v>
           </cell>
+          <cell r="P7">
+            <v>5.0015242186200002</v>
+          </cell>
           <cell r="W7">
             <v>881.14109999899995</v>
           </cell>
@@ -17947,17 +19459,20 @@
           <cell r="AK7">
             <v>550081.61634333339</v>
           </cell>
+          <cell r="AL7">
+            <v>729574.25835999998</v>
+          </cell>
           <cell r="AP7">
-            <v>1.4417039812757488</v>
+            <v>1.326301837188895</v>
           </cell>
           <cell r="AS7">
-            <v>-2.9340443967895407E-2</v>
+            <v>-7.9973949383817092E-2</v>
           </cell>
           <cell r="AU7">
-            <v>1.7346065282001957</v>
+            <v>1.3609258590639097</v>
           </cell>
           <cell r="AV7">
-            <v>992.67387945275937</v>
+            <v>866.81967125087601</v>
           </cell>
         </row>
         <row r="8">
@@ -17973,6 +19488,9 @@
           <cell r="M8">
             <v>9.9847637295599999E-3</v>
           </cell>
+          <cell r="P8">
+            <v>6.00032989378</v>
+          </cell>
           <cell r="W8">
             <v>1170.67181512</v>
           </cell>
@@ -17988,17 +19506,20 @@
           <cell r="AK8">
             <v>729663.24277466664</v>
           </cell>
+          <cell r="AL8">
+            <v>975027.36638299993</v>
+          </cell>
           <cell r="AP8">
-            <v>1.4090597034444348</v>
+            <v>1.3362703631270985</v>
           </cell>
           <cell r="AS8">
-            <v>-8.8956028069589965E-2</v>
+            <v>-6.0647511816070934E-2</v>
           </cell>
           <cell r="AU8">
-            <v>2.2389098877681608</v>
+            <v>1.8339957197515657</v>
           </cell>
           <cell r="AV8">
-            <v>1263.1858886735004</v>
+            <v>1159.9771004039569</v>
           </cell>
         </row>
         <row r="9">
@@ -18014,6 +19535,9 @@
           <cell r="M9">
             <v>0.11247825017800001</v>
           </cell>
+          <cell r="P9">
+            <v>7.0048255087299998</v>
+          </cell>
           <cell r="W9">
             <v>1482.87835591</v>
           </cell>
@@ -18029,17 +19553,20 @@
           <cell r="AK9">
             <v>923395.66245333327</v>
           </cell>
+          <cell r="AL9">
+            <v>1241129.2505049999</v>
+          </cell>
           <cell r="AP9">
-            <v>1.3831153210120573</v>
+            <v>1.3440925715499821</v>
           </cell>
           <cell r="AS9">
-            <v>-0.1627530052923159</v>
+            <v>-0.16275419902844374</v>
           </cell>
           <cell r="AU9">
-            <v>2.7693817570113772</v>
+            <v>2.3447477167400077</v>
           </cell>
           <cell r="AV9">
-            <v>1545.7375819769065</v>
+            <v>1476.9150446862989</v>
           </cell>
         </row>
         <row r="10">
@@ -18055,6 +19582,9 @@
           <cell r="M10">
             <v>0.22259340647600001</v>
           </cell>
+          <cell r="P10">
+            <v>8.0057731891700001</v>
+          </cell>
           <cell r="W10">
             <v>1800.4591455899999</v>
           </cell>
@@ -18070,17 +19600,20 @@
           <cell r="AK10">
             <v>1123146.0568890001</v>
           </cell>
+          <cell r="AL10">
+            <v>1510068.0090015002</v>
+          </cell>
           <cell r="AP10">
-            <v>1.3618524601923803</v>
+            <v>1.344498339943635</v>
           </cell>
           <cell r="AS10">
-            <v>-0.24657037153871303</v>
+            <v>-0.22009704376686279</v>
           </cell>
           <cell r="AU10">
-            <v>3.305054087662429</v>
+            <v>2.8714631522925238</v>
           </cell>
           <cell r="AV10">
-            <v>1835.4691844817048</v>
+            <v>1798.7786048701641</v>
           </cell>
         </row>
         <row r="11">
@@ -18096,6 +19629,9 @@
           <cell r="M11">
             <v>0.34304884460000001</v>
           </cell>
+          <cell r="P11">
+            <v>9.0025018483799997</v>
+          </cell>
           <cell r="W11">
             <v>2116.5728955099999</v>
           </cell>
@@ -18111,17 +19647,20 @@
           <cell r="AK11">
             <v>1325751.0573406667</v>
           </cell>
+          <cell r="AL11">
+            <v>1777141.4462240003</v>
+          </cell>
           <cell r="AP11">
-            <v>1.3442472387769562</v>
+            <v>1.3404789959502508</v>
           </cell>
           <cell r="AS11">
-            <v>-0.33788313430390216</v>
+            <v>-0.28829998608606716</v>
           </cell>
           <cell r="AU11">
-            <v>3.8390392973320586</v>
+            <v>3.4034120897289606</v>
           </cell>
           <cell r="AV11">
-            <v>2128.7467651233101</v>
+            <v>2119.4620586188844</v>
           </cell>
         </row>
         <row r="12">
@@ -18137,6 +19676,9 @@
           <cell r="M12">
             <v>0.47367314709000002</v>
           </cell>
+          <cell r="P12">
+            <v>10.000829901299999</v>
+          </cell>
           <cell r="W12">
             <v>2440.6718577699999</v>
           </cell>
@@ -18152,17 +19694,20 @@
           <cell r="AK12">
             <v>1534206.2600356666</v>
           </cell>
+          <cell r="AL12">
+            <v>2050200.3846515003</v>
+          </cell>
           <cell r="AP12">
-            <v>1.329224375110359</v>
+            <v>1.3363264367099101</v>
           </cell>
           <cell r="AS12">
-            <v>-0.43722284043838172</v>
+            <v>-0.40820397190881264</v>
           </cell>
           <cell r="AU12">
-            <v>4.3803350449241476</v>
+            <v>3.9490582571222146</v>
           </cell>
           <cell r="AV12">
-            <v>2430.0290765741129</v>
+            <v>2450.0695611309498</v>
           </cell>
         </row>
         <row r="13">
@@ -18178,6 +19723,9 @@
           <cell r="M13">
             <v>0.64496488439199995</v>
           </cell>
+          <cell r="P13">
+            <v>11.0048504764</v>
+          </cell>
           <cell r="W13">
             <v>2762.9585197400002</v>
           </cell>
@@ -18193,17 +19741,20 @@
           <cell r="AK13">
             <v>1742907.02988</v>
           </cell>
+          <cell r="AL13">
+            <v>2315571.1698899996</v>
+          </cell>
           <cell r="AP13">
-            <v>1.3161821183565607</v>
+            <v>1.3285683804083501</v>
           </cell>
           <cell r="AS13">
-            <v>-0.54126302604431575</v>
+            <v>-0.49886694071690568</v>
           </cell>
           <cell r="AU13">
-            <v>4.9152905457222538</v>
+            <v>4.4904992618435129</v>
           </cell>
           <cell r="AV13">
-            <v>2733.9042971800968</v>
+            <v>2773.2292757628188</v>
           </cell>
         </row>
         <row r="14">
@@ -18219,6 +19770,9 @@
           <cell r="M14">
             <v>0.80850408768199999</v>
           </cell>
+          <cell r="P14">
+            <v>12.0028031227</v>
+          </cell>
           <cell r="W14">
             <v>3068.3094737400002</v>
           </cell>
@@ -18234,17 +19788,20 @@
           <cell r="AK14">
             <v>1945440.1324166667</v>
           </cell>
+          <cell r="AL14">
+            <v>2562275.2800349998</v>
+          </cell>
           <cell r="AP14">
-            <v>1.3049630913246724</v>
+            <v>1.3170671445191622</v>
           </cell>
           <cell r="AS14">
-            <v>-0.64598259675299985</v>
+            <v>-0.57979351606818563</v>
           </cell>
           <cell r="AU14">
-            <v>5.4286615290273135</v>
+            <v>5.0097455453866697</v>
           </cell>
           <cell r="AV14">
-            <v>3036.1731040840914</v>
+            <v>3078.7193865813874</v>
           </cell>
         </row>
         <row r="15">
@@ -18260,6 +19817,9 @@
           <cell r="M15">
             <v>0.969511239001</v>
           </cell>
+          <cell r="P15">
+            <v>13.0039989773</v>
+          </cell>
           <cell r="W15">
             <v>3373.1603332</v>
           </cell>
@@ -18275,17 +19835,20 @@
           <cell r="AK15">
             <v>2148422.9221899998</v>
           </cell>
+          <cell r="AL15">
+            <v>2810370.078675</v>
+          </cell>
           <cell r="AP15">
-            <v>1.2951491902278758</v>
+            <v>1.3081084034470469</v>
           </cell>
           <cell r="AS15">
-            <v>-0.75417183494881967</v>
+            <v>-0.65414788291451198</v>
           </cell>
           <cell r="AU15">
-            <v>5.9381470165016372</v>
+            <v>5.5252937247509442</v>
           </cell>
           <cell r="AV15">
-            <v>3335.3862620252858</v>
+            <v>3385.3134271444919</v>
           </cell>
         </row>
         <row r="16">
@@ -18301,6 +19864,9 @@
           <cell r="M16">
             <v>1.1483404232200001</v>
           </cell>
+          <cell r="P16">
+            <v>14.001736538999999</v>
+          </cell>
           <cell r="W16">
             <v>3657.3588259100002</v>
           </cell>
@@ -18316,17 +19882,20 @@
           <cell r="AK16">
             <v>2344706.9102633335</v>
           </cell>
+          <cell r="AL16">
+            <v>3046157.0020749997</v>
+          </cell>
           <cell r="AP16">
-            <v>1.2864551675378204</v>
+            <v>1.2991632296306435</v>
           </cell>
           <cell r="AS16">
-            <v>-0.86152358015028641</v>
+            <v>-0.75723563782790015</v>
           </cell>
           <cell r="AU16">
-            <v>6.4265418829475163</v>
+            <v>6.0199394013945149</v>
           </cell>
           <cell r="AV16">
-            <v>3625.2103016106817</v>
+            <v>3678.2700597738526</v>
           </cell>
         </row>
         <row r="17">
@@ -18342,6 +19911,9 @@
           <cell r="M17">
             <v>1.33766672672</v>
           </cell>
+          <cell r="P17">
+            <v>15.0044971383</v>
+          </cell>
           <cell r="W17">
             <v>3937.7048846100001</v>
           </cell>
@@ -18357,17 +19929,20 @@
           <cell r="AK17">
             <v>2533717.0905633331</v>
           </cell>
+          <cell r="AL17">
+            <v>3263078.8216599999</v>
+          </cell>
           <cell r="AP17">
-            <v>1.2788189027392434</v>
+            <v>1.2878623402009355</v>
           </cell>
           <cell r="AS17">
-            <v>-0.96717900039167248</v>
+            <v>-0.85584274751259815</v>
           </cell>
           <cell r="AU17">
-            <v>6.8932419103423799</v>
+            <v>6.4907193508656835</v>
           </cell>
           <cell r="AV17">
-            <v>3910.8134047647495</v>
+            <v>3951.3515544303914</v>
           </cell>
         </row>
         <row r="18">
@@ -18430,6 +20005,9 @@
           <cell r="M2">
             <v>0</v>
           </cell>
+          <cell r="P2">
+            <v>0</v>
+          </cell>
           <cell r="W2">
             <v>4.2173620645199996</v>
           </cell>
@@ -18441,6 +20019,12 @@
           </cell>
           <cell r="AK2">
             <v>2556.0498433166663</v>
+          </cell>
+          <cell r="AL2">
+            <v>3423.5295013549999</v>
+          </cell>
+          <cell r="AP2">
+            <v>1.3393829194319284</v>
           </cell>
           <cell r="AS2">
             <v>0</v>
@@ -18465,6 +20049,9 @@
           <cell r="M3">
             <v>-0.165464503634</v>
           </cell>
+          <cell r="P3">
+            <v>1.00591444852</v>
+          </cell>
           <cell r="W3">
             <v>32.877261734900003</v>
           </cell>
@@ -18480,17 +20067,20 @@
           <cell r="AK3">
             <v>19947.490459600001</v>
           </cell>
+          <cell r="AL3">
+            <v>26990.528974650002</v>
+          </cell>
           <cell r="AP3">
-            <v>1.9053060830494941</v>
+            <v>1.3530789263599041</v>
           </cell>
           <cell r="AS3">
-            <v>-1.7954520719665367E-2</v>
+            <v>1.8915143640328775E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.57237542883510506</v>
+            <v>0.36803718647389322</v>
           </cell>
           <cell r="AV3">
-            <v>61.573331518164267</v>
+            <v>31.048885324486896</v>
           </cell>
         </row>
         <row r="4">
@@ -18506,6 +20096,9 @@
           <cell r="M4">
             <v>-0.11339904918599999</v>
           </cell>
+          <cell r="P4">
+            <v>2.0061650236599999</v>
+          </cell>
           <cell r="W4">
             <v>86.153779829300007</v>
           </cell>
@@ -18521,17 +20114,20 @@
           <cell r="AK4">
             <v>51321.077509900002</v>
           </cell>
+          <cell r="AL4">
+            <v>72940.740784349997</v>
+          </cell>
           <cell r="AP4">
-            <v>1.7404396115775711</v>
+            <v>1.421262848003912</v>
           </cell>
           <cell r="AS4">
-            <v>-0.17172868090907556</v>
+            <v>-9.6388758778085157E-2</v>
           </cell>
           <cell r="AU4">
-            <v>1.4816133805135034</v>
+            <v>1.0700516495750796</v>
           </cell>
           <cell r="AV4">
-            <v>123.63582364180566</v>
+            <v>83.878038367314915</v>
           </cell>
         </row>
         <row r="5">
@@ -18547,6 +20143,9 @@
           <cell r="M5">
             <v>-7.3105874440700006E-2</v>
           </cell>
+          <cell r="P5">
+            <v>3.0059730675199998</v>
+          </cell>
           <cell r="W5">
             <v>153.12352342</v>
           </cell>
@@ -18562,17 +20161,20 @@
           <cell r="AK5">
             <v>90638.674862666681</v>
           </cell>
+          <cell r="AL5">
+            <v>131416.95121849998</v>
+          </cell>
           <cell r="AP5">
-            <v>1.6531141584289157</v>
+            <v>1.4498992998035272</v>
           </cell>
           <cell r="AS5">
-            <v>-0.43445675178633242</v>
+            <v>-0.24563068545062899</v>
           </cell>
           <cell r="AU5">
-            <v>2.5471871977358083</v>
+            <v>1.9731369694313123</v>
           </cell>
           <cell r="AV5">
-            <v>193.61859757528433</v>
+            <v>151.60234099951631</v>
           </cell>
         </row>
         <row r="6">
@@ -18588,6 +20190,9 @@
           <cell r="M6">
             <v>-2.5593465599700001E-2</v>
           </cell>
+          <cell r="P6">
+            <v>4.00578277329</v>
+          </cell>
           <cell r="W6">
             <v>230.324690731</v>
           </cell>
@@ -18603,17 +20208,20 @@
           <cell r="AK6">
             <v>135775.63518106667</v>
           </cell>
+          <cell r="AL6">
+            <v>199552.3578074</v>
+          </cell>
           <cell r="AP6">
-            <v>1.5974582636996595</v>
+            <v>1.4697214087143282</v>
           </cell>
           <cell r="AS6">
-            <v>-0.78361096131964159</v>
+            <v>-0.63512340848305815</v>
           </cell>
           <cell r="AU6">
-            <v>3.7194761352549874</v>
+            <v>3.0328583195306074</v>
           </cell>
           <cell r="AV6">
-            <v>268.73281207978994</v>
+            <v>230.65721129774403</v>
           </cell>
         </row>
         <row r="7">
@@ -18629,6 +20237,9 @@
           <cell r="M7">
             <v>3.0582789242399998E-2</v>
           </cell>
+          <cell r="P7">
+            <v>5.0051329553999997</v>
+          </cell>
           <cell r="W7">
             <v>309.65515061500003</v>
           </cell>
@@ -18644,17 +20255,20 @@
           <cell r="AK7">
             <v>182157.4419312333</v>
           </cell>
+          <cell r="AL7">
+            <v>269986.16568114999</v>
+          </cell>
           <cell r="AP7">
-            <v>1.5583485062903495</v>
+            <v>1.4821583066755686</v>
           </cell>
           <cell r="AS7">
-            <v>-1.1751524527391548</v>
+            <v>-0.93390353573788154</v>
           </cell>
           <cell r="AU7">
-            <v>4.8886883159337664</v>
+            <v>4.1290896444850809</v>
           </cell>
           <cell r="AV7">
-            <v>341.68565419548128</v>
+            <v>312.06306622211565</v>
           </cell>
         </row>
         <row r="8">
@@ -18670,6 +20284,9 @@
           <cell r="M8">
             <v>0.13740715989300001</v>
           </cell>
+          <cell r="P8">
+            <v>6.0040912496500001</v>
+          </cell>
           <cell r="W8">
             <v>392.03495226899997</v>
           </cell>
@@ -18685,17 +20302,20 @@
           <cell r="AK8">
             <v>230725.84384566665</v>
           </cell>
+          <cell r="AL8">
+            <v>343143.63679850003</v>
+          </cell>
           <cell r="AP8">
-            <v>1.5290331594502045</v>
+            <v>1.4872353745860825</v>
           </cell>
           <cell r="AS8">
-            <v>-1.6100521722839489</v>
+            <v>-1.3806428701782949</v>
           </cell>
           <cell r="AU8">
-            <v>6.0860199061177269</v>
+            <v>5.2875790432773258</v>
           </cell>
           <cell r="AV8">
-            <v>416.42950066425135</v>
+            <v>396.30829648304172</v>
           </cell>
         </row>
         <row r="9">
@@ -18711,6 +20331,9 @@
           <cell r="M9">
             <v>0.23810092375700001</v>
           </cell>
+          <cell r="P9">
+            <v>7.0058814962199998</v>
+          </cell>
           <cell r="W9">
             <v>474.558268494</v>
           </cell>
@@ -18726,17 +20349,20 @@
           <cell r="AK9">
             <v>279898.81311533332</v>
           </cell>
+          <cell r="AL9">
+            <v>416368.13751550001</v>
+          </cell>
           <cell r="AP9">
-            <v>1.5056348650184768</v>
+            <v>1.4875666419633369</v>
           </cell>
           <cell r="AS9">
-            <v>-2.0700181445526655</v>
+            <v>-1.7445419345853115</v>
           </cell>
           <cell r="AU9">
-            <v>7.2769236128724195</v>
+            <v>6.456430922075576</v>
           </cell>
           <cell r="AV9">
-            <v>490.76000851941723</v>
+            <v>480.40795615833036</v>
           </cell>
         </row>
         <row r="10">
@@ -18752,6 +20378,9 @@
           <cell r="M10">
             <v>0.36490219552499997</v>
           </cell>
+          <cell r="P10">
+            <v>8.0011853222700005</v>
+          </cell>
           <cell r="W10">
             <v>556.12195336299999</v>
           </cell>
@@ -18767,17 +20396,20 @@
           <cell r="AK10">
             <v>328777.82239633333</v>
           </cell>
+          <cell r="AL10">
+            <v>488807.77019649994</v>
+          </cell>
           <cell r="AP10">
-            <v>1.4865801781327825</v>
+            <v>1.4867419177904724</v>
           </cell>
           <cell r="AS10">
-            <v>-2.5428572474954878</v>
+            <v>-2.2125927703757657</v>
           </cell>
           <cell r="AU10">
-            <v>8.4437561222494537</v>
+            <v>7.6230823187085202</v>
           </cell>
           <cell r="AV10">
-            <v>564.22397859727892</v>
+            <v>564.33125013541826</v>
           </cell>
         </row>
         <row r="11">
@@ -18793,6 +20425,9 @@
           <cell r="M11">
             <v>0.46856926151799999</v>
           </cell>
+          <cell r="P11">
+            <v>9.0006810350700004</v>
+          </cell>
           <cell r="W11">
             <v>632.28060539600006</v>
           </cell>
@@ -18808,17 +20443,20 @@
           <cell r="AK11">
             <v>375151.09649433335</v>
           </cell>
+          <cell r="AL11">
+            <v>555202.86013150006</v>
+          </cell>
           <cell r="AP11">
-            <v>1.470995298159429</v>
+            <v>1.4799446551527975</v>
           </cell>
           <cell r="AS11">
-            <v>-3.0034089036831855</v>
+            <v>-2.6420896086487944</v>
           </cell>
           <cell r="AU11">
-            <v>9.5378175545960708</v>
+            <v>8.7228662332586975</v>
           </cell>
           <cell r="AV11">
-            <v>635.17882804811688</v>
+            <v>641.86882088350251</v>
           </cell>
         </row>
         <row r="12">
@@ -18834,6 +20472,9 @@
           <cell r="M12">
             <v>0.62194967495800002</v>
           </cell>
+          <cell r="P12">
+            <v>10.005498787500001</v>
+          </cell>
           <cell r="W12">
             <v>698.22880191800004</v>
           </cell>
@@ -18849,17 +20490,20 @@
           <cell r="AK12">
             <v>417071.63527299999</v>
           </cell>
+          <cell r="AL12">
+            <v>611699.82950849994</v>
+          </cell>
           <cell r="AP12">
-            <v>1.4584525263146098</v>
+            <v>1.4666541135268127</v>
           </cell>
           <cell r="AS12">
-            <v>-3.4283384329816071</v>
+            <v>-2.9656705432511319</v>
           </cell>
           <cell r="AU12">
-            <v>10.517520875592691</v>
+            <v>9.7025284659617057</v>
           </cell>
           <cell r="AV12">
-            <v>701.86092936402974</v>
+            <v>708.60531781783538</v>
           </cell>
         </row>
         <row r="13">
@@ -18954,6 +20598,9 @@
           <cell r="M2">
             <v>0</v>
           </cell>
+          <cell r="P2">
+            <v>0</v>
+          </cell>
           <cell r="W2">
             <v>4.2222995839699999</v>
           </cell>
@@ -18962,6 +20609,15 @@
           </cell>
           <cell r="AE2">
             <v>7.7290840394539373E-9</v>
+          </cell>
+          <cell r="AK2">
+            <v>2691.0299018966666</v>
+          </cell>
+          <cell r="AL2">
+            <v>3226.8073422049997</v>
+          </cell>
+          <cell r="AP2">
+            <v>1.1990975425173505</v>
           </cell>
           <cell r="AS2">
             <v>0</v>
@@ -18983,6 +20639,9 @@
           <cell r="M3">
             <v>-0.183104710921</v>
           </cell>
+          <cell r="P3">
+            <v>1.000291781</v>
+          </cell>
           <cell r="W3">
             <v>59.395032084</v>
           </cell>
@@ -18995,17 +20654,23 @@
           <cell r="AI3">
             <v>-0.11074208538079086</v>
           </cell>
+          <cell r="AK3">
+            <v>37703.912981300004</v>
+          </cell>
+          <cell r="AL3">
+            <v>46193.277502650002</v>
+          </cell>
           <cell r="AP3">
-            <v>1.8333349150238609</v>
+            <v>1.2251587129845241</v>
           </cell>
           <cell r="AS3">
-            <v>2.8031234947096008E-2</v>
+            <v>1.7895882157900354E-2</v>
           </cell>
           <cell r="AU3">
-            <v>0.2817455716682068</v>
+            <v>0.16159964927845355</v>
           </cell>
           <cell r="AV3">
-            <v>114.01981127127523</v>
+            <v>54.365336687304591</v>
           </cell>
         </row>
         <row r="4">
@@ -19018,6 +20683,9 @@
           <cell r="M4">
             <v>-0.15639674848099999</v>
           </cell>
+          <cell r="P4">
+            <v>2.0028918727199998</v>
+          </cell>
           <cell r="W4">
             <v>170.024590695</v>
           </cell>
@@ -19030,17 +20698,23 @@
           <cell r="AI4">
             <v>8.9969369627914908E-2</v>
           </cell>
+          <cell r="AK4">
+            <v>106787.34644183335</v>
+          </cell>
+          <cell r="AL4">
+            <v>136519.75885225</v>
+          </cell>
           <cell r="AP4">
-            <v>1.6545991032687406</v>
+            <v>1.2784263623088694</v>
           </cell>
           <cell r="AS4">
-            <v>1.1382339352961141E-2</v>
+            <v>-1.2343303951701176E-2</v>
           </cell>
           <cell r="AU4">
-            <v>0.75822491516269763</v>
+            <v>0.49770499529411738</v>
           </cell>
           <cell r="AV4">
-            <v>251.6678481418715</v>
+            <v>160.48713074337977</v>
           </cell>
         </row>
         <row r="5">
@@ -19053,6 +20727,9 @@
           <cell r="M5">
             <v>-0.131301899098</v>
           </cell>
+          <cell r="P5">
+            <v>3.0057739477899998</v>
+          </cell>
           <cell r="W5">
             <v>317.46221207000002</v>
           </cell>
@@ -19065,17 +20742,23 @@
           <cell r="AI5">
             <v>0.19277198405871621</v>
           </cell>
+          <cell r="AK5">
+            <v>198464.7302633333</v>
+          </cell>
+          <cell r="AL5">
+            <v>259266.52142049998</v>
+          </cell>
           <cell r="AP5">
-            <v>1.5643844234460931</v>
+            <v>1.3063606872439839</v>
           </cell>
           <cell r="AS5">
-            <v>-5.0965290796817567E-2</v>
+            <v>-0.10100543381285036</v>
           </cell>
           <cell r="AU5">
-            <v>1.3425224910447593</v>
+            <v>0.95763764730305079</v>
           </cell>
           <cell r="AV5">
-            <v>415.05186424562578</v>
+            <v>305.59690770020325</v>
           </cell>
         </row>
         <row r="6">
@@ -19088,6 +20771,9 @@
           <cell r="M6">
             <v>-8.8933488966599999E-2</v>
           </cell>
+          <cell r="P6">
+            <v>4.0064185534799996</v>
+          </cell>
           <cell r="W6">
             <v>504.01211338500002</v>
           </cell>
@@ -19100,17 +20786,23 @@
           <cell r="AI6">
             <v>6.6666663472654346E-4</v>
           </cell>
+          <cell r="AK6">
+            <v>312549.49699266668</v>
+          </cell>
+          <cell r="AL6">
+            <v>417666.95242850005</v>
+          </cell>
           <cell r="AP6">
-            <v>1.5063561750312602</v>
+            <v>1.3363225871334541</v>
           </cell>
           <cell r="AS6">
-            <v>-0.15772130243405597</v>
+            <v>-0.10140034236116315</v>
           </cell>
           <cell r="AU6">
-            <v>2.0332637163441114</v>
+            <v>1.5500004981524931</v>
           </cell>
           <cell r="AV6">
-            <v>602.57210447996999</v>
+            <v>492.94413798949682</v>
           </cell>
         </row>
         <row r="7">
@@ -19123,6 +20815,9 @@
           <cell r="M7">
             <v>-8.7249314968500004E-3</v>
           </cell>
+          <cell r="P7">
+            <v>5.0055779012499997</v>
+          </cell>
           <cell r="W7">
             <v>715.14294281599996</v>
           </cell>
@@ -19135,17 +20830,23 @@
           <cell r="AI7">
             <v>0.2297789426055418</v>
           </cell>
+          <cell r="AK7">
+            <v>441452.11121466663</v>
+          </cell>
+          <cell r="AL7">
+            <v>598265.88940549991</v>
+          </cell>
           <cell r="AP7">
-            <v>1.4641809111583908</v>
+            <v>1.3552226259816862</v>
           </cell>
           <cell r="AS7">
-            <v>-0.30074075291247948</v>
+            <v>-0.25759902257905853</v>
           </cell>
           <cell r="AU7">
-            <v>2.7849473281188932</v>
+            <v>2.2297785424184529</v>
           </cell>
           <cell r="AV7">
-            <v>803.96546328095644</v>
+            <v>707.26118805332396</v>
           </cell>
         </row>
         <row r="8">
@@ -19158,6 +20859,9 @@
           <cell r="M8">
             <v>7.6454647829700004E-2</v>
           </cell>
+          <cell r="P8">
+            <v>6.0017548057700001</v>
+          </cell>
           <cell r="W8">
             <v>940.58579936499996</v>
           </cell>
@@ -19170,17 +20874,23 @@
           <cell r="AI8">
             <v>0.11323347460248688</v>
           </cell>
+          <cell r="AK8">
+            <v>579660.74060000002</v>
+          </cell>
+          <cell r="AL8">
+            <v>791591.73232499987</v>
+          </cell>
           <cell r="AP8">
-            <v>1.4322228418598042</v>
+            <v>1.3656121190916477</v>
           </cell>
           <cell r="AS8">
-            <v>-0.47140234997811253</v>
+            <v>-0.34092030476146346</v>
           </cell>
           <cell r="AU8">
-            <v>3.5681573368188242</v>
+            <v>2.9656146763435975</v>
           </cell>
           <cell r="AV8">
-            <v>1012.1295313641309</v>
+            <v>936.11469677757157</v>
           </cell>
         </row>
         <row r="9">
@@ -19193,6 +20903,9 @@
           <cell r="M9">
             <v>0.17321437800700001</v>
           </cell>
+          <cell r="P9">
+            <v>7.0000509280800003</v>
+          </cell>
           <cell r="W9">
             <v>1176.2319013599999</v>
           </cell>
@@ -19205,17 +20918,23 @@
           <cell r="AI9">
             <v>0.25614555927382932</v>
           </cell>
+          <cell r="AK9">
+            <v>725093.87252199987</v>
+          </cell>
+          <cell r="AL9">
+            <v>993497.51078699995</v>
+          </cell>
           <cell r="AP9">
-            <v>1.406955906635972</v>
+            <v>1.3701639862593882</v>
           </cell>
           <cell r="AS9">
-            <v>-0.66485375099629374</v>
+            <v>-0.54039222030868717</v>
           </cell>
           <cell r="AU9">
-            <v>4.3737894929593715</v>
+            <v>3.7443590594698368</v>
           </cell>
           <cell r="AV9">
-            <v>1227.2449099651203</v>
+            <v>1175.6239317602474</v>
           </cell>
         </row>
         <row r="10">
@@ -19228,6 +20947,9 @@
           <cell r="M10">
             <v>0.293746131834</v>
           </cell>
+          <cell r="P10">
+            <v>8.0004176068399993</v>
+          </cell>
           <cell r="W10">
             <v>1418.7763070200001</v>
           </cell>
@@ -19240,17 +20962,23 @@
           <cell r="AI10">
             <v>0.18967887126291841</v>
           </cell>
+          <cell r="AK10">
+            <v>876017.18164433341</v>
+          </cell>
+          <cell r="AL10">
+            <v>1201493.2976485002</v>
+          </cell>
           <cell r="AP10">
-            <v>1.3862244629844778</v>
+            <v>1.3715407903224339</v>
           </cell>
           <cell r="AS10">
-            <v>-0.87706334211738401</v>
+            <v>-0.6936332187697295</v>
           </cell>
           <cell r="AU10">
-            <v>5.1943379795591129</v>
+            <v>4.5522560985060467</v>
           </cell>
           <cell r="AV10">
-            <v>1448.8777227373846</v>
+            <v>1424.3196858457177</v>
           </cell>
         </row>
         <row r="11">
@@ -19263,6 +20991,9 @@
           <cell r="M11">
             <v>0.44065184642100003</v>
           </cell>
+          <cell r="P11">
+            <v>9.0056449762900002</v>
+          </cell>
           <cell r="W11">
             <v>1658.6171486400001</v>
           </cell>
@@ -19275,17 +21006,23 @@
           <cell r="AI11">
             <v>0.1761483333410791</v>
           </cell>
+          <cell r="AK11">
+            <v>1028448.6459476665</v>
+          </cell>
+          <cell r="AL11">
+            <v>1404695.8866935</v>
+          </cell>
           <cell r="AP11">
-            <v>1.3688997705380646</v>
+            <v>1.3658395995058552</v>
           </cell>
           <cell r="AS11">
-            <v>-1.1008234426454617</v>
+            <v>-0.83655675579231825</v>
           </cell>
           <cell r="AU11">
-            <v>6.0101939613356423</v>
+            <v>5.3636378147658501</v>
           </cell>
           <cell r="AV11">
-            <v>1673.5755738617834</v>
+            <v>1667.6431045936072</v>
           </cell>
         </row>
         <row r="12">
@@ -19298,6 +21035,9 @@
           <cell r="M12">
             <v>0.58197310244099998</v>
           </cell>
+          <cell r="P12">
+            <v>10.0047857344</v>
+          </cell>
           <cell r="W12">
             <v>1895.8692115199999</v>
           </cell>
@@ -19310,17 +21050,23 @@
           <cell r="AI12">
             <v>0.23211006444578428</v>
           </cell>
+          <cell r="AK12">
+            <v>1180226.3532186665</v>
+          </cell>
+          <cell r="AL12">
+            <v>1603711.9327819999</v>
+          </cell>
           <cell r="AP12">
-            <v>1.3542817906462632</v>
+            <v>1.3588172543414407</v>
           </cell>
           <cell r="AS12">
-            <v>-1.3313830990683451</v>
+            <v>-1.0230016864752769</v>
           </cell>
           <cell r="AU12">
-            <v>6.8118508574606684</v>
+            <v>6.1668986777884784</v>
           </cell>
           <cell r="AV12">
-            <v>1896.5416417070553</v>
+            <v>1906.5175356346383</v>
           </cell>
         </row>
         <row r="13">
@@ -19333,6 +21079,9 @@
           <cell r="M13">
             <v>0.73022793860099999</v>
           </cell>
+          <cell r="P13">
+            <v>11.005523975599999</v>
+          </cell>
           <cell r="W13">
             <v>2128.46917996</v>
           </cell>
@@ -19345,17 +21094,23 @@
           <cell r="AI13">
             <v>0.24779357165198596</v>
           </cell>
+          <cell r="AK13">
+            <v>1330848.3509603334</v>
+          </cell>
+          <cell r="AL13">
+            <v>1798642.8269394999</v>
+          </cell>
           <cell r="AP13">
-            <v>1.3417561426741769</v>
+            <v>1.3515009622558487</v>
           </cell>
           <cell r="AS13">
-            <v>-1.5666702330096496</v>
+            <v>-1.2192427785364544</v>
           </cell>
           <cell r="AU13">
-            <v>7.5983992900380866</v>
+            <v>6.9588526044092571</v>
           </cell>
           <cell r="AV13">
-            <v>2118.2300553388941</v>
+            <v>2142.1675735633012</v>
           </cell>
         </row>
         <row r="14">
@@ -19368,6 +21123,9 @@
           <cell r="M14">
             <v>0.90762858516800005</v>
           </cell>
+          <cell r="P14">
+            <v>12.0032834765</v>
+          </cell>
           <cell r="W14">
             <v>2346.1114358599998</v>
           </cell>
@@ -19380,17 +21138,23 @@
           <cell r="AI14">
             <v>0.25855179774673392</v>
           </cell>
+          <cell r="AK14">
+            <v>1474401.9476263335</v>
+          </cell>
+          <cell r="AL14">
+            <v>1977343.6949454998</v>
+          </cell>
           <cell r="AP14">
-            <v>1.3310353500514012</v>
+            <v>1.3411157643469349</v>
           </cell>
           <cell r="AS14">
-            <v>-1.7961258645437141</v>
+            <v>-1.4125206837626825</v>
           </cell>
           <cell r="AU14">
-            <v>8.340757069488669</v>
+            <v>7.7063929692825068</v>
           </cell>
           <cell r="AV14">
-            <v>2334.0071823127164</v>
+            <v>2361.2133516477543</v>
           </cell>
         </row>
         <row r="15">
@@ -19403,6 +21167,9 @@
           <cell r="M15">
             <v>1.09031226952</v>
           </cell>
+          <cell r="P15">
+            <v>13.000307788300001</v>
+          </cell>
           <cell r="W15">
             <v>2553.6925211100001</v>
           </cell>
@@ -19415,17 +21182,23 @@
           <cell r="AI15">
             <v>0.21170228602219121</v>
           </cell>
+          <cell r="AK15">
+            <v>1613592.7783003331</v>
+          </cell>
+          <cell r="AL15">
+            <v>2144755.1031145002</v>
+          </cell>
           <cell r="AP15">
-            <v>1.321816061075151</v>
+            <v>1.3291799095516921</v>
           </cell>
           <cell r="AS15">
-            <v>-2.0228973232329133</v>
+            <v>-1.5638977738002973</v>
           </cell>
           <cell r="AU15">
-            <v>9.0545308877989026</v>
+            <v>8.4214399953771952</v>
           </cell>
           <cell r="AV15">
-            <v>2546.5765981767636</v>
+            <v>2568.1640328165322</v>
           </cell>
         </row>
         <row r="16">
@@ -19438,6 +21211,9 @@
           <cell r="M16">
             <v>1.2612146468000001</v>
           </cell>
+          <cell r="P16">
+            <v>14.0006306308</v>
+          </cell>
           <cell r="W16">
             <v>2732.59069761</v>
           </cell>
@@ -19450,17 +21226,23 @@
           <cell r="AI16">
             <v>0.32732446015141975</v>
           </cell>
+          <cell r="AK16">
+            <v>1738391.8924673332</v>
+          </cell>
+          <cell r="AL16">
+            <v>2285570.4841089998</v>
+          </cell>
           <cell r="AP16">
-            <v>1.3139888388488756</v>
+            <v>1.3147613573283785</v>
           </cell>
           <cell r="AS16">
-            <v>-2.2294515806834001</v>
+            <v>-1.772081103944247</v>
           </cell>
           <cell r="AU16">
-            <v>9.6899493792039024</v>
+            <v>9.057455189743191</v>
           </cell>
           <cell r="AV16">
-            <v>2741.3206767852994</v>
+            <v>2743.74210855725</v>
           </cell>
         </row>
       </sheetData>
@@ -19487,6 +21269,9 @@
           <cell r="M2">
             <v>0</v>
           </cell>
+          <cell r="P2">
+            <v>0</v>
+          </cell>
           <cell r="W2">
             <v>4.2257824171199996</v>
           </cell>
@@ -19495,6 +21280,15 @@
           </cell>
           <cell r="AE2">
             <v>7.9876845878364592E-11</v>
+          </cell>
+          <cell r="AK2">
+            <v>2740.1550688233333</v>
+          </cell>
+          <cell r="AL2">
+            <v>3158.8391152150002</v>
+          </cell>
+          <cell r="AP2">
+            <v>1.152795749100235</v>
           </cell>
           <cell r="AS2">
             <v>0</v>
@@ -19516,6 +21310,9 @@
           <cell r="M3">
             <v>-0.16975877487999999</v>
           </cell>
+          <cell r="P3">
+            <v>1.0082710889099999</v>
+          </cell>
           <cell r="W3">
             <v>74.232563508499993</v>
           </cell>
@@ -19528,17 +21325,23 @@
           <cell r="AI3">
             <v>-4.9130065598773136E-2</v>
           </cell>
+          <cell r="AK3">
+            <v>48151.410099266672</v>
+          </cell>
+          <cell r="AL3">
+            <v>56191.075637300004</v>
+          </cell>
           <cell r="AP3">
-            <v>1.80535157822694</v>
+            <v>1.1669663571940914</v>
           </cell>
           <cell r="AS3">
-            <v>2.5711225059074812E-2</v>
+            <v>2.6837803443777769E-3</v>
           </cell>
           <cell r="AU3">
-            <v>0.10464417734218186</v>
+            <v>5.4626028108637412E-2</v>
           </cell>
           <cell r="AV3">
-            <v>145.04487274062302</v>
+            <v>66.92944684181353</v>
           </cell>
         </row>
         <row r="4">
@@ -19551,6 +21354,9 @@
           <cell r="M4">
             <v>-0.17046216753400001</v>
           </cell>
+          <cell r="P4">
+            <v>2.00575144974</v>
+          </cell>
           <cell r="W4">
             <v>217.63628506500001</v>
           </cell>
@@ -19563,17 +21369,23 @@
           <cell r="AI4">
             <v>-0.1078086035595493</v>
           </cell>
+          <cell r="AK4">
+            <v>140023.73074589999</v>
+          </cell>
+          <cell r="AL4">
+            <v>170253.74244015</v>
+          </cell>
           <cell r="AP4">
-            <v>1.6235399819788612</v>
+            <v>1.2158920601044989</v>
           </cell>
           <cell r="AS4">
-            <v>4.8185234846452603E-2</v>
+            <v>1.5402043627914889E-2</v>
           </cell>
           <cell r="AU4">
-            <v>0.28298321614191702</v>
+            <v>0.17259679169905928</v>
           </cell>
           <cell r="AV4">
-            <v>329.15246918239973</v>
+            <v>202.48649776813525</v>
           </cell>
         </row>
         <row r="5">
@@ -19586,6 +21398,9 @@
           <cell r="M5">
             <v>-0.14791625707600001</v>
           </cell>
+          <cell r="P5">
+            <v>3.00595902406</v>
+          </cell>
           <cell r="W5">
             <v>426.58274723699998</v>
           </cell>
@@ -19598,17 +21413,23 @@
           <cell r="AI5">
             <v>0.11519071294757506</v>
           </cell>
+          <cell r="AK5">
+            <v>272538.02467499999</v>
+          </cell>
+          <cell r="AL5">
+            <v>340575.82544400002</v>
+          </cell>
           <cell r="AP5">
-            <v>1.530953324207476</v>
+            <v>1.2496451673124684</v>
           </cell>
           <cell r="AS5">
-            <v>6.2865764182013825E-2</v>
+            <v>-4.8507585321765061E-3</v>
           </cell>
           <cell r="AU5">
-            <v>0.51808279019028769</v>
+            <v>0.34841654002641581</v>
           </cell>
           <cell r="AV5">
-            <v>565.33775010196928</v>
+            <v>405.25533765032992</v>
           </cell>
         </row>
         <row r="6">
@@ -19621,6 +21442,9 @@
           <cell r="M6">
             <v>-0.13921555238700001</v>
           </cell>
+          <cell r="P6">
+            <v>4.0049613604200003</v>
+          </cell>
           <cell r="W6">
             <v>695.05799973700005</v>
           </cell>
@@ -19633,17 +21457,23 @@
           <cell r="AI6">
             <v>-9.9516155032836312E-2</v>
           </cell>
+          <cell r="AK6">
+            <v>439740.92971766664</v>
+          </cell>
+          <cell r="AL6">
+            <v>564985.352006</v>
+          </cell>
           <cell r="AP6">
-            <v>1.4707244592370008</v>
+            <v>1.2848141117287988</v>
           </cell>
           <cell r="AS6">
-            <v>6.8431956350516146E-2</v>
+            <v>1.8325475464964922E-2</v>
           </cell>
           <cell r="AU6">
-            <v>0.79751434450568071</v>
+            <v>0.58130570248947744</v>
           </cell>
           <cell r="AV6">
-            <v>837.17342947938107</v>
+            <v>672.45894328324471</v>
           </cell>
         </row>
         <row r="7">
@@ -19656,6 +21486,9 @@
           <cell r="M7">
             <v>-9.1703472768000005E-2</v>
           </cell>
+          <cell r="P7">
+            <v>5.0012490301800003</v>
+          </cell>
           <cell r="W7">
             <v>1006.57904301</v>
           </cell>
@@ -19668,17 +21501,23 @@
           <cell r="AI7">
             <v>0.12096597033193311</v>
           </cell>
+          <cell r="AK7">
+            <v>633283.23345866671</v>
+          </cell>
+          <cell r="AL7">
+            <v>826862.72724200005</v>
+          </cell>
           <cell r="AP7">
-            <v>1.4273635832401048</v>
+            <v>1.3056760128104163</v>
           </cell>
           <cell r="AS7">
-            <v>6.4919919770997883E-2</v>
+            <v>-1.4680377231296192E-2</v>
           </cell>
           <cell r="AU7">
-            <v>1.1071263596828218</v>
+            <v>0.85415808077150523</v>
           </cell>
           <cell r="AV7">
-            <v>1137.3051211875736</v>
+            <v>985.887740696366</v>
           </cell>
         </row>
         <row r="8">
@@ -19691,6 +21530,9 @@
           <cell r="M8">
             <v>-3.4166949028599999E-2</v>
           </cell>
+          <cell r="P8">
+            <v>6.00125063603</v>
+          </cell>
           <cell r="W8">
             <v>1349.8612750499999</v>
           </cell>
@@ -19703,17 +21545,23 @@
           <cell r="AI8">
             <v>-2.6741625870882232E-2</v>
           </cell>
+          <cell r="AK8">
+            <v>847290.0021876666</v>
+          </cell>
+          <cell r="AL8">
+            <v>1116233.2128185001</v>
+          </cell>
           <cell r="AP8">
-            <v>1.3943094247322672</v>
+            <v>1.317415772564805</v>
           </cell>
           <cell r="AS8">
-            <v>5.314492455758222E-2</v>
+            <v>-6.4671693655414461E-3</v>
           </cell>
           <cell r="AU8">
-            <v>1.4381112647282701</v>
+            <v>1.1612900369738304</v>
           </cell>
           <cell r="AV8">
-            <v>1458.1236935664597</v>
+            <v>1332.6255506436266</v>
           </cell>
         </row>
         <row r="9">
@@ -19726,6 +21574,9 @@
           <cell r="M9">
             <v>7.9814074845900002E-2</v>
           </cell>
+          <cell r="P9">
+            <v>7.0049336642000002</v>
+          </cell>
           <cell r="W9">
             <v>1720.0985234</v>
           </cell>
@@ -19738,17 +21589,23 @@
           <cell r="AI9">
             <v>0.11896201453232283</v>
           </cell>
+          <cell r="AK9">
+            <v>1079249.2642293333</v>
+          </cell>
+          <cell r="AL9">
+            <v>1430639.381851</v>
+          </cell>
           <cell r="AP9">
-            <v>1.367903658004811</v>
+            <v>1.3255875442941221</v>
           </cell>
           <cell r="AS9">
-            <v>3.3873746599871815E-2</v>
+            <v>-4.6182423652466914E-2</v>
           </cell>
           <cell r="AU9">
-            <v>1.7872174716048412</v>
+            <v>1.4951382358552854</v>
           </cell>
           <cell r="AV9">
-            <v>1795.3313713905945</v>
+            <v>1708.8414786126064</v>
           </cell>
         </row>
         <row r="10">
@@ -19761,6 +21618,9 @@
           <cell r="M10">
             <v>0.18195188095699999</v>
           </cell>
+          <cell r="P10">
+            <v>8.0019384663200004</v>
+          </cell>
           <cell r="W10">
             <v>2104.51252217</v>
           </cell>
@@ -19773,17 +21633,23 @@
           <cell r="AI10">
             <v>4.0733161947652412E-2</v>
           </cell>
+          <cell r="AK10">
+            <v>1321238.2197256668</v>
+          </cell>
+          <cell r="AL10">
+            <v>1753856.8368215</v>
+          </cell>
           <cell r="AP10">
-            <v>1.3462471260541777</v>
+            <v>1.3274342284661271</v>
           </cell>
           <cell r="AS10">
-            <v>8.419022133499026E-3</v>
+            <v>-6.0424480794225563E-2</v>
           </cell>
           <cell r="AU10">
-            <v>2.14329949811781</v>
+            <v>1.8447810443380048</v>
           </cell>
           <cell r="AV10">
-            <v>2143.0659548129793</v>
+            <v>2096.6708599958552</v>
           </cell>
         </row>
         <row r="11">
@@ -19796,6 +21662,9 @@
           <cell r="M11">
             <v>0.28609701869900001</v>
           </cell>
+          <cell r="P11">
+            <v>9.0038048627999991</v>
+          </cell>
           <cell r="W11">
             <v>2457.6409865099999</v>
           </cell>
@@ -19808,17 +21677,23 @@
           <cell r="AI11">
             <v>6.9818142605431524E-2</v>
           </cell>
+          <cell r="AK11">
+            <v>1571170.907324</v>
+          </cell>
+          <cell r="AL11">
+            <v>2082326.4475889998</v>
+          </cell>
           <cell r="AP11">
-            <v>1.3281775970539018</v>
+            <v>1.3253341427608241</v>
           </cell>
           <cell r="AS11">
-            <v>-2.2329964514805328E-2</v>
+            <v>-8.5555439312051285E-2</v>
           </cell>
           <cell r="AU11">
-            <v>2.5041664570267188</v>
+            <v>2.2047298711042815</v>
           </cell>
           <cell r="AV11">
-            <v>2500.9175742925768</v>
+            <v>2492.6820608569533</v>
           </cell>
         </row>
         <row r="12">
@@ -19831,6 +21706,9 @@
           <cell r="M12">
             <v>0.409721690832</v>
           </cell>
+          <cell r="P12">
+            <v>10.004210800299999</v>
+          </cell>
           <cell r="W12">
             <v>2882.8498941600001</v>
           </cell>
@@ -19843,17 +21721,23 @@
           <cell r="AI12">
             <v>0.15093514975031641</v>
           </cell>
+          <cell r="AK12">
+            <v>1823574.0032919999</v>
+          </cell>
+          <cell r="AL12">
+            <v>2404563.7880220003</v>
+          </cell>
           <cell r="AP12">
-            <v>1.3128555638706789</v>
+            <v>1.3185995104564832</v>
           </cell>
           <cell r="AS12">
-            <v>-5.7093667214317634E-2</v>
+            <v>-0.13999376683713155</v>
           </cell>
           <cell r="AU12">
-            <v>2.8627538948614926</v>
+            <v>2.5654034956054961</v>
           </cell>
           <cell r="AV12">
-            <v>2866.2659896640589</v>
+            <v>2885.3704377407312</v>
           </cell>
         </row>
         <row r="13">
@@ -19866,6 +21750,9 @@
           <cell r="M13">
             <v>0.537214693859</v>
           </cell>
+          <cell r="P13">
+            <v>11.0004755409</v>
+          </cell>
           <cell r="W13">
             <v>3279.0129152300001</v>
           </cell>
@@ -19878,17 +21765,23 @@
           <cell r="AI13">
             <v>9.1284176167296296E-2</v>
           </cell>
+          <cell r="AK13">
+            <v>2080882.7730066665</v>
+          </cell>
+          <cell r="AL13">
+            <v>2729857.9095800002</v>
+          </cell>
           <cell r="AP13">
-            <v>1.299624236942982</v>
+            <v>1.3118749143353376</v>
           </cell>
           <cell r="AS13">
-            <v>-9.5720298544423127E-2</v>
+            <v>-0.17333182231183769</v>
           </cell>
           <cell r="AU13">
-            <v>3.2232129235195135</v>
+            <v>2.9306152647691635</v>
           </cell>
           <cell r="AV13">
-            <v>3234.323601745707</v>
+            <v>3280.3454628033014</v>
           </cell>
         </row>
         <row r="14">
@@ -19901,6 +21794,9 @@
           <cell r="M14">
             <v>0.68113506698199999</v>
           </cell>
+          <cell r="P14">
+            <v>12.001812181</v>
+          </cell>
           <cell r="W14">
             <v>3672.9900029800001</v>
           </cell>
@@ -19913,17 +21809,23 @@
           <cell r="AI14">
             <v>0.10502693692479052</v>
           </cell>
+          <cell r="AK14">
+            <v>2341769.3260366665</v>
+          </cell>
+          <cell r="AL14">
+            <v>3057514.1093749995</v>
+          </cell>
           <cell r="AP14">
-            <v>1.2879526989524848</v>
+            <v>1.3056427357641143</v>
           </cell>
           <cell r="AS14">
-            <v>-0.13767354102742496</v>
+            <v>-0.21196160593183688</v>
           </cell>
           <cell r="AU14">
-            <v>3.5841623901748756</v>
+            <v>3.2984236075723232</v>
           </cell>
           <cell r="AV14">
-            <v>3606.6127262077102</v>
+            <v>3680.7455875409596</v>
           </cell>
         </row>
         <row r="15">
@@ -19936,6 +21838,9 @@
           <cell r="M15">
             <v>0.83207019150600003</v>
           </cell>
+          <cell r="P15">
+            <v>13.0036738642</v>
+          </cell>
           <cell r="W15">
             <v>4053.6330686400001</v>
           </cell>
@@ -19948,17 +21853,23 @@
           <cell r="AI15">
             <v>0.11146740295940191</v>
           </cell>
+          <cell r="AK15">
+            <v>2595675.0318933334</v>
+          </cell>
+          <cell r="AL15">
+            <v>3359958.1973350001</v>
+          </cell>
           <cell r="AP15">
-            <v>1.2777264128670414</v>
+            <v>1.2944448577155609</v>
           </cell>
           <cell r="AS15">
-            <v>-0.18083764997986618</v>
+            <v>-0.2513914649642976</v>
           </cell>
           <cell r="AU15">
-            <v>3.9316259348620974</v>
+            <v>3.6521580445971247</v>
           </cell>
           <cell r="AV15">
-            <v>3978.5015635775085</v>
+            <v>4055.5300218515031</v>
           </cell>
         </row>
         <row r="16">
@@ -19971,6 +21882,9 @@
           <cell r="M16">
             <v>0.99867697951599999</v>
           </cell>
+          <cell r="P16">
+            <v>14.000659857600001</v>
+          </cell>
           <cell r="W16">
             <v>4415.4513714200002</v>
           </cell>
@@ -19983,17 +21897,23 @@
           <cell r="AI16">
             <v>9.8066489313421074E-2</v>
           </cell>
+          <cell r="AK16">
+            <v>2846613.1900200001</v>
+          </cell>
+          <cell r="AL16">
+            <v>3657330.6336000003</v>
+          </cell>
           <cell r="AP16">
-            <v>1.2687561598004613</v>
+            <v>1.2848007050702608</v>
           </cell>
           <cell r="AS16">
-            <v>-0.2254861988389672</v>
+            <v>-0.28532463553252052</v>
           </cell>
           <cell r="AU16">
-            <v>4.2717314855997346</v>
+            <v>3.9981801241657355</v>
           </cell>
           <cell r="AV16">
-            <v>4345.7465115825007</v>
+            <v>4426.2488534488339</v>
           </cell>
         </row>
         <row r="17">
@@ -20006,6 +21926,9 @@
           <cell r="M17">
             <v>1.15082212085</v>
           </cell>
+          <cell r="P17">
+            <v>15.0036349649</v>
+          </cell>
           <cell r="W17">
             <v>4781.4251414700002</v>
           </cell>
@@ -20018,17 +21941,23 @@
           <cell r="AI17">
             <v>0.16673310846158473</v>
           </cell>
+          <cell r="AK17">
+            <v>3093770.9270099998</v>
+          </cell>
+          <cell r="AL17">
+            <v>3941363.2401150004</v>
+          </cell>
           <cell r="AP17">
-            <v>1.2607418217171571</v>
+            <v>1.273967379325063</v>
           </cell>
           <cell r="AS17">
-            <v>-0.27118609772099722</v>
+            <v>-0.34153301737422903</v>
           </cell>
           <cell r="AU17">
-            <v>4.6038284736230715</v>
+            <v>4.3352960237032221</v>
           </cell>
           <cell r="AV17">
-            <v>4712.6117543900555</v>
+            <v>4784.2638981297505</v>
           </cell>
         </row>
         <row r="18">
@@ -20041,6 +21970,9 @@
           <cell r="M18">
             <v>1.30401064566</v>
           </cell>
+          <cell r="P18">
+            <v>16.0001474024</v>
+          </cell>
           <cell r="W18">
             <v>5120.64365954</v>
           </cell>
@@ -20053,17 +21985,23 @@
           <cell r="AI18">
             <v>0.12434768712026428</v>
           </cell>
+          <cell r="AK18">
+            <v>3332502.3303733333</v>
+          </cell>
+          <cell r="AL18">
+            <v>4209897.37249</v>
+          </cell>
           <cell r="AP18">
-            <v>1.2535900285927311</v>
+            <v>1.2632841496072935</v>
           </cell>
           <cell r="AS18">
-            <v>-0.31679394324614768</v>
+            <v>-0.38152363276762469</v>
           </cell>
           <cell r="AU18">
-            <v>4.9221293151238878</v>
+            <v>4.6568992341812612</v>
           </cell>
           <cell r="AV18">
-            <v>5068.8909909224749</v>
+            <v>5125.1246043857955</v>
           </cell>
         </row>
       </sheetData>
@@ -20889,8 +22827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AP4"/>
+    <sheetView tabSelected="1" topLeftCell="AT7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20914,7 +22852,7 @@
     <col min="32" max="32" width="13.109375" customWidth="1"/>
     <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" style="5" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
     <col min="48" max="48" width="13.33203125" style="5" customWidth="1"/>
@@ -21046,7 +22984,7 @@
       <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AQ1" t="s">
@@ -21170,9 +23108,9 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-3.5347280658015734E-9</v>
       </c>
-      <c r="AJ2" t="e">
+      <c r="AJ2">
         <f>(( 1.588*EXP(-0.0005387*232))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>#DIV/0!</v>
+        <v>0.54852468663480614</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -21182,17 +23120,20 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3314.2031082350004</v>
       </c>
-      <c r="AM2" s="3" t="e">
-        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN2" t="e">
-        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
-        <v>#DIV/0!</v>
+      <c r="AM2" s="3">
+        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>-0.22624434389140272</v>
       </c>
       <c r="AO2" s="3">
         <f>3*(1-2*0.33)*(100000^0.3/(1.34*0.3*AK2^-0.7))</f>
         <v>19869.962100507521</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>1.2607590421870807</v>
       </c>
       <c r="AQ2">
         <v>5.25</v>
@@ -21295,15 +23236,15 @@
         <v>0.5131043645532074</v>
       </c>
       <c r="AC3" s="5">
-        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
-        <v>0.29490364540353631</v>
+        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>0.47338186432211443</v>
       </c>
       <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
-        <v>0.2182007191496711</v>
+        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <v>3.9722500231092972E-2</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
         <v>0.83001552430559766</v>
       </c>
       <c r="AF3" s="5">
@@ -21311,66 +23252,67 @@
         <v>1.2579208308207357E-2</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
-        <v>0.21999217901831858</v>
+        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <v>4.1513960099740455E-2</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.83001552312735494</v>
       </c>
       <c r="AI3" s="5">
-        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
-        <v>-0.26504586105742467</v>
+        <f>-AG3/AH3</f>
+        <v>-5.0015883972052755E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>-6.5589107657259949E-2</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>14000</v>
+        <f t="shared" ref="AJ3:AJ18" si="9">(( 1.588*EXP(-0.0005387*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>0.5191077350169313</v>
+      </c>
+      <c r="AK3" s="5">
+        <f t="shared" si="2"/>
+        <v>28695.360281533332</v>
       </c>
       <c r="AL3" s="3">
         <f t="shared" si="3"/>
         <v>36941.832404799999</v>
       </c>
       <c r="AM3" s="3">
+        <f>(-2*AI3-3)/(-2*AI3+6)</f>
+        <v>-0.47540215237817873</v>
+      </c>
+      <c r="AN3" s="3">
         <f t="shared" si="4"/>
-        <v>-0.46790709451565238</v>
-      </c>
-      <c r="AN3" s="3">
-        <f t="shared" si="5"/>
-        <v>-0.17565037622074556</v>
+        <v>-0.48969459377564856</v>
       </c>
       <c r="AO3" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP3" s="3">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.9423403605604825</v>
+      <c r="AP3" s="5">
+        <f>AL3/AK3</f>
+        <v>1.2873799820723497</v>
       </c>
       <c r="AQ3" s="3">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>6.5093537319523174</v>
+        <v>3.2551061565252621</v>
       </c>
       <c r="AR3" s="3">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>1.6288411276845188E-2</v>
+        <v>1.6359883201727595E-2</v>
       </c>
       <c r="AS3" s="3">
         <f>(AS2+AR3)</f>
-        <v>1.6288411276845188E-2</v>
+        <v>1.6359883201727595E-2</v>
       </c>
       <c r="AT3" s="3">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.2483401872451339</v>
+        <v>0.32709375307390315</v>
       </c>
       <c r="AU3" s="3">
         <f>AU2+AT3</f>
-        <v>0.2483401872451339</v>
+        <v>0.32709375307390315</v>
       </c>
       <c r="AV3" s="5">
-        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
-        <v>97.062487649282872</v>
+        <f t="shared" ref="AV3:AV18" si="10">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>43.051694467028327</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
@@ -21473,15 +23415,15 @@
         <v>0.72670654276035807</v>
       </c>
       <c r="AC4" s="5">
+        <f t="shared" si="5"/>
+        <v>0.79544639231484671</v>
+      </c>
+      <c r="AD4" s="5">
         <f t="shared" si="6"/>
-        <v>0.79544639231484671</v>
-      </c>
-      <c r="AD4" s="5">
+        <v>-6.8739849554488641E-2</v>
+      </c>
+      <c r="AE4" s="4">
         <f t="shared" si="7"/>
-        <v>-6.8739849554488641E-2</v>
-      </c>
-      <c r="AE4" s="4">
-        <f t="shared" si="8"/>
         <v>1.7589948652665472</v>
       </c>
       <c r="AF4" s="5">
@@ -21489,20 +23431,20 @@
         <v>-0.2739086469996419</v>
       </c>
       <c r="AG4" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.10846234978558161</v>
+      </c>
+      <c r="AH4" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92897934096094958</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" ref="AI3:AI18" si="11">-AG4/AH4</f>
+        <v>0.11675431842583991</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="9"/>
-        <v>-0.28694056870415974</v>
-      </c>
-      <c r="AH4" s="3">
-        <f t="shared" si="9"/>
-        <v>0.92897934096094958</v>
-      </c>
-      <c r="AI4" s="5">
-        <f t="shared" si="10"/>
-        <v>0.30887723338103978</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="11"/>
-        <v>0.11345524840032284</v>
+        <v>0.45151353533812683</v>
       </c>
       <c r="AK4">
         <f t="shared" si="2"/>
@@ -21513,43 +23455,43 @@
         <v>105287.11828364999</v>
       </c>
       <c r="AM4" s="3">
+        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.56074108729546202</v>
+      </c>
+      <c r="AN4">
         <f t="shared" si="4"/>
-        <v>-0.55895729574473818</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" si="5"/>
-        <v>-0.22707890763945904</v>
+        <v>-0.39832351094679114</v>
       </c>
       <c r="AO4" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP4">
-        <f>(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.7169743865176184</v>
+      <c r="AP4" s="5">
+        <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
+        <v>1.3508682565092953</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
-        <v>5.0146690022596241</v>
+        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
+        <v>3.4574172351747765</v>
       </c>
       <c r="AR4" s="3">
         <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-0.13216488270657978</v>
+        <v>-7.6599372776447752E-2</v>
       </c>
       <c r="AS4">
         <f>AS3+AR4</f>
-        <v>-0.11587647142973459</v>
+        <v>-6.0239489574720154E-2</v>
       </c>
       <c r="AT4" s="3">
         <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>1.1649076139716414</v>
+        <v>0.65607314409618334</v>
       </c>
       <c r="AU4">
         <f>AU3+AT4</f>
-        <v>1.4132478012167753</v>
+        <v>0.98316689717008643</v>
       </c>
       <c r="AV4" s="5">
-        <f t="shared" si="12"/>
-        <v>190.22503494870423</v>
+        <f t="shared" si="10"/>
+        <v>122.2919060346848</v>
       </c>
       <c r="BK4" s="1">
         <v>1.3664000000000001</v>
@@ -21645,15 +23587,15 @@
         <v>0.77588804749871843</v>
       </c>
       <c r="AC5" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0343329507135908</v>
+      </c>
+      <c r="AD5" s="5">
         <f t="shared" si="6"/>
-        <v>1.0343329507135908</v>
-      </c>
-      <c r="AD5" s="5">
+        <v>-0.25844490321487235</v>
+      </c>
+      <c r="AE5" s="4">
         <f t="shared" si="7"/>
-        <v>-0.25844490321487235</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" si="8"/>
         <v>2.7416603735437604</v>
       </c>
       <c r="AF5" s="5">
@@ -21661,20 +23603,20 @@
         <v>-0.72425681385628149</v>
       </c>
       <c r="AG5" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.1897050536603837</v>
+      </c>
+      <c r="AH5" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98266550827721311</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="11"/>
+        <v>0.19305150334722779</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="9"/>
-        <v>-0.1897050536603837</v>
-      </c>
-      <c r="AH5" s="3">
-        <f t="shared" si="9"/>
-        <v>0.98266550827721311</v>
-      </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="10"/>
-        <v>0.19305150334722779</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="11"/>
-        <v>0.21132357427375295</v>
+        <v>0.43069887541361418</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -21685,43 +23627,43 @@
         <v>191961.85133899999</v>
       </c>
       <c r="AM5" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.60316443474689918</v>
+      </c>
+      <c r="AN5">
         <f t="shared" si="4"/>
-        <v>-0.61366874926268222</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="5"/>
-        <v>-0.25564598234380426</v>
+        <v>-0.36836442456285379</v>
       </c>
       <c r="AO5" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP5">
-        <f t="shared" ref="AP5:AP18" si="14">(AK5*1.35*(AK5/3255000)^-0.0723-AK4*1.35*(AK4/3255000)^-0.0723)/(AK5-AK4)</f>
-        <v>1.6027555746450712</v>
+      <c r="AP5" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3710726704289367</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="13"/>
-        <v>4.4412495313508336</v>
+        <f t="shared" si="14"/>
+        <v>3.5251083560430665</v>
       </c>
       <c r="AR5" s="3">
         <f t="shared" ref="AR5:AR18" si="15">(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
-        <v>-0.21793816359818152</v>
+        <v>-0.16282125803856662</v>
       </c>
       <c r="AS5">
         <f t="shared" ref="AS5:AS18" si="16">AS4+AR5</f>
-        <v>-0.33381463502791608</v>
+        <v>-0.22306074761328676</v>
       </c>
       <c r="AT5" s="3">
         <f t="shared" ref="AT5:AT18" si="17">2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
-        <v>1.0313007639926617</v>
+        <v>0.84340839214140562</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>2.4445485652094368</v>
+        <v>1.8265752893114922</v>
       </c>
       <c r="AV5" s="5">
-        <f t="shared" si="12"/>
-        <v>295.62260962436187</v>
+        <f t="shared" si="10"/>
+        <v>224.25633750517815</v>
       </c>
       <c r="BK5" s="1">
         <v>1.2961</v>
@@ -21817,15 +23759,15 @@
         <v>0.72915543285183571</v>
       </c>
       <c r="AC6" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2346363198513419</v>
+      </c>
+      <c r="AD6" s="5">
         <f t="shared" si="6"/>
-        <v>1.2346363198513419</v>
-      </c>
-      <c r="AD6" s="5">
+        <v>-0.50548088699950622</v>
+      </c>
+      <c r="AE6" s="4">
         <f t="shared" si="7"/>
-        <v>-0.50548088699950622</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" si="8"/>
         <v>3.7576796987193877</v>
       </c>
       <c r="AF6" s="5">
@@ -21833,20 +23775,20 @@
         <v>-1.2712103219831641</v>
       </c>
       <c r="AG6" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.24703598378463387</v>
+      </c>
+      <c r="AH6" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0160193251756273</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="11"/>
+        <v>0.24314102858420697</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="9"/>
-        <v>-0.24703598378463387</v>
-      </c>
-      <c r="AH6" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0160193251756273</v>
-      </c>
-      <c r="AI6" s="5">
-        <f t="shared" si="10"/>
-        <v>0.24314102858420697</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="11"/>
-        <v>0.26141418761714008</v>
+        <v>0.40393655084659141</v>
       </c>
       <c r="AK6">
         <f t="shared" si="2"/>
@@ -21857,43 +23799,43 @@
         <v>298529.42221550003</v>
       </c>
       <c r="AM6" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.63229241925603907</v>
+      </c>
+      <c r="AN6">
         <f t="shared" si="4"/>
-        <v>-0.64318385776070419</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="5"/>
-        <v>-0.2702438354025759</v>
+        <v>-0.34294419418018834</v>
       </c>
       <c r="AO6" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3975043298953405</v>
+      </c>
+      <c r="AQ6">
         <f t="shared" si="14"/>
-        <v>1.546856764002601</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="13"/>
-        <v>4.1934706621144873</v>
+        <v>3.6162398238568763</v>
       </c>
       <c r="AR6" s="3">
         <f t="shared" si="15"/>
-        <v>-0.30560316035621071</v>
+        <v>-0.24959546066133151</v>
       </c>
       <c r="AS6">
         <f t="shared" si="16"/>
-        <v>-0.6394177953841268</v>
+        <v>-0.47265620827461829</v>
       </c>
       <c r="AT6" s="3">
         <f t="shared" si="17"/>
-        <v>1.1690381579586977</v>
+        <v>1.0265460424952058</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
-        <v>3.6135867231681345</v>
+        <v>2.8531213318066979</v>
       </c>
       <c r="AV6" s="5">
-        <f t="shared" si="12"/>
-        <v>417.01327797092523</v>
+        <f t="shared" si="10"/>
+        <v>349.30709163820416</v>
       </c>
       <c r="BK6" s="1">
         <v>1.2944</v>
@@ -21989,15 +23931,15 @@
         <v>0.63324957254433656</v>
       </c>
       <c r="AC7" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4043205550409641</v>
+      </c>
+      <c r="AD7" s="5">
         <f t="shared" si="6"/>
-        <v>1.4043205550409641</v>
-      </c>
-      <c r="AD7" s="5">
+        <v>-0.77107098249662753</v>
+      </c>
+      <c r="AE7" s="4">
         <f t="shared" si="7"/>
-        <v>-0.77107098249662753</v>
-      </c>
-      <c r="AE7" s="4">
-        <f t="shared" si="8"/>
         <v>4.7930546241118881</v>
       </c>
       <c r="AF7" s="5">
@@ -22005,20 +23947,20 @@
         <v>-1.8688193349356634</v>
       </c>
       <c r="AG7" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.26559009549712131</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0353749253925004</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="11"/>
+        <v>0.25651586587963654</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="9"/>
-        <v>-0.26559009549712131</v>
-      </c>
-      <c r="AH7" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0353749253925004</v>
-      </c>
-      <c r="AI7" s="5">
-        <f t="shared" si="10"/>
-        <v>0.25651586587963654</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="11"/>
-        <v>0.29856368882066153</v>
+        <v>0.38914606994008233</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -22029,43 +23971,43 @@
         <v>415580.73930900003</v>
       </c>
       <c r="AM7" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.64025005431380921</v>
+      </c>
+      <c r="AN7">
         <f t="shared" si="4"/>
-        <v>-0.66578052622513284</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="5"/>
-        <v>-0.28101492754865354</v>
+        <v>-0.33248571467078469</v>
       </c>
       <c r="AO7" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="5">
+        <f t="shared" si="13"/>
+        <v>1.412331312531679</v>
+      </c>
+      <c r="AQ7">
         <f t="shared" si="14"/>
-        <v>1.5065378630281099</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="13"/>
-        <v>4.0262659341656937</v>
+        <v>3.6686889846969901</v>
       </c>
       <c r="AR7" s="3">
         <f t="shared" si="15"/>
-        <v>-0.37009843836403705</v>
+        <v>-0.29254339945004143</v>
       </c>
       <c r="AS7">
         <f t="shared" si="16"/>
-        <v>-1.0095162337481638</v>
+        <v>-0.76519960772465967</v>
       </c>
       <c r="AT7" s="3">
         <f t="shared" si="17"/>
-        <v>1.239596281201979</v>
+        <v>1.1404495330020239</v>
       </c>
       <c r="AU7">
         <f t="shared" si="18"/>
-        <v>4.8531830043701136</v>
+        <v>3.9935708648087216</v>
       </c>
       <c r="AV7" s="5">
-        <f t="shared" si="12"/>
-        <v>543.93470219332289</v>
+        <f t="shared" si="10"/>
+        <v>486.66443726364338</v>
       </c>
       <c r="BK7" s="1">
         <v>1.2937000000000001</v>
@@ -22161,15 +24103,15 @@
         <v>0.49570063860805424</v>
       </c>
       <c r="AC8" s="5">
+        <f t="shared" si="5"/>
+        <v>1.5483197399211468</v>
+      </c>
+      <c r="AD8" s="5">
         <f t="shared" si="6"/>
-        <v>1.5483197399211468</v>
-      </c>
-      <c r="AD8" s="5">
+        <v>-1.0526191013130926</v>
+      </c>
+      <c r="AE8" s="4">
         <f t="shared" si="7"/>
-        <v>-1.0526191013130926</v>
-      </c>
-      <c r="AE8" s="4">
-        <f t="shared" si="8"/>
         <v>5.8349244772073154</v>
       </c>
       <c r="AF8" s="5">
@@ -22177,20 +24119,20 @@
         <v>-2.5043783730969458</v>
       </c>
       <c r="AG8" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.28154811881646502</v>
+      </c>
+      <c r="AH8" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0418698530954273</v>
+      </c>
+      <c r="AI8" s="5">
+        <f t="shared" si="11"/>
+        <v>0.27023348259859609</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="9"/>
-        <v>-0.28154811881646502</v>
-      </c>
-      <c r="AH8" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0418698530954273</v>
-      </c>
-      <c r="AI8" s="5">
-        <f t="shared" si="10"/>
-        <v>0.27023348259859609</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="11"/>
-        <v>0.32715971109909242</v>
+        <v>0.38367570285892388</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -22201,43 +24143,43 @@
         <v>535462.88494200003</v>
       </c>
       <c r="AM8" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.64849263529093559</v>
+      </c>
+      <c r="AN8">
         <f t="shared" si="4"/>
-        <v>-0.68360227832783627</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="5"/>
-        <v>-0.28925574289614941</v>
+        <v>-0.32697451756587181</v>
       </c>
       <c r="AO8" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="5">
+        <f t="shared" si="13"/>
+        <v>1.4178547208063292</v>
+      </c>
+      <c r="AQ8">
         <f t="shared" si="14"/>
-        <v>1.4761673190222979</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="13"/>
-        <v>3.906160244722888</v>
+        <v>3.6884788763436358</v>
       </c>
       <c r="AR8" s="3">
         <f t="shared" si="15"/>
-        <v>-0.40930614171898433</v>
+        <v>-0.32051674378799722</v>
       </c>
       <c r="AS8">
         <f t="shared" si="16"/>
-        <v>-1.4188223754671481</v>
+        <v>-1.0857163515126569</v>
       </c>
       <c r="AT8" s="3">
         <f t="shared" si="17"/>
-        <v>1.2510896905487572</v>
+        <v>1.1860733936663641</v>
       </c>
       <c r="AU8">
         <f t="shared" si="18"/>
-        <v>6.1042726949188708</v>
+        <v>5.1796442584750855</v>
       </c>
       <c r="AV8" s="5">
-        <f t="shared" si="12"/>
-        <v>671.88589826407701</v>
+        <f t="shared" si="10"/>
+        <v>627.35000740763428</v>
       </c>
       <c r="BK8" s="1">
         <v>1.3320000000000001</v>
@@ -22333,15 +24275,15 @@
         <v>0.26906407559089685</v>
       </c>
       <c r="AC9" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6774497412623801</v>
+      </c>
+      <c r="AD9" s="5">
         <f t="shared" si="6"/>
-        <v>1.6774497412623801</v>
-      </c>
-      <c r="AD9" s="5">
+        <v>-1.4083856656714833</v>
+      </c>
+      <c r="AE9" s="4">
         <f t="shared" si="7"/>
-        <v>-1.4083856656714833</v>
-      </c>
-      <c r="AE9" s="4">
-        <f t="shared" si="8"/>
         <v>6.914758087843035</v>
       </c>
       <c r="AF9" s="5">
@@ -22349,20 +24291,20 @@
         <v>-3.2331589809291033</v>
       </c>
       <c r="AG9" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.35576656435839071</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0798336106357196</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="11"/>
+        <v>0.32946424417086245</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="9"/>
-        <v>-0.35576656435839071</v>
-      </c>
-      <c r="AH9" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0798336106357196</v>
-      </c>
-      <c r="AI9" s="5">
-        <f t="shared" si="10"/>
-        <v>0.32946424417086245</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="11"/>
-        <v>0.35025797324382607</v>
+        <v>0.38113429259025583</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -22373,43 +24315,43 @@
         <v>661076.72058750002</v>
       </c>
       <c r="AM9" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.68505513928341222</v>
+      </c>
+      <c r="AN9">
         <f t="shared" si="4"/>
-        <v>-0.69827853223467196</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="5"/>
-        <v>-0.29587088095897601</v>
+        <v>-0.31431358888339939</v>
       </c>
       <c r="AO9" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="5">
+        <f t="shared" si="13"/>
+        <v>1.420428035919691</v>
+      </c>
+      <c r="AQ9">
         <f t="shared" si="14"/>
-        <v>1.4520598634137434</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="13"/>
-        <v>3.8141783311130575</v>
+        <v>3.6977461012611514</v>
       </c>
       <c r="AR9" s="3">
         <f t="shared" si="15"/>
-        <v>-0.45213473692435846</v>
+        <v>-0.41316242181257956</v>
       </c>
       <c r="AS9">
         <f t="shared" si="16"/>
-        <v>-1.8709571123915065</v>
+        <v>-1.4988787733252364</v>
       </c>
       <c r="AT9" s="3">
         <f t="shared" si="17"/>
-        <v>1.2908620829870805</v>
+        <v>1.2540432812439299</v>
       </c>
       <c r="AU9">
         <f t="shared" si="18"/>
-        <v>7.3951347779059518</v>
+        <v>6.4336875397190152</v>
       </c>
       <c r="AV9" s="5">
-        <f t="shared" si="12"/>
-        <v>803.40808408406542</v>
+        <f t="shared" si="10"/>
+        <v>774.17764510144184</v>
       </c>
       <c r="BK9" s="1">
         <v>1.3442000000000001</v>
@@ -22505,15 +24447,15 @@
         <v>5.0639532081830918E-2</v>
       </c>
       <c r="AC10" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7928753652135534</v>
+      </c>
+      <c r="AD10" s="5">
         <f t="shared" si="6"/>
-        <v>1.7928753652135534</v>
-      </c>
-      <c r="AD10" s="5">
+        <v>-1.7422358331317225</v>
+      </c>
+      <c r="AE10" s="4">
         <f t="shared" si="7"/>
-        <v>-1.7422358331317225</v>
-      </c>
-      <c r="AE10" s="4">
-        <f t="shared" si="8"/>
         <v>7.9833701226127234</v>
       </c>
       <c r="AF10" s="5">
@@ -22521,20 +24463,20 @@
         <v>-3.9494854512381692</v>
       </c>
       <c r="AG10" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.33385016746023921</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0686120347696884</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="11"/>
+        <v>0.31241475540015978</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="9"/>
-        <v>-0.33385016746023921</v>
-      </c>
-      <c r="AH10" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0686120347696884</v>
-      </c>
-      <c r="AI10" s="5">
-        <f t="shared" si="10"/>
-        <v>0.31241475540015978</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="11"/>
-        <v>0.36967880807369297</v>
+        <v>0.37933089324301272</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -22545,43 +24487,43 @@
         <v>789525.62972299999</v>
       </c>
       <c r="AM10" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.67436549558449954</v>
+      </c>
+      <c r="AN10">
         <f t="shared" si="4"/>
-        <v>-0.71081768029418479</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="5"/>
-        <v>-0.30139883779844068</v>
+        <v>-0.31666850327817675</v>
       </c>
       <c r="AO10" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="5">
+        <f t="shared" si="13"/>
+        <v>1.4222568698871758</v>
+      </c>
+      <c r="AQ10">
         <f t="shared" si="14"/>
-        <v>1.4320845173354098</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="13"/>
-        <v>3.7401053178612482</v>
+        <v>3.7043506184409187</v>
       </c>
       <c r="AR10" s="3">
         <f t="shared" si="15"/>
-        <v>-0.4800855434403562</v>
+        <v>-0.40085322328398493</v>
       </c>
       <c r="AS10">
         <f t="shared" si="16"/>
-        <v>-2.3510426558318627</v>
+        <v>-1.8997319966092214</v>
       </c>
       <c r="AT10" s="3">
         <f t="shared" si="17"/>
-        <v>1.2986558411123597</v>
+        <v>1.2830803166468492</v>
       </c>
       <c r="AU10">
         <f t="shared" si="18"/>
-        <v>8.6937906190183121</v>
+        <v>7.7167678563658644</v>
       </c>
       <c r="AV10" s="5">
-        <f t="shared" si="12"/>
-        <v>935.14420544200414</v>
+        <f t="shared" si="10"/>
+        <v>924.47503113140795</v>
       </c>
       <c r="BK10" s="1">
         <f>AVERAGE(BK4:BK9)</f>
@@ -22679,15 +24621,15 @@
         <v>-0.2191552131661112</v>
       </c>
       <c r="AC11" s="5">
+        <f t="shared" si="5"/>
+        <v>1.8925179198904236</v>
+      </c>
+      <c r="AD11" s="5">
         <f t="shared" si="6"/>
-        <v>1.8925179198904236</v>
-      </c>
-      <c r="AD11" s="5">
+        <v>-2.1116731330565348</v>
+      </c>
+      <c r="AE11" s="4">
         <f t="shared" si="7"/>
-        <v>-2.1116731330565348</v>
-      </c>
-      <c r="AE11" s="4">
-        <f t="shared" si="8"/>
         <v>9.0780800075120371</v>
       </c>
       <c r="AF11" s="5">
@@ -22695,20 +24637,20 @@
         <v>-4.7216693480611109</v>
       </c>
       <c r="AG11" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.36943729992481233</v>
+      </c>
+      <c r="AH11" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0947098848993138</v>
+      </c>
+      <c r="AI11" s="5">
+        <f t="shared" si="11"/>
+        <v>0.33747507446577174</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="9"/>
-        <v>-0.36943729992481233</v>
-      </c>
-      <c r="AH11" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0947098848993138</v>
-      </c>
-      <c r="AI11" s="5">
-        <f t="shared" si="10"/>
-        <v>0.33747507446577174</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="11"/>
-        <v>0.38587659679816111</v>
+        <v>0.38610571366323615</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -22719,43 +24661,43 @@
         <v>908337.65375849989</v>
       </c>
       <c r="AM11" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.69012502262193376</v>
+      </c>
+      <c r="AN11">
         <f t="shared" si="4"/>
-        <v>-0.72141835174586477</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="5"/>
-        <v>-0.30598241062350739</v>
+        <v>-0.31520678900517529</v>
       </c>
       <c r="AO11" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="5">
+        <f t="shared" si="13"/>
+        <v>1.415398512864448</v>
+      </c>
+      <c r="AQ11">
         <f t="shared" si="14"/>
-        <v>1.4156299198831406</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="13"/>
-        <v>3.6804910121353598</v>
+        <v>3.6796614625605928</v>
       </c>
       <c r="AR11" s="3">
         <f t="shared" si="15"/>
-        <v>-0.4775185528649965</v>
+        <v>-0.41614018141274756</v>
       </c>
       <c r="AS11">
         <f t="shared" si="16"/>
-        <v>-2.828561208696859</v>
+        <v>-2.3158721780219689</v>
       </c>
       <c r="AT11" s="3">
         <f t="shared" si="17"/>
-        <v>1.2374903189963864</v>
+        <v>1.2330990135241955</v>
       </c>
       <c r="AU11">
         <f t="shared" si="18"/>
-        <v>9.931280938014698</v>
+        <v>8.9498668698900605</v>
       </c>
       <c r="AV11" s="5">
-        <f t="shared" si="12"/>
-        <v>1066.0123197554362</v>
+        <f t="shared" si="10"/>
+        <v>1065.7253912822632</v>
       </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
@@ -22845,15 +24787,15 @@
         <v>-0.45631196489424042</v>
       </c>
       <c r="AC12" s="5">
+        <f t="shared" si="5"/>
+        <v>1.9806246308589979</v>
+      </c>
+      <c r="AD12" s="5">
         <f t="shared" si="6"/>
-        <v>1.9806246308589979</v>
-      </c>
-      <c r="AD12" s="5">
+        <v>-2.4369365957532381</v>
+      </c>
+      <c r="AE12" s="4">
         <f t="shared" si="7"/>
-        <v>-2.4369365957532381</v>
-      </c>
-      <c r="AE12" s="4">
-        <f t="shared" si="8"/>
         <v>10.15510136159808</v>
       </c>
       <c r="AF12" s="5">
@@ -22861,20 +24803,20 @@
         <v>-5.4578106515442402</v>
       </c>
       <c r="AG12" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.32526346269670325</v>
+      </c>
+      <c r="AH12" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0770213540860425</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="11"/>
+        <v>0.30200279823859294</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="9"/>
-        <v>-0.32526346269670325</v>
-      </c>
-      <c r="AH12" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0770213540860425</v>
-      </c>
-      <c r="AI12" s="5">
-        <f t="shared" si="10"/>
-        <v>0.30200279823859294</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="11"/>
-        <v>0.39941635013033611</v>
+        <v>0.3934771539977116</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -22885,43 +24827,43 @@
         <v>1022015.2196169998</v>
       </c>
       <c r="AM12" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.66790387961193665</v>
+      </c>
+      <c r="AN12">
         <f t="shared" si="4"/>
-        <v>-0.73038079364435404</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="5"/>
-        <v>-0.30979307506229375</v>
+        <v>-0.32570696538732108</v>
       </c>
       <c r="AO12" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="5">
+        <f t="shared" si="13"/>
+        <v>1.4079733778806431</v>
+      </c>
+      <c r="AQ12">
         <f t="shared" si="14"/>
-        <v>1.4020191233857742</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="13"/>
-        <v>3.6321074499145722</v>
+        <v>3.6531717968503012</v>
       </c>
       <c r="AR12" s="3">
         <f t="shared" si="15"/>
-        <v>-0.4747164791126664</v>
+        <v>-0.35851518460056908</v>
       </c>
       <c r="AS12">
         <f t="shared" si="16"/>
-        <v>-3.3032776878095254</v>
+        <v>-2.6743873626225381</v>
       </c>
       <c r="AT12" s="3">
         <f t="shared" si="17"/>
-        <v>1.1885254045252744</v>
+        <v>1.1871253733130296</v>
       </c>
       <c r="AU12">
         <f t="shared" si="18"/>
-        <v>11.119806342539972</v>
+        <v>10.136992243203091</v>
       </c>
       <c r="AV12" s="5">
-        <f t="shared" si="12"/>
-        <v>1192.1664502927556</v>
+        <f t="shared" si="10"/>
+        <v>1200.4245444090104</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
@@ -23011,15 +24953,15 @@
         <v>-0.74542285367613648</v>
       </c>
       <c r="AC13" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0577865200035244</v>
+      </c>
+      <c r="AD13" s="5">
         <f t="shared" si="6"/>
-        <v>2.0577865200035244</v>
-      </c>
-      <c r="AD13" s="5">
+        <v>-2.8032093736796608</v>
+      </c>
+      <c r="AE13" s="4">
         <f t="shared" si="7"/>
-        <v>-2.8032093736796608</v>
-      </c>
-      <c r="AE13" s="4">
-        <f t="shared" si="8"/>
         <v>11.251465412258712</v>
       </c>
       <c r="AF13" s="5">
@@ -23027,20 +24969,20 @@
         <v>-6.2469184175261363</v>
       </c>
       <c r="AG13" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.36627277792642277</v>
+      </c>
+      <c r="AH13" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0963640506606325</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" si="11"/>
+        <v>0.33407952194868024</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="9"/>
-        <v>-0.36627277792642277</v>
-      </c>
-      <c r="AH13" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0963640506606325</v>
-      </c>
-      <c r="AI13" s="5">
-        <f t="shared" si="10"/>
-        <v>0.33407952194868024</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="11"/>
-        <v>0.41090364599918727</v>
+        <v>0.40334484827437717</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -23051,43 +24993,43 @@
         <v>1126362.078</v>
       </c>
       <c r="AM13" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.68797232965077726</v>
+      </c>
+      <c r="AN13">
         <f t="shared" si="4"/>
-        <v>-0.73805814258181424</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="5"/>
-        <v>-0.31301010063089441</v>
+        <v>-0.32432587632919618</v>
       </c>
       <c r="AO13" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3980944953263841</v>
+      </c>
+      <c r="AQ13">
         <f t="shared" si="14"/>
-        <v>1.3905741223861088</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="13"/>
-        <v>3.5920562264993867</v>
+        <v>3.6183089287989718</v>
       </c>
       <c r="AR13" s="3">
         <f t="shared" si="15"/>
-        <v>-0.45881346252354599</v>
+        <v>-0.37334411171335652</v>
       </c>
       <c r="AS13">
         <f t="shared" si="16"/>
-        <v>-3.7620911503330712</v>
+        <v>-3.0477314743358948</v>
       </c>
       <c r="AT13" s="3">
         <f t="shared" si="17"/>
-        <v>1.1165962312353235</v>
+        <v>1.1175306691522022</v>
       </c>
       <c r="AU13">
         <f t="shared" si="18"/>
-        <v>12.236402573775296</v>
+        <v>11.254522912355293</v>
       </c>
       <c r="AV13" s="5">
-        <f t="shared" si="12"/>
-        <v>1314.5517518742033</v>
+        <f t="shared" si="10"/>
+        <v>1326.0242888085886</v>
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
@@ -23177,15 +25119,15 @@
         <v>-1.3049254718808134</v>
       </c>
       <c r="AC14" s="5">
+        <f t="shared" si="5"/>
+        <v>2.1188674035429025</v>
+      </c>
+      <c r="AD14" s="5">
         <f t="shared" si="6"/>
-        <v>2.1188674035429025</v>
-      </c>
-      <c r="AD14" s="5">
+        <v>-3.4237928754237159</v>
+      </c>
+      <c r="AE14" s="4">
         <f t="shared" si="7"/>
-        <v>-3.4237928754237159</v>
-      </c>
-      <c r="AE14" s="4">
-        <f t="shared" si="8"/>
         <v>12.439201033993605</v>
       </c>
       <c r="AF14" s="5">
@@ -23193,20 +25135,20 @@
         <v>-7.3070384102308132</v>
       </c>
       <c r="AG14" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.62058350174405508</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1877356217348929</v>
+      </c>
+      <c r="AI14" s="5">
+        <f t="shared" si="11"/>
+        <v>0.52249296088096253</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="9"/>
-        <v>-0.62058350174405508</v>
-      </c>
-      <c r="AH14" s="3">
-        <f t="shared" si="9"/>
-        <v>1.1877356217348929</v>
-      </c>
-      <c r="AI14" s="5">
-        <f t="shared" si="10"/>
-        <v>0.52249296088096253</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="11"/>
-        <v>0.42021716507706292</v>
+        <v>0.41788138582942208</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -23217,43 +25159,43 @@
         <v>1207918.70438</v>
       </c>
       <c r="AM14" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.81634196349251509</v>
+      </c>
+      <c r="AN14">
         <f t="shared" si="4"/>
-        <v>-0.74433287138854198</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="5"/>
-        <v>-0.31560691561726195</v>
+        <v>-0.29506852828440333</v>
       </c>
       <c r="AO14" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3836680388222149</v>
+      </c>
+      <c r="AQ14">
         <f t="shared" si="14"/>
-        <v>1.3813640061527404</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="13"/>
-        <v>3.5602371590714004</v>
+        <v>3.5681631101583244</v>
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="15"/>
-        <v>-0.39321316615384566</v>
+        <v>-0.49579600475854896</v>
       </c>
       <c r="AS14">
         <f t="shared" si="16"/>
-        <v>-4.1553043164869168</v>
+        <v>-3.5435274790944438</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="17"/>
-        <v>0.93573799176369943</v>
+        <v>0.94890465877779384</v>
       </c>
       <c r="AU14">
         <f t="shared" si="18"/>
-        <v>13.172140565538996</v>
+        <v>12.203427571133087</v>
       </c>
       <c r="AV14" s="5">
-        <f t="shared" si="12"/>
-        <v>1421.778382604221</v>
+        <f t="shared" si="10"/>
+        <v>1425.5549001553854</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
@@ -23343,15 +25285,15 @@
         <v>-2.6533822224620751</v>
       </c>
       <c r="AC15" s="5">
+        <f t="shared" si="5"/>
+        <v>2.1275293393674088</v>
+      </c>
+      <c r="AD15" s="5">
         <f t="shared" si="6"/>
-        <v>2.1275293393674088</v>
-      </c>
-      <c r="AD15" s="5">
+        <v>-4.780911561829484</v>
+      </c>
+      <c r="AE15" s="4">
         <f t="shared" si="7"/>
-        <v>-4.780911561829484</v>
-      </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="8"/>
         <v>13.888967988420692</v>
       </c>
       <c r="AF15" s="5">
@@ -23359,20 +25301,20 @@
         <v>-9.1556358462620757</v>
       </c>
       <c r="AG15" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.357118686405768</v>
+      </c>
+      <c r="AH15" s="3">
+        <f t="shared" si="8"/>
+        <v>1.449766954427087</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" si="11"/>
+        <v>0.93609437176202481</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="9"/>
-        <v>-1.357118686405768</v>
-      </c>
-      <c r="AH15" s="3">
-        <f t="shared" si="9"/>
-        <v>1.449766954427087</v>
-      </c>
-      <c r="AI15" s="5">
-        <f t="shared" si="10"/>
-        <v>0.93609437176202481</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="11"/>
-        <v>0.42480227879818344</v>
+        <v>0.4653477077267652</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -23383,43 +25325,43 @@
         <v>1180897.7034100001</v>
       </c>
       <c r="AM15" s="3">
+        <f t="shared" si="12"/>
+        <v>-1.1803322489322343</v>
+      </c>
+      <c r="AN15">
         <f t="shared" si="4"/>
-        <v>-0.74743863857564274</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="5"/>
-        <v>-0.31688141847262458</v>
+        <v>-0.24017223826304135</v>
       </c>
       <c r="AO15" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="5">
+        <f t="shared" si="13"/>
+        <v>1.3376103702952749</v>
+      </c>
+      <c r="AQ15">
         <f t="shared" si="14"/>
-        <v>1.3768525284977273</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="13"/>
-        <v>3.5447826879650219</v>
+        <v>3.4138932529304737</v>
       </c>
       <c r="AR15" s="3">
         <f t="shared" si="15"/>
-        <v>-5.7980087074246775E-2</v>
+        <v>-0.13641197121447202</v>
       </c>
       <c r="AS15">
         <f t="shared" si="16"/>
-        <v>-4.2132844035611638</v>
+        <v>-3.6799394503089156</v>
       </c>
       <c r="AT15" s="3">
         <f t="shared" si="17"/>
-        <v>0.13648723174997884</v>
+        <v>0.14572459287165848</v>
       </c>
       <c r="AU15">
         <f t="shared" si="18"/>
-        <v>13.308627797288974</v>
+        <v>12.349152164004746</v>
       </c>
       <c r="AV15" s="5">
-        <f t="shared" si="12"/>
-        <v>1454.6449543662443</v>
+        <f t="shared" si="10"/>
+        <v>1390.7012273019604</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
@@ -23509,15 +25451,15 @@
         <v>-3.8642283905737873</v>
       </c>
       <c r="AC16" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0614905146646674</v>
+      </c>
+      <c r="AD16" s="5">
         <f t="shared" si="6"/>
-        <v>2.0614905146646674</v>
-      </c>
-      <c r="AD16" s="5">
+        <v>-5.9257189052384547</v>
+      </c>
+      <c r="AE16" s="4">
         <f t="shared" si="7"/>
-        <v>-5.9257189052384547</v>
-      </c>
-      <c r="AE16" s="4">
-        <f t="shared" si="8"/>
         <v>15.290569338191263</v>
       </c>
       <c r="AF16" s="5">
@@ -23525,20 +25467,20 @@
         <v>-10.865474994573788</v>
       </c>
       <c r="AG16" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.1448073434089707</v>
+      </c>
+      <c r="AH16" s="3">
+        <f t="shared" si="8"/>
+        <v>1.401601349770571</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" si="11"/>
+        <v>0.81678527464058515</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="9"/>
-        <v>-1.1448073434089707</v>
-      </c>
-      <c r="AH16" s="3">
-        <f t="shared" si="9"/>
-        <v>1.401601349770571</v>
-      </c>
-      <c r="AI16" s="5">
-        <f t="shared" si="10"/>
-        <v>0.81678527464058515</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="11"/>
-        <v>0.42104415507466098</v>
+        <v>0.5689984615663578</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -23549,43 +25491,43 @@
         <v>1006022.2265975</v>
       </c>
       <c r="AM16" s="3">
+        <f t="shared" si="12"/>
+        <v>-1.0611806744108421</v>
+      </c>
+      <c r="AN16">
         <f t="shared" si="4"/>
-        <v>-0.74489222405832822</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="5"/>
-        <v>-0.31583698499320423</v>
+        <v>-0.30014509376023368</v>
       </c>
       <c r="AO16" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" s="5">
+        <f t="shared" si="13"/>
+        <v>1.242589837405389</v>
+      </c>
+      <c r="AQ16">
         <f t="shared" si="14"/>
-        <v>1.3805491890323094</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="13"/>
-        <v>3.5574395585514065</v>
+        <v>3.1211721609214726</v>
       </c>
       <c r="AR16" s="3">
         <f t="shared" si="15"/>
-        <v>0.42811815663766878</v>
+        <v>0.78638020928095964</v>
       </c>
       <c r="AS16">
         <f t="shared" si="16"/>
-        <v>-3.7851662469234952</v>
+        <v>-2.893559241027956</v>
       </c>
       <c r="AT16" s="3">
         <f t="shared" si="17"/>
-        <v>-1.0168010919466475</v>
+        <v>-0.96277471410952553</v>
       </c>
       <c r="AU16">
         <f t="shared" si="18"/>
-        <v>12.291826705342327</v>
+        <v>11.386377449895221</v>
       </c>
       <c r="AV16" s="5">
-        <f t="shared" si="12"/>
-        <v>1382.462314800121</v>
+        <f t="shared" si="10"/>
+        <v>1181.3090715573342</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -23675,15 +25617,15 @@
         <v>-5.4363852433199522</v>
       </c>
       <c r="AC17" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0337872691598444</v>
+      </c>
+      <c r="AD17" s="5">
         <f t="shared" si="6"/>
-        <v>2.0337872691598444</v>
-      </c>
-      <c r="AD17" s="5">
+        <v>-7.4701725124797971</v>
+      </c>
+      <c r="AE17" s="4">
         <f t="shared" si="7"/>
-        <v>-7.4701725124797971</v>
-      </c>
-      <c r="AE17" s="4">
-        <f t="shared" si="8"/>
         <v>16.815645384239986</v>
       </c>
       <c r="AF17" s="5">
@@ -23691,20 +25633,20 @@
         <v>-12.938143728219952</v>
       </c>
       <c r="AG17" s="3">
+        <f t="shared" si="8"/>
+        <v>-1.5444536072413424</v>
+      </c>
+      <c r="AH17" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5250760460487225</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="11"/>
+        <v>1.0127059639044391</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="9"/>
-        <v>-1.5444536072413424</v>
-      </c>
-      <c r="AH17" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5250760460487225</v>
-      </c>
-      <c r="AI17" s="5">
-        <f t="shared" si="10"/>
-        <v>1.0127059639044391</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="11"/>
-        <v>0.41473266701153572</v>
+        <v>0.61556579399163081</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -23715,43 +25657,43 @@
         <v>938083.18646650005</v>
       </c>
       <c r="AM17" s="3">
+        <f t="shared" si="12"/>
+        <v>-1.2643856008550984</v>
+      </c>
+      <c r="AN17">
         <f t="shared" si="4"/>
-        <v>-0.74063236810337219</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="5"/>
-        <v>-0.3140789892747291</v>
+        <v>-0.27691249426868625</v>
       </c>
       <c r="AO17" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" s="5">
+        <f t="shared" si="13"/>
+        <v>1.2023515721906852</v>
+      </c>
+      <c r="AQ17">
         <f t="shared" si="14"/>
-        <v>1.3867801218203846</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="13"/>
-        <v>3.5789047244791905</v>
+        <v>3.0065406899210845</v>
       </c>
       <c r="AR17" s="3">
         <f t="shared" si="15"/>
-        <v>0.17022694387742457</v>
+        <v>0.40032934791797298</v>
       </c>
       <c r="AS17">
         <f t="shared" si="16"/>
-        <v>-3.6149393030460706</v>
+        <v>-2.4932298931099832</v>
       </c>
       <c r="AT17" s="3">
         <f t="shared" si="17"/>
-        <v>-0.41044980879861526</v>
+        <v>-0.39530659657075817</v>
       </c>
       <c r="AU17">
         <f t="shared" si="18"/>
-        <v>11.881376896543712</v>
+        <v>10.991070853324462</v>
       </c>
       <c r="AV17" s="5">
-        <f t="shared" si="12"/>
-        <v>1372.5655943685965</v>
+        <f t="shared" si="10"/>
+        <v>1113.11345449385</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -23841,15 +25783,15 @@
         <v>-6.2832829179633842</v>
       </c>
       <c r="AC18" s="5">
+        <f t="shared" si="5"/>
+        <v>1.9958235298477638</v>
+      </c>
+      <c r="AD18" s="5">
         <f t="shared" si="6"/>
-        <v>1.9958235298477638</v>
-      </c>
-      <c r="AD18" s="5">
+        <v>-8.2791064478111487</v>
+      </c>
+      <c r="AE18" s="4">
         <f t="shared" si="7"/>
-        <v>-8.2791064478111487</v>
-      </c>
-      <c r="AE18" s="4">
-        <f t="shared" si="8"/>
         <v>18.09725157922113</v>
       </c>
       <c r="AF18" s="5">
@@ -23857,20 +25799,20 @@
         <v>-14.284694887913385</v>
       </c>
       <c r="AG18" s="3">
+        <f t="shared" si="8"/>
+        <v>-0.80893393533135161</v>
+      </c>
+      <c r="AH18" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2816061949811441</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="11"/>
+        <v>0.63118759764051635</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="9"/>
-        <v>-0.80893393533135161</v>
-      </c>
-      <c r="AH18" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2816061949811441</v>
-      </c>
-      <c r="AI18" s="5">
-        <f t="shared" si="10"/>
-        <v>0.63118759764051635</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="11"/>
-        <v>0.41026504316486712</v>
+        <v>0.67731222913416778</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -23881,43 +25823,43 @@
         <v>853260.32899850002</v>
       </c>
       <c r="AM18" s="3">
+        <f t="shared" si="12"/>
+        <v>-0.89968610241896818</v>
+      </c>
+      <c r="AN18">
         <f t="shared" si="4"/>
-        <v>-0.73762955476315095</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="5"/>
-        <v>-0.31283166168466414</v>
+        <v>-0.39372889955754958</v>
       </c>
       <c r="AO18" s="3">
         <v>64071.330653885612</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" s="5">
+        <f t="shared" si="13"/>
+        <v>1.1512965760359233</v>
+      </c>
+      <c r="AQ18">
         <f t="shared" si="14"/>
-        <v>1.3912079023083341</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="13"/>
-        <v>3.5942592041031403</v>
+        <v>2.8682768059691139</v>
       </c>
       <c r="AR18" s="3">
         <f t="shared" si="15"/>
-        <v>0.22454220959745938</v>
+        <v>0.2827122405286816</v>
       </c>
       <c r="AS18">
         <f t="shared" si="16"/>
-        <v>-3.3903970934486112</v>
+        <v>-2.2105176525813017</v>
       </c>
       <c r="AT18" s="3">
         <f t="shared" si="17"/>
-        <v>-0.54731011900330484</v>
+        <v>-0.44790525286857141</v>
       </c>
       <c r="AU18">
         <f t="shared" si="18"/>
-        <v>11.334066777540407</v>
+        <v>10.543165600455891</v>
       </c>
       <c r="AV18" s="5">
-        <f t="shared" si="12"/>
-        <v>1350.8384790113007</v>
+        <f t="shared" si="10"/>
+        <v>1029.2702145734695</v>
       </c>
     </row>
   </sheetData>

--- a/SMP_PP.xlsx
+++ b/SMP_PP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>avgT</t>
   </si>
@@ -198,6 +198,14 @@
   </si>
   <si>
     <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio-M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1487,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64173664"/>
-        <c:axId val="64174224"/>
+        <c:axId val="245526128"/>
+        <c:axId val="245526688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64173664"/>
+        <c:axId val="245526128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,12 +1556,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64174224"/>
+        <c:crossAx val="245526688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64174224"/>
+        <c:axId val="245526688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1618,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64173664"/>
+        <c:crossAx val="245526128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2532,11 +2540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387301440"/>
-        <c:axId val="387297520"/>
+        <c:axId val="247212528"/>
+        <c:axId val="247213088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387301440"/>
+        <c:axId val="247212528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2595,12 +2603,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387297520"/>
+        <c:crossAx val="247213088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387297520"/>
+        <c:axId val="247213088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.1000000000000001"/>
@@ -2658,7 +2666,2187 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387301440"/>
+        <c:crossAx val="247212528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88191553163113756"/>
+          <c:y val="0.26395952977163339"/>
+          <c:w val="8.398178847607482E-2"/>
+          <c:h val="0.4820305588460212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>q/p-M-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>e_q</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5034483332167226E-2"/>
+          <c:y val="0.17657667451380246"/>
+          <c:w val="0.79457428522657048"/>
+          <c:h val="0.71298188661138684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$2:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1782426886005244E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83001552430559766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7589948652665472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7416603735437604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7576796987193877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7930546241118881</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8349244772073154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.914758087843035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9833701226127234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0780800075120371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.15510136159808</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.251465412258712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$2:$AQ$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.99838277802482045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.61322306275872585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41727233784336892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.32374989669132503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.24633235668020714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.19388056967841982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15963684492845132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13341414332915869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11190766491172366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10276467581223292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.6729723684952029E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.5309040439308212E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AE$2:$AE$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.8712636408795333E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60385484924843991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5489256315891522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5823189195798366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.616329679161276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.708119553395461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8224228299217398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9544037559349565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.087888554101534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2382312100566431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AQ$2:$AQ$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.88456311129873444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.73431037601183302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45582422382012289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.31559189530742793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.23638655876496029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18286450000625365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13944309096909246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11365219534445625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.6291770225417128E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.7196058035180712E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AE$2:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.531280308865322E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79227428895571161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6467493256652945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5786011719554747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4797714886515165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.46032940890486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3807128307200633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3933386030602106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3773424148796956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3693944476711231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3997601185372393</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.42127381778735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.4366759110223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.453888443639299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.494096944178469</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.54301115556521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AQ$2:$AQ$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1.0847555143299736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65187030070274132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4663050017803767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.35793676363642857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27094612035282473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20887469804261061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16786683170051719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13465370863326354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11345849214686354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10010041669404979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.9122978407390807E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.379704998582671E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.4116996567273006E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.3057565743880346E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.323701551483409E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.6810945894206348E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>0.5PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AE$2:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.588996263687477E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86439544855037098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8270880839220307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8131835652496848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8888826306841788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9384663104565565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0396844916037837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1192576157988006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2334755863341869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3529214808213137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.457959603650322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AQ$2:$AQ$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.92434352155457233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.59815475352698999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.40110825976505105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.29905086934963232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22886711701219875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1807216286625184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14746945952397716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.12446302052617675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10663731850704128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.8306426218596199E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.9555822995210042E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AE$2:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.7290840394539373E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78881789650508294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6964328109948899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6687025817170649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5894703995944859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5971902850329718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5707389170981036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6047566541380522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6222196992331996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6452885353400131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6871456706652967</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.740525300466734</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.799224683651081</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.842394085569522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.939128383436827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AQ$2:$AQ$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-1.0562220670498046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.63829438716569076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44991380847956175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.34624293348388746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2628987505077478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20456733607634736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16376198830805255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13465652468058642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11284757798230438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10143163209276063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.3923477877279726E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.8678819210161741E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.8437284218419121E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.1079591729153364E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.7868975529099345E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>4PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AE$2:$AE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7.9876845878364592E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78844564873822742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6206165472530574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5471234733867654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4239152124484211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3781385242079391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2990118274572842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2776536759509556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2305419317242237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.203357726998961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2076430177192403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.190712166579036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.186873665065443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.189923798057709</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.186169417201416</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.215500696200856</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.2256821864807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AQ$2:$AQ$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1.0995759540501888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66382382103749893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.47891719273122968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3654935415169227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27541389757369683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.21394633105404237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17055529153211646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13657785299767022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11350037110808553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.7663731690701416E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.9153432811833966E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.2507518707066962E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.688281361434246E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.7829370367991313E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.8348070535637859E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.1000224638744456E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.4421040578937179E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="346430144"/>
+        <c:axId val="346430704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="346430144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346430704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="346430704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346430144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88191553163113756"/>
+          <c:y val="0.26395952977163339"/>
+          <c:w val="8.398178847607482E-2"/>
+          <c:h val="0.4820305588460212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>q/p-M-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>e_q</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5034483332167226E-2"/>
+          <c:y val="0.17657667451380246"/>
+          <c:w val="0.79457428522657048"/>
+          <c:h val="0.71298188661138684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$2:$AK$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2628.7363384566665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28695.360281533332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77940.330432899995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140008.51703866667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213616.09823266664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294251.59353300004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377657.08791199996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>465406.69704500004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>555121.68472466664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>641753.99755099998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>725876.80681533332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>805640.87890000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$2:$AQ$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.99838277802482045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.61322306275872585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41727233784336892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.32374989669132503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.24633235668020714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.19388056967841982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15963684492845132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13341414332915869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11190766491172366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10276467581223292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.6729723684952029E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.5309040439308212E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AK$2:$AK$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2515.4747919599999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7369.2502595533333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25328.292626999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49400.543063766672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76159.720779999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104360.67064436666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134186.94364290001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162015.33762943334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188604.79414103334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213458.34164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AQ$2:$AQ$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.88456311129873444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.73431037601183302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45582422382012289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.31559189530742793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.23638655876496029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18286450000625365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13944309096909246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11365219534445625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.6291770225417128E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.7196058035180712E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AK$2:$AK$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2722.5836246366666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43859.805339299994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125791.86203140001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240700.15517366666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384207.03470800002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550081.61634333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>729663.24277466664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>923395.66245333327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1123146.0568890001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1325751.0573406667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1534206.2600356666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1742907.02988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1945440.1324166667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2148422.9221899998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2344706.9102633335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2533717.0905633331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AQ$2:$AQ$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1.0847555143299736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65187030070274132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4663050017803767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.35793676363642857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27094612035282473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20887469804261061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16786683170051719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13465370863326354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11345849214686354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10010041669404979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.9122978407390807E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.379704998582671E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.4116996567273006E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.3057565743880346E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.323701551483409E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.6810945894206348E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>0.5PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AK$2:$AK$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2556.0498433166663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19947.490459600001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51321.077509900002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90638.674862666681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135775.63518106667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182157.4419312333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>230725.84384566665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279898.81311533332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328777.82239633333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375151.09649433335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>417071.63527299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AQ$2:$AQ$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.92434352155457233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.59815475352698999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.40110825976505105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.29905086934963232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22886711701219875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1807216286625184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14746945952397716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.12446302052617675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10663731850704128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.8306426218596199E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.9555822995210042E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AK$2:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2691.0299018966666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37703.912981300004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106787.34644183335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198464.7302633333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312549.49699266668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>441452.11121466663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579660.74060000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>725093.87252199987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>876017.18164433341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1028448.6459476665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1180226.3532186665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1330848.3509603334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1474401.9476263335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1613592.7783003331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1738391.8924673332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AQ$2:$AQ$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-1.0562220670498046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.63829438716569076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44991380847956175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.34624293348388746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2628987505077478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20456733607634736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16376198830805255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13465652468058642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11284757798230438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10143163209276063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.3923477877279726E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.8678819210161741E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.8437284218419121E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.1079591729153364E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.7868975529099345E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>4PP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AK$2:$AK$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2740.1550688233333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48151.410099266672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140023.73074589999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272538.02467499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>439740.92971766664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>633283.23345866671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>847290.0021876666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1079249.2642293333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1321238.2197256668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1571170.907324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1823574.0032919999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2080882.7730066665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2341769.3260366665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2595675.0318933334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2846613.1900200001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3093770.9270099998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3332502.3303733333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AQ$2:$AQ$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1.0995759540501888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66382382103749893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.47891719273122968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3654935415169227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27541389757369683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.21394633105404237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17055529153211646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13657785299767022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11350037110808553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.7663731690701416E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.9153432811833966E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.2507518707066962E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.688281361434246E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.7829370367991313E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.8348070535637859E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.1000224638744456E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.4421040578937179E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="390230944"/>
+        <c:axId val="390231504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="390230944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390231504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390231504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390230944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3894,11 +6082,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247011248"/>
-        <c:axId val="247011808"/>
+        <c:axId val="246102064"/>
+        <c:axId val="246102624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247011248"/>
+        <c:axId val="246102064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,12 +6143,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247011808"/>
+        <c:crossAx val="246102624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247011808"/>
+        <c:axId val="246102624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4017,7 +6205,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247011248"/>
+        <c:crossAx val="246102064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,7 +6456,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AS$2:$AS$13</c:f>
+              <c:f>Sheet1!$AU$2:$AU$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4436,7 +6624,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AS$2:$AS$12</c:f>
+              <c:f>[1]Sheet1!$AU$2:$AU$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4616,7 +6804,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AS$2:$AS$17</c:f>
+              <c:f>[2]Sheet1!$AU$2:$AU$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4796,7 +6984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$AS$2:$AS$12</c:f>
+              <c:f>[3]Sheet1!$AU$2:$AU$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4973,7 +7161,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]Sheet1!$AS$2:$AS$16</c:f>
+              <c:f>[4]Sheet1!$AU$2:$AU$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5168,7 +7356,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AS$2:$AS$18</c:f>
+              <c:f>[5]Sheet1!$AU$2:$AU$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5236,11 +7424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247469520"/>
-        <c:axId val="247470080"/>
+        <c:axId val="246464672"/>
+        <c:axId val="246465232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247469520"/>
+        <c:axId val="246464672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5298,12 +7486,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247470080"/>
+        <c:crossAx val="246465232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247470080"/>
+        <c:axId val="246465232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -5362,7 +7550,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247469520"/>
+        <c:crossAx val="246464672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5645,7 +7833,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AU$2:$AU$13</c:f>
+              <c:f>Sheet1!$AW$2:$AW$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5813,7 +8001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AU$2:$AU$12</c:f>
+              <c:f>[1]Sheet1!$AW$2:$AW$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5993,7 +8181,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AU$2:$AU$17</c:f>
+              <c:f>[2]Sheet1!$AW$2:$AW$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6173,7 +8361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$AU$2:$AU$12</c:f>
+              <c:f>[3]Sheet1!$AW$2:$AW$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6350,7 +8538,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]Sheet1!$AU$2:$AU$16</c:f>
+              <c:f>[4]Sheet1!$AW$2:$AW$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6545,7 +8733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AU$2:$AU$18</c:f>
+              <c:f>[5]Sheet1!$AW$2:$AW$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6613,11 +8801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247475120"/>
-        <c:axId val="247475680"/>
+        <c:axId val="246242816"/>
+        <c:axId val="246243376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247475120"/>
+        <c:axId val="246242816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6674,12 +8862,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247475680"/>
+        <c:crossAx val="246243376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247475680"/>
+        <c:axId val="246243376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -6737,7 +8925,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247475120"/>
+        <c:crossAx val="246242816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8008,11 +10196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247216736"/>
-        <c:axId val="247217296"/>
+        <c:axId val="246315184"/>
+        <c:axId val="246315744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247216736"/>
+        <c:axId val="246315184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -8070,12 +10258,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247217296"/>
+        <c:crossAx val="246315744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247217296"/>
+        <c:axId val="246315744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8134,7 +10322,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247216736"/>
+        <c:crossAx val="246315184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9047,11 +11235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247308144"/>
-        <c:axId val="247308704"/>
+        <c:axId val="246664896"/>
+        <c:axId val="246665456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247308144"/>
+        <c:axId val="246664896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9108,12 +11296,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247308704"/>
+        <c:crossAx val="246665456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247308704"/>
+        <c:axId val="246665456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9170,7 +11358,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247308144"/>
+        <c:crossAx val="246664896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10136,11 +12324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247313744"/>
-        <c:axId val="248063088"/>
+        <c:axId val="246712128"/>
+        <c:axId val="246712688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247313744"/>
+        <c:axId val="246712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10197,12 +12385,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248063088"/>
+        <c:crossAx val="246712688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248063088"/>
+        <c:axId val="246712688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.1000000000000001"/>
@@ -10260,7 +12448,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247313744"/>
+        <c:crossAx val="246712128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10549,7 +12737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$AV$2:$AV$12</c:f>
+              <c:f>[3]Sheet1!$AX$2:$AX$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -10714,7 +12902,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AV$2:$AV$12</c:f>
+              <c:f>[1]Sheet1!$AX$2:$AX$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -10882,7 +13070,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AV$2:$AV$13</c:f>
+              <c:f>Sheet1!$AX$2:$AX$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -11062,7 +13250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]Sheet1!$AV$2:$AV$16</c:f>
+              <c:f>[4]Sheet1!$AX$2:$AX$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11254,12 +13442,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AV$2:$AV$17</c:f>
+              <c:f>[2]Sheet1!$AX$2:$AX$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-1.1250553205695557</c:v>
+                  <c:v>7.7347556092954441</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61.931726521892458</c:v>
@@ -11447,7 +13635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AV$2:$AV$18</c:f>
+              <c:f>[5]Sheet1!$AX$2:$AX$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -11515,11 +13703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248068128"/>
-        <c:axId val="248068688"/>
+        <c:axId val="246854096"/>
+        <c:axId val="246975936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248068128"/>
+        <c:axId val="246854096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11576,12 +13764,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248068688"/>
+        <c:crossAx val="246975936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248068688"/>
+        <c:axId val="246975936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11638,7 +13826,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248068128"/>
+        <c:crossAx val="246854096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11864,42 +14052,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AP$3:$AP$13</c:f>
+              <c:f>Sheet1!$AR$3:$AR$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2873799820723497</c:v>
+                  <c:v>1.2752379238624807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3508682565092953</c:v>
+                  <c:v>1.3451930606654177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3710726704289367</c:v>
+                  <c:v>1.3839597110598529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3975043298953405</c:v>
+                  <c:v>1.4027928005972838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.412331312531679</c:v>
+                  <c:v>1.412244238624953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4178547208063292</c:v>
+                  <c:v>1.4170456005438337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.420428035919691</c:v>
+                  <c:v>1.4191330265060642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4222568698871758</c:v>
+                  <c:v>1.4190112686337439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.415398512864448</c:v>
+                  <c:v>1.4188552988465042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4079733778806431</c:v>
+                  <c:v>1.4180212675490842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3980944953263841</c:v>
+                  <c:v>1.4173436161462933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11972,39 +14160,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$AP$3:$AP$12</c:f>
+              <c:f>[1]Sheet1!$AR$3:$AR$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3625837364055839</c:v>
+                  <c:v>1.3918723722861615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4620074972829318</c:v>
+                  <c:v>1.4607850395800126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5118113914496207</c:v>
+                  <c:v>1.502249990271521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5347109124734899</c:v>
+                  <c:v>1.5220789884291808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5483504356166418</c:v>
+                  <c:v>1.5339994551803409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5605914814069928</c:v>
+                  <c:v>1.5392447513591121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.563375740302964</c:v>
+                  <c:v>1.5431350808447455</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5624116610317862</c:v>
+                  <c:v>1.5452230971805572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5567284342015653</c:v>
+                  <c:v>1.5466578892505494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5570272623984061</c:v>
+                  <c:v>1.5461569761614034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12038,53 +14226,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AI$3:$AI$17</c:f>
+              <c:f>[2]Sheet1!$AI$4:$AI$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-6.2048018398319645E-2</c:v>
+                  <c:v>-4.6859977566318184E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.6859977566318184E-2</c:v>
+                  <c:v>0.10618214039800114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10618214039800114</c:v>
+                  <c:v>-2.1924240778651686E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1924240778651686E-2</c:v>
+                  <c:v>0.16993265795957338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16993265795957338</c:v>
+                  <c:v>-4.0853242139867352E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.0853242139867352E-2</c:v>
+                  <c:v>0.19991441602661708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19991441602661708</c:v>
+                  <c:v>0.10886873797094514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10886873797094514</c:v>
+                  <c:v>0.12821332560205365</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12821332560205365</c:v>
+                  <c:v>0.21974677545261531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21974677545261531</c:v>
+                  <c:v>0.16744754833402556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16744754833402556</c:v>
+                  <c:v>0.15585393274086612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15585393274086612</c:v>
+                  <c:v>0.14422389569489544</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14422389569489544</c:v>
+                  <c:v>0.2084072696498479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2084072696498479</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0.20945477774799928</c:v>
                 </c:pt>
               </c:numCache>
@@ -12092,54 +14277,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$AP$3:$AP$17</c:f>
+              <c:f>[2]Sheet1!$AR$4:$AR$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.1913183299181493</c:v>
+                  <c:v>1.2674374098477243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2416889411726091</c:v>
+                  <c:v>1.3042096531654834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2717737365754307</c:v>
+                  <c:v>1.3183581430222466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3045855343355153</c:v>
+                  <c:v>1.3279356232650532</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.326301837188895</c:v>
+                  <c:v>1.3303684809938174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3362703631270985</c:v>
+                  <c:v>1.3325151605340986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3440925715499821</c:v>
+                  <c:v>1.3323063744073291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.344498339943635</c:v>
+                  <c:v>1.3314244469471184</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3404789959502508</c:v>
+                  <c:v>1.3301795875108662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3363264367099101</c:v>
+                  <c:v>1.3284454741104303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3285683804083501</c:v>
+                  <c:v>1.3267376202319348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3170671445191622</c:v>
+                  <c:v>1.3248041835398001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3081084034470469</c:v>
+                  <c:v>1.3231538634581774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2991632296306435</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2878623402009355</c:v>
+                  <c:v>1.321653945538507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12212,39 +14394,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$AP$3:$AP$12</c:f>
+              <c:f>[3]Sheet1!$AR$3:$AR$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3530789263599041</c:v>
+                  <c:v>1.3364994765752083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.421262848003912</c:v>
+                  <c:v>1.4094839683000642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4498992998035272</c:v>
+                  <c:v>1.4441391477414154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4697214087143282</c:v>
+                  <c:v>1.4645556971216849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4821583066755686</c:v>
+                  <c:v>1.4742663948737307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4872353745860825</c:v>
+                  <c:v>1.4797233670772458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4875666419633369</c:v>
+                  <c:v>1.4814483811730523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4867419177904724</c:v>
+                  <c:v>1.4821678556984998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4799446551527975</c:v>
+                  <c:v>1.4824084988052613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4666541135268127</c:v>
+                  <c:v>1.4826608118626396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12329,51 +14511,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]Sheet1!$AP$3:$AP$16</c:f>
+              <c:f>[4]Sheet1!$AR$3:$AR$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.2251587129845241</c:v>
+                  <c:v>1.2248812582812547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2784263623088694</c:v>
+                  <c:v>1.2957423290308558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3063606872439839</c:v>
+                  <c:v>1.3353410948911584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3363225871334541</c:v>
+                  <c:v>1.3486350720753781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3552226259816862</c:v>
+                  <c:v>1.3581910462283144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3656121190916477</c:v>
+                  <c:v>1.3613944161372902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3701639862593882</c:v>
+                  <c:v>1.3634450721850284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3715407903224339</c:v>
+                  <c:v>1.3631517740369967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3658395995058552</c:v>
+                  <c:v>1.3621170997440533</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3588172543414407</c:v>
+                  <c:v>1.3608779354942386</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3515009622558487</c:v>
+                  <c:v>1.3594109987045153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3411157643469349</c:v>
+                  <c:v>1.3581323811731396</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3291799095516921</c:v>
+                  <c:v>1.3566779581793642</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3147613573283785</c:v>
+                  <c:v>1.3561308502824347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12407,56 +14589,53 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AI$3:$AI$18</c:f>
+              <c:f>[5]Sheet1!$AI$4:$AI$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-4.9130065598773136E-2</c:v>
+                  <c:v>-0.1078086035595493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1078086035595493</c:v>
+                  <c:v>0.11519071294757506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11519071294757506</c:v>
+                  <c:v>-9.9516155032836312E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.9516155032836312E-2</c:v>
+                  <c:v>0.12096597033193311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12096597033193311</c:v>
+                  <c:v>-2.6741625870882232E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6741625870882232E-2</c:v>
+                  <c:v>0.11896201453232283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11896201453232283</c:v>
+                  <c:v>4.0733161947652412E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0733161947652412E-2</c:v>
+                  <c:v>6.9818142605431524E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9818142605431524E-2</c:v>
+                  <c:v>0.15093514975031641</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15093514975031641</c:v>
+                  <c:v>9.1284176167296296E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1284176167296296E-2</c:v>
+                  <c:v>0.10502693692479052</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10502693692479052</c:v>
+                  <c:v>0.11146740295940191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11146740295940191</c:v>
+                  <c:v>9.8066489313421074E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.8066489313421074E-2</c:v>
+                  <c:v>0.16673310846158473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16673310846158473</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.12434768712026428</c:v>
                 </c:pt>
               </c:numCache>
@@ -12464,57 +14643,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[5]Sheet1!$AP$3:$AP$18</c:f>
+              <c:f>[5]Sheet1!$AR$4:$AR$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.1669663571940914</c:v>
+                  <c:v>1.2499567696550691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2158920601044989</c:v>
+                  <c:v>1.2866680625801192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2496451673124684</c:v>
+                  <c:v>1.2995821175854314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2848141117287988</c:v>
+                  <c:v>1.3088617618063878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3056760128104163</c:v>
+                  <c:v>1.3116104255648411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.317415772564805</c:v>
+                  <c:v>1.3131621703968959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3255875442941221</c:v>
+                  <c:v>1.3125161714701861</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3274342284661271</c:v>
+                  <c:v>1.3113228324652066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3253341427608241</c:v>
+                  <c:v>1.3101012843440658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3185995104564832</c:v>
+                  <c:v>1.3080775400048008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3118749143353376</c:v>
+                  <c:v>1.3058916771368241</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3056427357641143</c:v>
+                  <c:v>1.3039318769176413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2944448577155609</c:v>
+                  <c:v>1.3019027547873547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2848007050702608</c:v>
+                  <c:v>1.3000945244579549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.273967379325063</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2632841496072935</c:v>
+                  <c:v>1.298313202836358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12529,11 +14705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247828288"/>
-        <c:axId val="247828848"/>
+        <c:axId val="247102944"/>
+        <c:axId val="247103504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247828288"/>
+        <c:axId val="247102944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12590,12 +14766,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247828848"/>
+        <c:crossAx val="247103504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247828848"/>
+        <c:axId val="247103504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -12653,7 +14829,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247828288"/>
+        <c:crossAx val="247102944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12743,6 +14919,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14134,7 +16390,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14650,7 +16906,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15166,7 +17422,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15682,7 +17938,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16198,7 +18454,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16714,7 +18970,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17230,7 +19486,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17746,7 +20002,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18262,17 +20518,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>718456</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>112699</xdr:rowOff>
@@ -18298,13 +21586,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>718456</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>112699</xdr:rowOff>
@@ -18368,7 +21656,7 @@
       <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>832088</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>126552</xdr:rowOff>
@@ -18394,13 +21682,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>740230</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
@@ -18426,13 +21714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>744070</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>112699</xdr:rowOff>
@@ -18458,13 +21746,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>744070</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>112699</xdr:rowOff>
@@ -18496,7 +21784,7 @@
       <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>838506</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>126553</xdr:rowOff>
@@ -18522,13 +21810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>718456</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>112700</xdr:rowOff>
@@ -18554,13 +21842,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>744070</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>112699</xdr:rowOff>
@@ -18584,6 +21872,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>744070</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>112700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>744070</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>112699</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18623,19 +21975,19 @@
           <cell r="AK2">
             <v>2515.4747919599999</v>
           </cell>
-          <cell r="AL2">
-            <v>3475.8422263949997</v>
-          </cell>
           <cell r="AP2">
             <v>1.3817837640450785</v>
           </cell>
-          <cell r="AS2">
-            <v>0</v>
+          <cell r="AQ2">
+            <v>-0.88456311129873444</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
           </cell>
-          <cell r="AV2">
+          <cell r="AW2">
+            <v>0</v>
+          </cell>
+          <cell r="AX2">
             <v>7.0549048057573849</v>
           </cell>
         </row>
@@ -18670,19 +22022,22 @@
           <cell r="AK3">
             <v>7369.2502595533333</v>
           </cell>
-          <cell r="AL3">
-            <v>10041.22055317</v>
-          </cell>
           <cell r="AP3">
             <v>1.3625837364055839</v>
           </cell>
-          <cell r="AS3">
+          <cell r="AQ3">
+            <v>-0.73431037601183302</v>
+          </cell>
+          <cell r="AR3">
+            <v>1.3918723722861615</v>
+          </cell>
+          <cell r="AU3">
             <v>-6.1005518163690367E-3</v>
           </cell>
-          <cell r="AU3">
+          <cell r="AW3">
             <v>0.14936647101621081</v>
           </cell>
-          <cell r="AV3">
+          <cell r="AX3">
             <v>11.544925646599328</v>
           </cell>
         </row>
@@ -18717,19 +22072,22 @@
           <cell r="AK4">
             <v>25328.292626999999</v>
           </cell>
-          <cell r="AL4">
-            <v>37030.15371405</v>
-          </cell>
           <cell r="AP4">
             <v>1.4620074972829318</v>
           </cell>
-          <cell r="AS4">
+          <cell r="AQ4">
+            <v>-0.45582422382012289</v>
+          </cell>
+          <cell r="AR4">
+            <v>1.4607850395800126</v>
+          </cell>
+          <cell r="AU4">
             <v>-7.1445529944936123E-2</v>
           </cell>
-          <cell r="AU4">
+          <cell r="AW4">
             <v>0.75508841986944175</v>
           </cell>
-          <cell r="AV4">
+          <cell r="AX4">
             <v>42.093808622920491</v>
           </cell>
         </row>
@@ -18764,19 +22122,22 @@
           <cell r="AK5">
             <v>49400.543063766672</v>
           </cell>
-          <cell r="AL5">
-            <v>74684.303747600003</v>
-          </cell>
           <cell r="AP5">
             <v>1.5118113914496207</v>
           </cell>
-          <cell r="AS5">
+          <cell r="AQ5">
+            <v>-0.31559189530742793</v>
+          </cell>
+          <cell r="AR5">
+            <v>1.502249990271521</v>
+          </cell>
+          <cell r="AU5">
             <v>-0.31112968799835761</v>
           </cell>
-          <cell r="AU5">
+          <cell r="AW5">
             <v>1.601082821865818</v>
           </cell>
-          <cell r="AV5">
+          <cell r="AX5">
             <v>85.079679730579613</v>
           </cell>
         </row>
@@ -18811,19 +22172,22 @@
           <cell r="AK6">
             <v>76159.720779999989</v>
           </cell>
-          <cell r="AL6">
-            <v>116883.154572</v>
-          </cell>
           <cell r="AP6">
             <v>1.5347109124734899</v>
           </cell>
-          <cell r="AS6">
+          <cell r="AQ6">
+            <v>-0.23638655876496029</v>
+          </cell>
+          <cell r="AR6">
+            <v>1.5220789884291808</v>
+          </cell>
+          <cell r="AU6">
             <v>-0.54794326862706155</v>
           </cell>
-          <cell r="AU6">
+          <cell r="AW6">
             <v>2.5591341305949502</v>
           </cell>
-          <cell r="AV6">
+          <cell r="AX6">
             <v>133.27363886553618</v>
           </cell>
         </row>
@@ -18858,19 +22222,22 @@
           <cell r="AK7">
             <v>104360.67064436666</v>
           </cell>
-          <cell r="AL7">
-            <v>161586.88985345</v>
-          </cell>
           <cell r="AP7">
             <v>1.5483504356166418</v>
           </cell>
-          <cell r="AS7">
+          <cell r="AQ7">
+            <v>-0.18286450000625365</v>
+          </cell>
+          <cell r="AR7">
+            <v>1.5339994551803409</v>
+          </cell>
+          <cell r="AU7">
             <v>-0.92546506709424115</v>
           </cell>
-          <cell r="AU7">
+          <cell r="AW7">
             <v>3.5830978512699811</v>
           </cell>
-          <cell r="AV7">
+          <cell r="AX7">
             <v>184.69861856820185</v>
           </cell>
         </row>
@@ -18905,19 +22272,22 @@
           <cell r="AK8">
             <v>134186.94364290001</v>
           </cell>
-          <cell r="AL8">
-            <v>209411.00116514997</v>
-          </cell>
           <cell r="AP8">
             <v>1.5605914814069928</v>
           </cell>
-          <cell r="AS8">
+          <cell r="AQ8">
+            <v>-0.13944309096909246</v>
+          </cell>
+          <cell r="AR8">
+            <v>1.5392447513591121</v>
+          </cell>
+          <cell r="AU8">
             <v>-1.3514666102044535</v>
           </cell>
-          <cell r="AU8">
+          <cell r="AW8">
             <v>4.6777246656395617</v>
           </cell>
-          <cell r="AV8">
+          <cell r="AX8">
             <v>238.74042309813143</v>
           </cell>
         </row>
@@ -18952,19 +22322,22 @@
           <cell r="AK9">
             <v>162015.33762943334</v>
           </cell>
-          <cell r="AL9">
-            <v>253290.84840685001</v>
-          </cell>
           <cell r="AP9">
             <v>1.563375740302964</v>
           </cell>
-          <cell r="AS9">
+          <cell r="AQ9">
+            <v>-0.11365219534445625</v>
+          </cell>
+          <cell r="AR9">
+            <v>1.5431350808447455</v>
+          </cell>
+          <cell r="AU9">
             <v>-1.7884347430637086</v>
           </cell>
-          <cell r="AU9">
+          <cell r="AW9">
             <v>5.7035407810337038</v>
           </cell>
-          <cell r="AV9">
+          <cell r="AX9">
             <v>288.26842852417082</v>
           </cell>
         </row>
@@ -18999,19 +22372,22 @@
           <cell r="AK10">
             <v>188604.79414103334</v>
           </cell>
-          <cell r="AL10">
-            <v>294678.32969245</v>
-          </cell>
           <cell r="AP10">
             <v>1.5624116610317862</v>
           </cell>
-          <cell r="AS10">
+          <cell r="AQ10">
+            <v>-9.6291770225417128E-2</v>
+          </cell>
+          <cell r="AR10">
+            <v>1.5452230971805572</v>
+          </cell>
+          <cell r="AU10">
             <v>-2.2108940658183154</v>
           </cell>
-          <cell r="AU10">
+          <cell r="AW10">
             <v>6.6833049568661949</v>
           </cell>
-          <cell r="AV10">
+          <cell r="AX10">
             <v>335.24516626817837</v>
           </cell>
         </row>
@@ -19046,19 +22422,22 @@
           <cell r="AK11">
             <v>213458.34164</v>
           </cell>
-          <cell r="AL11">
-            <v>332296.6699485</v>
-          </cell>
           <cell r="AP11">
             <v>1.5567284342015653</v>
           </cell>
-          <cell r="AS11">
+          <cell r="AQ11">
+            <v>-8.7196058035180712E-2</v>
+          </cell>
+          <cell r="AR11">
+            <v>1.5466578892505494</v>
+          </cell>
+          <cell r="AU11">
             <v>-2.6062169518367519</v>
           </cell>
-          <cell r="AU11">
+          <cell r="AW11">
             <v>7.5952180891759831</v>
           </cell>
-          <cell r="AV11">
+          <cell r="AX11">
             <v>378.71117269034664</v>
           </cell>
         </row>
@@ -19075,9 +22454,6 @@
           <cell r="M12">
             <v>0.52421283679200004</v>
           </cell>
-          <cell r="P12">
-            <v>9.6531216588909992</v>
-          </cell>
           <cell r="W12">
             <v>413.64107056900002</v>
           </cell>
@@ -19093,19 +22469,22 @@
           <cell r="AK12">
             <v>239369.36507900001</v>
           </cell>
-          <cell r="AL12">
-            <v>372704.62721100001</v>
-          </cell>
           <cell r="AP12">
             <v>1.5570272623984061</v>
           </cell>
-          <cell r="AS12">
+          <cell r="AQ12">
+            <v>-7.3336627598270976E-2</v>
+          </cell>
+          <cell r="AR12">
+            <v>1.5461569761614034</v>
+          </cell>
+          <cell r="AU12">
             <v>-3.0487851992120012</v>
           </cell>
-          <cell r="AU12">
+          <cell r="AW12">
             <v>8.5484186630011685</v>
           </cell>
-          <cell r="AV12">
+          <cell r="AX12">
             <v>425.01970569761494</v>
           </cell>
         </row>
@@ -19224,20 +22603,20 @@
           <cell r="AK2">
             <v>2722.5836246366666</v>
           </cell>
-          <cell r="AL2">
-            <v>3181.7856324049999</v>
-          </cell>
           <cell r="AP2">
             <v>1.1686640599807525</v>
           </cell>
-          <cell r="AS2">
-            <v>0</v>
+          <cell r="AQ2">
+            <v>-1.0847555143299736</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
           </cell>
-          <cell r="AV2">
-            <v>-1.1250553205695557</v>
+          <cell r="AW2">
+            <v>0</v>
+          </cell>
+          <cell r="AX2">
+            <v>7.7347556092954441</v>
           </cell>
         </row>
         <row r="3">
@@ -19271,19 +22650,22 @@
           <cell r="AK3">
             <v>43859.805339299994</v>
           </cell>
-          <cell r="AL3">
-            <v>52250.990047350002</v>
-          </cell>
           <cell r="AP3">
             <v>1.1913183299181493</v>
           </cell>
-          <cell r="AS3">
+          <cell r="AQ3">
+            <v>-0.65187030070274132</v>
+          </cell>
+          <cell r="AR3">
+            <v>1.2057450818099618</v>
+          </cell>
+          <cell r="AU3">
             <v>5.694659081840186E-3</v>
           </cell>
-          <cell r="AU3">
+          <cell r="AW3">
             <v>9.1778258659013137E-2</v>
           </cell>
-          <cell r="AV3">
+          <cell r="AX3">
             <v>61.931726521892458</v>
           </cell>
         </row>
@@ -19318,19 +22700,22 @@
           <cell r="AK4">
             <v>125791.86203140001</v>
           </cell>
-          <cell r="AL4">
-            <v>156194.36397390001</v>
-          </cell>
           <cell r="AP4">
             <v>1.2416889411726091</v>
           </cell>
-          <cell r="AS4">
+          <cell r="AQ4">
+            <v>-0.4663050017803767</v>
+          </cell>
+          <cell r="AR4">
+            <v>1.2674374098477243</v>
+          </cell>
+          <cell r="AU4">
             <v>1.4796567568510874E-2</v>
           </cell>
-          <cell r="AU4">
+          <cell r="AW4">
             <v>0.28601455494808642</v>
           </cell>
-          <cell r="AV4">
+          <cell r="AX4">
             <v>184.80683914850931</v>
           </cell>
         </row>
@@ -19365,19 +22750,22 @@
           <cell r="AK5">
             <v>240700.15517366666</v>
           </cell>
-          <cell r="AL5">
-            <v>306116.13573950005</v>
-          </cell>
           <cell r="AP5">
             <v>1.2717737365754307</v>
           </cell>
-          <cell r="AS5">
+          <cell r="AQ5">
+            <v>-0.35793676363642857</v>
+          </cell>
+          <cell r="AR5">
+            <v>1.3042096531654834</v>
+          </cell>
+          <cell r="AU5">
             <v>-1.5010086068090882E-2</v>
           </cell>
-          <cell r="AU5">
+          <cell r="AW5">
             <v>0.56672705071128959</v>
           </cell>
-          <cell r="AV5">
+          <cell r="AX5">
             <v>363.10386387041603</v>
           </cell>
         </row>
@@ -19412,19 +22800,22 @@
           <cell r="AK6">
             <v>384207.03470800002</v>
           </cell>
-          <cell r="AL6">
-            <v>501230.93967000005</v>
-          </cell>
           <cell r="AP6">
             <v>1.3045855343355153</v>
           </cell>
-          <cell r="AS6">
+          <cell r="AQ6">
+            <v>-0.27094612035282473</v>
+          </cell>
+          <cell r="AR6">
+            <v>1.3183581430222466</v>
+          </cell>
+          <cell r="AU6">
             <v>-7.0113168893510859E-3</v>
           </cell>
-          <cell r="AU6">
+          <cell r="AW6">
             <v>0.93156382018010842</v>
           </cell>
-          <cell r="AV6">
+          <cell r="AX6">
             <v>594.72293735444919</v>
           </cell>
         </row>
@@ -19459,19 +22850,22 @@
           <cell r="AK7">
             <v>550081.61634333339</v>
           </cell>
-          <cell r="AL7">
-            <v>729574.25835999998</v>
-          </cell>
           <cell r="AP7">
             <v>1.326301837188895</v>
           </cell>
-          <cell r="AS7">
+          <cell r="AQ7">
+            <v>-0.20887469804261061</v>
+          </cell>
+          <cell r="AR7">
+            <v>1.3279356232650532</v>
+          </cell>
+          <cell r="AU7">
             <v>-7.9973949383817092E-2</v>
           </cell>
-          <cell r="AU7">
+          <cell r="AW7">
             <v>1.3609258590639097</v>
           </cell>
-          <cell r="AV7">
+          <cell r="AX7">
             <v>866.81967125087601</v>
           </cell>
         </row>
@@ -19506,19 +22900,22 @@
           <cell r="AK8">
             <v>729663.24277466664</v>
           </cell>
-          <cell r="AL8">
-            <v>975027.36638299993</v>
-          </cell>
           <cell r="AP8">
             <v>1.3362703631270985</v>
           </cell>
-          <cell r="AS8">
+          <cell r="AQ8">
+            <v>-0.16786683170051719</v>
+          </cell>
+          <cell r="AR8">
+            <v>1.3303684809938174</v>
+          </cell>
+          <cell r="AU8">
             <v>-6.0647511816070934E-2</v>
           </cell>
-          <cell r="AU8">
+          <cell r="AW8">
             <v>1.8339957197515657</v>
           </cell>
-          <cell r="AV8">
+          <cell r="AX8">
             <v>1159.9771004039569</v>
           </cell>
         </row>
@@ -19553,19 +22950,22 @@
           <cell r="AK9">
             <v>923395.66245333327</v>
           </cell>
-          <cell r="AL9">
-            <v>1241129.2505049999</v>
-          </cell>
           <cell r="AP9">
             <v>1.3440925715499821</v>
           </cell>
-          <cell r="AS9">
+          <cell r="AQ9">
+            <v>-0.13465370863326354</v>
+          </cell>
+          <cell r="AR9">
+            <v>1.3325151605340986</v>
+          </cell>
+          <cell r="AU9">
             <v>-0.16275419902844374</v>
           </cell>
-          <cell r="AU9">
+          <cell r="AW9">
             <v>2.3447477167400077</v>
           </cell>
-          <cell r="AV9">
+          <cell r="AX9">
             <v>1476.9150446862989</v>
           </cell>
         </row>
@@ -19600,19 +23000,22 @@
           <cell r="AK10">
             <v>1123146.0568890001</v>
           </cell>
-          <cell r="AL10">
-            <v>1510068.0090015002</v>
-          </cell>
           <cell r="AP10">
             <v>1.344498339943635</v>
           </cell>
-          <cell r="AS10">
+          <cell r="AQ10">
+            <v>-0.11345849214686354</v>
+          </cell>
+          <cell r="AR10">
+            <v>1.3323063744073291</v>
+          </cell>
+          <cell r="AU10">
             <v>-0.22009704376686279</v>
           </cell>
-          <cell r="AU10">
+          <cell r="AW10">
             <v>2.8714631522925238</v>
           </cell>
-          <cell r="AV10">
+          <cell r="AX10">
             <v>1798.7786048701641</v>
           </cell>
         </row>
@@ -19647,19 +23050,22 @@
           <cell r="AK11">
             <v>1325751.0573406667</v>
           </cell>
-          <cell r="AL11">
-            <v>1777141.4462240003</v>
-          </cell>
           <cell r="AP11">
             <v>1.3404789959502508</v>
           </cell>
-          <cell r="AS11">
+          <cell r="AQ11">
+            <v>-0.10010041669404979</v>
+          </cell>
+          <cell r="AR11">
+            <v>1.3314244469471184</v>
+          </cell>
+          <cell r="AU11">
             <v>-0.28829998608606716</v>
           </cell>
-          <cell r="AU11">
+          <cell r="AW11">
             <v>3.4034120897289606</v>
           </cell>
-          <cell r="AV11">
+          <cell r="AX11">
             <v>2119.4620586188844</v>
           </cell>
         </row>
@@ -19694,19 +23100,22 @@
           <cell r="AK12">
             <v>1534206.2600356666</v>
           </cell>
-          <cell r="AL12">
-            <v>2050200.3846515003</v>
-          </cell>
           <cell r="AP12">
             <v>1.3363264367099101</v>
           </cell>
-          <cell r="AS12">
+          <cell r="AQ12">
+            <v>-8.9122978407390807E-2</v>
+          </cell>
+          <cell r="AR12">
+            <v>1.3301795875108662</v>
+          </cell>
+          <cell r="AU12">
             <v>-0.40820397190881264</v>
           </cell>
-          <cell r="AU12">
+          <cell r="AW12">
             <v>3.9490582571222146</v>
           </cell>
-          <cell r="AV12">
+          <cell r="AX12">
             <v>2450.0695611309498</v>
           </cell>
         </row>
@@ -19741,19 +23150,22 @@
           <cell r="AK13">
             <v>1742907.02988</v>
           </cell>
-          <cell r="AL13">
-            <v>2315571.1698899996</v>
-          </cell>
           <cell r="AP13">
             <v>1.3285683804083501</v>
           </cell>
-          <cell r="AS13">
+          <cell r="AQ13">
+            <v>-8.379704998582671E-2</v>
+          </cell>
+          <cell r="AR13">
+            <v>1.3284454741104303</v>
+          </cell>
+          <cell r="AU13">
             <v>-0.49886694071690568</v>
           </cell>
-          <cell r="AU13">
+          <cell r="AW13">
             <v>4.4904992618435129</v>
           </cell>
-          <cell r="AV13">
+          <cell r="AX13">
             <v>2773.2292757628188</v>
           </cell>
         </row>
@@ -19788,19 +23200,22 @@
           <cell r="AK14">
             <v>1945440.1324166667</v>
           </cell>
-          <cell r="AL14">
-            <v>2562275.2800349998</v>
-          </cell>
           <cell r="AP14">
             <v>1.3170671445191622</v>
           </cell>
-          <cell r="AS14">
+          <cell r="AQ14">
+            <v>-8.4116996567273006E-2</v>
+          </cell>
+          <cell r="AR14">
+            <v>1.3267376202319348</v>
+          </cell>
+          <cell r="AU14">
             <v>-0.57979351606818563</v>
           </cell>
-          <cell r="AU14">
+          <cell r="AW14">
             <v>5.0097455453866697</v>
           </cell>
-          <cell r="AV14">
+          <cell r="AX14">
             <v>3078.7193865813874</v>
           </cell>
         </row>
@@ -19835,19 +23250,22 @@
           <cell r="AK15">
             <v>2148422.9221899998</v>
           </cell>
-          <cell r="AL15">
-            <v>2810370.078675</v>
-          </cell>
           <cell r="AP15">
             <v>1.3081084034470469</v>
           </cell>
-          <cell r="AS15">
+          <cell r="AQ15">
+            <v>-8.3057565743880346E-2</v>
+          </cell>
+          <cell r="AR15">
+            <v>1.3248041835398001</v>
+          </cell>
+          <cell r="AU15">
             <v>-0.65414788291451198</v>
           </cell>
-          <cell r="AU15">
+          <cell r="AW15">
             <v>5.5252937247509442</v>
           </cell>
-          <cell r="AV15">
+          <cell r="AX15">
             <v>3385.3134271444919</v>
           </cell>
         </row>
@@ -19882,19 +23300,22 @@
           <cell r="AK16">
             <v>2344706.9102633335</v>
           </cell>
-          <cell r="AL16">
-            <v>3046157.0020749997</v>
-          </cell>
           <cell r="AP16">
             <v>1.2991632296306435</v>
           </cell>
-          <cell r="AS16">
+          <cell r="AQ16">
+            <v>-8.323701551483409E-2</v>
+          </cell>
+          <cell r="AR16">
+            <v>1.3231538634581774</v>
+          </cell>
+          <cell r="AU16">
             <v>-0.75723563782790015</v>
           </cell>
-          <cell r="AU16">
+          <cell r="AW16">
             <v>6.0199394013945149</v>
           </cell>
-          <cell r="AV16">
+          <cell r="AX16">
             <v>3678.2700597738526</v>
           </cell>
         </row>
@@ -19929,19 +23350,22 @@
           <cell r="AK17">
             <v>2533717.0905633331</v>
           </cell>
-          <cell r="AL17">
-            <v>3263078.8216599999</v>
-          </cell>
           <cell r="AP17">
             <v>1.2878623402009355</v>
           </cell>
-          <cell r="AS17">
+          <cell r="AQ17">
+            <v>-8.6810945894206348E-2</v>
+          </cell>
+          <cell r="AR17">
+            <v>1.321653945538507</v>
+          </cell>
+          <cell r="AU17">
             <v>-0.85584274751259815</v>
           </cell>
-          <cell r="AU17">
+          <cell r="AW17">
             <v>6.4907193508656835</v>
           </cell>
-          <cell r="AV17">
+          <cell r="AX17">
             <v>3951.3515544303914</v>
           </cell>
         </row>
@@ -20020,19 +23444,19 @@
           <cell r="AK2">
             <v>2556.0498433166663</v>
           </cell>
-          <cell r="AL2">
-            <v>3423.5295013549999</v>
-          </cell>
           <cell r="AP2">
             <v>1.3393829194319284</v>
           </cell>
-          <cell r="AS2">
-            <v>0</v>
+          <cell r="AQ2">
+            <v>-0.92434352155457233</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
           </cell>
-          <cell r="AV2">
+          <cell r="AW2">
+            <v>0</v>
+          </cell>
+          <cell r="AX2">
             <v>-0.95579557395708714</v>
           </cell>
         </row>
@@ -20067,19 +23491,22 @@
           <cell r="AK3">
             <v>19947.490459600001</v>
           </cell>
-          <cell r="AL3">
-            <v>26990.528974650002</v>
-          </cell>
           <cell r="AP3">
             <v>1.3530789263599041</v>
           </cell>
-          <cell r="AS3">
+          <cell r="AQ3">
+            <v>-0.59815475352698999</v>
+          </cell>
+          <cell r="AR3">
+            <v>1.3364994765752083</v>
+          </cell>
+          <cell r="AU3">
             <v>1.8915143640328775E-2</v>
           </cell>
-          <cell r="AU3">
+          <cell r="AW3">
             <v>0.36803718647389322</v>
           </cell>
-          <cell r="AV3">
+          <cell r="AX3">
             <v>31.048885324486896</v>
           </cell>
         </row>
@@ -20114,19 +23541,22 @@
           <cell r="AK4">
             <v>51321.077509900002</v>
           </cell>
-          <cell r="AL4">
-            <v>72940.740784349997</v>
-          </cell>
           <cell r="AP4">
             <v>1.421262848003912</v>
           </cell>
-          <cell r="AS4">
+          <cell r="AQ4">
+            <v>-0.40110825976505105</v>
+          </cell>
+          <cell r="AR4">
+            <v>1.4094839683000642</v>
+          </cell>
+          <cell r="AU4">
             <v>-9.6388758778085157E-2</v>
           </cell>
-          <cell r="AU4">
+          <cell r="AW4">
             <v>1.0700516495750796</v>
           </cell>
-          <cell r="AV4">
+          <cell r="AX4">
             <v>83.878038367314915</v>
           </cell>
         </row>
@@ -20161,19 +23591,22 @@
           <cell r="AK5">
             <v>90638.674862666681</v>
           </cell>
-          <cell r="AL5">
-            <v>131416.95121849998</v>
-          </cell>
           <cell r="AP5">
             <v>1.4498992998035272</v>
           </cell>
-          <cell r="AS5">
+          <cell r="AQ5">
+            <v>-0.29905086934963232</v>
+          </cell>
+          <cell r="AR5">
+            <v>1.4441391477414154</v>
+          </cell>
+          <cell r="AU5">
             <v>-0.24563068545062899</v>
           </cell>
-          <cell r="AU5">
+          <cell r="AW5">
             <v>1.9731369694313123</v>
           </cell>
-          <cell r="AV5">
+          <cell r="AX5">
             <v>151.60234099951631</v>
           </cell>
         </row>
@@ -20208,19 +23641,22 @@
           <cell r="AK6">
             <v>135775.63518106667</v>
           </cell>
-          <cell r="AL6">
-            <v>199552.3578074</v>
-          </cell>
           <cell r="AP6">
             <v>1.4697214087143282</v>
           </cell>
-          <cell r="AS6">
+          <cell r="AQ6">
+            <v>-0.22886711701219875</v>
+          </cell>
+          <cell r="AR6">
+            <v>1.4645556971216849</v>
+          </cell>
+          <cell r="AU6">
             <v>-0.63512340848305815</v>
           </cell>
-          <cell r="AU6">
+          <cell r="AW6">
             <v>3.0328583195306074</v>
           </cell>
-          <cell r="AV6">
+          <cell r="AX6">
             <v>230.65721129774403</v>
           </cell>
         </row>
@@ -20255,19 +23691,22 @@
           <cell r="AK7">
             <v>182157.4419312333</v>
           </cell>
-          <cell r="AL7">
-            <v>269986.16568114999</v>
-          </cell>
           <cell r="AP7">
             <v>1.4821583066755686</v>
           </cell>
-          <cell r="AS7">
+          <cell r="AQ7">
+            <v>-0.1807216286625184</v>
+          </cell>
+          <cell r="AR7">
+            <v>1.4742663948737307</v>
+          </cell>
+          <cell r="AU7">
             <v>-0.93390353573788154</v>
           </cell>
-          <cell r="AU7">
+          <cell r="AW7">
             <v>4.1290896444850809</v>
           </cell>
-          <cell r="AV7">
+          <cell r="AX7">
             <v>312.06306622211565</v>
           </cell>
         </row>
@@ -20302,19 +23741,22 @@
           <cell r="AK8">
             <v>230725.84384566665</v>
           </cell>
-          <cell r="AL8">
-            <v>343143.63679850003</v>
-          </cell>
           <cell r="AP8">
             <v>1.4872353745860825</v>
           </cell>
-          <cell r="AS8">
+          <cell r="AQ8">
+            <v>-0.14746945952397716</v>
+          </cell>
+          <cell r="AR8">
+            <v>1.4797233670772458</v>
+          </cell>
+          <cell r="AU8">
             <v>-1.3806428701782949</v>
           </cell>
-          <cell r="AU8">
+          <cell r="AW8">
             <v>5.2875790432773258</v>
           </cell>
-          <cell r="AV8">
+          <cell r="AX8">
             <v>396.30829648304172</v>
           </cell>
         </row>
@@ -20349,19 +23791,22 @@
           <cell r="AK9">
             <v>279898.81311533332</v>
           </cell>
-          <cell r="AL9">
-            <v>416368.13751550001</v>
-          </cell>
           <cell r="AP9">
             <v>1.4875666419633369</v>
           </cell>
-          <cell r="AS9">
+          <cell r="AQ9">
+            <v>-0.12446302052617675</v>
+          </cell>
+          <cell r="AR9">
+            <v>1.4814483811730523</v>
+          </cell>
+          <cell r="AU9">
             <v>-1.7445419345853115</v>
           </cell>
-          <cell r="AU9">
+          <cell r="AW9">
             <v>6.456430922075576</v>
           </cell>
-          <cell r="AV9">
+          <cell r="AX9">
             <v>480.40795615833036</v>
           </cell>
         </row>
@@ -20396,19 +23841,22 @@
           <cell r="AK10">
             <v>328777.82239633333</v>
           </cell>
-          <cell r="AL10">
-            <v>488807.77019649994</v>
-          </cell>
           <cell r="AP10">
             <v>1.4867419177904724</v>
           </cell>
-          <cell r="AS10">
+          <cell r="AQ10">
+            <v>-0.10663731850704128</v>
+          </cell>
+          <cell r="AR10">
+            <v>1.4821678556984998</v>
+          </cell>
+          <cell r="AU10">
             <v>-2.2125927703757657</v>
           </cell>
-          <cell r="AU10">
+          <cell r="AW10">
             <v>7.6230823187085202</v>
           </cell>
-          <cell r="AV10">
+          <cell r="AX10">
             <v>564.33125013541826</v>
           </cell>
         </row>
@@ -20443,19 +23891,22 @@
           <cell r="AK11">
             <v>375151.09649433335</v>
           </cell>
-          <cell r="AL11">
-            <v>555202.86013150006</v>
-          </cell>
           <cell r="AP11">
             <v>1.4799446551527975</v>
           </cell>
-          <cell r="AS11">
+          <cell r="AQ11">
+            <v>-9.8306426218596199E-2</v>
+          </cell>
+          <cell r="AR11">
+            <v>1.4824084988052613</v>
+          </cell>
+          <cell r="AU11">
             <v>-2.6420896086487944</v>
           </cell>
-          <cell r="AU11">
+          <cell r="AW11">
             <v>8.7228662332586975</v>
           </cell>
-          <cell r="AV11">
+          <cell r="AX11">
             <v>641.86882088350251</v>
           </cell>
         </row>
@@ -20490,19 +23941,22 @@
           <cell r="AK12">
             <v>417071.63527299999</v>
           </cell>
-          <cell r="AL12">
-            <v>611699.82950849994</v>
-          </cell>
           <cell r="AP12">
             <v>1.4666541135268127</v>
           </cell>
-          <cell r="AS12">
+          <cell r="AQ12">
+            <v>-9.9555822995210042E-2</v>
+          </cell>
+          <cell r="AR12">
+            <v>1.4826608118626396</v>
+          </cell>
+          <cell r="AU12">
             <v>-2.9656705432511319</v>
           </cell>
-          <cell r="AU12">
+          <cell r="AW12">
             <v>9.7025284659617057</v>
           </cell>
-          <cell r="AV12">
+          <cell r="AX12">
             <v>708.60531781783538</v>
           </cell>
         </row>
@@ -20613,19 +24067,19 @@
           <cell r="AK2">
             <v>2691.0299018966666</v>
           </cell>
-          <cell r="AL2">
-            <v>3226.8073422049997</v>
-          </cell>
           <cell r="AP2">
             <v>1.1990975425173505</v>
           </cell>
-          <cell r="AS2">
-            <v>0</v>
+          <cell r="AQ2">
+            <v>-1.0562220670498046</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
           </cell>
-          <cell r="AV2">
+          <cell r="AW2">
+            <v>0</v>
+          </cell>
+          <cell r="AX2">
             <v>-1.0930520740821261</v>
           </cell>
         </row>
@@ -20657,19 +24111,22 @@
           <cell r="AK3">
             <v>37703.912981300004</v>
           </cell>
-          <cell r="AL3">
-            <v>46193.277502650002</v>
-          </cell>
           <cell r="AP3">
             <v>1.2251587129845241</v>
           </cell>
-          <cell r="AS3">
+          <cell r="AQ3">
+            <v>-0.63829438716569076</v>
+          </cell>
+          <cell r="AR3">
+            <v>1.2248812582812547</v>
+          </cell>
+          <cell r="AU3">
             <v>1.7895882157900354E-2</v>
           </cell>
-          <cell r="AU3">
+          <cell r="AW3">
             <v>0.16159964927845355</v>
           </cell>
-          <cell r="AV3">
+          <cell r="AX3">
             <v>54.365336687304591</v>
           </cell>
         </row>
@@ -20701,19 +24158,22 @@
           <cell r="AK4">
             <v>106787.34644183335</v>
           </cell>
-          <cell r="AL4">
-            <v>136519.75885225</v>
-          </cell>
           <cell r="AP4">
             <v>1.2784263623088694</v>
           </cell>
-          <cell r="AS4">
+          <cell r="AQ4">
+            <v>-0.44991380847956175</v>
+          </cell>
+          <cell r="AR4">
+            <v>1.2957423290308558</v>
+          </cell>
+          <cell r="AU4">
             <v>-1.2343303951701176E-2</v>
           </cell>
-          <cell r="AU4">
+          <cell r="AW4">
             <v>0.49770499529411738</v>
           </cell>
-          <cell r="AV4">
+          <cell r="AX4">
             <v>160.48713074337977</v>
           </cell>
         </row>
@@ -20745,19 +24205,22 @@
           <cell r="AK5">
             <v>198464.7302633333</v>
           </cell>
-          <cell r="AL5">
-            <v>259266.52142049998</v>
-          </cell>
           <cell r="AP5">
             <v>1.3063606872439839</v>
           </cell>
-          <cell r="AS5">
+          <cell r="AQ5">
+            <v>-0.34624293348388746</v>
+          </cell>
+          <cell r="AR5">
+            <v>1.3353410948911584</v>
+          </cell>
+          <cell r="AU5">
             <v>-0.10100543381285036</v>
           </cell>
-          <cell r="AU5">
+          <cell r="AW5">
             <v>0.95763764730305079</v>
           </cell>
-          <cell r="AV5">
+          <cell r="AX5">
             <v>305.59690770020325</v>
           </cell>
         </row>
@@ -20789,19 +24252,22 @@
           <cell r="AK6">
             <v>312549.49699266668</v>
           </cell>
-          <cell r="AL6">
-            <v>417666.95242850005</v>
-          </cell>
           <cell r="AP6">
             <v>1.3363225871334541</v>
           </cell>
-          <cell r="AS6">
+          <cell r="AQ6">
+            <v>-0.2628987505077478</v>
+          </cell>
+          <cell r="AR6">
+            <v>1.3486350720753781</v>
+          </cell>
+          <cell r="AU6">
             <v>-0.10140034236116315</v>
           </cell>
-          <cell r="AU6">
+          <cell r="AW6">
             <v>1.5500004981524931</v>
           </cell>
-          <cell r="AV6">
+          <cell r="AX6">
             <v>492.94413798949682</v>
           </cell>
         </row>
@@ -20833,19 +24299,22 @@
           <cell r="AK7">
             <v>441452.11121466663</v>
           </cell>
-          <cell r="AL7">
-            <v>598265.88940549991</v>
-          </cell>
           <cell r="AP7">
             <v>1.3552226259816862</v>
           </cell>
-          <cell r="AS7">
+          <cell r="AQ7">
+            <v>-0.20456733607634736</v>
+          </cell>
+          <cell r="AR7">
+            <v>1.3581910462283144</v>
+          </cell>
+          <cell r="AU7">
             <v>-0.25759902257905853</v>
           </cell>
-          <cell r="AU7">
+          <cell r="AW7">
             <v>2.2297785424184529</v>
           </cell>
-          <cell r="AV7">
+          <cell r="AX7">
             <v>707.26118805332396</v>
           </cell>
         </row>
@@ -20877,19 +24346,22 @@
           <cell r="AK8">
             <v>579660.74060000002</v>
           </cell>
-          <cell r="AL8">
-            <v>791591.73232499987</v>
-          </cell>
           <cell r="AP8">
             <v>1.3656121190916477</v>
           </cell>
-          <cell r="AS8">
+          <cell r="AQ8">
+            <v>-0.16376198830805255</v>
+          </cell>
+          <cell r="AR8">
+            <v>1.3613944161372902</v>
+          </cell>
+          <cell r="AU8">
             <v>-0.34092030476146346</v>
           </cell>
-          <cell r="AU8">
+          <cell r="AW8">
             <v>2.9656146763435975</v>
           </cell>
-          <cell r="AV8">
+          <cell r="AX8">
             <v>936.11469677757157</v>
           </cell>
         </row>
@@ -20921,19 +24393,22 @@
           <cell r="AK9">
             <v>725093.87252199987</v>
           </cell>
-          <cell r="AL9">
-            <v>993497.51078699995</v>
-          </cell>
           <cell r="AP9">
             <v>1.3701639862593882</v>
           </cell>
-          <cell r="AS9">
+          <cell r="AQ9">
+            <v>-0.13465652468058642</v>
+          </cell>
+          <cell r="AR9">
+            <v>1.3634450721850284</v>
+          </cell>
+          <cell r="AU9">
             <v>-0.54039222030868717</v>
           </cell>
-          <cell r="AU9">
+          <cell r="AW9">
             <v>3.7443590594698368</v>
           </cell>
-          <cell r="AV9">
+          <cell r="AX9">
             <v>1175.6239317602474</v>
           </cell>
         </row>
@@ -20965,19 +24440,22 @@
           <cell r="AK10">
             <v>876017.18164433341</v>
           </cell>
-          <cell r="AL10">
-            <v>1201493.2976485002</v>
-          </cell>
           <cell r="AP10">
             <v>1.3715407903224339</v>
           </cell>
-          <cell r="AS10">
+          <cell r="AQ10">
+            <v>-0.11284757798230438</v>
+          </cell>
+          <cell r="AR10">
+            <v>1.3631517740369967</v>
+          </cell>
+          <cell r="AU10">
             <v>-0.6936332187697295</v>
           </cell>
-          <cell r="AU10">
+          <cell r="AW10">
             <v>4.5522560985060467</v>
           </cell>
-          <cell r="AV10">
+          <cell r="AX10">
             <v>1424.3196858457177</v>
           </cell>
         </row>
@@ -21009,19 +24487,22 @@
           <cell r="AK11">
             <v>1028448.6459476665</v>
           </cell>
-          <cell r="AL11">
-            <v>1404695.8866935</v>
-          </cell>
           <cell r="AP11">
             <v>1.3658395995058552</v>
           </cell>
-          <cell r="AS11">
+          <cell r="AQ11">
+            <v>-0.10143163209276063</v>
+          </cell>
+          <cell r="AR11">
+            <v>1.3621170997440533</v>
+          </cell>
+          <cell r="AU11">
             <v>-0.83655675579231825</v>
           </cell>
-          <cell r="AU11">
+          <cell r="AW11">
             <v>5.3636378147658501</v>
           </cell>
-          <cell r="AV11">
+          <cell r="AX11">
             <v>1667.6431045936072</v>
           </cell>
         </row>
@@ -21053,19 +24534,22 @@
           <cell r="AK12">
             <v>1180226.3532186665</v>
           </cell>
-          <cell r="AL12">
-            <v>1603711.9327819999</v>
-          </cell>
           <cell r="AP12">
             <v>1.3588172543414407</v>
           </cell>
-          <cell r="AS12">
+          <cell r="AQ12">
+            <v>-9.3923477877279726E-2</v>
+          </cell>
+          <cell r="AR12">
+            <v>1.3608779354942386</v>
+          </cell>
+          <cell r="AU12">
             <v>-1.0230016864752769</v>
           </cell>
-          <cell r="AU12">
+          <cell r="AW12">
             <v>6.1668986777884784</v>
           </cell>
-          <cell r="AV12">
+          <cell r="AX12">
             <v>1906.5175356346383</v>
           </cell>
         </row>
@@ -21097,19 +24581,22 @@
           <cell r="AK13">
             <v>1330848.3509603334</v>
           </cell>
-          <cell r="AL13">
-            <v>1798642.8269394999</v>
-          </cell>
           <cell r="AP13">
             <v>1.3515009622558487</v>
           </cell>
-          <cell r="AS13">
+          <cell r="AQ13">
+            <v>-8.8678819210161741E-2</v>
+          </cell>
+          <cell r="AR13">
+            <v>1.3594109987045153</v>
+          </cell>
+          <cell r="AU13">
             <v>-1.2192427785364544</v>
           </cell>
-          <cell r="AU13">
+          <cell r="AW13">
             <v>6.9588526044092571</v>
           </cell>
-          <cell r="AV13">
+          <cell r="AX13">
             <v>2142.1675735633012</v>
           </cell>
         </row>
@@ -21141,19 +24628,22 @@
           <cell r="AK14">
             <v>1474401.9476263335</v>
           </cell>
-          <cell r="AL14">
-            <v>1977343.6949454998</v>
-          </cell>
           <cell r="AP14">
             <v>1.3411157643469349</v>
           </cell>
-          <cell r="AS14">
+          <cell r="AQ14">
+            <v>-8.8437284218419121E-2</v>
+          </cell>
+          <cell r="AR14">
+            <v>1.3581323811731396</v>
+          </cell>
+          <cell r="AU14">
             <v>-1.4125206837626825</v>
           </cell>
-          <cell r="AU14">
+          <cell r="AW14">
             <v>7.7063929692825068</v>
           </cell>
-          <cell r="AV14">
+          <cell r="AX14">
             <v>2361.2133516477543</v>
           </cell>
         </row>
@@ -21185,19 +24675,22 @@
           <cell r="AK15">
             <v>1613592.7783003331</v>
           </cell>
-          <cell r="AL15">
-            <v>2144755.1031145002</v>
-          </cell>
           <cell r="AP15">
             <v>1.3291799095516921</v>
           </cell>
-          <cell r="AS15">
+          <cell r="AQ15">
+            <v>-9.1079591729153364E-2</v>
+          </cell>
+          <cell r="AR15">
+            <v>1.3566779581793642</v>
+          </cell>
+          <cell r="AU15">
             <v>-1.5638977738002973</v>
           </cell>
-          <cell r="AU15">
+          <cell r="AW15">
             <v>8.4214399953771952</v>
           </cell>
-          <cell r="AV15">
+          <cell r="AX15">
             <v>2568.1640328165322</v>
           </cell>
         </row>
@@ -21229,19 +24722,22 @@
           <cell r="AK16">
             <v>1738391.8924673332</v>
           </cell>
-          <cell r="AL16">
-            <v>2285570.4841089998</v>
-          </cell>
           <cell r="AP16">
             <v>1.3147613573283785</v>
           </cell>
-          <cell r="AS16">
+          <cell r="AQ16">
+            <v>-9.7868975529099345E-2</v>
+          </cell>
+          <cell r="AR16">
+            <v>1.3561308502824347</v>
+          </cell>
+          <cell r="AU16">
             <v>-1.772081103944247</v>
           </cell>
-          <cell r="AU16">
+          <cell r="AW16">
             <v>9.057455189743191</v>
           </cell>
-          <cell r="AV16">
+          <cell r="AX16">
             <v>2743.74210855725</v>
           </cell>
         </row>
@@ -21284,19 +24780,19 @@
           <cell r="AK2">
             <v>2740.1550688233333</v>
           </cell>
-          <cell r="AL2">
-            <v>3158.8391152150002</v>
-          </cell>
           <cell r="AP2">
             <v>1.152795749100235</v>
           </cell>
-          <cell r="AS2">
-            <v>0</v>
+          <cell r="AQ2">
+            <v>-1.0995759540501888</v>
           </cell>
           <cell r="AU2">
             <v>0</v>
           </cell>
-          <cell r="AV2">
+          <cell r="AW2">
+            <v>0</v>
+          </cell>
+          <cell r="AX2">
             <v>7.8612131113106152</v>
           </cell>
         </row>
@@ -21328,19 +24824,22 @@
           <cell r="AK3">
             <v>48151.410099266672</v>
           </cell>
-          <cell r="AL3">
-            <v>56191.075637300004</v>
-          </cell>
           <cell r="AP3">
             <v>1.1669663571940914</v>
           </cell>
-          <cell r="AS3">
+          <cell r="AQ3">
+            <v>-0.66382382103749893</v>
+          </cell>
+          <cell r="AR3">
+            <v>1.1920965950465878</v>
+          </cell>
+          <cell r="AU3">
             <v>2.6837803443777769E-3</v>
           </cell>
-          <cell r="AU3">
+          <cell r="AW3">
             <v>5.4626028108637412E-2</v>
           </cell>
-          <cell r="AV3">
+          <cell r="AX3">
             <v>66.92944684181353</v>
           </cell>
         </row>
@@ -21372,19 +24871,22 @@
           <cell r="AK4">
             <v>140023.73074589999</v>
           </cell>
-          <cell r="AL4">
-            <v>170253.74244015</v>
-          </cell>
           <cell r="AP4">
             <v>1.2158920601044989</v>
           </cell>
-          <cell r="AS4">
+          <cell r="AQ4">
+            <v>-0.47891719273122968</v>
+          </cell>
+          <cell r="AR4">
+            <v>1.2499567696550691</v>
+          </cell>
+          <cell r="AU4">
             <v>1.5402043627914889E-2</v>
           </cell>
-          <cell r="AU4">
+          <cell r="AW4">
             <v>0.17259679169905928</v>
           </cell>
-          <cell r="AV4">
+          <cell r="AX4">
             <v>202.48649776813525</v>
           </cell>
         </row>
@@ -21416,19 +24918,22 @@
           <cell r="AK5">
             <v>272538.02467499999</v>
           </cell>
-          <cell r="AL5">
-            <v>340575.82544400002</v>
-          </cell>
           <cell r="AP5">
             <v>1.2496451673124684</v>
           </cell>
-          <cell r="AS5">
+          <cell r="AQ5">
+            <v>-0.3654935415169227</v>
+          </cell>
+          <cell r="AR5">
+            <v>1.2866680625801192</v>
+          </cell>
+          <cell r="AU5">
             <v>-4.8507585321765061E-3</v>
           </cell>
-          <cell r="AU5">
+          <cell r="AW5">
             <v>0.34841654002641581</v>
           </cell>
-          <cell r="AV5">
+          <cell r="AX5">
             <v>405.25533765032992</v>
           </cell>
         </row>
@@ -21460,19 +24965,22 @@
           <cell r="AK6">
             <v>439740.92971766664</v>
           </cell>
-          <cell r="AL6">
-            <v>564985.352006</v>
-          </cell>
           <cell r="AP6">
             <v>1.2848141117287988</v>
           </cell>
-          <cell r="AS6">
+          <cell r="AQ6">
+            <v>-0.27541389757369683</v>
+          </cell>
+          <cell r="AR6">
+            <v>1.2995821175854314</v>
+          </cell>
+          <cell r="AU6">
             <v>1.8325475464964922E-2</v>
           </cell>
-          <cell r="AU6">
+          <cell r="AW6">
             <v>0.58130570248947744</v>
           </cell>
-          <cell r="AV6">
+          <cell r="AX6">
             <v>672.45894328324471</v>
           </cell>
         </row>
@@ -21504,19 +25012,22 @@
           <cell r="AK7">
             <v>633283.23345866671</v>
           </cell>
-          <cell r="AL7">
-            <v>826862.72724200005</v>
-          </cell>
           <cell r="AP7">
             <v>1.3056760128104163</v>
           </cell>
-          <cell r="AS7">
+          <cell r="AQ7">
+            <v>-0.21394633105404237</v>
+          </cell>
+          <cell r="AR7">
+            <v>1.3088617618063878</v>
+          </cell>
+          <cell r="AU7">
             <v>-1.4680377231296192E-2</v>
           </cell>
-          <cell r="AU7">
+          <cell r="AW7">
             <v>0.85415808077150523</v>
           </cell>
-          <cell r="AV7">
+          <cell r="AX7">
             <v>985.887740696366</v>
           </cell>
         </row>
@@ -21548,19 +25059,22 @@
           <cell r="AK8">
             <v>847290.0021876666</v>
           </cell>
-          <cell r="AL8">
-            <v>1116233.2128185001</v>
-          </cell>
           <cell r="AP8">
             <v>1.317415772564805</v>
           </cell>
-          <cell r="AS8">
+          <cell r="AQ8">
+            <v>-0.17055529153211646</v>
+          </cell>
+          <cell r="AR8">
+            <v>1.3116104255648411</v>
+          </cell>
+          <cell r="AU8">
             <v>-6.4671693655414461E-3</v>
           </cell>
-          <cell r="AU8">
+          <cell r="AW8">
             <v>1.1612900369738304</v>
           </cell>
-          <cell r="AV8">
+          <cell r="AX8">
             <v>1332.6255506436266</v>
           </cell>
         </row>
@@ -21592,19 +25106,22 @@
           <cell r="AK9">
             <v>1079249.2642293333</v>
           </cell>
-          <cell r="AL9">
-            <v>1430639.381851</v>
-          </cell>
           <cell r="AP9">
             <v>1.3255875442941221</v>
           </cell>
-          <cell r="AS9">
+          <cell r="AQ9">
+            <v>-0.13657785299767022</v>
+          </cell>
+          <cell r="AR9">
+            <v>1.3131621703968959</v>
+          </cell>
+          <cell r="AU9">
             <v>-4.6182423652466914E-2</v>
           </cell>
-          <cell r="AU9">
+          <cell r="AW9">
             <v>1.4951382358552854</v>
           </cell>
-          <cell r="AV9">
+          <cell r="AX9">
             <v>1708.8414786126064</v>
           </cell>
         </row>
@@ -21636,19 +25153,22 @@
           <cell r="AK10">
             <v>1321238.2197256668</v>
           </cell>
-          <cell r="AL10">
-            <v>1753856.8368215</v>
-          </cell>
           <cell r="AP10">
             <v>1.3274342284661271</v>
           </cell>
-          <cell r="AS10">
+          <cell r="AQ10">
+            <v>-0.11350037110808553</v>
+          </cell>
+          <cell r="AR10">
+            <v>1.3125161714701861</v>
+          </cell>
+          <cell r="AU10">
             <v>-6.0424480794225563E-2</v>
           </cell>
-          <cell r="AU10">
+          <cell r="AW10">
             <v>1.8447810443380048</v>
           </cell>
-          <cell r="AV10">
+          <cell r="AX10">
             <v>2096.6708599958552</v>
           </cell>
         </row>
@@ -21680,19 +25200,22 @@
           <cell r="AK11">
             <v>1571170.907324</v>
           </cell>
-          <cell r="AL11">
-            <v>2082326.4475889998</v>
-          </cell>
           <cell r="AP11">
             <v>1.3253341427608241</v>
           </cell>
-          <cell r="AS11">
+          <cell r="AQ11">
+            <v>-9.7663731690701416E-2</v>
+          </cell>
+          <cell r="AR11">
+            <v>1.3113228324652066</v>
+          </cell>
+          <cell r="AU11">
             <v>-8.5555439312051285E-2</v>
           </cell>
-          <cell r="AU11">
+          <cell r="AW11">
             <v>2.2047298711042815</v>
           </cell>
-          <cell r="AV11">
+          <cell r="AX11">
             <v>2492.6820608569533</v>
           </cell>
         </row>
@@ -21724,19 +25247,22 @@
           <cell r="AK12">
             <v>1823574.0032919999</v>
           </cell>
-          <cell r="AL12">
-            <v>2404563.7880220003</v>
-          </cell>
           <cell r="AP12">
             <v>1.3185995104564832</v>
           </cell>
-          <cell r="AS12">
+          <cell r="AQ12">
+            <v>-8.9153432811833966E-2</v>
+          </cell>
+          <cell r="AR12">
+            <v>1.3101012843440658</v>
+          </cell>
+          <cell r="AU12">
             <v>-0.13999376683713155</v>
           </cell>
-          <cell r="AU12">
+          <cell r="AW12">
             <v>2.5654034956054961</v>
           </cell>
-          <cell r="AV12">
+          <cell r="AX12">
             <v>2885.3704377407312</v>
           </cell>
         </row>
@@ -21768,19 +25294,22 @@
           <cell r="AK13">
             <v>2080882.7730066665</v>
           </cell>
-          <cell r="AL13">
-            <v>2729857.9095800002</v>
-          </cell>
           <cell r="AP13">
             <v>1.3118749143353376</v>
           </cell>
-          <cell r="AS13">
+          <cell r="AQ13">
+            <v>-8.2507518707066962E-2</v>
+          </cell>
+          <cell r="AR13">
+            <v>1.3080775400048008</v>
+          </cell>
+          <cell r="AU13">
             <v>-0.17333182231183769</v>
           </cell>
-          <cell r="AU13">
+          <cell r="AW13">
             <v>2.9306152647691635</v>
           </cell>
-          <cell r="AV13">
+          <cell r="AX13">
             <v>3280.3454628033014</v>
           </cell>
         </row>
@@ -21812,19 +25341,22 @@
           <cell r="AK14">
             <v>2341769.3260366665</v>
           </cell>
-          <cell r="AL14">
-            <v>3057514.1093749995</v>
-          </cell>
           <cell r="AP14">
             <v>1.3056427357641143</v>
           </cell>
-          <cell r="AS14">
+          <cell r="AQ14">
+            <v>-7.688281361434246E-2</v>
+          </cell>
+          <cell r="AR14">
+            <v>1.3058916771368241</v>
+          </cell>
+          <cell r="AU14">
             <v>-0.21196160593183688</v>
           </cell>
-          <cell r="AU14">
+          <cell r="AW14">
             <v>3.2984236075723232</v>
           </cell>
-          <cell r="AV14">
+          <cell r="AX14">
             <v>3680.7455875409596</v>
           </cell>
         </row>
@@ -21856,19 +25388,22 @@
           <cell r="AK15">
             <v>2595675.0318933334</v>
           </cell>
-          <cell r="AL15">
-            <v>3359958.1973350001</v>
-          </cell>
           <cell r="AP15">
             <v>1.2944448577155609</v>
           </cell>
-          <cell r="AS15">
+          <cell r="AQ15">
+            <v>-7.7829370367991313E-2</v>
+          </cell>
+          <cell r="AR15">
+            <v>1.3039318769176413</v>
+          </cell>
+          <cell r="AU15">
             <v>-0.2513914649642976</v>
           </cell>
-          <cell r="AU15">
+          <cell r="AW15">
             <v>3.6521580445971247</v>
           </cell>
-          <cell r="AV15">
+          <cell r="AX15">
             <v>4055.5300218515031</v>
           </cell>
         </row>
@@ -21900,19 +25435,22 @@
           <cell r="AK16">
             <v>2846613.1900200001</v>
           </cell>
-          <cell r="AL16">
-            <v>3657330.6336000003</v>
-          </cell>
           <cell r="AP16">
             <v>1.2848007050702608</v>
           </cell>
-          <cell r="AS16">
+          <cell r="AQ16">
+            <v>-7.8348070535637859E-2</v>
+          </cell>
+          <cell r="AR16">
+            <v>1.3019027547873547</v>
+          </cell>
+          <cell r="AU16">
             <v>-0.28532463553252052</v>
           </cell>
-          <cell r="AU16">
+          <cell r="AW16">
             <v>3.9981801241657355</v>
           </cell>
-          <cell r="AV16">
+          <cell r="AX16">
             <v>4426.2488534488339</v>
           </cell>
         </row>
@@ -21944,19 +25482,22 @@
           <cell r="AK17">
             <v>3093770.9270099998</v>
           </cell>
-          <cell r="AL17">
-            <v>3941363.2401150004</v>
-          </cell>
           <cell r="AP17">
             <v>1.273967379325063</v>
           </cell>
-          <cell r="AS17">
+          <cell r="AQ17">
+            <v>-8.1000224638744456E-2</v>
+          </cell>
+          <cell r="AR17">
+            <v>1.3000945244579549</v>
+          </cell>
+          <cell r="AU17">
             <v>-0.34153301737422903</v>
           </cell>
-          <cell r="AU17">
+          <cell r="AW17">
             <v>4.3352960237032221</v>
           </cell>
-          <cell r="AV17">
+          <cell r="AX17">
             <v>4784.2638981297505</v>
           </cell>
         </row>
@@ -21988,19 +25529,22 @@
           <cell r="AK18">
             <v>3332502.3303733333</v>
           </cell>
-          <cell r="AL18">
-            <v>4209897.37249</v>
-          </cell>
           <cell r="AP18">
             <v>1.2632841496072935</v>
           </cell>
-          <cell r="AS18">
+          <cell r="AQ18">
+            <v>-8.4421040578937179E-2</v>
+          </cell>
+          <cell r="AR18">
+            <v>1.298313202836358</v>
+          </cell>
+          <cell r="AU18">
             <v>-0.38152363276762469</v>
           </cell>
-          <cell r="AU18">
+          <cell r="AW18">
             <v>4.6568992341812612</v>
           </cell>
-          <cell r="AV18">
+          <cell r="AX18">
             <v>5125.1246043857955</v>
           </cell>
         </row>
@@ -22825,10 +26369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL18"/>
+  <dimension ref="A1:BN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22853,14 +26397,15 @@
     <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" style="5" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="48" width="13.33203125" style="5" customWidth="1"/>
-    <col min="49" max="1012" width="11.5546875" style="1"/>
-    <col min="1013" max="16384" width="8.88671875" style="1"/>
+    <col min="43" max="44" width="10.44140625" style="5" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" customWidth="1"/>
+    <col min="47" max="47" width="11.21875" customWidth="1"/>
+    <col min="50" max="50" width="13.33203125" style="5" customWidth="1"/>
+    <col min="51" max="1014" width="11.5546875" style="1"/>
+    <col min="1015" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22987,26 +26532,32 @@
       <c r="AP1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.18927422289900001</v>
       </c>
@@ -23125,7 +26676,7 @@
         <v>-0.5</v>
       </c>
       <c r="AN2">
-        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <f>1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
         <v>-0.22624434389140272</v>
       </c>
       <c r="AO2" s="3">
@@ -23133,23 +26684,32 @@
         <v>19869.962100507521</v>
       </c>
       <c r="AP2" s="5">
+        <f>AL2/AK2</f>
         <v>1.2607590421870807</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="5">
+        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
+        <v>-0.99838277802482045</v>
+      </c>
+      <c r="AR2" s="5">
+        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <v>1.2024332385472252</v>
+      </c>
+      <c r="AS2">
         <v>5.25</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AV2" s="5">
-        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="5">
+        <f>(AS2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
         <v>7.0917990508595521</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2.0630845361499999</v>
       </c>
@@ -23236,15 +26796,15 @@
         <v>0.5131043645532074</v>
       </c>
       <c r="AC3" s="5">
-        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="4">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.47338186432211443</v>
       </c>
       <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="5">AB3-AC3</f>
         <v>3.9722500231092972E-2</v>
       </c>
       <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="6">P3-AB3/3</f>
         <v>0.83001552430559766</v>
       </c>
       <c r="AF3" s="5">
@@ -23252,11 +26812,11 @@
         <v>1.2579208308207357E-2</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="7">AD3-AD2</f>
         <v>4.1513960099740455E-2</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.83001552312735494</v>
       </c>
       <c r="AI3" s="5">
@@ -23264,7 +26824,7 @@
         <v>-5.0015883972052755E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="9">(( 1.588*EXP(-0.0005387*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="8">(( 1.588*EXP(-0.0005387*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>0.5191077350169313</v>
       </c>
       <c r="AK3" s="5">
@@ -23280,7 +26840,7 @@
         <v>-0.47540215237817873</v>
       </c>
       <c r="AN3" s="3">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM3*AS3-2*0.33*(1+AM3+AS3))</f>
         <v>-0.48969459377564856</v>
       </c>
       <c r="AO3" s="3">
@@ -23290,45 +26850,53 @@
         <f>AL3/AK3</f>
         <v>1.2873799820723497</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="5">
+        <f t="shared" ref="AQ3:AQ18" si="9">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
+        <v>-0.61322306275872585</v>
+      </c>
+      <c r="AR3" s="5">
+        <f t="shared" ref="AR3:AR18" si="10">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <v>1.2752379238624807</v>
+      </c>
+      <c r="AS3" s="3">
         <f>(2*AP3+3)/(3-AP3)</f>
         <v>3.2551061565252621</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AT3" s="3">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
         <v>1.6359883201727595E-2</v>
       </c>
-      <c r="AS3" s="3">
-        <f>(AS2+AR3)</f>
+      <c r="AU3" s="3">
+        <f>(AU2+AT3)</f>
         <v>1.6359883201727595E-2</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AV3" s="3">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
         <v>0.32709375307390315</v>
       </c>
-      <c r="AU3" s="3">
-        <f>AU2+AT3</f>
+      <c r="AW3" s="3">
+        <f>AW2+AV3</f>
         <v>0.32709375307390315</v>
       </c>
-      <c r="AV3" s="5">
-        <f t="shared" ref="AV3:AV18" si="10">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+      <c r="AX3" s="5">
+        <f>(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>43.051694467028327</v>
       </c>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1"/>
-      <c r="BK3" s="1" t="s">
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5.4805348782100003</v>
       </c>
@@ -23415,15 +26983,15 @@
         <v>0.72670654276035807</v>
       </c>
       <c r="AC4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.79544639231484671</v>
+      </c>
+      <c r="AD4" s="5">
         <f t="shared" si="5"/>
-        <v>0.79544639231484671</v>
-      </c>
-      <c r="AD4" s="5">
+        <v>-6.8739849554488641E-2</v>
+      </c>
+      <c r="AE4" s="4">
         <f t="shared" si="6"/>
-        <v>-6.8739849554488641E-2</v>
-      </c>
-      <c r="AE4" s="4">
-        <f t="shared" si="7"/>
         <v>1.7589948652665472</v>
       </c>
       <c r="AF4" s="5">
@@ -23431,19 +26999,19 @@
         <v>-0.2739086469996419</v>
       </c>
       <c r="AG4" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.10846234978558161</v>
+      </c>
+      <c r="AH4" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92897934096094958</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <v>0.11675431842583991</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="8"/>
-        <v>-0.10846234978558161</v>
-      </c>
-      <c r="AH4" s="3">
-        <f t="shared" si="8"/>
-        <v>0.92897934096094958</v>
-      </c>
-      <c r="AI4" s="5">
-        <f t="shared" ref="AI3:AI18" si="11">-AG4/AH4</f>
-        <v>0.11675431842583991</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="9"/>
         <v>0.45151353533812683</v>
       </c>
       <c r="AK4">
@@ -23459,7 +27027,7 @@
         <v>-0.56074108729546202</v>
       </c>
       <c r="AN4">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM4*AS4-2*0.33*(1+AM4+AS4))</f>
         <v>-0.39832351094679114</v>
       </c>
       <c r="AO4" s="3">
@@ -23469,38 +27037,46 @@
         <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
         <v>1.3508682565092953</v>
       </c>
-      <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
+      <c r="AQ4" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.41727233784336892</v>
+      </c>
+      <c r="AR4" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3451930606654177</v>
+      </c>
+      <c r="AS4">
+        <f>(2*AP4+3)/(3-AP4)</f>
         <v>3.4574172351747765</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AT4" s="3">
         <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>-7.6599372776447752E-2</v>
       </c>
-      <c r="AS4">
-        <f>AS3+AR4</f>
+      <c r="AU4">
+        <f>AU3+AT4</f>
         <v>-6.0239489574720154E-2</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AV4" s="3">
         <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.65607314409618334</v>
       </c>
-      <c r="AU4">
-        <f>AU3+AT4</f>
+      <c r="AW4">
+        <f>AW3+AV4</f>
         <v>0.98316689717008643</v>
       </c>
-      <c r="AV4" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX4" s="5">
+        <f>(AS4*X4-4*X4*(1-0.01*P4-2*0.01*AF4)*(0.08/0.4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+0.08/0.4+1))/1000</f>
         <v>122.2919060346848</v>
       </c>
-      <c r="BK4" s="1">
+      <c r="BM4" s="1">
         <v>1.3664000000000001</v>
       </c>
-      <c r="BL4" s="1">
+      <c r="BN4" s="1">
         <v>0.251</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10.0139886019</v>
       </c>
@@ -23587,15 +27163,15 @@
         <v>0.77588804749871843</v>
       </c>
       <c r="AC5" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0343329507135908</v>
+      </c>
+      <c r="AD5" s="5">
         <f t="shared" si="5"/>
-        <v>1.0343329507135908</v>
-      </c>
-      <c r="AD5" s="5">
+        <v>-0.25844490321487235</v>
+      </c>
+      <c r="AE5" s="4">
         <f t="shared" si="6"/>
-        <v>-0.25844490321487235</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" si="7"/>
         <v>2.7416603735437604</v>
       </c>
       <c r="AF5" s="5">
@@ -23603,11 +27179,11 @@
         <v>-0.72425681385628149</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.1897050536603837</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.98266550827721311</v>
       </c>
       <c r="AI5" s="5">
@@ -23615,7 +27191,7 @@
         <v>0.19305150334722779</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.43069887541361418</v>
       </c>
       <c r="AK5">
@@ -23631,7 +27207,7 @@
         <v>-0.60316443474689918</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM5*AS5-2*0.33*(1+AM5+AS5))</f>
         <v>-0.36836442456285379</v>
       </c>
       <c r="AO5" s="3">
@@ -23641,38 +27217,46 @@
         <f t="shared" si="13"/>
         <v>1.3710726704289367</v>
       </c>
-      <c r="AQ5">
-        <f t="shared" si="14"/>
+      <c r="AQ5" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.32374989669132503</v>
+      </c>
+      <c r="AR5" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3839597110598529</v>
+      </c>
+      <c r="AS5">
+        <f>(2*AP5+3)/(3-AP5)</f>
         <v>3.5251083560430665</v>
       </c>
-      <c r="AR5" s="3">
-        <f t="shared" ref="AR5:AR18" si="15">(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
+      <c r="AT5" s="3">
+        <f>(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
         <v>-0.16282125803856662</v>
       </c>
-      <c r="AS5">
-        <f t="shared" ref="AS5:AS18" si="16">AS4+AR5</f>
+      <c r="AU5">
+        <f t="shared" ref="AU5:AU18" si="14">AU4+AT5</f>
         <v>-0.22306074761328676</v>
       </c>
-      <c r="AT5" s="3">
-        <f t="shared" ref="AT5:AT18" si="17">2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
+      <c r="AV5" s="3">
+        <f>2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
         <v>0.84340839214140562</v>
       </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
+      <c r="AW5">
+        <f>AW4+AV5</f>
         <v>1.8265752893114922</v>
       </c>
-      <c r="AV5" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX5" s="5">
+        <f>(AS5*X5-4*X5*(1-0.01*P5-2*0.01*AF5)*(0.08/0.4)/(-0.08/0.4*0.01*P5-(2*0.08/0.4+3)*0.01*AF5+0.08/0.4+1))/1000</f>
         <v>224.25633750517815</v>
       </c>
-      <c r="BK5" s="1">
+      <c r="BM5" s="1">
         <v>1.2961</v>
       </c>
-      <c r="BL5" s="1">
+      <c r="BN5" s="1">
         <v>0.27110000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15.239423492</v>
       </c>
@@ -23759,15 +27343,15 @@
         <v>0.72915543285183571</v>
       </c>
       <c r="AC6" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2346363198513419</v>
+      </c>
+      <c r="AD6" s="5">
         <f t="shared" si="5"/>
-        <v>1.2346363198513419</v>
-      </c>
-      <c r="AD6" s="5">
+        <v>-0.50548088699950622</v>
+      </c>
+      <c r="AE6" s="4">
         <f t="shared" si="6"/>
-        <v>-0.50548088699950622</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" si="7"/>
         <v>3.7576796987193877</v>
       </c>
       <c r="AF6" s="5">
@@ -23775,11 +27359,11 @@
         <v>-1.2712103219831641</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.24703598378463387</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0160193251756273</v>
       </c>
       <c r="AI6" s="5">
@@ -23787,7 +27371,7 @@
         <v>0.24314102858420697</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.40393655084659141</v>
       </c>
       <c r="AK6">
@@ -23803,7 +27387,7 @@
         <v>-0.63229241925603907</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM6*AS6-2*0.33*(1+AM6+AS6))</f>
         <v>-0.34294419418018834</v>
       </c>
       <c r="AO6" s="3">
@@ -23813,38 +27397,46 @@
         <f t="shared" si="13"/>
         <v>1.3975043298953405</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.24633235668020714</v>
+      </c>
+      <c r="AR6" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4027928005972838</v>
+      </c>
+      <c r="AS6">
+        <f>(2*AP6+3)/(3-AP6)</f>
+        <v>3.6162398238568763</v>
+      </c>
+      <c r="AT6" s="3">
+        <f>(1+2*AM6)*(AK6-AK5)*(1-AP6/3)/(3*AN6*AO6*AM6)</f>
+        <v>-0.24959546066133151</v>
+      </c>
+      <c r="AU6">
         <f t="shared" si="14"/>
-        <v>3.6162398238568763</v>
-      </c>
-      <c r="AR6" s="3">
-        <f t="shared" si="15"/>
-        <v>-0.24959546066133151</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="16"/>
         <v>-0.47265620827461829</v>
       </c>
-      <c r="AT6" s="3">
-        <f t="shared" si="17"/>
+      <c r="AV6" s="3">
+        <f>2*(1-AM6)*(AK6-AK5)*(1-AP6/3)/(9*AN6*AO6*AM6)</f>
         <v>1.0265460424952058</v>
       </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
+      <c r="AW6">
+        <f t="shared" ref="AW6:AW18" si="15">AW5+AV6</f>
         <v>2.8531213318066979</v>
       </c>
-      <c r="AV6" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX6" s="5">
+        <f>(AS6*X6-4*X6*(1-0.01*P6-2*0.01*AF6)*(0.08/0.4)/(-0.08/0.4*0.01*P6-(2*0.08/0.4+3)*0.01*AF6+0.08/0.4+1))/1000</f>
         <v>349.30709163820416</v>
       </c>
-      <c r="BK6" s="1">
+      <c r="BM6" s="1">
         <v>1.2944</v>
       </c>
-      <c r="BL6" s="1">
+      <c r="BN6" s="1">
         <v>0.2298</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20.917129055699998</v>
       </c>
@@ -23931,15 +27523,15 @@
         <v>0.63324957254433656</v>
       </c>
       <c r="AC7" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4043205550409641</v>
+      </c>
+      <c r="AD7" s="5">
         <f t="shared" si="5"/>
-        <v>1.4043205550409641</v>
-      </c>
-      <c r="AD7" s="5">
+        <v>-0.77107098249662753</v>
+      </c>
+      <c r="AE7" s="4">
         <f t="shared" si="6"/>
-        <v>-0.77107098249662753</v>
-      </c>
-      <c r="AE7" s="4">
-        <f t="shared" si="7"/>
         <v>4.7930546241118881</v>
       </c>
       <c r="AF7" s="5">
@@ -23947,11 +27539,11 @@
         <v>-1.8688193349356634</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.26559009549712131</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0353749253925004</v>
       </c>
       <c r="AI7" s="5">
@@ -23959,7 +27551,7 @@
         <v>0.25651586587963654</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.38914606994008233</v>
       </c>
       <c r="AK7">
@@ -23975,7 +27567,7 @@
         <v>-0.64025005431380921</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM7*AS7-2*0.33*(1+AM7+AS7))</f>
         <v>-0.33248571467078469</v>
       </c>
       <c r="AO7" s="3">
@@ -23985,38 +27577,46 @@
         <f t="shared" si="13"/>
         <v>1.412331312531679</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.19388056967841982</v>
+      </c>
+      <c r="AR7" s="5">
+        <f t="shared" si="10"/>
+        <v>1.412244238624953</v>
+      </c>
+      <c r="AS7">
+        <f>(2*AP7+3)/(3-AP7)</f>
+        <v>3.6686889846969901</v>
+      </c>
+      <c r="AT7" s="3">
+        <f>(1+2*AM7)*(AK7-AK6)*(1-AP7/3)/(3*AN7*AO7*AM7)</f>
+        <v>-0.29254339945004143</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="14"/>
-        <v>3.6686889846969901</v>
-      </c>
-      <c r="AR7" s="3">
+        <v>-0.76519960772465967</v>
+      </c>
+      <c r="AV7" s="3">
+        <f>2*(1-AM7)*(AK7-AK6)*(1-AP7/3)/(9*AN7*AO7*AM7)</f>
+        <v>1.1404495330020239</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="15"/>
-        <v>-0.29254339945004143</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="16"/>
-        <v>-0.76519960772465967</v>
-      </c>
-      <c r="AT7" s="3">
-        <f t="shared" si="17"/>
-        <v>1.1404495330020239</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="18"/>
         <v>3.9935708648087216</v>
       </c>
-      <c r="AV7" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX7" s="5">
+        <f>(AS7*X7-4*X7*(1-0.01*P7-2*0.01*AF7)*(0.08/0.4)/(-0.08/0.4*0.01*P7-(2*0.08/0.4+3)*0.01*AF7+0.08/0.4+1))/1000</f>
         <v>486.66443726364338</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BM7" s="1">
         <v>1.2937000000000001</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BN7" s="1">
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26.809728091</v>
       </c>
@@ -24103,15 +27703,15 @@
         <v>0.49570063860805424</v>
       </c>
       <c r="AC8" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5483197399211468</v>
+      </c>
+      <c r="AD8" s="5">
         <f t="shared" si="5"/>
-        <v>1.5483197399211468</v>
-      </c>
-      <c r="AD8" s="5">
+        <v>-1.0526191013130926</v>
+      </c>
+      <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>-1.0526191013130926</v>
-      </c>
-      <c r="AE8" s="4">
-        <f t="shared" si="7"/>
         <v>5.8349244772073154</v>
       </c>
       <c r="AF8" s="5">
@@ -24119,11 +27719,11 @@
         <v>-2.5043783730969458</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.28154811881646502</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0418698530954273</v>
       </c>
       <c r="AI8" s="5">
@@ -24131,7 +27731,7 @@
         <v>0.27023348259859609</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.38367570285892388</v>
       </c>
       <c r="AK8">
@@ -24147,7 +27747,7 @@
         <v>-0.64849263529093559</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM8*AS8-2*0.33*(1+AM8+AS8))</f>
         <v>-0.32697451756587181</v>
       </c>
       <c r="AO8" s="3">
@@ -24157,38 +27757,46 @@
         <f t="shared" si="13"/>
         <v>1.4178547208063292</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.15963684492845132</v>
+      </c>
+      <c r="AR8" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4170456005438337</v>
+      </c>
+      <c r="AS8">
+        <f>(2*AP8+3)/(3-AP8)</f>
+        <v>3.6884788763436358</v>
+      </c>
+      <c r="AT8" s="3">
+        <f>(1+2*AM8)*(AK8-AK7)*(1-AP8/3)/(3*AN8*AO8*AM8)</f>
+        <v>-0.32051674378799722</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="14"/>
-        <v>3.6884788763436358</v>
-      </c>
-      <c r="AR8" s="3">
+        <v>-1.0857163515126569</v>
+      </c>
+      <c r="AV8" s="3">
+        <f>2*(1-AM8)*(AK8-AK7)*(1-AP8/3)/(9*AN8*AO8*AM8)</f>
+        <v>1.1860733936663641</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="15"/>
-        <v>-0.32051674378799722</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="16"/>
-        <v>-1.0857163515126569</v>
-      </c>
-      <c r="AT8" s="3">
-        <f t="shared" si="17"/>
-        <v>1.1860733936663641</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="18"/>
         <v>5.1796442584750855</v>
       </c>
-      <c r="AV8" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX8" s="5">
+        <f>(AS8*X8-4*X8*(1-0.01*P8-2*0.01*AF8)*(0.08/0.4)/(-0.08/0.4*0.01*P8-(2*0.08/0.4+3)*0.01*AF8+0.08/0.4+1))/1000</f>
         <v>627.35000740763428</v>
       </c>
-      <c r="BK8" s="1">
+      <c r="BM8" s="1">
         <v>1.3320000000000001</v>
       </c>
-      <c r="BL8" s="1">
+      <c r="BN8" s="1">
         <v>0.28539999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>33.0222817812</v>
       </c>
@@ -24275,15 +27883,15 @@
         <v>0.26906407559089685</v>
       </c>
       <c r="AC9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6774497412623801</v>
+      </c>
+      <c r="AD9" s="5">
         <f t="shared" si="5"/>
-        <v>1.6774497412623801</v>
-      </c>
-      <c r="AD9" s="5">
+        <v>-1.4083856656714833</v>
+      </c>
+      <c r="AE9" s="4">
         <f t="shared" si="6"/>
-        <v>-1.4083856656714833</v>
-      </c>
-      <c r="AE9" s="4">
-        <f t="shared" si="7"/>
         <v>6.914758087843035</v>
       </c>
       <c r="AF9" s="5">
@@ -24291,11 +27899,11 @@
         <v>-3.2331589809291033</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.35576656435839071</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0798336106357196</v>
       </c>
       <c r="AI9" s="5">
@@ -24303,7 +27911,7 @@
         <v>0.32946424417086245</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.38113429259025583</v>
       </c>
       <c r="AK9">
@@ -24319,7 +27927,7 @@
         <v>-0.68505513928341222</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM9*AS9-2*0.33*(1+AM9+AS9))</f>
         <v>-0.31431358888339939</v>
       </c>
       <c r="AO9" s="3">
@@ -24329,38 +27937,46 @@
         <f t="shared" si="13"/>
         <v>1.420428035919691</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.13341414332915869</v>
+      </c>
+      <c r="AR9" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4191330265060642</v>
+      </c>
+      <c r="AS9">
+        <f>(2*AP9+3)/(3-AP9)</f>
+        <v>3.6977461012611514</v>
+      </c>
+      <c r="AT9" s="3">
+        <f>(1+2*AM9)*(AK9-AK8)*(1-AP9/3)/(3*AN9*AO9*AM9)</f>
+        <v>-0.41316242181257956</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="14"/>
-        <v>3.6977461012611514</v>
-      </c>
-      <c r="AR9" s="3">
+        <v>-1.4988787733252364</v>
+      </c>
+      <c r="AV9" s="3">
+        <f>2*(1-AM9)*(AK9-AK8)*(1-AP9/3)/(9*AN9*AO9*AM9)</f>
+        <v>1.2540432812439299</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="15"/>
-        <v>-0.41316242181257956</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="16"/>
-        <v>-1.4988787733252364</v>
-      </c>
-      <c r="AT9" s="3">
-        <f t="shared" si="17"/>
-        <v>1.2540432812439299</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="18"/>
         <v>6.4336875397190152</v>
       </c>
-      <c r="AV9" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX9" s="5">
+        <f>(AS9*X9-4*X9*(1-0.01*P9-2*0.01*AF9)*(0.08/0.4)/(-0.08/0.4*0.01*P9-(2*0.08/0.4+3)*0.01*AF9+0.08/0.4+1))/1000</f>
         <v>774.17764510144184</v>
       </c>
-      <c r="BK9" s="1">
+      <c r="BM9" s="1">
         <v>1.3442000000000001</v>
       </c>
-      <c r="BL9" s="1">
+      <c r="BN9" s="1">
         <v>0.30330000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>39.357426779100003</v>
       </c>
@@ -24447,15 +28063,15 @@
         <v>5.0639532081830918E-2</v>
       </c>
       <c r="AC10" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7928753652135534</v>
+      </c>
+      <c r="AD10" s="5">
         <f t="shared" si="5"/>
-        <v>1.7928753652135534</v>
-      </c>
-      <c r="AD10" s="5">
+        <v>-1.7422358331317225</v>
+      </c>
+      <c r="AE10" s="4">
         <f t="shared" si="6"/>
-        <v>-1.7422358331317225</v>
-      </c>
-      <c r="AE10" s="4">
-        <f t="shared" si="7"/>
         <v>7.9833701226127234</v>
       </c>
       <c r="AF10" s="5">
@@ -24463,11 +28079,11 @@
         <v>-3.9494854512381692</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.33385016746023921</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0686120347696884</v>
       </c>
       <c r="AI10" s="5">
@@ -24475,7 +28091,7 @@
         <v>0.31241475540015978</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.37933089324301272</v>
       </c>
       <c r="AK10">
@@ -24491,7 +28107,7 @@
         <v>-0.67436549558449954</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM10*AS10-2*0.33*(1+AM10+AS10))</f>
         <v>-0.31666850327817675</v>
       </c>
       <c r="AO10" s="3">
@@ -24501,40 +28117,48 @@
         <f t="shared" si="13"/>
         <v>1.4222568698871758</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.11190766491172366</v>
+      </c>
+      <c r="AR10" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4190112686337439</v>
+      </c>
+      <c r="AS10">
+        <f>(2*AP10+3)/(3-AP10)</f>
+        <v>3.7043506184409187</v>
+      </c>
+      <c r="AT10" s="3">
+        <f>(1+2*AM10)*(AK10-AK9)*(1-AP10/3)/(3*AN10*AO10*AM10)</f>
+        <v>-0.40085322328398493</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="14"/>
-        <v>3.7043506184409187</v>
-      </c>
-      <c r="AR10" s="3">
+        <v>-1.8997319966092214</v>
+      </c>
+      <c r="AV10" s="3">
+        <f>2*(1-AM10)*(AK10-AK9)*(1-AP10/3)/(9*AN10*AO10*AM10)</f>
+        <v>1.2830803166468492</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="15"/>
-        <v>-0.40085322328398493</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="16"/>
-        <v>-1.8997319966092214</v>
-      </c>
-      <c r="AT10" s="3">
-        <f t="shared" si="17"/>
-        <v>1.2830803166468492</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="18"/>
         <v>7.7167678563658644</v>
       </c>
-      <c r="AV10" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX10" s="5">
+        <f>(AS10*X10-4*X10*(1-0.01*P10-2*0.01*AF10)*(0.08/0.4)/(-0.08/0.4*0.01*P10-(2*0.08/0.4+3)*0.01*AF10+0.08/0.4+1))/1000</f>
         <v>924.47503113140795</v>
       </c>
-      <c r="BK10" s="1">
-        <f>AVERAGE(BK4:BK9)</f>
+      <c r="BM10" s="1">
+        <f>AVERAGE(BM4:BM9)</f>
         <v>1.3211333333333333</v>
       </c>
-      <c r="BL10" s="1">
-        <f>AVERAGE(BL4:BL9)</f>
+      <c r="BN10" s="1">
+        <f>AVERAGE(BN4:BN9)</f>
         <v>0.26441666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45.684085314500003</v>
       </c>
@@ -24621,15 +28245,15 @@
         <v>-0.2191552131661112</v>
       </c>
       <c r="AC11" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8925179198904236</v>
+      </c>
+      <c r="AD11" s="5">
         <f t="shared" si="5"/>
-        <v>1.8925179198904236</v>
-      </c>
-      <c r="AD11" s="5">
+        <v>-2.1116731330565348</v>
+      </c>
+      <c r="AE11" s="4">
         <f t="shared" si="6"/>
-        <v>-2.1116731330565348</v>
-      </c>
-      <c r="AE11" s="4">
-        <f t="shared" si="7"/>
         <v>9.0780800075120371</v>
       </c>
       <c r="AF11" s="5">
@@ -24637,11 +28261,11 @@
         <v>-4.7216693480611109</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.36943729992481233</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0947098848993138</v>
       </c>
       <c r="AI11" s="5">
@@ -24649,7 +28273,7 @@
         <v>0.33747507446577174</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.38610571366323615</v>
       </c>
       <c r="AK11">
@@ -24665,7 +28289,7 @@
         <v>-0.69012502262193376</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM11*AS11-2*0.33*(1+AM11+AS11))</f>
         <v>-0.31520678900517529</v>
       </c>
       <c r="AO11" s="3">
@@ -24675,32 +28299,40 @@
         <f t="shared" si="13"/>
         <v>1.415398512864448</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.10276467581223292</v>
+      </c>
+      <c r="AR11" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4188552988465042</v>
+      </c>
+      <c r="AS11">
+        <f>(2*AP11+3)/(3-AP11)</f>
+        <v>3.6796614625605928</v>
+      </c>
+      <c r="AT11" s="3">
+        <f>(1+2*AM11)*(AK11-AK10)*(1-AP11/3)/(3*AN11*AO11*AM11)</f>
+        <v>-0.41614018141274756</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="14"/>
-        <v>3.6796614625605928</v>
-      </c>
-      <c r="AR11" s="3">
+        <v>-2.3158721780219689</v>
+      </c>
+      <c r="AV11" s="3">
+        <f>2*(1-AM11)*(AK11-AK10)*(1-AP11/3)/(9*AN11*AO11*AM11)</f>
+        <v>1.2330990135241955</v>
+      </c>
+      <c r="AW11">
         <f t="shared" si="15"/>
-        <v>-0.41614018141274756</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="16"/>
-        <v>-2.3158721780219689</v>
-      </c>
-      <c r="AT11" s="3">
-        <f t="shared" si="17"/>
-        <v>1.2330990135241955</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="18"/>
         <v>8.9498668698900605</v>
       </c>
-      <c r="AV11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX11" s="5">
+        <f>(AS11*X11-4*X11*(1-0.01*P11-2*0.01*AF11)*(0.08/0.4)/(-0.08/0.4*0.01*P11-(2*0.08/0.4+3)*0.01*AF11+0.08/0.4+1))/1000</f>
         <v>1065.7253912822632</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>51.8617613069</v>
       </c>
@@ -24787,15 +28419,15 @@
         <v>-0.45631196489424042</v>
       </c>
       <c r="AC12" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9806246308589979</v>
+      </c>
+      <c r="AD12" s="5">
         <f t="shared" si="5"/>
-        <v>1.9806246308589979</v>
-      </c>
-      <c r="AD12" s="5">
+        <v>-2.4369365957532381</v>
+      </c>
+      <c r="AE12" s="4">
         <f t="shared" si="6"/>
-        <v>-2.4369365957532381</v>
-      </c>
-      <c r="AE12" s="4">
-        <f t="shared" si="7"/>
         <v>10.15510136159808</v>
       </c>
       <c r="AF12" s="5">
@@ -24803,11 +28435,11 @@
         <v>-5.4578106515442402</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.32526346269670325</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0770213540860425</v>
       </c>
       <c r="AI12" s="5">
@@ -24815,7 +28447,7 @@
         <v>0.30200279823859294</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3934771539977116</v>
       </c>
       <c r="AK12">
@@ -24831,7 +28463,7 @@
         <v>-0.66790387961193665</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM12*AS12-2*0.33*(1+AM12+AS12))</f>
         <v>-0.32570696538732108</v>
       </c>
       <c r="AO12" s="3">
@@ -24841,32 +28473,40 @@
         <f t="shared" si="13"/>
         <v>1.4079733778806431</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="5">
+        <f t="shared" si="9"/>
+        <v>-9.6729723684952029E-2</v>
+      </c>
+      <c r="AR12" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4180212675490842</v>
+      </c>
+      <c r="AS12">
+        <f>(2*AP12+3)/(3-AP12)</f>
+        <v>3.6531717968503012</v>
+      </c>
+      <c r="AT12" s="3">
+        <f>(1+2*AM12)*(AK12-AK11)*(1-AP12/3)/(3*AN12*AO12*AM12)</f>
+        <v>-0.35851518460056908</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="14"/>
-        <v>3.6531717968503012</v>
-      </c>
-      <c r="AR12" s="3">
+        <v>-2.6743873626225381</v>
+      </c>
+      <c r="AV12" s="3">
+        <f>2*(1-AM12)*(AK12-AK11)*(1-AP12/3)/(9*AN12*AO12*AM12)</f>
+        <v>1.1871253733130296</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="15"/>
-        <v>-0.35851518460056908</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="16"/>
-        <v>-2.6743873626225381</v>
-      </c>
-      <c r="AT12" s="3">
-        <f t="shared" si="17"/>
-        <v>1.1871253733130296</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="18"/>
         <v>10.136992243203091</v>
       </c>
-      <c r="AV12" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX12" s="5">
+        <f>(AS12*X12-4*X12*(1-0.01*P12-2*0.01*AF12)*(0.08/0.4)/(-0.08/0.4*0.01*P12-(2*0.08/0.4+3)*0.01*AF12+0.08/0.4+1))/1000</f>
         <v>1200.4245444090104</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>57.825004132399997</v>
       </c>
@@ -24953,15 +28593,15 @@
         <v>-0.74542285367613648</v>
       </c>
       <c r="AC13" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0577865200035244</v>
+      </c>
+      <c r="AD13" s="5">
         <f t="shared" si="5"/>
-        <v>2.0577865200035244</v>
-      </c>
-      <c r="AD13" s="5">
+        <v>-2.8032093736796608</v>
+      </c>
+      <c r="AE13" s="4">
         <f t="shared" si="6"/>
-        <v>-2.8032093736796608</v>
-      </c>
-      <c r="AE13" s="4">
-        <f t="shared" si="7"/>
         <v>11.251465412258712</v>
       </c>
       <c r="AF13" s="5">
@@ -24969,11 +28609,11 @@
         <v>-6.2469184175261363</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.36627277792642277</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0963640506606325</v>
       </c>
       <c r="AI13" s="5">
@@ -24981,7 +28621,7 @@
         <v>0.33407952194868024</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.40334484827437717</v>
       </c>
       <c r="AK13">
@@ -24997,7 +28637,7 @@
         <v>-0.68797232965077726</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM13*AS13-2*0.33*(1+AM13+AS13))</f>
         <v>-0.32432587632919618</v>
       </c>
       <c r="AO13" s="3">
@@ -25007,32 +28647,40 @@
         <f t="shared" si="13"/>
         <v>1.3980944953263841</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="5">
+        <f t="shared" si="9"/>
+        <v>-9.5309040439308212E-2</v>
+      </c>
+      <c r="AR13" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4173436161462933</v>
+      </c>
+      <c r="AS13">
+        <f>(2*AP13+3)/(3-AP13)</f>
+        <v>3.6183089287989718</v>
+      </c>
+      <c r="AT13" s="3">
+        <f>(1+2*AM13)*(AK13-AK12)*(1-AP13/3)/(3*AN13*AO13*AM13)</f>
+        <v>-0.37334411171335652</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="14"/>
-        <v>3.6183089287989718</v>
-      </c>
-      <c r="AR13" s="3">
+        <v>-3.0477314743358948</v>
+      </c>
+      <c r="AV13" s="3">
+        <f>2*(1-AM13)*(AK13-AK12)*(1-AP13/3)/(9*AN13*AO13*AM13)</f>
+        <v>1.1175306691522022</v>
+      </c>
+      <c r="AW13">
         <f t="shared" si="15"/>
-        <v>-0.37334411171335652</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="16"/>
-        <v>-3.0477314743358948</v>
-      </c>
-      <c r="AT13" s="3">
-        <f t="shared" si="17"/>
-        <v>1.1175306691522022</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="18"/>
         <v>11.254522912355293</v>
       </c>
-      <c r="AV13" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX13" s="5">
+        <f>(AS13*X13-4*X13*(1-0.01*P13-2*0.01*AF13)*(0.08/0.4)/(-0.08/0.4*0.01*P13-(2*0.08/0.4+3)*0.01*AF13+0.08/0.4+1))/1000</f>
         <v>1326.0242888085886</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>63.284425561299997</v>
       </c>
@@ -25119,15 +28767,15 @@
         <v>-1.3049254718808134</v>
       </c>
       <c r="AC14" s="5">
+        <f t="shared" si="4"/>
+        <v>2.1188674035429025</v>
+      </c>
+      <c r="AD14" s="5">
         <f t="shared" si="5"/>
-        <v>2.1188674035429025</v>
-      </c>
-      <c r="AD14" s="5">
+        <v>-3.4237928754237159</v>
+      </c>
+      <c r="AE14" s="4">
         <f t="shared" si="6"/>
-        <v>-3.4237928754237159</v>
-      </c>
-      <c r="AE14" s="4">
-        <f t="shared" si="7"/>
         <v>12.439201033993605</v>
       </c>
       <c r="AF14" s="5">
@@ -25135,11 +28783,11 @@
         <v>-7.3070384102308132</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.62058350174405508</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.1877356217348929</v>
       </c>
       <c r="AI14" s="5">
@@ -25147,7 +28795,7 @@
         <v>0.52249296088096253</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.41788138582942208</v>
       </c>
       <c r="AK14">
@@ -25163,7 +28811,7 @@
         <v>-0.81634196349251509</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM14*AS14-2*0.33*(1+AM14+AS14))</f>
         <v>-0.29506852828440333</v>
       </c>
       <c r="AO14" s="3">
@@ -25173,32 +28821,40 @@
         <f t="shared" si="13"/>
         <v>1.3836680388222149</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.10109273789013917</v>
+      </c>
+      <c r="AR14" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4182907930908981</v>
+      </c>
+      <c r="AS14">
+        <f>(2*AP14+3)/(3-AP14)</f>
+        <v>3.5681631101583244</v>
+      </c>
+      <c r="AT14" s="3">
+        <f>(1+2*AM14)*(AK14-AK13)*(1-AP14/3)/(3*AN14*AO14*AM14)</f>
+        <v>-0.49579600475854896</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="14"/>
-        <v>3.5681631101583244</v>
-      </c>
-      <c r="AR14" s="3">
+        <v>-3.5435274790944438</v>
+      </c>
+      <c r="AV14" s="3">
+        <f>2*(1-AM14)*(AK14-AK13)*(1-AP14/3)/(9*AN14*AO14*AM14)</f>
+        <v>0.94890465877779384</v>
+      </c>
+      <c r="AW14">
         <f t="shared" si="15"/>
-        <v>-0.49579600475854896</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="16"/>
-        <v>-3.5435274790944438</v>
-      </c>
-      <c r="AT14" s="3">
-        <f t="shared" si="17"/>
-        <v>0.94890465877779384</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="18"/>
         <v>12.203427571133087</v>
       </c>
-      <c r="AV14" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX14" s="5">
+        <f>(AS14*X14-4*X14*(1-0.01*P14-2*0.01*AF14)*(0.08/0.4)/(-0.08/0.4*0.01*P14-(2*0.08/0.4+3)*0.01*AF14+0.08/0.4+1))/1000</f>
         <v>1425.5549001553854</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>66.596138002900005</v>
       </c>
@@ -25285,15 +28941,15 @@
         <v>-2.6533822224620751</v>
       </c>
       <c r="AC15" s="5">
+        <f t="shared" si="4"/>
+        <v>2.1275293393674088</v>
+      </c>
+      <c r="AD15" s="5">
         <f t="shared" si="5"/>
-        <v>2.1275293393674088</v>
-      </c>
-      <c r="AD15" s="5">
+        <v>-4.780911561829484</v>
+      </c>
+      <c r="AE15" s="4">
         <f t="shared" si="6"/>
-        <v>-4.780911561829484</v>
-      </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="7"/>
         <v>13.888967988420692</v>
       </c>
       <c r="AF15" s="5">
@@ -25301,11 +28957,11 @@
         <v>-9.1556358462620757</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.357118686405768</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.449766954427087</v>
       </c>
       <c r="AI15" s="5">
@@ -25313,7 +28969,7 @@
         <v>0.93609437176202481</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.4653477077267652</v>
       </c>
       <c r="AK15">
@@ -25329,7 +28985,7 @@
         <v>-1.1803322489322343</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM15*AS15-2*0.33*(1+AM15+AS15))</f>
         <v>-0.24017223826304135</v>
       </c>
       <c r="AO15" s="3">
@@ -25339,32 +28995,40 @@
         <f t="shared" si="13"/>
         <v>1.3376103702952749</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.14594544280188293</v>
+      </c>
+      <c r="AR15" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4267547868519208</v>
+      </c>
+      <c r="AS15">
+        <f>(2*AP15+3)/(3-AP15)</f>
+        <v>3.4138932529304737</v>
+      </c>
+      <c r="AT15" s="3">
+        <f>(1+2*AM15)*(AK15-AK14)*(1-AP15/3)/(3*AN15*AO15*AM15)</f>
+        <v>-0.13641197121447202</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="14"/>
-        <v>3.4138932529304737</v>
-      </c>
-      <c r="AR15" s="3">
+        <v>-3.6799394503089156</v>
+      </c>
+      <c r="AV15" s="3">
+        <f>2*(1-AM15)*(AK15-AK14)*(1-AP15/3)/(9*AN15*AO15*AM15)</f>
+        <v>0.14572459287165848</v>
+      </c>
+      <c r="AW15">
         <f t="shared" si="15"/>
-        <v>-0.13641197121447202</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="16"/>
-        <v>-3.6799394503089156</v>
-      </c>
-      <c r="AT15" s="3">
-        <f t="shared" si="17"/>
-        <v>0.14572459287165848</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="18"/>
         <v>12.349152164004746</v>
       </c>
-      <c r="AV15" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX15" s="5">
+        <f>(AS15*X15-4*X15*(1-0.01*P15-2*0.01*AF15)*(0.08/0.4)/(-0.08/0.4*0.01*P15-(2*0.08/0.4+3)*0.01*AF15+0.08/0.4+1))/1000</f>
         <v>1390.7012273019604</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>65.952929557499999</v>
       </c>
@@ -25451,15 +29115,15 @@
         <v>-3.8642283905737873</v>
       </c>
       <c r="AC16" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0614905146646674</v>
+      </c>
+      <c r="AD16" s="5">
         <f t="shared" si="5"/>
-        <v>2.0614905146646674</v>
-      </c>
-      <c r="AD16" s="5">
+        <v>-5.9257189052384547</v>
+      </c>
+      <c r="AE16" s="4">
         <f t="shared" si="6"/>
-        <v>-5.9257189052384547</v>
-      </c>
-      <c r="AE16" s="4">
-        <f t="shared" si="7"/>
         <v>15.290569338191263</v>
       </c>
       <c r="AF16" s="5">
@@ -25467,11 +29131,11 @@
         <v>-10.865474994573788</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.1448073434089707</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.401601349770571</v>
       </c>
       <c r="AI16" s="5">
@@ -25479,7 +29143,7 @@
         <v>0.81678527464058515</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.5689984615663578</v>
       </c>
       <c r="AK16">
@@ -25495,7 +29159,7 @@
         <v>-1.0611806744108421</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM16*AS16-2*0.33*(1+AM16+AS16))</f>
         <v>-0.30014509376023368</v>
       </c>
       <c r="AO16" s="3">
@@ -25505,32 +29169,40 @@
         <f t="shared" si="13"/>
         <v>1.242589837405389</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.25028217880876458</v>
+      </c>
+      <c r="AR16" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4438092414250847</v>
+      </c>
+      <c r="AS16">
+        <f>(2*AP16+3)/(3-AP16)</f>
+        <v>3.1211721609214726</v>
+      </c>
+      <c r="AT16" s="3">
+        <f>(1+2*AM16)*(AK16-AK15)*(1-AP16/3)/(3*AN16*AO16*AM16)</f>
+        <v>0.78638020928095964</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="14"/>
-        <v>3.1211721609214726</v>
-      </c>
-      <c r="AR16" s="3">
+        <v>-2.893559241027956</v>
+      </c>
+      <c r="AV16" s="3">
+        <f>2*(1-AM16)*(AK16-AK15)*(1-AP16/3)/(9*AN16*AO16*AM16)</f>
+        <v>-0.96277471410952553</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="15"/>
-        <v>0.78638020928095964</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="16"/>
-        <v>-2.893559241027956</v>
-      </c>
-      <c r="AT16" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.96277471410952553</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="18"/>
         <v>11.386377449895221</v>
       </c>
-      <c r="AV16" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX16" s="5">
+        <f>(AS16*X16-4*X16*(1-0.01*P16-2*0.01*AF16)*(0.08/0.4)/(-0.08/0.4*0.01*P16-(2*0.08/0.4+3)*0.01*AF16+0.08/0.4+1))/1000</f>
         <v>1181.3090715573342</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>65.988671707600005</v>
       </c>
@@ -25617,15 +29289,15 @@
         <v>-5.4363852433199522</v>
       </c>
       <c r="AC17" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0337872691598444</v>
+      </c>
+      <c r="AD17" s="5">
         <f t="shared" si="5"/>
-        <v>2.0337872691598444</v>
-      </c>
-      <c r="AD17" s="5">
+        <v>-7.4701725124797971</v>
+      </c>
+      <c r="AE17" s="4">
         <f t="shared" si="6"/>
-        <v>-7.4701725124797971</v>
-      </c>
-      <c r="AE17" s="4">
-        <f t="shared" si="7"/>
         <v>16.815645384239986</v>
       </c>
       <c r="AF17" s="5">
@@ -25633,11 +29305,11 @@
         <v>-12.938143728219952</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-1.5444536072413424</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5250760460487225</v>
       </c>
       <c r="AI17" s="5">
@@ -25645,7 +29317,7 @@
         <v>1.0127059639044391</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.61556579399163081</v>
       </c>
       <c r="AK17">
@@ -25661,7 +29333,7 @@
         <v>-1.2643856008550984</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM17*AS17-2*0.33*(1+AM17+AS17))</f>
         <v>-0.27691249426868625</v>
       </c>
       <c r="AO17" s="3">
@@ -25671,32 +29343,40 @@
         <f t="shared" si="13"/>
         <v>1.2023515721906852</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.29451962309151147</v>
+      </c>
+      <c r="AR17" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4548658322330144</v>
+      </c>
+      <c r="AS17">
+        <f>(2*AP17+3)/(3-AP17)</f>
+        <v>3.0065406899210845</v>
+      </c>
+      <c r="AT17" s="3">
+        <f>(1+2*AM17)*(AK17-AK16)*(1-AP17/3)/(3*AN17*AO17*AM17)</f>
+        <v>0.40032934791797298</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="14"/>
-        <v>3.0065406899210845</v>
-      </c>
-      <c r="AR17" s="3">
+        <v>-2.4932298931099832</v>
+      </c>
+      <c r="AV17" s="3">
+        <f>2*(1-AM17)*(AK17-AK16)*(1-AP17/3)/(9*AN17*AO17*AM17)</f>
+        <v>-0.39530659657075817</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="15"/>
-        <v>0.40032934791797298</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="16"/>
-        <v>-2.4932298931099832</v>
-      </c>
-      <c r="AT17" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.39530659657075817</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="18"/>
         <v>10.991070853324462</v>
       </c>
-      <c r="AV17" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX17" s="5">
+        <f>(AS17*X17-4*X17*(1-0.01*P17-2*0.01*AF17)*(0.08/0.4)/(-0.08/0.4*0.01*P17-(2*0.08/0.4+3)*0.01*AF17+0.08/0.4+1))/1000</f>
         <v>1113.11345449385</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>65.279167170600005</v>
       </c>
@@ -25783,15 +29463,15 @@
         <v>-6.2832829179633842</v>
       </c>
       <c r="AC18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9958235298477638</v>
+      </c>
+      <c r="AD18" s="5">
         <f t="shared" si="5"/>
-        <v>1.9958235298477638</v>
-      </c>
-      <c r="AD18" s="5">
+        <v>-8.2791064478111487</v>
+      </c>
+      <c r="AE18" s="4">
         <f t="shared" si="6"/>
-        <v>-8.2791064478111487</v>
-      </c>
-      <c r="AE18" s="4">
-        <f t="shared" si="7"/>
         <v>18.09725157922113</v>
       </c>
       <c r="AF18" s="5">
@@ -25799,11 +29479,11 @@
         <v>-14.284694887913385</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-0.80893393533135161</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2816061949811441</v>
       </c>
       <c r="AI18" s="5">
@@ -25811,7 +29491,7 @@
         <v>0.63118759764051635</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.67731222913416778</v>
       </c>
       <c r="AK18">
@@ -25827,7 +29507,7 @@
         <v>-0.89968610241896818</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM18*AS18-2*0.33*(1+AM18+AS18))</f>
         <v>-0.39372889955754958</v>
       </c>
       <c r="AO18" s="3">
@@ -25837,28 +29517,36 @@
         <f t="shared" si="13"/>
         <v>1.1512965760359233</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.35114586969069839</v>
+      </c>
+      <c r="AR18" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4655083420472426</v>
+      </c>
+      <c r="AS18">
+        <f>(2*AP18+3)/(3-AP18)</f>
+        <v>2.8682768059691139</v>
+      </c>
+      <c r="AT18" s="3">
+        <f>(1+2*AM18)*(AK18-AK17)*(1-AP18/3)/(3*AN18*AO18*AM18)</f>
+        <v>0.2827122405286816</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="14"/>
-        <v>2.8682768059691139</v>
-      </c>
-      <c r="AR18" s="3">
+        <v>-2.2105176525813017</v>
+      </c>
+      <c r="AV18" s="3">
+        <f>2*(1-AM18)*(AK18-AK17)*(1-AP18/3)/(9*AN18*AO18*AM18)</f>
+        <v>-0.44790525286857141</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="15"/>
-        <v>0.2827122405286816</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="16"/>
-        <v>-2.2105176525813017</v>
-      </c>
-      <c r="AT18" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.44790525286857141</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="18"/>
         <v>10.543165600455891</v>
       </c>
-      <c r="AV18" s="5">
-        <f t="shared" si="10"/>
+      <c r="AX18" s="5">
+        <f>(AS18*X18-4*X18*(1-0.01*P18-2*0.01*AF18)*(0.08/0.4)/(-0.08/0.4*0.01*P18-(2*0.08/0.4+3)*0.01*AF18+0.08/0.4+1))/1000</f>
         <v>1029.2702145734695</v>
       </c>
     </row>

--- a/SMP_PP.xlsx
+++ b/SMP_PP.xlsx
@@ -23,12 +23,11 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>avgT</t>
   </si>
@@ -213,6 +212,18 @@
     <t>dev/deq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E(e4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -257,13 +268,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,37 +571,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5654975550419137E-2</c:v>
+                  <c:v>2.6095386909164242E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9687913538822113E-2</c:v>
+                  <c:v>-2.002589011320817E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14669627847789402</c:v>
+                  <c:v>-0.14921456999605698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.34785557800560762</c:v>
+                  <c:v>-0.35382711157637381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.60261587509288983</c:v>
+                  <c:v>-0.61296080314902657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.88841708343080095</c:v>
+                  <c:v>-0.9036682760923247</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2047937454090074</c:v>
+                  <c:v>-1.2254760824231434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5382671031164885</c:v>
+                  <c:v>-1.564674078389765</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8655900888544057</c:v>
+                  <c:v>-1.8976161207747655</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.1860587115504639</c:v>
+                  <c:v>-2.2235861332998406</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.4909820664351492</c:v>
+                  <c:v>-2.5337440170100924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,43 +649,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13731101219579545"/>
-                  <c:y val="0.23513876935266989"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -727,34 +703,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1904378826251398E-3</c:v>
+                  <c:v>-1.5091416112978846E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10492397173885364</c:v>
+                  <c:v>-0.13301419089971026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.32772219721909018</c:v>
+                  <c:v>-0.4154599009220542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.62726144132843142</c:v>
+                  <c:v>-0.79519171566006674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.97919579245770139</c:v>
+                  <c:v>-1.2413458422097736</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.3762852491278306</c:v>
+                  <c:v>-1.7447439877283533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7623208045414187</c:v>
+                  <c:v>-2.2341288843433973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1407365708208852</c:v>
+                  <c:v>-2.7138540238056699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.4999620318474234</c:v>
+                  <c:v>-3.1692512343491837</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.8789147901051182</c:v>
+                  <c:v>-3.6496571291461994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,49 +883,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2631334268668694E-2</c:v>
+                  <c:v>3.3102401457492811E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7452196297611461E-2</c:v>
+                  <c:v>4.015378023873311E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0251418027362432E-3</c:v>
+                  <c:v>-2.962134541724018E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.3657724193448575E-2</c:v>
+                  <c:v>-9.3110884100155458E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.15629526125663026</c:v>
+                  <c:v>-0.22860996274458928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.26910228580932211</c:v>
+                  <c:v>-0.39361054864191025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.40216375546102434</c:v>
+                  <c:v>-0.58823690759382341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.54590380178204334</c:v>
+                  <c:v>-0.79848260775230928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.69576067500867556</c:v>
+                  <c:v>-1.0176752686808421</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.85287354796043013</c:v>
+                  <c:v>-1.2474811357520188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0112227743417701</c:v>
+                  <c:v>-1.4790953923367622</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.1647129293089771</c:v>
+                  <c:v>-1.7036023820342883</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.3181010913210736</c:v>
+                  <c:v>-1.9279601886697013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.4659152157327249</c:v>
+                  <c:v>-2.1441649616307124</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.6072505239998338</c:v>
+                  <c:v>-2.3508932993784963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,34 +1063,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7427059605727592E-3</c:v>
+                  <c:v>5.0092908674774219E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.159158742239365E-2</c:v>
+                  <c:v>-9.6739900433833292E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.28397629002830371</c:v>
+                  <c:v>-0.29993844190313435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.55891022102112886</c:v>
+                  <c:v>-0.59032625871725208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.87431946352142842</c:v>
+                  <c:v>-0.9234644821511826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2273335479938108</c:v>
+                  <c:v>-1.2963212951476288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5978973680401445</c:v>
+                  <c:v>-1.6877143047516803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.9755399234259199</c:v>
+                  <c:v>-2.0865839415352232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.338564562994446</c:v>
+                  <c:v>-2.4700139974521385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6679661648287905</c:v>
+                  <c:v>-2.8179310830818665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,46 +1240,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9345889913356037E-2</c:v>
+                  <c:v>3.4283113758771591E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2091852825261708E-2</c:v>
+                  <c:v>2.580863983974075E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.9936048439186835E-2</c:v>
+                  <c:v>-4.6654986294804059E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.15052506102855337</c:v>
+                  <c:v>-0.1758497631533496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.3038902923839355</c:v>
+                  <c:v>-0.35501753379246448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.48603036175505476</c:v>
+                  <c:v>-0.56780129113351152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6914401859425634</c:v>
+                  <c:v>-0.80776976339935347</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.91301735888984092</c:v>
+                  <c:v>-1.0666256184757141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1412251735436336</c:v>
+                  <c:v>-1.3332276705353414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3711098879836039</c:v>
+                  <c:v>-1.6017887480769468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.600610531245088</c:v>
+                  <c:v>-1.8699011373714964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.8194540822523146</c:v>
+                  <c:v>-2.1255634593084314</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.030650279013599</c:v>
+                  <c:v>-2.3722918175338776</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.2191476663391421</c:v>
+                  <c:v>-2.5925024634537235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,52 +1435,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3233111893664743E-2</c:v>
+                  <c:v>3.1600724802344528E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.910172503260401E-2</c:v>
+                  <c:v>4.5614996748750955E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2622357988583498E-3</c:v>
+                  <c:v>1.7342248503114745E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.1199714148297643E-2</c:v>
+                  <c:v>-5.0625003254861453E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.6052609394078907E-2</c:v>
+                  <c:v>-0.15773389877692556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.12326948944551851</c:v>
+                  <c:v>-0.29436804009480499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.19159980923124134</c:v>
+                  <c:v>-0.4575411205127653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.26666003574646335</c:v>
+                  <c:v>-0.63678524546002979</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.34672472013956523</c:v>
+                  <c:v>-0.82798003609005921</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.42918471718799933</c:v>
+                  <c:v>-1.024894843043155</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.51388993252806692</c:v>
+                  <c:v>-1.2271712403708523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.6000248135959636</c:v>
+                  <c:v>-1.4328616852474183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.68350020377704768</c:v>
+                  <c:v>-1.6322012551140979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.76550714837325451</c:v>
+                  <c:v>-1.8280341709762014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.84565732670854898</c:v>
+                  <c:v>-2.0194331214864767</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.92233411428251055</c:v>
+                  <c:v>-2.202537600789837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249525056"/>
-        <c:axId val="249525616"/>
+        <c:axId val="112467488"/>
+        <c:axId val="222150656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249525056"/>
+        <c:axId val="112467488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -1581,12 +1557,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249525616"/>
+        <c:crossAx val="222150656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249525616"/>
+        <c:axId val="222150656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -1645,7 +1621,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249525056"/>
+        <c:crossAx val="112467488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2599,11 +2575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280626544"/>
-        <c:axId val="280627104"/>
+        <c:axId val="223829776"/>
+        <c:axId val="223830336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280626544"/>
+        <c:axId val="223829776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2662,12 +2638,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280627104"/>
+        <c:crossAx val="223830336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280627104"/>
+        <c:axId val="223830336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.1000000000000001"/>
@@ -2725,7 +2701,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280626544"/>
+        <c:crossAx val="223829776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3675,11 +3651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280632144"/>
-        <c:axId val="280632704"/>
+        <c:axId val="223575552"/>
+        <c:axId val="223576112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280632144"/>
+        <c:axId val="223575552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3738,12 +3714,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280632704"/>
+        <c:crossAx val="223576112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280632704"/>
+        <c:axId val="223576112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3776,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280632144"/>
+        <c:crossAx val="223575552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5041,11 +5017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280637744"/>
-        <c:axId val="280638304"/>
+        <c:axId val="223581152"/>
+        <c:axId val="223581712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280637744"/>
+        <c:axId val="223581152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,12 +5078,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280638304"/>
+        <c:crossAx val="223581712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280638304"/>
+        <c:axId val="223581712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5164,7 +5140,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280637744"/>
+        <c:crossAx val="223581152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6359,11 +6335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280903088"/>
-        <c:axId val="280903648"/>
+        <c:axId val="223711248"/>
+        <c:axId val="223711808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280903088"/>
+        <c:axId val="223711248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6420,12 +6396,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280903648"/>
+        <c:crossAx val="223711808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280903648"/>
+        <c:axId val="223711808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6482,7 +6458,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280903088"/>
+        <c:crossAx val="223711248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7721,11 +7697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280909248"/>
-        <c:axId val="280909808"/>
+        <c:axId val="224501488"/>
+        <c:axId val="224502048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280909248"/>
+        <c:axId val="224501488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -7783,12 +7759,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280909808"/>
+        <c:crossAx val="224502048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280909808"/>
+        <c:axId val="224502048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7847,7 +7823,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280909248"/>
+        <c:crossAx val="224501488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8708,11 +8684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280914848"/>
-        <c:axId val="280915408"/>
+        <c:axId val="224258560"/>
+        <c:axId val="224259120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280914848"/>
+        <c:axId val="224258560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8769,12 +8745,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280915408"/>
+        <c:crossAx val="224259120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280915408"/>
+        <c:axId val="224259120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8831,7 +8807,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280914848"/>
+        <c:crossAx val="224258560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8876,6 +8852,1370 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>q/p-M vs -dev/deq-ratioF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$3:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.83001552430559766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7589948652665472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7416603735437604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7576796987193877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7930546241118881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8349244772073154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.914758087843035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9833701226127234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0780800075120371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.15510136159808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.251465412258712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$3:$AK$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.60061892880312828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.30138627592682421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15177106377303382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.0695657991340543E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0398366953782174E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2741916863815621E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12562206492201283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1282502206012604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16931188578909095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14729969667299786</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19067598618298803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AE$3:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.60385484924843991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5489256315891522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5823189195798366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.616329679161276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.708119553395461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8224228299217398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9544037559349565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.087888554101534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2382312100566431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.393042696659142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$AK$3:$AK$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.70605126612892855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45995222581271566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19408680441648557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17391490547081886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2528242095995235E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9140567057673215E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8943275276051956E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12248126928121894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13958487615794091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18393319450803192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AE$4:$AE$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.6467493256652945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5786011719554747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4797714886515165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.46032940890486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3807128307200633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3933386030602106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3773424148796956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3693944476711231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3997601185372393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.42127381778735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.4366759110223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.453888443639299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.494096944178469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.54301115556521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Sheet1!$AK$4:$AK$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.40485392051930391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.17352835981385803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.24745589546699159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5243877271932188E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.19499043696748292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1168135843371561E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.119058804466923E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7633912957753174E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14429736033531446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10508211793984881</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10466979165443102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10305792650396825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17600702450437045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18478149165285754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AE$3:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86439544855037098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8270880839220307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8131835652496848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8888826306841788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9384663104565565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0396844916037837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1192576157988006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2334755863341869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3529214808213137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.457959603650322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]Sheet1!$AK$3:$AK$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.65262833329556669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.30812391846028003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.23369233205721099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8954057987516482E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.032785581487891E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10091745549064901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9300687410046007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15781244541759759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16227730569698551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1140885314607003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AE$3:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.78881789650508294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6964328109948899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6687025817170649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5894703995944859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5971902850329718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5707389170981036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6047566541380522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6222196992331996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6452885353400131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6871456706652967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.740525300466734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.799224683651081</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.842394085569522</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.939128383436827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[4]Sheet1!$AK$3:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.62419518553100561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.28837080116051617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.10983163666915507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.24855467100647527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9988980547508334E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.6140632797213286E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10132504833385481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5290502958180193E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8877101742463356E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1293693322270639</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1576137901859756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17899874918137998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14144278474134586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26469412729394198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AE$4:$AE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.6206165472530574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5471234733867654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4239152124484211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3781385242079391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2990118274572842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2776536759509556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2305419317242237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.203357726998961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2076430177192403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.190712166579036</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.186873665065443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.189923798057709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.186169417201416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.215500696200856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.2256821864807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[5]Sheet1!$AK$4:$AK$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.4526178563952778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14994799588181601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.30974416433533181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8656373532525513E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.16471268996780364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.796617240530628E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0201437626560159E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.1797318460938667E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3182206481999375E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6901743124891773E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2501387546333881E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.919317487584974E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4917713707522519E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16176550449777738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12664249693403368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="322563968"/>
+        <c:axId val="322564528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="322563968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322564528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="322564528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322563968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3536964129483818E-2"/>
+                  <c:y val="-5.0462962962962961E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$50:$AM$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22844827586206898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$50:$AN$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389426992"/>
+        <c:axId val="389424752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389426992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389424752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389424752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389426992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -9090,37 +10430,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32785260842472591</c:v>
+                  <c:v>0.333480756947444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98473790785068327</c:v>
+                  <c:v>1.0016426115465418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.828030388908142</c:v>
+                  <c:v>1.8594116445957243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.853756560645158</c:v>
+                  <c:v>2.9027461534019894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9933758581170684</c:v>
+                  <c:v>4.0619289574640884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1785095759504767</c:v>
+                  <c:v>5.2674075144473091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4286439210938733</c:v>
+                  <c:v>6.5390025452372971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7091518448261676</c:v>
+                  <c:v>7.8414925688342549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9382122720426516</c:v>
+                  <c:v>9.0916519119965553</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.123777131383966</c:v>
+                  <c:v>10.297569011766118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.237901773609105</c:v>
+                  <c:v>11.430819501393819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9258,34 +10598,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14966403971812714</c:v>
+                  <c:v>0.18973205855604308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75419574307525772</c:v>
+                  <c:v>0.95610883654733847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5999177869566343</c:v>
+                  <c:v>2.028247371990084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5588916216418149</c:v>
+                  <c:v>3.2439574390100407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5817688453985008</c:v>
+                  <c:v>4.5406790942517201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6750074708023757</c:v>
+                  <c:v>5.9265992877832403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6979216728099011</c:v>
+                  <c:v>7.2233678210837162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6750493596311102</c:v>
+                  <c:v>8.4620918849393707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5847064855881428</c:v>
+                  <c:v>9.61528218645104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.533535499482225</c:v>
+                  <c:v>10.818131463825052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9438,49 +10778,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14854016008244036</c:v>
+                  <c:v>0.21726673086245912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46046536705182289</c:v>
+                  <c:v>0.67351351256930891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91209846818702189</c:v>
+                  <c:v>1.3341082458620384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4961946721484658</c:v>
+                  <c:v>2.1884541188800997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1866457176067189</c:v>
+                  <c:v>3.1983630982700815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9417692620436089</c:v>
+                  <c:v>4.3028672526080083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.762858238447468</c:v>
+                  <c:v>5.5038577292000577</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6098432443501096</c:v>
+                  <c:v>6.7427258118778663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4655460158101015</c:v>
+                  <c:v>7.9943451964394185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3423579476966037</c:v>
+                  <c:v>9.2768405291255291</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.2134230461766373</c:v>
+                  <c:v>10.550930083156617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0489753017865979</c:v>
+                  <c:v>11.773075709904129</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8787554386974783</c:v>
+                  <c:v>12.986778573703202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6737895208700309</c:v>
+                  <c:v>14.149659075932348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.430400262291734</c:v>
+                  <c:v>15.256338523651266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9618,34 +10958,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36682728460913289</c:v>
+                  <c:v>0.38744644555450292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.069171511298709</c:v>
+                  <c:v>1.1292690569138419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9719565656150422</c:v>
+                  <c:v>2.082799165142557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0271417117703341</c:v>
+                  <c:v>3.1972956909814041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1237747847488615</c:v>
+                  <c:v>4.3555699089305229</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2777155831302203</c:v>
+                  <c:v>5.5743730881694198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4468107928548273</c:v>
+                  <c:v>6.8091824999208974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6084836770708364</c:v>
+                  <c:v>8.0361523813083267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.704583710111212</c:v>
+                  <c:v>9.1938635974360423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6845225951735223</c:v>
+                  <c:v>10.22888431101952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9795,46 +11135,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21956745620914278</c:v>
+                  <c:v>0.25650801870950274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67608465731172929</c:v>
+                  <c:v>0.7898307833094238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2991875096384944</c:v>
+                  <c:v>1.5177659739887566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0987545559134877</c:v>
+                  <c:v>2.4518541235096496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0194232534186689</c:v>
+                  <c:v>3.5274183604062421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0167615062381667</c:v>
+                  <c:v>4.6925512249517389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0710121136395214</c:v>
+                  <c:v>5.9241715169417635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1666303680256327</c:v>
+                  <c:v>7.2041192493910282</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2672321148831349</c:v>
+                  <c:v>8.4898889091976546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3557717745118048</c:v>
+                  <c:v>9.7615671269026709</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4284185963350566</c:v>
+                  <c:v>11.014678657141689</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.440413364157113</c:v>
+                  <c:v>12.196933884397037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.410138247097093</c:v>
+                  <c:v>13.329807638599055</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.267146932066279</c:v>
+                  <c:v>14.331001547722318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9990,52 +11330,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9485618901577321E-2</c:v>
+                  <c:v>0.18981197989078344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24921213333126693</c:v>
+                  <c:v>0.59511958382040087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50332054620856159</c:v>
+                  <c:v>1.201931503028931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83653861105183336</c:v>
+                  <c:v>1.9976575915631898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2308455508686231</c:v>
+                  <c:v>2.9392641609726358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6721953505777603</c:v>
+                  <c:v>3.9932092703505235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1546078229830496</c:v>
+                  <c:v>5.1452122084497924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6588403847394986</c:v>
+                  <c:v>6.3493216083011674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1785284463823587</c:v>
+                  <c:v>7.590338804483272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6997728001789887</c:v>
+                  <c:v>8.8350724326322876</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2275013259494019</c:v>
+                  <c:v>10.095290289718617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7591405679894727</c:v>
+                  <c:v>11.364846953097114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2705532784669931</c:v>
+                  <c:v>12.586102577177357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.7708800323728369</c:v>
+                  <c:v>13.780884892061142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2580174114758211</c:v>
+                  <c:v>14.94417092649258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7231608607857787</c:v>
+                  <c:v>16.0549353674926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10050,11 +11390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252234896"/>
-        <c:axId val="252235456"/>
+        <c:axId val="222155696"/>
+        <c:axId val="222156256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252234896"/>
+        <c:axId val="222155696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10111,12 +11451,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252235456"/>
+        <c:crossAx val="222156256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252235456"/>
+        <c:axId val="222156256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -10174,7 +11514,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252234896"/>
+        <c:crossAx val="222155696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11119,11 +12459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279766368"/>
-        <c:axId val="279766928"/>
+        <c:axId val="222600144"/>
+        <c:axId val="222600704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279766368"/>
+        <c:axId val="222600144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11180,12 +12520,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279766928"/>
+        <c:crossAx val="222600704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279766928"/>
+        <c:axId val="222600704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11242,7 +12582,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279766368"/>
+        <c:crossAx val="222600144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12497,11 +13837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279771968"/>
-        <c:axId val="279772528"/>
+        <c:axId val="222802224"/>
+        <c:axId val="222802784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279771968"/>
+        <c:axId val="222802224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12558,12 +13898,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279772528"/>
+        <c:crossAx val="222802784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279772528"/>
+        <c:axId val="222802784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12620,7 +13960,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279771968"/>
+        <c:crossAx val="222802224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13499,11 +14839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280035664"/>
-        <c:axId val="280036224"/>
+        <c:axId val="222807824"/>
+        <c:axId val="222808384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280035664"/>
+        <c:axId val="222807824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13560,12 +14900,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280036224"/>
+        <c:crossAx val="222808384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280036224"/>
+        <c:axId val="222808384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.2"/>
@@ -13623,7 +14963,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280035664"/>
+        <c:crossAx val="222807824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14548,11 +15888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280041264"/>
-        <c:axId val="280041824"/>
+        <c:axId val="222979056"/>
+        <c:axId val="222979616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280041264"/>
+        <c:axId val="222979056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14609,12 +15949,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280041824"/>
+        <c:crossAx val="222979616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280041824"/>
+        <c:axId val="222979616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14671,7 +16011,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280041264"/>
+        <c:crossAx val="222979056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15625,11 +16965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280461088"/>
-        <c:axId val="280461648"/>
+        <c:axId val="223398784"/>
+        <c:axId val="223399344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280461088"/>
+        <c:axId val="223398784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15686,12 +17026,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280461648"/>
+        <c:crossAx val="223399344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280461648"/>
+        <c:axId val="223399344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15748,7 +17088,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280461088"/>
+        <c:crossAx val="223398784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16714,11 +18054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280466688"/>
-        <c:axId val="280467248"/>
+        <c:axId val="223404384"/>
+        <c:axId val="223276864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280466688"/>
+        <c:axId val="223404384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -16777,12 +18117,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280467248"/>
+        <c:crossAx val="223276864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280467248"/>
+        <c:axId val="223276864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16839,7 +18179,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280466688"/>
+        <c:crossAx val="223404384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17805,11 +19145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280325184"/>
-        <c:axId val="280325744"/>
+        <c:axId val="223281904"/>
+        <c:axId val="223282464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280325184"/>
+        <c:axId val="223281904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17866,12 +19206,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280325744"/>
+        <c:crossAx val="223282464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280325744"/>
+        <c:axId val="223282464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.1000000000000001"/>
@@ -17929,7 +19269,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280325184"/>
+        <c:crossAx val="223281904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18299,6 +19639,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21716,6 +23136,1038 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26841,6 +29293,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>718456</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>112700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="51" name="Chart 50"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26918,9 +29434,6 @@
           <cell r="AI3">
             <v>4.0842846288488374E-2</v>
           </cell>
-          <cell r="AJ3">
-            <v>7.9540675560220153E-3</v>
-          </cell>
           <cell r="AK3">
             <v>-0.70605126612892855</v>
           </cell>
@@ -26937,10 +29450,10 @@
             <v>1.3918723722861615</v>
           </cell>
           <cell r="AV3">
-            <v>-1.1904378826251398E-3</v>
+            <v>-1.5091416112978846E-3</v>
           </cell>
           <cell r="AX3">
-            <v>0.14966403971812714</v>
+            <v>0.18973205855604308</v>
           </cell>
           <cell r="AY3">
             <v>11.544925646599328</v>
@@ -26971,9 +29484,6 @@
           <cell r="AI4">
             <v>0.10787949529033893</v>
           </cell>
-          <cell r="AJ4">
-            <v>0.17159320723821048</v>
-          </cell>
           <cell r="AK4">
             <v>-0.45995222581271566</v>
           </cell>
@@ -26990,10 +29500,10 @@
             <v>1.4607850395800126</v>
           </cell>
           <cell r="AV4">
-            <v>-0.10492397173885364</v>
+            <v>-0.13301419089971026</v>
           </cell>
           <cell r="AX4">
-            <v>0.75419574307525772</v>
+            <v>0.95610883654733847</v>
           </cell>
           <cell r="AY4">
             <v>42.093808622920491</v>
@@ -27024,9 +29534,6 @@
           <cell r="AI5">
             <v>0.283316482340563</v>
           </cell>
-          <cell r="AJ5">
-            <v>0.26344143101404943</v>
-          </cell>
           <cell r="AK5">
             <v>-0.19408680441648557</v>
           </cell>
@@ -27043,10 +29550,10 @@
             <v>1.502249990271521</v>
           </cell>
           <cell r="AV5">
-            <v>-0.32772219721909018</v>
+            <v>-0.4154599009220542</v>
           </cell>
           <cell r="AX5">
-            <v>1.5999177869566343</v>
+            <v>2.028247371990084</v>
           </cell>
           <cell r="AY5">
             <v>85.079679730579613</v>
@@ -27077,9 +29584,6 @@
           <cell r="AI6">
             <v>0.24718256576763123</v>
           </cell>
-          <cell r="AJ6">
-            <v>0.31235392799603989</v>
-          </cell>
           <cell r="AK6">
             <v>-0.17391490547081886</v>
           </cell>
@@ -27096,10 +29600,10 @@
             <v>1.5220789884291808</v>
           </cell>
           <cell r="AV6">
-            <v>-0.62726144132843142</v>
+            <v>-0.79519171566006674</v>
           </cell>
           <cell r="AX6">
-            <v>2.5588916216418149</v>
+            <v>3.2439574390100407</v>
           </cell>
           <cell r="AY6">
             <v>133.27363886553618</v>
@@ -27130,9 +29634,6 @@
           <cell r="AI7">
             <v>0.36868669352690009</v>
           </cell>
-          <cell r="AJ7">
-            <v>0.34406314165128504</v>
-          </cell>
           <cell r="AK7">
             <v>-1.2528242095995235E-2</v>
           </cell>
@@ -27149,10 +29650,10 @@
             <v>1.5339994551803409</v>
           </cell>
           <cell r="AV7">
-            <v>-0.97919579245770139</v>
+            <v>-1.2413458422097736</v>
           </cell>
           <cell r="AX7">
-            <v>3.5817688453985008</v>
+            <v>4.5406790942517201</v>
           </cell>
           <cell r="AY7">
             <v>184.69861856820185</v>
@@ -27183,9 +29684,6 @@
           <cell r="AI8">
             <v>0.38917513943375837</v>
           </cell>
-          <cell r="AJ8">
-            <v>0.36322303973062842</v>
-          </cell>
           <cell r="AK8">
             <v>3.9140567057673215E-2</v>
           </cell>
@@ -27202,10 +29700,10 @@
             <v>1.5392447513591121</v>
           </cell>
           <cell r="AV8">
-            <v>-1.3762852491278306</v>
+            <v>-1.7447439877283533</v>
           </cell>
           <cell r="AX8">
-            <v>4.6750074708023757</v>
+            <v>5.9265992877832403</v>
           </cell>
           <cell r="AY8">
             <v>238.74042309813143</v>
@@ -27236,9 +29734,6 @@
           <cell r="AI9">
             <v>0.42597121092347212</v>
           </cell>
-          <cell r="AJ9">
-            <v>0.37738801031012359</v>
-          </cell>
           <cell r="AK9">
             <v>9.8943275276051956E-2</v>
           </cell>
@@ -27255,10 +29750,10 @@
             <v>1.5431350808447455</v>
           </cell>
           <cell r="AV9">
-            <v>-1.7623208045414187</v>
+            <v>-2.2341288843433973</v>
           </cell>
           <cell r="AX9">
-            <v>5.6979216728099011</v>
+            <v>7.2233678210837162</v>
           </cell>
           <cell r="AY9">
             <v>288.26842852417082</v>
@@ -27289,9 +29784,6 @@
           <cell r="AI10">
             <v>0.43118470053842217</v>
           </cell>
-          <cell r="AJ10">
-            <v>0.3872736095632785</v>
-          </cell>
           <cell r="AK10">
             <v>0.12248126928121894</v>
           </cell>
@@ -27308,10 +29800,10 @@
             <v>1.5452230971805572</v>
           </cell>
           <cell r="AV10">
-            <v>-2.1407365708208852</v>
+            <v>-2.7138540238056699</v>
           </cell>
           <cell r="AX10">
-            <v>6.6750493596311102</v>
+            <v>8.4620918849393707</v>
           </cell>
           <cell r="AY10">
             <v>335.24516626817837</v>
@@ -27342,9 +29834,6 @@
           <cell r="AI11">
             <v>0.43350936839468679</v>
           </cell>
-          <cell r="AJ11">
-            <v>0.39490204690982245</v>
-          </cell>
           <cell r="AK11">
             <v>0.13958487615794091</v>
           </cell>
@@ -27361,10 +29850,10 @@
             <v>1.5466578892505494</v>
           </cell>
           <cell r="AV11">
-            <v>-2.4999620318474234</v>
+            <v>-3.1692512343491837</v>
           </cell>
           <cell r="AX11">
-            <v>7.5847064855881428</v>
+            <v>9.61528218645104</v>
           </cell>
           <cell r="AY11">
             <v>378.71117269034664</v>
@@ -27395,18 +29884,12 @@
           <cell r="AI12">
             <v>0.46429708450470886</v>
           </cell>
-          <cell r="AJ12">
-            <v>0.39938993507632886</v>
-          </cell>
           <cell r="AK12">
             <v>0.18393319450803192</v>
           </cell>
           <cell r="AL12">
             <v>239369.36507900001</v>
           </cell>
-          <cell r="AQ12">
-            <v>1.5570272623984061</v>
-          </cell>
           <cell r="AR12">
             <v>-8.4206913835273622E-2</v>
           </cell>
@@ -27414,10 +29897,10 @@
             <v>1.5461569761614034</v>
           </cell>
           <cell r="AV12">
-            <v>-2.8789147901051182</v>
+            <v>-3.6496571291461994</v>
           </cell>
           <cell r="AX12">
-            <v>8.533535499482225</v>
+            <v>10.818131463825052</v>
           </cell>
           <cell r="AY12">
             <v>425.01970569761494</v>
@@ -27589,10 +30072,10 @@
             <v>-0.63744354881092868</v>
           </cell>
           <cell r="AV3">
-            <v>2.2631334268668694E-2</v>
+            <v>3.3102401457492811E-2</v>
           </cell>
           <cell r="AX3">
-            <v>0.14854016008244036</v>
+            <v>0.21726673086245912</v>
           </cell>
           <cell r="AY3">
             <v>61.931726521892458</v>
@@ -27623,9 +30106,6 @@
           <cell r="AI4">
             <v>-4.6859977566318184E-2</v>
           </cell>
-          <cell r="AJ4">
-            <v>-1.545518579848526E-2</v>
-          </cell>
           <cell r="AK4">
             <v>-0.40485392051930391</v>
           </cell>
@@ -27642,10 +30122,10 @@
             <v>1.2674374098477243</v>
           </cell>
           <cell r="AV4">
-            <v>2.7452196297611461E-2</v>
+            <v>4.015378023873311E-2</v>
           </cell>
           <cell r="AX4">
-            <v>0.46046536705182289</v>
+            <v>0.67351351256930891</v>
           </cell>
           <cell r="AY4">
             <v>184.80683914850931</v>
@@ -27676,9 +30156,6 @@
           <cell r="AI5">
             <v>0.10618214039800114</v>
           </cell>
-          <cell r="AJ5">
-            <v>6.5268329593767882E-2</v>
-          </cell>
           <cell r="AK5">
             <v>-0.17352835981385803</v>
           </cell>
@@ -27695,10 +30172,10 @@
             <v>1.3042096531654834</v>
           </cell>
           <cell r="AV5">
-            <v>-2.0251418027362432E-3</v>
+            <v>-2.962134541724018E-3</v>
           </cell>
           <cell r="AX5">
-            <v>0.91209846818702189</v>
+            <v>1.3341082458620384</v>
           </cell>
           <cell r="AY5">
             <v>363.10386387041603</v>
@@ -27729,9 +30206,6 @@
           <cell r="AI6">
             <v>-2.1924240778651686E-2</v>
           </cell>
-          <cell r="AJ6">
-            <v>0.10551786156579906</v>
-          </cell>
           <cell r="AK6">
             <v>-0.24745589546699159</v>
           </cell>
@@ -27748,10 +30222,10 @@
             <v>1.3183581430222466</v>
           </cell>
           <cell r="AV6">
-            <v>-6.3657724193448575E-2</v>
+            <v>-9.3110884100155458E-2</v>
           </cell>
           <cell r="AX6">
-            <v>1.4961946721484658</v>
+            <v>2.1884541188800997</v>
           </cell>
           <cell r="AY6">
             <v>594.72293735444919</v>
@@ -27782,9 +30256,6 @@
           <cell r="AI7">
             <v>0.16993265795957338</v>
           </cell>
-          <cell r="AJ7">
-            <v>0.13416959489386848</v>
-          </cell>
           <cell r="AK7">
             <v>-1.5243877271932188E-2</v>
           </cell>
@@ -27801,10 +30272,10 @@
             <v>1.3279356232650532</v>
           </cell>
           <cell r="AV7">
-            <v>-0.15629526125663026</v>
+            <v>-0.22860996274458928</v>
           </cell>
           <cell r="AX7">
-            <v>2.1866457176067189</v>
+            <v>3.1983630982700815</v>
           </cell>
           <cell r="AY7">
             <v>866.81967125087601</v>
@@ -27835,9 +30306,6 @@
           <cell r="AI8">
             <v>-4.0853242139867352E-2</v>
           </cell>
-          <cell r="AJ8">
-            <v>0.14938883230930661</v>
-          </cell>
           <cell r="AK8">
             <v>-0.19499043696748292</v>
           </cell>
@@ -27854,10 +30322,10 @@
             <v>1.3303684809938174</v>
           </cell>
           <cell r="AV8">
-            <v>-0.26910228580932211</v>
+            <v>-0.39361054864191025</v>
           </cell>
           <cell r="AX8">
-            <v>2.9417692620436089</v>
+            <v>4.3028672526080083</v>
           </cell>
           <cell r="AY8">
             <v>1159.9771004039569</v>
@@ -27888,9 +30356,6 @@
           <cell r="AI9">
             <v>0.19991441602661708</v>
           </cell>
-          <cell r="AJ9">
-            <v>0.16205487282812436</v>
-          </cell>
           <cell r="AK9">
             <v>7.1168135843371561E-2</v>
           </cell>
@@ -27907,10 +30372,10 @@
             <v>1.3325151605340986</v>
           </cell>
           <cell r="AV9">
-            <v>-0.40216375546102434</v>
+            <v>-0.58823690759382341</v>
           </cell>
           <cell r="AX9">
-            <v>3.762858238447468</v>
+            <v>5.5038577292000577</v>
           </cell>
           <cell r="AY9">
             <v>1476.9150446862989</v>
@@ -27941,9 +30406,6 @@
           <cell r="AI10">
             <v>0.10886873797094514</v>
           </cell>
-          <cell r="AJ10">
-            <v>0.16970789957235849</v>
-          </cell>
           <cell r="AK10">
             <v>9.119058804466923E-4</v>
           </cell>
@@ -27960,10 +30422,10 @@
             <v>1.3323063744073291</v>
           </cell>
           <cell r="AV10">
-            <v>-0.54590380178204334</v>
+            <v>-0.79848260775230928</v>
           </cell>
           <cell r="AX10">
-            <v>4.6098432443501096</v>
+            <v>6.7427258118778663</v>
           </cell>
           <cell r="AY10">
             <v>1798.7786048701641</v>
@@ -27994,9 +30456,6 @@
           <cell r="AI11">
             <v>0.12821332560205365</v>
           </cell>
-          <cell r="AJ11">
-            <v>0.1751272500507948</v>
-          </cell>
           <cell r="AK11">
             <v>3.7633912957753174E-2</v>
           </cell>
@@ -28013,10 +30472,10 @@
             <v>1.3314244469471184</v>
           </cell>
           <cell r="AV11">
-            <v>-0.69576067500867556</v>
+            <v>-1.0176752686808421</v>
           </cell>
           <cell r="AX11">
-            <v>5.4655460158101015</v>
+            <v>7.9943451964394185</v>
           </cell>
           <cell r="AY11">
             <v>2119.4620586188844</v>
@@ -28047,9 +30506,6 @@
           <cell r="AI12">
             <v>0.21974677545261531</v>
           </cell>
-          <cell r="AJ12">
-            <v>0.17918651336520805</v>
-          </cell>
           <cell r="AK12">
             <v>0.14429736033531446</v>
           </cell>
@@ -28066,10 +30522,10 @@
             <v>1.3301795875108662</v>
           </cell>
           <cell r="AV12">
-            <v>-0.85287354796043013</v>
+            <v>-1.2474811357520188</v>
           </cell>
           <cell r="AX12">
-            <v>6.3423579476966037</v>
+            <v>9.2768405291255291</v>
           </cell>
           <cell r="AY12">
             <v>2450.0695611309498</v>
@@ -28100,9 +30556,6 @@
           <cell r="AI13">
             <v>0.16744754833402556</v>
           </cell>
-          <cell r="AJ13">
-            <v>0.18178805081003913</v>
-          </cell>
           <cell r="AK13">
             <v>0.10508211793984881</v>
           </cell>
@@ -28119,10 +30572,10 @@
             <v>1.3284454741104303</v>
           </cell>
           <cell r="AV13">
-            <v>-1.0112227743417701</v>
+            <v>-1.4790953923367622</v>
           </cell>
           <cell r="AX13">
-            <v>7.2134230461766373</v>
+            <v>10.550930083156617</v>
           </cell>
           <cell r="AY13">
             <v>2773.2292757628188</v>
@@ -28153,9 +30606,6 @@
           <cell r="AI14">
             <v>0.15585393274086612</v>
           </cell>
-          <cell r="AJ14">
-            <v>0.18369904926551572</v>
-          </cell>
           <cell r="AK14">
             <v>0.10466979165443102</v>
           </cell>
@@ -28172,10 +30622,10 @@
             <v>1.3267376202319348</v>
           </cell>
           <cell r="AV14">
-            <v>-1.1647129293089771</v>
+            <v>-1.7036023820342883</v>
           </cell>
           <cell r="AX14">
-            <v>8.0489753017865979</v>
+            <v>11.773075709904129</v>
           </cell>
           <cell r="AY14">
             <v>3078.7193865813874</v>
@@ -28206,9 +30656,6 @@
           <cell r="AI15">
             <v>0.14422389569489544</v>
           </cell>
-          <cell r="AJ15">
-            <v>0.18485398142106957</v>
-          </cell>
           <cell r="AK15">
             <v>0.10305792650396825</v>
           </cell>
@@ -28225,10 +30672,10 @@
             <v>1.3248041835398001</v>
           </cell>
           <cell r="AV15">
-            <v>-1.3181010913210736</v>
+            <v>-1.9279601886697013</v>
           </cell>
           <cell r="AX15">
-            <v>8.8787554386974783</v>
+            <v>12.986778573703202</v>
           </cell>
           <cell r="AY15">
             <v>3385.3134271444919</v>
@@ -28259,9 +30706,6 @@
           <cell r="AI16">
             <v>0.2084072696498479</v>
           </cell>
-          <cell r="AJ16">
-            <v>0.18592174565362865</v>
-          </cell>
           <cell r="AK16">
             <v>0.17600702450437045</v>
           </cell>
@@ -28278,10 +30722,10 @@
             <v>1.3231538634581774</v>
           </cell>
           <cell r="AV16">
-            <v>-1.4659152157327249</v>
+            <v>-2.1441649616307124</v>
           </cell>
           <cell r="AX16">
-            <v>9.6737895208700309</v>
+            <v>14.149659075932348</v>
           </cell>
           <cell r="AY16">
             <v>3678.2700597738526</v>
@@ -28312,9 +30756,6 @@
           <cell r="AI17">
             <v>0.20945477774799928</v>
           </cell>
-          <cell r="AJ17">
-            <v>0.18680055744587248</v>
-          </cell>
           <cell r="AK17">
             <v>0.18478149165285754</v>
           </cell>
@@ -28331,10 +30772,10 @@
             <v>1.321653945538507</v>
           </cell>
           <cell r="AV17">
-            <v>-1.6072505239998338</v>
+            <v>-2.3508932993784963</v>
           </cell>
           <cell r="AX17">
-            <v>10.430400262291734</v>
+            <v>15.256338523651266</v>
           </cell>
           <cell r="AY17">
             <v>3951.3515544303914</v>
@@ -28453,9 +30894,6 @@
           <cell r="AI3">
             <v>-5.1394653408672643E-2</v>
           </cell>
-          <cell r="AJ3">
-            <v>-1.2928989089855514E-2</v>
-          </cell>
           <cell r="AK3">
             <v>-0.65262833329556669</v>
           </cell>
@@ -28472,10 +30910,10 @@
             <v>1.3364994765752083</v>
           </cell>
           <cell r="AV3">
-            <v>4.7427059605727592E-3</v>
+            <v>5.0092908674774219E-3</v>
           </cell>
           <cell r="AX3">
-            <v>0.36682728460913289</v>
+            <v>0.38744644555450292</v>
           </cell>
           <cell r="AY3">
             <v>31.048885324486896</v>
@@ -28506,9 +30944,6 @@
           <cell r="AI4">
             <v>0.16424718930868293</v>
           </cell>
-          <cell r="AJ4">
-            <v>0.13716108102294489</v>
-          </cell>
           <cell r="AK4">
             <v>-0.30812391846028003</v>
           </cell>
@@ -28525,10 +30960,10 @@
             <v>1.4094839683000642</v>
           </cell>
           <cell r="AV4">
-            <v>-9.159158742239365E-2</v>
+            <v>-9.6739900433833292E-2</v>
           </cell>
           <cell r="AX4">
-            <v>1.069171511298709</v>
+            <v>1.1292690569138419</v>
           </cell>
           <cell r="AY4">
             <v>83.878038367314915</v>
@@ -28559,9 +30994,6 @@
           <cell r="AI5">
             <v>0.16525783709594841</v>
           </cell>
-          <cell r="AJ5">
-            <v>0.21310133756212912</v>
-          </cell>
           <cell r="AK5">
             <v>-0.23369233205721099</v>
           </cell>
@@ -28578,10 +31010,10 @@
             <v>1.4441391477414154</v>
           </cell>
           <cell r="AV5">
-            <v>-0.28397629002830371</v>
+            <v>-0.29993844190313435</v>
           </cell>
           <cell r="AX5">
-            <v>1.9719565656150422</v>
+            <v>2.082799165142557</v>
           </cell>
           <cell r="AY5">
             <v>151.60234099951631</v>
@@ -28612,9 +31044,6 @@
           <cell r="AI6">
             <v>0.36754258371404336</v>
           </cell>
-          <cell r="AJ6">
-            <v>0.26055515659463535</v>
-          </cell>
           <cell r="AK6">
             <v>1.8954057987516482E-2</v>
           </cell>
@@ -28631,10 +31060,10 @@
             <v>1.4645556971216849</v>
           </cell>
           <cell r="AV6">
-            <v>-0.55891022102112886</v>
+            <v>-0.59032625871725208</v>
           </cell>
           <cell r="AX6">
-            <v>3.0271417117703341</v>
+            <v>3.1972956909814041</v>
           </cell>
           <cell r="AY6">
             <v>230.65721129774403</v>
@@ -28665,9 +31094,6 @@
           <cell r="AI7">
             <v>0.27255207952320798</v>
           </cell>
-          <cell r="AJ7">
-            <v>0.28761602241634676</v>
-          </cell>
           <cell r="AK7">
             <v>-4.032785581487891E-2</v>
           </cell>
@@ -28684,10 +31110,10 @@
             <v>1.4742663948737307</v>
           </cell>
           <cell r="AV7">
-            <v>-0.87431946352142842</v>
+            <v>-0.9234644821511826</v>
           </cell>
           <cell r="AX7">
-            <v>4.1237747847488615</v>
+            <v>4.3555699089305229</v>
           </cell>
           <cell r="AY7">
             <v>312.06306622211565</v>
@@ -28718,9 +31144,6 @@
           <cell r="AI8">
             <v>0.38562228960070855</v>
           </cell>
-          <cell r="AJ8">
-            <v>0.30592044667071117</v>
-          </cell>
           <cell r="AK8">
             <v>0.10091745549064901</v>
           </cell>
@@ -28737,10 +31160,10 @@
             <v>1.4797233670772458</v>
           </cell>
           <cell r="AV8">
-            <v>-1.2273335479938108</v>
+            <v>-1.2963212951476288</v>
           </cell>
           <cell r="AX8">
-            <v>5.2777155831302203</v>
+            <v>5.5743730881694198</v>
           </cell>
           <cell r="AY8">
             <v>396.30829648304172</v>
@@ -28771,9 +31194,6 @@
           <cell r="AI9">
             <v>0.31133034989955954</v>
           </cell>
-          <cell r="AJ9">
-            <v>0.3169663317101642</v>
-          </cell>
           <cell r="AK9">
             <v>4.9300687410046007E-2</v>
           </cell>
@@ -28790,10 +31210,10 @@
             <v>1.4814483811730523</v>
           </cell>
           <cell r="AV9">
-            <v>-1.5978973680401445</v>
+            <v>-1.6877143047516803</v>
           </cell>
           <cell r="AX9">
-            <v>6.4468107928548273</v>
+            <v>6.8091824999208974</v>
           </cell>
           <cell r="AY9">
             <v>480.40795615833036</v>
@@ -28824,9 +31244,6 @@
           <cell r="AI10">
             <v>0.40119168171511116</v>
           </cell>
-          <cell r="AJ10">
-            <v>0.32508510830967652</v>
-          </cell>
           <cell r="AK10">
             <v>0.15781244541759759</v>
           </cell>
@@ -28843,10 +31260,10 @@
             <v>1.4821678556984998</v>
           </cell>
           <cell r="AV10">
-            <v>-1.9755399234259199</v>
+            <v>-2.0865839415352232</v>
           </cell>
           <cell r="AX10">
-            <v>7.6084836770708364</v>
+            <v>8.0361523813083267</v>
           </cell>
           <cell r="AY10">
             <v>564.33125013541826</v>
@@ -28877,9 +31294,6 @@
           <cell r="AI11">
             <v>0.39052838706837911</v>
           </cell>
-          <cell r="AJ11">
-            <v>0.33119663226499868</v>
-          </cell>
           <cell r="AK11">
             <v>0.16227730569698551</v>
           </cell>
@@ -28896,10 +31310,10 @@
             <v>1.4824084988052613</v>
           </cell>
           <cell r="AV11">
-            <v>-2.338564562994446</v>
+            <v>-2.4700139974521385</v>
           </cell>
           <cell r="AX11">
-            <v>8.704583710111212</v>
+            <v>9.1938635974360423</v>
           </cell>
           <cell r="AY11">
             <v>641.86882088350251</v>
@@ -28930,9 +31344,6 @@
           <cell r="AI12">
             <v>0.330298467982723</v>
           </cell>
-          <cell r="AJ12">
-            <v>0.33614504624275532</v>
-          </cell>
           <cell r="AK12">
             <v>0.1140885314607003</v>
           </cell>
@@ -28949,10 +31360,10 @@
             <v>1.4826608118626396</v>
           </cell>
           <cell r="AV12">
-            <v>-2.6679661648287905</v>
+            <v>-2.8179310830818665</v>
           </cell>
           <cell r="AX12">
-            <v>9.6845225951735223</v>
+            <v>10.22888431101952</v>
           </cell>
           <cell r="AY12">
             <v>708.60531781783538</v>
@@ -29100,9 +31511,6 @@
           <cell r="AI3">
             <v>-0.11074208538079086</v>
           </cell>
-          <cell r="AJ3">
-            <v>-0.13365318531268788</v>
-          </cell>
           <cell r="AK3">
             <v>-0.62419518553100561</v>
           </cell>
@@ -29119,10 +31527,10 @@
             <v>1.2248812582812547</v>
           </cell>
           <cell r="AV3">
-            <v>2.9345889913356037E-2</v>
+            <v>3.4283113758771591E-2</v>
           </cell>
           <cell r="AX3">
-            <v>0.21956745620914278</v>
+            <v>0.25650801870950274</v>
           </cell>
           <cell r="AY3">
             <v>54.365336687304591</v>
@@ -29150,9 +31558,6 @@
           <cell r="AI4">
             <v>8.9969369627914908E-2</v>
           </cell>
-          <cell r="AJ4">
-            <v>1.5889953479462093E-2</v>
-          </cell>
           <cell r="AK4">
             <v>-0.28837080116051617</v>
           </cell>
@@ -29169,10 +31574,10 @@
             <v>1.2957423290308558</v>
           </cell>
           <cell r="AV4">
-            <v>2.2091852825261708E-2</v>
+            <v>2.580863983974075E-2</v>
           </cell>
           <cell r="AX4">
-            <v>0.67608465731172929</v>
+            <v>0.7898307833094238</v>
           </cell>
           <cell r="AY4">
             <v>160.48713074337977</v>
@@ -29200,9 +31605,6 @@
           <cell r="AI5">
             <v>0.19277198405871621</v>
           </cell>
-          <cell r="AJ5">
-            <v>9.9546810021534149E-2</v>
-          </cell>
           <cell r="AK5">
             <v>-0.10983163666915507</v>
           </cell>
@@ -29219,10 +31621,10 @@
             <v>1.3353410948911584</v>
           </cell>
           <cell r="AV5">
-            <v>-3.9936048439186835E-2</v>
+            <v>-4.6654986294804059E-2</v>
           </cell>
           <cell r="AX5">
-            <v>1.2991875096384944</v>
+            <v>1.5177659739887566</v>
           </cell>
           <cell r="AY5">
             <v>305.59690770020325</v>
@@ -29250,9 +31652,6 @@
           <cell r="AI6">
             <v>6.6666663472654346E-4</v>
           </cell>
-          <cell r="AJ6">
-            <v>0.13831111862923356</v>
-          </cell>
           <cell r="AK6">
             <v>-0.24855467100647527</v>
           </cell>
@@ -29269,10 +31668,10 @@
             <v>1.3486350720753781</v>
           </cell>
           <cell r="AV6">
-            <v>-0.15052506102855337</v>
+            <v>-0.1758497631533496</v>
           </cell>
           <cell r="AX6">
-            <v>2.0987545559134877</v>
+            <v>2.4518541235096496</v>
           </cell>
           <cell r="AY6">
             <v>492.94413798949682</v>
@@ -29300,9 +31699,6 @@
           <cell r="AI7">
             <v>0.2297789426055418</v>
           </cell>
-          <cell r="AJ7">
-            <v>0.16658026038136164</v>
-          </cell>
           <cell r="AK7">
             <v>1.9988980547508334E-2</v>
           </cell>
@@ -29319,10 +31715,10 @@
             <v>1.3581910462283144</v>
           </cell>
           <cell r="AV7">
-            <v>-0.3038902923839355</v>
+            <v>-0.35501753379246448</v>
           </cell>
           <cell r="AX7">
-            <v>3.0194232534186689</v>
+            <v>3.5274183604062421</v>
           </cell>
           <cell r="AY7">
             <v>707.26118805332396</v>
@@ -29350,9 +31746,6 @@
           <cell r="AI8">
             <v>0.11323347460248688</v>
           </cell>
-          <cell r="AJ8">
-            <v>0.18262617407504952</v>
-          </cell>
           <cell r="AK8">
             <v>-6.6140632797213286E-2</v>
           </cell>
@@ -29369,10 +31762,10 @@
             <v>1.3613944161372902</v>
           </cell>
           <cell r="AV8">
-            <v>-0.48603036175505476</v>
+            <v>-0.56780129113351152</v>
           </cell>
           <cell r="AX8">
-            <v>4.0167615062381667</v>
+            <v>4.6925512249517389</v>
           </cell>
           <cell r="AY8">
             <v>936.11469677757157</v>
@@ -29400,9 +31793,6 @@
           <cell r="AI9">
             <v>0.25614555927382932</v>
           </cell>
-          <cell r="AJ9">
-            <v>0.19483965458063887</v>
-          </cell>
           <cell r="AK9">
             <v>0.10132504833385481</v>
           </cell>
@@ -29419,10 +31809,10 @@
             <v>1.3634450721850284</v>
           </cell>
           <cell r="AV9">
-            <v>-0.6914401859425634</v>
+            <v>-0.80776976339935347</v>
           </cell>
           <cell r="AX9">
-            <v>5.0710121136395214</v>
+            <v>5.9241715169417635</v>
           </cell>
           <cell r="AY9">
             <v>1175.6239317602474</v>
@@ -29450,9 +31840,6 @@
           <cell r="AI10">
             <v>0.18967887126291841</v>
           </cell>
-          <cell r="AJ10">
-            <v>0.20223939502671939</v>
-          </cell>
           <cell r="AK10">
             <v>5.5290502958180193E-2</v>
           </cell>
@@ -29469,10 +31856,10 @@
             <v>1.3631517740369967</v>
           </cell>
           <cell r="AV10">
-            <v>-0.91301735888984092</v>
+            <v>-1.0666256184757141</v>
           </cell>
           <cell r="AX10">
-            <v>6.1666303680256327</v>
+            <v>7.2041192493910282</v>
           </cell>
           <cell r="AY10">
             <v>1424.3196858457177</v>
@@ -29500,9 +31887,6 @@
           <cell r="AI11">
             <v>0.1761483333410791</v>
           </cell>
-          <cell r="AJ11">
-            <v>0.20734822137561043</v>
-          </cell>
           <cell r="AK11">
             <v>5.8877101742463356E-2</v>
           </cell>
@@ -29519,10 +31903,10 @@
             <v>1.3621170997440533</v>
           </cell>
           <cell r="AV11">
-            <v>-1.1412251735436336</v>
+            <v>-1.3332276705353414</v>
           </cell>
           <cell r="AX11">
-            <v>7.2672321148831349</v>
+            <v>8.4898889091976546</v>
           </cell>
           <cell r="AY11">
             <v>1667.6431045936072</v>
@@ -29550,9 +31934,6 @@
           <cell r="AI12">
             <v>0.23211006444578428</v>
           </cell>
-          <cell r="AJ12">
-            <v>0.21118634714548667</v>
-          </cell>
           <cell r="AK12">
             <v>0.1293693322270639</v>
           </cell>
@@ -29569,10 +31950,10 @@
             <v>1.3608779354942386</v>
           </cell>
           <cell r="AV12">
-            <v>-1.3711098879836039</v>
+            <v>-1.6017887480769468</v>
           </cell>
           <cell r="AX12">
-            <v>8.3557717745118048</v>
+            <v>9.7615671269026709</v>
           </cell>
           <cell r="AY12">
             <v>1906.5175356346383</v>
@@ -29600,9 +31981,6 @@
           <cell r="AI13">
             <v>0.24779357165198596</v>
           </cell>
-          <cell r="AJ13">
-            <v>0.21395732368962428</v>
-          </cell>
           <cell r="AK13">
             <v>0.1576137901859756</v>
           </cell>
@@ -29619,10 +31997,10 @@
             <v>1.3594109987045153</v>
           </cell>
           <cell r="AV13">
-            <v>-1.600610531245088</v>
+            <v>-1.8699011373714964</v>
           </cell>
           <cell r="AX13">
-            <v>9.4284185963350566</v>
+            <v>11.014678657141689</v>
           </cell>
           <cell r="AY13">
             <v>2142.1675735633012</v>
@@ -29650,9 +32028,6 @@
           <cell r="AI14">
             <v>0.25855179774673392</v>
           </cell>
-          <cell r="AJ14">
-            <v>0.21624968622931356</v>
-          </cell>
           <cell r="AK14">
             <v>0.17899874918137998</v>
           </cell>
@@ -29669,10 +32044,10 @@
             <v>1.3581323811731396</v>
           </cell>
           <cell r="AV14">
-            <v>-1.8194540822523146</v>
+            <v>-2.1255634593084314</v>
           </cell>
           <cell r="AX14">
-            <v>10.440413364157113</v>
+            <v>12.196933884397037</v>
           </cell>
           <cell r="AY14">
             <v>2361.2133516477543</v>
@@ -29700,9 +32075,6 @@
           <cell r="AI15">
             <v>0.21170228602219121</v>
           </cell>
-          <cell r="AJ15">
-            <v>0.2177898087145983</v>
-          </cell>
           <cell r="AK15">
             <v>0.14144278474134586</v>
           </cell>
@@ -29719,10 +32091,10 @@
             <v>1.3566779581793642</v>
           </cell>
           <cell r="AV15">
-            <v>-2.030650279013599</v>
+            <v>-2.3722918175338776</v>
           </cell>
           <cell r="AX15">
-            <v>11.410138247097093</v>
+            <v>13.329807638599055</v>
           </cell>
           <cell r="AY15">
             <v>2568.1640328165322</v>
@@ -29750,9 +32122,6 @@
           <cell r="AI16">
             <v>0.32732446015141975</v>
           </cell>
-          <cell r="AJ16">
-            <v>0.21994804793876821</v>
-          </cell>
           <cell r="AK16">
             <v>0.26469412729394198</v>
           </cell>
@@ -29769,10 +32138,10 @@
             <v>1.3561308502824347</v>
           </cell>
           <cell r="AV16">
-            <v>-2.2191476663391421</v>
+            <v>-2.5925024634537235</v>
           </cell>
           <cell r="AX16">
-            <v>12.267146932066279</v>
+            <v>14.331001547722318</v>
           </cell>
           <cell r="AY16">
             <v>2743.74210855725</v>
@@ -29865,10 +32234,10 @@
             <v>-0.63869358318500224</v>
           </cell>
           <cell r="AV3">
-            <v>1.3233111893664743E-2</v>
+            <v>3.1600724802344528E-2</v>
           </cell>
           <cell r="AX3">
-            <v>7.9485618901577321E-2</v>
+            <v>0.18981197989078344</v>
           </cell>
           <cell r="AY3">
             <v>66.92944684181353</v>
@@ -29896,9 +32265,6 @@
           <cell r="AI4">
             <v>-0.1078086035595493</v>
           </cell>
-          <cell r="AJ4">
-            <v>-3.4576878919942655E-2</v>
-          </cell>
           <cell r="AK4">
             <v>-0.4526178563952778</v>
           </cell>
@@ -29915,10 +32281,10 @@
             <v>1.2499567696550691</v>
           </cell>
           <cell r="AV4">
-            <v>1.910172503260401E-2</v>
+            <v>4.5614996748750955E-2</v>
           </cell>
           <cell r="AX4">
-            <v>0.24921213333126693</v>
+            <v>0.59511958382040087</v>
           </cell>
           <cell r="AY4">
             <v>202.48649776813525</v>
@@ -29946,9 +32312,6 @@
           <cell r="AI5">
             <v>0.11519071294757506</v>
           </cell>
-          <cell r="AJ5">
-            <v>4.6592275712897369E-2</v>
-          </cell>
           <cell r="AK5">
             <v>-0.14994799588181601</v>
           </cell>
@@ -29965,10 +32328,10 @@
             <v>1.2866680625801192</v>
           </cell>
           <cell r="AV5">
-            <v>7.2622357988583498E-3</v>
+            <v>1.7342248503114745E-2</v>
           </cell>
           <cell r="AX5">
-            <v>0.50332054620856159</v>
+            <v>1.201931503028931</v>
           </cell>
           <cell r="AY5">
             <v>405.25533765032992</v>
@@ -29996,9 +32359,6 @@
           <cell r="AI6">
             <v>-9.9516155032836312E-2</v>
           </cell>
-          <cell r="AJ6">
-            <v>8.541538694951295E-2</v>
-          </cell>
           <cell r="AK6">
             <v>-0.30974416433533181</v>
           </cell>
@@ -30015,10 +32375,10 @@
             <v>1.2995821175854314</v>
           </cell>
           <cell r="AV6">
-            <v>-2.1199714148297643E-2</v>
+            <v>-5.0625003254861453E-2</v>
           </cell>
           <cell r="AX6">
-            <v>0.83653861105183336</v>
+            <v>1.9976575915631898</v>
           </cell>
           <cell r="AY6">
             <v>672.45894328324471</v>
@@ -30046,9 +32406,6 @@
           <cell r="AI7">
             <v>0.12096597033193311</v>
           </cell>
-          <cell r="AJ7">
-            <v>0.11375121946020461</v>
-          </cell>
           <cell r="AK7">
             <v>-4.8656373532525513E-2</v>
           </cell>
@@ -30065,10 +32422,10 @@
             <v>1.3088617618063878</v>
           </cell>
           <cell r="AV7">
-            <v>-6.6052609394078907E-2</v>
+            <v>-0.15773389877692556</v>
           </cell>
           <cell r="AX7">
-            <v>1.2308455508686231</v>
+            <v>2.9392641609726358</v>
           </cell>
           <cell r="AY7">
             <v>985.887740696366</v>
@@ -30096,9 +32453,6 @@
           <cell r="AI8">
             <v>-2.6741625870882232E-2</v>
           </cell>
-          <cell r="AJ8">
-            <v>0.12964066164558649</v>
-          </cell>
           <cell r="AK8">
             <v>-0.16471268996780364</v>
           </cell>
@@ -30115,10 +32469,10 @@
             <v>1.3116104255648411</v>
           </cell>
           <cell r="AV8">
-            <v>-0.12326948944551851</v>
+            <v>-0.29436804009480499</v>
           </cell>
           <cell r="AX8">
-            <v>1.6721953505777603</v>
+            <v>3.9932092703505235</v>
           </cell>
           <cell r="AY8">
             <v>1332.6255506436266</v>
@@ -30146,9 +32500,6 @@
           <cell r="AI9">
             <v>0.11896201453232283</v>
           </cell>
-          <cell r="AJ9">
-            <v>0.14164293772304554</v>
-          </cell>
           <cell r="AK9">
             <v>6.796617240530628E-3</v>
           </cell>
@@ -30165,10 +32516,10 @@
             <v>1.3131621703968959</v>
           </cell>
           <cell r="AV9">
-            <v>-0.19159980923124134</v>
+            <v>-0.4575411205127653</v>
           </cell>
           <cell r="AX9">
-            <v>2.1546078229830496</v>
+            <v>5.1452122084497924</v>
           </cell>
           <cell r="AY9">
             <v>1708.8414786126064</v>
@@ -30196,9 +32547,6 @@
           <cell r="AI10">
             <v>4.0733161947652412E-2</v>
           </cell>
-          <cell r="AJ10">
-            <v>0.14886033193444792</v>
-          </cell>
           <cell r="AK10">
             <v>-5.0201437626560159E-2</v>
           </cell>
@@ -30215,10 +32563,10 @@
             <v>1.3125161714701861</v>
           </cell>
           <cell r="AV10">
-            <v>-0.26666003574646335</v>
+            <v>-0.63678524546002979</v>
           </cell>
           <cell r="AX10">
-            <v>2.6588403847394986</v>
+            <v>6.3493216083011674</v>
           </cell>
           <cell r="AY10">
             <v>2096.6708599958552</v>
@@ -30246,9 +32594,6 @@
           <cell r="AI11">
             <v>6.9818142605431524E-2</v>
           </cell>
-          <cell r="AJ11">
-            <v>0.15406296642643291</v>
-          </cell>
           <cell r="AK11">
             <v>-3.1797318460938667E-3</v>
           </cell>
@@ -30265,10 +32610,10 @@
             <v>1.3113228324652066</v>
           </cell>
           <cell r="AV11">
-            <v>-0.34672472013956523</v>
+            <v>-0.82798003609005921</v>
           </cell>
           <cell r="AX11">
-            <v>3.1785284463823587</v>
+            <v>7.590338804483272</v>
           </cell>
           <cell r="AY11">
             <v>2492.6820608569533</v>
@@ -30296,9 +32641,6 @@
           <cell r="AI12">
             <v>0.15093514975031641</v>
           </cell>
-          <cell r="AJ12">
-            <v>0.15819835063500168</v>
-          </cell>
           <cell r="AK12">
             <v>9.3182206481999375E-2</v>
           </cell>
@@ -30315,10 +32657,10 @@
             <v>1.3101012843440658</v>
           </cell>
           <cell r="AV12">
-            <v>-0.42918471718799933</v>
+            <v>-1.024894843043155</v>
           </cell>
           <cell r="AX12">
-            <v>3.6997728001789887</v>
+            <v>8.8350724326322876</v>
           </cell>
           <cell r="AY12">
             <v>2885.3704377407312</v>
@@ -30346,9 +32688,6 @@
           <cell r="AI13">
             <v>9.1284176167296296E-2</v>
           </cell>
-          <cell r="AJ13">
-            <v>0.16050907086443611</v>
-          </cell>
           <cell r="AK13">
             <v>4.6901743124891773E-2</v>
           </cell>
@@ -30365,10 +32704,10 @@
             <v>1.3080775400048008</v>
           </cell>
           <cell r="AV13">
-            <v>-0.51388993252806692</v>
+            <v>-1.2271712403708523</v>
           </cell>
           <cell r="AX13">
-            <v>4.2275013259494019</v>
+            <v>10.095290289718617</v>
           </cell>
           <cell r="AY13">
             <v>3280.3454628033014</v>
@@ -30396,9 +32735,6 @@
           <cell r="AI14">
             <v>0.10502693692479052</v>
           </cell>
-          <cell r="AJ14">
-            <v>0.16201753794052029</v>
-          </cell>
           <cell r="AK14">
             <v>7.2501387546333881E-2</v>
           </cell>
@@ -30415,10 +32751,10 @@
             <v>1.3058916771368241</v>
           </cell>
           <cell r="AV14">
-            <v>-0.6000248135959636</v>
+            <v>-1.4328616852474183</v>
           </cell>
           <cell r="AX14">
-            <v>4.7591405679894727</v>
+            <v>11.364846953097114</v>
           </cell>
           <cell r="AY14">
             <v>3680.7455875409596</v>
@@ -30446,9 +32782,6 @@
           <cell r="AI15">
             <v>0.11146740295940191</v>
           </cell>
-          <cell r="AJ15">
-            <v>0.16322509877226327</v>
-          </cell>
           <cell r="AK15">
             <v>8.919317487584974E-2</v>
           </cell>
@@ -30465,10 +32798,10 @@
             <v>1.3039318769176413</v>
           </cell>
           <cell r="AV15">
-            <v>-0.68350020377704768</v>
+            <v>-1.6322012551140979</v>
           </cell>
           <cell r="AX15">
-            <v>5.2705532784669931</v>
+            <v>12.586102577177357</v>
           </cell>
           <cell r="AY15">
             <v>4055.5300218515031</v>
@@ -30496,9 +32829,6 @@
           <cell r="AI16">
             <v>9.8066489313421074E-2</v>
           </cell>
-          <cell r="AJ16">
-            <v>0.16390677483467098</v>
-          </cell>
           <cell r="AK16">
             <v>8.4917713707522519E-2</v>
           </cell>
@@ -30515,10 +32845,10 @@
             <v>1.3019027547873547</v>
           </cell>
           <cell r="AV16">
-            <v>-0.76550714837325451</v>
+            <v>-1.8280341709762014</v>
           </cell>
           <cell r="AX16">
-            <v>5.7708800323728369</v>
+            <v>13.780884892061142</v>
           </cell>
           <cell r="AY16">
             <v>4426.2488534488339</v>
@@ -30546,9 +32876,6 @@
           <cell r="AI17">
             <v>0.16673310846158473</v>
           </cell>
-          <cell r="AJ17">
-            <v>0.16453300808671917</v>
-          </cell>
           <cell r="AK17">
             <v>0.16176550449777738</v>
           </cell>
@@ -30565,10 +32892,10 @@
             <v>1.3000945244579549</v>
           </cell>
           <cell r="AV17">
-            <v>-0.84565732670854898</v>
+            <v>-2.0194331214864767</v>
           </cell>
           <cell r="AX17">
-            <v>6.2580174114758211</v>
+            <v>14.94417092649258</v>
           </cell>
           <cell r="AY17">
             <v>4784.2638981297505</v>
@@ -30596,9 +32923,6 @@
           <cell r="AI18">
             <v>0.12434768712026428</v>
           </cell>
-          <cell r="AJ18">
-            <v>0.1648454636687067</v>
-          </cell>
           <cell r="AK18">
             <v>0.12664249693403368</v>
           </cell>
@@ -30615,10 +32939,10 @@
             <v>1.298313202836358</v>
           </cell>
           <cell r="AV18">
-            <v>-0.92233411428251055</v>
+            <v>-2.202537600789837</v>
           </cell>
           <cell r="AX18">
-            <v>6.7231608607857787</v>
+            <v>16.0549353674926</v>
           </cell>
           <cell r="AY18">
             <v>5125.1246043857955</v>
@@ -31445,10 +33769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO18"/>
+  <dimension ref="A1:BO55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25"/>
+    <sheetView tabSelected="1" topLeftCell="AD22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO24" sqref="AO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31888,11 +34212,11 @@
         <v>1.2579208308207357E-2</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" ref="AG3:AH18" si="10">AD3-AD2</f>
+        <f>AD3-AD2</f>
         <v>4.1513960099740455E-2</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="10"/>
+        <f>AE3-AE2</f>
         <v>0.83001552312735494</v>
       </c>
       <c r="AI3" s="5">
@@ -31923,15 +34247,15 @@
         <f t="shared" si="4"/>
         <v>-0.49826387140732603</v>
       </c>
-      <c r="AP3" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP3" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ3" s="5">
         <f>AM3/AL3</f>
         <v>1.2873799820723497</v>
       </c>
       <c r="AR3" s="5">
-        <f t="shared" ref="AR3:AR18" si="11">-1.386/(AE3+1.27)+0.03463</f>
+        <f t="shared" ref="AR3:AR18" si="10">-1.386/(AE3+1.27)+0.03463</f>
         <v>-0.62536512096859476</v>
       </c>
       <c r="AS3" s="5">
@@ -31939,24 +34263,24 @@
         <v>1.2752379238624807</v>
       </c>
       <c r="AT3" s="3">
-        <f t="shared" ref="AT3:AT18" si="12">(2*AQ3+3)/(3-AQ3)</f>
+        <f t="shared" ref="AT3:AT18" si="11">(2*AQ3+3)/(3-AQ3)</f>
         <v>3.2551061565252621</v>
       </c>
       <c r="AU3" s="3">
-        <f t="shared" ref="AU3:AU18" si="13">(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
-        <v>2.5654975550419137E-2</v>
+        <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>2.6095386909164242E-2</v>
       </c>
       <c r="AV3" s="3">
         <f>(AV2+AU3)</f>
-        <v>2.5654975550419137E-2</v>
+        <v>2.6095386909164242E-2</v>
       </c>
       <c r="AW3" s="3">
-        <f t="shared" ref="AW3:AW18" si="14">2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
-        <v>0.32785260842472591</v>
+        <f>2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
+        <v>0.333480756947444</v>
       </c>
       <c r="AX3" s="3">
         <f>AX2+AW3</f>
-        <v>0.32785260842472591</v>
+        <v>0.333480756947444</v>
       </c>
       <c r="AY3" s="5">
         <f t="shared" si="6"/>
@@ -32079,23 +34403,23 @@
         <v>-0.2739086469996419</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AG4:AH18" si="12">AD4-AD3</f>
         <v>-0.10846234978558161</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.92897934096094958</v>
       </c>
       <c r="AI4" s="5">
-        <f t="shared" ref="AI4:AI18" si="15">-AG4/AH4</f>
+        <f t="shared" ref="AI4:AI18" si="13">-AG4/AH4</f>
         <v>0.11675431842583991</v>
       </c>
       <c r="AJ4" s="5">
-        <f t="shared" ref="AJ4:AJ22" si="16">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <f t="shared" ref="AJ4:AJ18" si="14">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
         <v>6.9027102796889728E-2</v>
       </c>
       <c r="AK4" s="5">
-        <f t="shared" ref="AK4:AK18" si="17">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
+        <f t="shared" ref="AK4:AK18" si="15">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
         <v>-0.30138627592682421</v>
       </c>
       <c r="AL4">
@@ -32107,22 +34431,22 @@
         <v>105287.11828364999</v>
       </c>
       <c r="AN4" s="3">
-        <f t="shared" ref="AN4:AN18" si="18">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <f t="shared" ref="AN4:AN18" si="16">(-2*AJ4-3)/(-2*AJ4+6)</f>
         <v>-0.53532637722243648</v>
       </c>
       <c r="AO4">
         <f t="shared" si="4"/>
         <v>-0.40993239812470278</v>
       </c>
-      <c r="AP4" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP4" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ4" s="5">
-        <f t="shared" ref="AQ4:AQ18" si="19">AM4/AL4</f>
+        <f t="shared" ref="AQ4:AQ18" si="17">AM4/AL4</f>
         <v>1.3508682565092953</v>
       </c>
       <c r="AR4" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.42294753368724641</v>
       </c>
       <c r="AS4" s="5">
@@ -32130,24 +34454,24 @@
         <v>1.3451930606654177</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.4574172351747765</v>
       </c>
       <c r="AU4" s="3">
-        <f t="shared" si="13"/>
-        <v>-4.5342889089241251E-2</v>
+        <f t="shared" ref="AU4:AU18" si="18">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>-4.6121277022372412E-2</v>
       </c>
       <c r="AV4">
         <f>AV3+AU4</f>
-        <v>-1.9687913538822113E-2</v>
+        <v>-2.002589011320817E-2</v>
       </c>
       <c r="AW4" s="3">
-        <f t="shared" si="14"/>
-        <v>0.6568852994259573</v>
+        <f t="shared" ref="AW4:AW18" si="19">2*(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(9*AO4*AP4*AN4)</f>
+        <v>0.66816185459909772</v>
       </c>
       <c r="AX4">
         <f>AX3+AW4</f>
-        <v>0.98473790785068327</v>
+        <v>1.0016426115465418</v>
       </c>
       <c r="AY4" s="5">
         <f t="shared" si="6"/>
@@ -32263,23 +34587,23 @@
         <v>-0.72425681385628149</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.1897050536603837</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.98266550827721311</v>
       </c>
       <c r="AI5" s="5">
+        <f t="shared" si="13"/>
+        <v>0.19305150334722779</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f t="shared" si="14"/>
+        <v>0.15061010004477682</v>
+      </c>
+      <c r="AK5" s="5">
         <f t="shared" si="15"/>
-        <v>0.19305150334722779</v>
-      </c>
-      <c r="AJ5" s="5">
-        <f t="shared" si="16"/>
-        <v>0.15061010004477682</v>
-      </c>
-      <c r="AK5" s="5">
-        <f t="shared" si="17"/>
         <v>-0.15177106377303382</v>
       </c>
       <c r="AL5">
@@ -32291,22 +34615,22 @@
         <v>191961.85133899999</v>
       </c>
       <c r="AN5" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.5792854463584346</v>
       </c>
       <c r="AO5">
         <f t="shared" si="4"/>
         <v>-0.37788794896005345</v>
       </c>
-      <c r="AP5" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP5" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ5" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3710726704289367</v>
       </c>
       <c r="AR5" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.31086285606040875</v>
       </c>
       <c r="AS5" s="5">
@@ -32314,24 +34638,24 @@
         <v>1.3839597110598529</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.5251083560430665</v>
       </c>
       <c r="AU5" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.12700836493907189</v>
+        <f t="shared" si="18"/>
+        <v>-0.12918867988284879</v>
       </c>
       <c r="AV5">
         <f t="shared" ref="AV5:AV18" si="20">AV4+AU5</f>
-        <v>-0.14669627847789402</v>
+        <v>-0.14921456999605698</v>
       </c>
       <c r="AW5" s="3">
-        <f t="shared" si="14"/>
-        <v>0.84329248105745869</v>
+        <f t="shared" si="19"/>
+        <v>0.85776903304918251</v>
       </c>
       <c r="AX5">
         <f>AX4+AW5</f>
-        <v>1.828030388908142</v>
+        <v>1.8594116445957243</v>
       </c>
       <c r="AY5" s="5">
         <f t="shared" si="6"/>
@@ -32447,23 +34771,23 @@
         <v>-1.2712103219831641</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.24703598378463387</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0160193251756273</v>
       </c>
       <c r="AI6" s="5">
+        <f t="shared" si="13"/>
+        <v>0.24314102858420697</v>
+      </c>
+      <c r="AJ6" s="5">
+        <f t="shared" si="14"/>
+        <v>0.19611403615358708</v>
+      </c>
+      <c r="AK6" s="5">
         <f t="shared" si="15"/>
-        <v>0.24314102858420697</v>
-      </c>
-      <c r="AJ6" s="5">
-        <f t="shared" si="16"/>
-        <v>0.19611403615358708</v>
-      </c>
-      <c r="AK6" s="5">
-        <f t="shared" si="17"/>
         <v>-5.0695657991340543E-2</v>
       </c>
       <c r="AL6">
@@ -32475,22 +34799,22 @@
         <v>298529.42221550003</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.60491548444674703</v>
       </c>
       <c r="AO6">
         <f t="shared" si="4"/>
         <v>-0.35273449120561928</v>
       </c>
-      <c r="AP6" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP6" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ6" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3975043298953405</v>
       </c>
       <c r="AR6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.24104388597826376</v>
       </c>
       <c r="AS6" s="5">
@@ -32498,24 +34822,24 @@
         <v>1.4027928005972838</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6162398238568763</v>
       </c>
       <c r="AU6" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.20115929952771364</v>
+        <f t="shared" si="18"/>
+        <v>-0.2046125415803168</v>
       </c>
       <c r="AV6">
         <f t="shared" si="20"/>
-        <v>-0.34785557800560762</v>
+        <v>-0.35382711157637381</v>
       </c>
       <c r="AW6" s="3">
-        <f t="shared" si="14"/>
-        <v>1.0257261717370161</v>
+        <f t="shared" si="19"/>
+        <v>1.0433345088062649</v>
       </c>
       <c r="AX6">
         <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
-        <v>2.853756560645158</v>
+        <v>2.9027461534019894</v>
       </c>
       <c r="AY6" s="5">
         <f t="shared" si="6"/>
@@ -32631,23 +34955,23 @@
         <v>-1.8688193349356634</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.26559009549712131</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0353749253925004</v>
       </c>
       <c r="AI7" s="5">
+        <f t="shared" si="13"/>
+        <v>0.25651586587963654</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" si="14"/>
+        <v>0.22354859877542715</v>
+      </c>
+      <c r="AK7" s="5">
         <f t="shared" si="15"/>
-        <v>0.25651586587963654</v>
-      </c>
-      <c r="AJ7" s="5">
-        <f t="shared" si="16"/>
-        <v>0.22354859877542715</v>
-      </c>
-      <c r="AK7" s="5">
-        <f t="shared" si="17"/>
         <v>3.0398366953782174E-4</v>
       </c>
       <c r="AL7">
@@ -32659,22 +34983,22 @@
         <v>415580.73930900003</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.62077391234553725</v>
       </c>
       <c r="AO7">
         <f t="shared" si="4"/>
         <v>-0.33909220842703514</v>
       </c>
-      <c r="AP7" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP7" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ7" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.412331312531679</v>
       </c>
       <c r="AR7" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.19396764358514584</v>
       </c>
       <c r="AS7" s="5">
@@ -32682,24 +35006,24 @@
         <v>1.412244238624953</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6686889846969901</v>
       </c>
       <c r="AU7" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.25476029708728226</v>
+        <f t="shared" si="18"/>
+        <v>-0.2591336915726527</v>
       </c>
       <c r="AV7">
         <f t="shared" si="20"/>
-        <v>-0.60261587509288983</v>
+        <v>-0.61296080314902657</v>
       </c>
       <c r="AW7" s="3">
-        <f t="shared" si="14"/>
-        <v>1.1396192974719106</v>
+        <f t="shared" si="19"/>
+        <v>1.1591828040620988</v>
       </c>
       <c r="AX7">
         <f t="shared" si="21"/>
-        <v>3.9933758581170684</v>
+        <v>4.0619289574640884</v>
       </c>
       <c r="AY7" s="5">
         <f t="shared" si="6"/>
@@ -32815,23 +35139,23 @@
         <v>-2.5043783730969458</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.28154811881646502</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0418698530954273</v>
       </c>
       <c r="AI8" s="5">
+        <f t="shared" si="13"/>
+        <v>0.27023348259859609</v>
+      </c>
+      <c r="AJ8" s="5">
+        <f t="shared" si="14"/>
+        <v>0.24115524184089207</v>
+      </c>
+      <c r="AK8" s="5">
         <f t="shared" si="15"/>
-        <v>0.27023348259859609</v>
-      </c>
-      <c r="AJ8" s="5">
-        <f t="shared" si="16"/>
-        <v>0.24115524184089207</v>
-      </c>
-      <c r="AK8" s="5">
-        <f t="shared" si="17"/>
         <v>4.2741916863815621E-2</v>
       </c>
       <c r="AL8">
@@ -32843,22 +35167,22 @@
         <v>535462.88494200003</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.63111751275295069</v>
       </c>
       <c r="AO8">
         <f t="shared" si="4"/>
         <v>-0.33269875324107989</v>
       </c>
-      <c r="AP8" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP8" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ8" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.4178547208063292</v>
       </c>
       <c r="AR8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.16044596519094675</v>
       </c>
       <c r="AS8" s="5">
@@ -32866,24 +35190,24 @@
         <v>1.4170456005438337</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6884788763436358</v>
       </c>
       <c r="AU8" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.28580120833791106</v>
+        <f t="shared" si="18"/>
+        <v>-0.29070747294329813</v>
       </c>
       <c r="AV8">
         <f t="shared" si="20"/>
-        <v>-0.88841708343080095</v>
+        <v>-0.9036682760923247</v>
       </c>
       <c r="AW8" s="3">
-        <f t="shared" si="14"/>
-        <v>1.1851337178334083</v>
+        <f t="shared" si="19"/>
+        <v>1.2054785569832209</v>
       </c>
       <c r="AX8">
         <f t="shared" si="21"/>
-        <v>5.1785095759504767</v>
+        <v>5.2674075144473091</v>
       </c>
       <c r="AY8" s="5">
         <f t="shared" si="6"/>
@@ -32999,23 +35323,23 @@
         <v>-3.2331589809291033</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.35576656435839071</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0798336106357196</v>
       </c>
       <c r="AI9" s="5">
+        <f t="shared" si="13"/>
+        <v>0.32946424417086245</v>
+      </c>
+      <c r="AJ9" s="5">
+        <f t="shared" si="14"/>
+        <v>0.2530741301583202</v>
+      </c>
+      <c r="AK9" s="5">
         <f t="shared" si="15"/>
-        <v>0.32946424417086245</v>
-      </c>
-      <c r="AJ9" s="5">
-        <f t="shared" si="16"/>
-        <v>0.2530741301583202</v>
-      </c>
-      <c r="AK9" s="5">
-        <f t="shared" si="17"/>
         <v>0.12562206492201283</v>
       </c>
       <c r="AL9">
@@ -33027,22 +35351,22 @@
         <v>661076.72058750002</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.63819491796455341</v>
       </c>
       <c r="AO9">
         <f t="shared" si="4"/>
         <v>-0.32903541237434847</v>
       </c>
-      <c r="AP9" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP9" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ9" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.420428035919691</v>
       </c>
       <c r="AR9" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.13470915274278542</v>
       </c>
       <c r="AS9" s="5">
@@ -33050,24 +35374,24 @@
         <v>1.4191330265060642</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6977461012611514</v>
       </c>
       <c r="AU9" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.31637666197820641</v>
+        <f t="shared" si="18"/>
+        <v>-0.32180780633081862</v>
       </c>
       <c r="AV9">
         <f t="shared" si="20"/>
-        <v>-1.2047937454090074</v>
+        <v>-1.2254760824231434</v>
       </c>
       <c r="AW9" s="3">
-        <f t="shared" si="14"/>
-        <v>1.2501343451433964</v>
+        <f t="shared" si="19"/>
+        <v>1.2715950307899875</v>
       </c>
       <c r="AX9">
         <f t="shared" si="21"/>
-        <v>6.4286439210938733</v>
+        <v>6.5390025452372971</v>
       </c>
       <c r="AY9" s="5">
         <f t="shared" si="6"/>
@@ -33183,23 +35507,23 @@
         <v>-3.9494854512381692</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.33385016746023921</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0686120347696884</v>
       </c>
       <c r="AI10" s="5">
+        <f t="shared" si="13"/>
+        <v>0.31241475540015978</v>
+      </c>
+      <c r="AJ10" s="5">
+        <f t="shared" si="14"/>
+        <v>0.26042272095865437</v>
+      </c>
+      <c r="AK10" s="5">
         <f t="shared" si="15"/>
-        <v>0.31241475540015978</v>
-      </c>
-      <c r="AJ10" s="5">
-        <f t="shared" si="16"/>
-        <v>0.26042272095865437</v>
-      </c>
-      <c r="AK10" s="5">
-        <f t="shared" si="17"/>
         <v>0.1282502206012604</v>
       </c>
       <c r="AL10">
@@ -33211,22 +35535,22 @@
         <v>789525.62972299999</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.64258918134066112</v>
       </c>
       <c r="AO10">
         <f t="shared" si="4"/>
         <v>-0.32667587716310276</v>
       </c>
-      <c r="AP10" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP10" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ10" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.4222568698871758</v>
       </c>
       <c r="AR10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.11515326616515559</v>
       </c>
       <c r="AS10" s="5">
@@ -33234,24 +35558,24 @@
         <v>1.4190112686337439</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.7043506184409187</v>
       </c>
       <c r="AU10" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.33347335770748099</v>
+        <f t="shared" si="18"/>
+        <v>-0.33919799596662153</v>
       </c>
       <c r="AV10">
         <f t="shared" si="20"/>
-        <v>-1.5382671031164885</v>
+        <v>-1.564674078389765</v>
       </c>
       <c r="AW10" s="3">
-        <f t="shared" si="14"/>
-        <v>1.2805079237322943</v>
+        <f t="shared" si="19"/>
+        <v>1.3024900235969579</v>
       </c>
       <c r="AX10">
         <f t="shared" si="21"/>
-        <v>7.7091518448261676</v>
+        <v>7.8414925688342549</v>
       </c>
       <c r="AY10" s="5">
         <f t="shared" si="6"/>
@@ -33369,23 +35693,23 @@
         <v>-4.7216693480611109</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.36943729992481233</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0947098848993138</v>
       </c>
       <c r="AI11" s="5">
+        <f t="shared" si="13"/>
+        <v>0.33747507446577174</v>
+      </c>
+      <c r="AJ11" s="5">
+        <f t="shared" si="14"/>
+        <v>0.26631968493137675</v>
+      </c>
+      <c r="AK11" s="5">
         <f t="shared" si="15"/>
-        <v>0.33747507446577174</v>
-      </c>
-      <c r="AJ11" s="5">
-        <f t="shared" si="16"/>
-        <v>0.26631968493137675</v>
-      </c>
-      <c r="AK11" s="5">
-        <f t="shared" si="17"/>
         <v>0.16931188578909095</v>
       </c>
       <c r="AL11">
@@ -33397,22 +35721,22 @@
         <v>908337.65375849989</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.64613249588660737</v>
       </c>
       <c r="AO11">
         <f t="shared" si="4"/>
         <v>-0.32898221858673804</v>
       </c>
-      <c r="AP11" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP11" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ11" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.415398512864448</v>
       </c>
       <c r="AR11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-9.9307889830176577E-2</v>
       </c>
       <c r="AS11" s="5">
@@ -33420,24 +35744,24 @@
         <v>1.4188552988465042</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6796614625605928</v>
       </c>
       <c r="AU11" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.32732298573791724</v>
+        <f t="shared" si="18"/>
+        <v>-0.33294204238500047</v>
       </c>
       <c r="AV11">
         <f t="shared" si="20"/>
-        <v>-1.8655900888544057</v>
+        <v>-1.8976161207747655</v>
       </c>
       <c r="AW11" s="3">
-        <f t="shared" si="14"/>
-        <v>1.2290604272164845</v>
+        <f t="shared" si="19"/>
+        <v>1.2501593431622999</v>
       </c>
       <c r="AX11">
         <f t="shared" si="21"/>
-        <v>8.9382122720426516</v>
+        <v>9.0916519119965553</v>
       </c>
       <c r="AY11" s="5">
         <f t="shared" si="6"/>
@@ -33547,23 +35871,23 @@
         <v>-5.4578106515442402</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.32526346269670325</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0770213540860425</v>
       </c>
       <c r="AI12" s="5">
+        <f t="shared" si="13"/>
+        <v>0.30200279823859294</v>
+      </c>
+      <c r="AJ12" s="5">
+        <f t="shared" si="14"/>
+        <v>0.27030880695477688</v>
+      </c>
+      <c r="AK12" s="5">
         <f t="shared" si="15"/>
-        <v>0.30200279823859294</v>
-      </c>
-      <c r="AJ12" s="5">
-        <f t="shared" si="16"/>
-        <v>0.27030880695477688</v>
-      </c>
-      <c r="AK12" s="5">
-        <f t="shared" si="17"/>
         <v>0.14729969667299786</v>
       </c>
       <c r="AL12">
@@ -33575,22 +35899,22 @@
         <v>1022015.2196169998</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.6485381245560724</v>
       </c>
       <c r="AO12">
         <f t="shared" si="4"/>
         <v>-0.33197451632078612</v>
       </c>
-      <c r="AP12" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP12" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ12" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.4079733778806431</v>
       </c>
       <c r="AR12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-8.6681834016511E-2</v>
       </c>
       <c r="AS12" s="5">
@@ -33598,24 +35922,24 @@
         <v>1.4180212675490842</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6531717968503012</v>
       </c>
       <c r="AU12" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.32046862269605841</v>
+        <f t="shared" si="18"/>
+        <v>-0.3259700125250749</v>
       </c>
       <c r="AV12">
         <f t="shared" si="20"/>
-        <v>-2.1860587115504639</v>
+        <v>-2.2235861332998406</v>
       </c>
       <c r="AW12" s="3">
-        <f t="shared" si="14"/>
-        <v>1.1855648593413139</v>
+        <f t="shared" si="19"/>
+        <v>1.2059170997695623</v>
       </c>
       <c r="AX12">
         <f t="shared" si="21"/>
-        <v>10.123777131383966</v>
+        <v>10.297569011766118</v>
       </c>
       <c r="AY12" s="5">
         <f t="shared" si="6"/>
@@ -33725,23 +36049,23 @@
         <v>-6.2469184175261363</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.36627277792642277</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0963640506606325</v>
       </c>
       <c r="AI13" s="5">
+        <f t="shared" si="13"/>
+        <v>0.33407952194868024</v>
+      </c>
+      <c r="AJ13" s="5">
+        <f t="shared" si="14"/>
+        <v>0.273688726851683</v>
+      </c>
+      <c r="AK13" s="5">
         <f t="shared" si="15"/>
-        <v>0.33407952194868024</v>
-      </c>
-      <c r="AJ13" s="5">
-        <f t="shared" si="16"/>
-        <v>0.273688726851683</v>
-      </c>
-      <c r="AK13" s="5">
-        <f t="shared" si="17"/>
         <v>0.19067598618298803</v>
       </c>
       <c r="AL13">
@@ -33753,22 +36077,22 @@
         <v>1126362.078</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.65058188487899438</v>
       </c>
       <c r="AO13">
         <f t="shared" si="4"/>
         <v>-0.33639383412463886</v>
       </c>
-      <c r="AP13" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP13" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ13" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3980944953263841</v>
       </c>
       <c r="AR13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-7.6059919619398869E-2</v>
       </c>
       <c r="AS13" s="5">
@@ -33776,24 +36100,24 @@
         <v>1.4173436161462933</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6183089287989718</v>
       </c>
       <c r="AU13" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.30492335488468508</v>
+        <f t="shared" si="18"/>
+        <v>-0.31015788371025194</v>
       </c>
       <c r="AV13">
         <f t="shared" si="20"/>
-        <v>-2.4909820664351492</v>
+        <v>-2.5337440170100924</v>
       </c>
       <c r="AW13" s="3">
-        <f t="shared" si="14"/>
-        <v>1.1141246422251392</v>
+        <f t="shared" si="19"/>
+        <v>1.1332504896277011</v>
       </c>
       <c r="AX13">
         <f t="shared" si="21"/>
-        <v>11.237901773609105</v>
+        <v>11.430819501393819</v>
       </c>
       <c r="AY13" s="5">
         <f t="shared" si="6"/>
@@ -33903,23 +36227,23 @@
         <v>-7.3070384102308132</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.62058350174405508</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1877356217348929</v>
       </c>
       <c r="AI14" s="5">
+        <f t="shared" si="13"/>
+        <v>0.52249296088096253</v>
+      </c>
+      <c r="AJ14" s="5">
+        <f t="shared" si="14"/>
+        <v>0.27829925934750188</v>
+      </c>
+      <c r="AK14" s="5">
         <f t="shared" si="15"/>
-        <v>0.52249296088096253</v>
-      </c>
-      <c r="AJ14" s="5">
-        <f t="shared" si="16"/>
-        <v>0.27829925934750188</v>
-      </c>
-      <c r="AK14" s="5">
-        <f t="shared" si="17"/>
         <v>0.38773218416860855</v>
       </c>
       <c r="AL14">
@@ -33931,22 +36255,22 @@
         <v>1207918.70438</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.653377953272399</v>
       </c>
       <c r="AO14">
         <f t="shared" si="4"/>
         <v>-0.343039367713462</v>
       </c>
-      <c r="AP14" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP14" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ14" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3836680388222149</v>
       </c>
       <c r="AR14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-6.6469983621455925E-2</v>
       </c>
       <c r="AS14" s="5">
@@ -33954,24 +36278,24 @@
         <v>1.4182907930908981</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.5681631101583244</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="13"/>
-        <v>-0.25834242263852725</v>
+        <f t="shared" si="18"/>
+        <v>-0.26277731041115959</v>
       </c>
       <c r="AV14">
         <f t="shared" si="20"/>
-        <v>-2.7493244890736763</v>
+        <v>-2.7965213274212521</v>
       </c>
       <c r="AW14" s="3">
-        <f t="shared" si="14"/>
-        <v>0.92829001142236178</v>
+        <f t="shared" si="19"/>
+        <v>0.94422569081665964</v>
       </c>
       <c r="AX14">
         <f t="shared" si="21"/>
-        <v>12.166191785031467</v>
+        <v>12.375045192210479</v>
       </c>
       <c r="AY14" s="5">
         <f t="shared" si="6"/>
@@ -34081,23 +36405,23 @@
         <v>-9.1556358462620757</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.357118686405768</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.449766954427087</v>
       </c>
       <c r="AI15" s="5">
+        <f t="shared" si="13"/>
+        <v>0.93609437176202481</v>
+      </c>
+      <c r="AJ15" s="5">
+        <f t="shared" si="14"/>
+        <v>0.29045679482624015</v>
+      </c>
+      <c r="AK15" s="5">
         <f t="shared" si="15"/>
-        <v>0.93609437176202481</v>
-      </c>
-      <c r="AJ15" s="5">
-        <f t="shared" si="16"/>
-        <v>0.29045679482624015</v>
-      </c>
-      <c r="AK15" s="5">
-        <f t="shared" si="17"/>
         <v>0.80253855866486712</v>
       </c>
       <c r="AL15">
@@ -34109,22 +36433,22 @@
         <v>1180897.7034100001</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.66079654733219884</v>
       </c>
       <c r="AO15">
         <f t="shared" si="4"/>
         <v>-0.36590729070267369</v>
       </c>
-      <c r="AP15" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP15" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3376103702952749</v>
       </c>
       <c r="AR15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-5.6801026245237009E-2</v>
       </c>
       <c r="AS15" s="5">
@@ -34132,24 +36456,24 @@
         <v>1.4267547868519208</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.4138932529304737</v>
       </c>
       <c r="AU15" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.7800400099274468E-2</v>
+        <f t="shared" si="18"/>
+        <v>-3.8449308360212486E-2</v>
       </c>
       <c r="AV15">
         <f t="shared" si="20"/>
-        <v>-2.7871248891729508</v>
+        <v>-2.8349706357814646</v>
       </c>
       <c r="AW15" s="3">
-        <f t="shared" si="14"/>
-        <v>0.13014121470936077</v>
+        <f t="shared" si="19"/>
+        <v>0.1323753103562752</v>
       </c>
       <c r="AX15">
         <f t="shared" si="21"/>
-        <v>12.296332999740828</v>
+        <v>12.507420502566754</v>
       </c>
       <c r="AY15" s="5">
         <f t="shared" si="6"/>
@@ -34259,23 +36583,23 @@
         <v>-10.865474994573788</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.1448073434089707</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.401601349770571</v>
       </c>
       <c r="AI16" s="5">
+        <f t="shared" si="13"/>
+        <v>0.81678527464058515</v>
+      </c>
+      <c r="AJ16" s="5">
+        <f t="shared" si="14"/>
+        <v>0.31046726145566034</v>
+      </c>
+      <c r="AK16" s="5">
         <f t="shared" si="15"/>
-        <v>0.81678527464058515</v>
-      </c>
-      <c r="AJ16" s="5">
-        <f t="shared" si="16"/>
-        <v>0.31046726145566034</v>
-      </c>
-      <c r="AK16" s="5">
-        <f t="shared" si="17"/>
         <v>0.67391325842643168</v>
       </c>
       <c r="AL16">
@@ -34287,22 +36611,22 @@
         <v>1006022.2265975</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.6731530854818828</v>
       </c>
       <c r="AO16">
         <f t="shared" si="4"/>
         <v>-0.42074805246510405</v>
       </c>
-      <c r="AP16" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP16" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.242589837405389</v>
       </c>
       <c r="AR16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-4.9062774789068821E-2</v>
       </c>
       <c r="AS16" s="5">
@@ -34310,24 +36634,24 @@
         <v>1.4438092414250847</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.1211721609214726</v>
       </c>
       <c r="AU16" s="3">
-        <f t="shared" si="13"/>
-        <v>0.27286304986498744</v>
+        <f t="shared" si="18"/>
+        <v>0.27754720893994744</v>
       </c>
       <c r="AV16">
         <f t="shared" si="20"/>
-        <v>-2.5142618393079634</v>
+        <v>-2.5574234268415172</v>
       </c>
       <c r="AW16" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.87887865723953851</v>
+        <f t="shared" si="19"/>
+        <v>-0.89396610656671649</v>
       </c>
       <c r="AX16">
         <f t="shared" si="21"/>
-        <v>11.417454342501291</v>
+        <v>11.613454396000037</v>
       </c>
       <c r="AY16" s="5">
         <f t="shared" si="6"/>
@@ -34437,23 +36761,23 @@
         <v>-12.938143728219952</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.5444536072413424</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5250760460487225</v>
       </c>
       <c r="AI17" s="5">
+        <f t="shared" si="13"/>
+        <v>1.0127059639044391</v>
+      </c>
+      <c r="AJ17" s="5">
+        <f t="shared" si="14"/>
+        <v>0.32421978354822667</v>
+      </c>
+      <c r="AK17" s="5">
         <f t="shared" si="15"/>
-        <v>1.0127059639044391</v>
-      </c>
-      <c r="AJ17" s="5">
-        <f t="shared" si="16"/>
-        <v>0.32421978354822667</v>
-      </c>
-      <c r="AK17" s="5">
-        <f t="shared" si="17"/>
         <v>0.86583476862224251</v>
       </c>
       <c r="AL17">
@@ -34465,22 +36789,22 @@
         <v>938083.18646650005</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.68175247441183295</v>
       </c>
       <c r="AO17">
         <f t="shared" si="4"/>
         <v>-0.44561755205744158</v>
       </c>
-      <c r="AP17" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP17" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ17" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.2023515721906852</v>
       </c>
       <c r="AR17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-4.2005363049182322E-2</v>
       </c>
       <c r="AS17" s="5">
@@ -34488,24 +36812,24 @@
         <v>1.4548658322330144</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.0065406899210845</v>
       </c>
       <c r="AU17" s="3">
-        <f t="shared" si="13"/>
-        <v>0.1097029598576225</v>
+        <f t="shared" si="18"/>
+        <v>0.11158619804330325</v>
       </c>
       <c r="AV17">
         <f t="shared" si="20"/>
-        <v>-2.4045588794503407</v>
+        <v>-2.4458372287982142</v>
       </c>
       <c r="AW17" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.33835985780091848</v>
+        <f t="shared" si="19"/>
+        <v>-0.34416838115834836</v>
       </c>
       <c r="AX17">
         <f t="shared" si="21"/>
-        <v>11.079094484700372</v>
+        <v>11.269286014841688</v>
       </c>
       <c r="AY17" s="5">
         <f t="shared" si="6"/>
@@ -34615,23 +36939,23 @@
         <v>-14.284694887913385</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.80893393533135161</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2816061949811441</v>
       </c>
       <c r="AI18" s="5">
+        <f t="shared" si="13"/>
+        <v>0.63118759764051635</v>
+      </c>
+      <c r="AJ18" s="5">
+        <f t="shared" si="14"/>
+        <v>0.33679951444171963</v>
+      </c>
+      <c r="AK18" s="5">
         <f t="shared" si="15"/>
-        <v>0.63118759764051635</v>
-      </c>
-      <c r="AJ18" s="5">
-        <f t="shared" si="16"/>
-        <v>0.33679951444171963</v>
-      </c>
-      <c r="AK18" s="5">
-        <f t="shared" si="17"/>
         <v>0.47874515191389477</v>
       </c>
       <c r="AL18">
@@ -34643,22 +36967,22 @@
         <v>853260.32899850002</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.68969629751951456</v>
       </c>
       <c r="AO18">
         <f t="shared" si="4"/>
         <v>-0.48167166372409875</v>
       </c>
-      <c r="AP18" s="3">
-        <v>64071.330653885612</v>
+      <c r="AP18" s="6">
+        <v>62990</v>
       </c>
       <c r="AQ18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.1512965760359233</v>
       </c>
       <c r="AR18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-3.6934103679379125E-2</v>
       </c>
       <c r="AS18" s="5">
@@ -34666,28 +36990,121 @@
         <v>1.4655083420472426</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.8682768059691139</v>
       </c>
       <c r="AU18" s="3">
-        <f t="shared" si="13"/>
-        <v>0.14307499247322211</v>
+        <f t="shared" si="18"/>
+        <v>0.14553111844823</v>
       </c>
       <c r="AV18">
         <f t="shared" si="20"/>
-        <v>-2.2614838869771186</v>
+        <v>-2.3003061103499842</v>
       </c>
       <c r="AW18" s="3">
-        <f t="shared" si="14"/>
-        <v>-0.42480759721516803</v>
+        <f t="shared" si="19"/>
+        <v>-0.4321001432839448</v>
       </c>
       <c r="AX18">
         <f t="shared" si="21"/>
-        <v>10.654286887485204</v>
+        <v>10.837185871557743</v>
       </c>
       <c r="AY18" s="5">
         <f t="shared" si="6"/>
         <v>1029.2702145734695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="W19" s="5">
+        <f>MIN(W2:W18)</f>
+        <v>4.21834734761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="W20" s="5"/>
+    </row>
+    <row r="49" spans="39:41" x14ac:dyDescent="0.25">
+      <c r="AM49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="39:41" x14ac:dyDescent="0.25">
+      <c r="AM50">
+        <f>53/232</f>
+        <v>0.22844827586206898</v>
+      </c>
+      <c r="AN50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO50">
+        <f>6.299*AM50^0.7055</f>
+        <v>2.2227799004587805</v>
+      </c>
+    </row>
+    <row r="51" spans="39:41" x14ac:dyDescent="0.25">
+      <c r="AM51">
+        <v>0.5</v>
+      </c>
+      <c r="AN51">
+        <v>3.7</v>
+      </c>
+      <c r="AO51" s="5">
+        <f t="shared" ref="AO51:AO55" si="22">6.299*AM51^0.7055</f>
+        <v>3.862735281816283</v>
+      </c>
+    </row>
+    <row r="52" spans="39:41" x14ac:dyDescent="0.25">
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>5.8</v>
+      </c>
+      <c r="AO52" s="5">
+        <f t="shared" si="22"/>
+        <v>6.2990000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="39:41" x14ac:dyDescent="0.25">
+      <c r="AM53">
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <v>10.6</v>
+      </c>
+      <c r="AO53" s="5">
+        <f t="shared" si="22"/>
+        <v>10.271840575454458</v>
+      </c>
+    </row>
+    <row r="54" spans="39:41" x14ac:dyDescent="0.25">
+      <c r="AM54">
+        <v>3</v>
+      </c>
+      <c r="AN54">
+        <v>13.6</v>
+      </c>
+      <c r="AO54" s="5">
+        <f t="shared" si="22"/>
+        <v>13.673530180418981</v>
+      </c>
+    </row>
+    <row r="55" spans="39:41" x14ac:dyDescent="0.25">
+      <c r="AM55" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN55" s="5">
+        <v>16.7</v>
+      </c>
+      <c r="AO55" s="5">
+        <f t="shared" si="22"/>
+        <v>16.750390348873246</v>
       </c>
     </row>
   </sheetData>
